--- a/Burst-Detection/压力数据.xlsx
+++ b/Burst-Detection/压力数据.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="平滑降噪" sheetId="1" r:id="rId1"/>
+    <sheet name="平滑" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="36">
   <si>
     <t>压力变化阈值</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -112,12 +113,46 @@
     <t>平滑以后（最大值）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>NO.1</t>
+  </si>
+  <si>
+    <t>NO.2</t>
+  </si>
+  <si>
+    <t>平均值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平滑以后（最大值）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个/1分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个/2分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个/3分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,8 +174,35 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,8 +233,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -217,11 +291,252 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -247,6 +562,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -529,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3111,6 +3537,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A7:A17"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="A54:A63"/>
     <mergeCell ref="A43:A52"/>
@@ -3123,24 +3567,2078 @@
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A7:A17"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XFD52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17 16384:16384" x14ac:dyDescent="0.2">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+    </row>
+    <row r="2" spans="1:17 16384:16384" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+    </row>
+    <row r="3" spans="1:17 16384:16384" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+    </row>
+    <row r="4" spans="1:17 16384:16384" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="XFD4" t="e">
+        <f>AVERAGE(A4:XFC4)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+    </row>
+    <row r="6" spans="1:17 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+    </row>
+    <row r="7" spans="1:17 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+    </row>
+    <row r="8" spans="1:17 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+    </row>
+    <row r="9" spans="1:17 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+    </row>
+    <row r="10" spans="1:17 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+    </row>
+    <row r="11" spans="1:17 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+    </row>
+    <row r="12" spans="1:17 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+    </row>
+    <row r="13" spans="1:17 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+    </row>
+    <row r="14" spans="1:17 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+    </row>
+    <row r="15" spans="1:17 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+    </row>
+    <row r="16" spans="1:17 16384:16384" x14ac:dyDescent="0.2">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+    </row>
+    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="R18" s="11"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C19" s="39">
+        <f>AVERAGE(D19:R19)</f>
+        <v>-9.2571428571428568E-2</v>
+      </c>
+      <c r="D19" s="40">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="E19" s="41">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="F19" s="41">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+      <c r="G19" s="41">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+      <c r="H19" s="41">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+      <c r="I19" s="41">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+      <c r="J19" s="42">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+      <c r="K19" s="40">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+      <c r="L19" s="41">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="M19" s="41">
+        <v>-8.7999999999999995E-2</v>
+      </c>
+      <c r="N19" s="41">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="O19" s="41">
+        <v>-8.7999999999999995E-2</v>
+      </c>
+      <c r="P19" s="41">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+      <c r="Q19" s="43">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="47">
+        <v>0.500000000000001</v>
+      </c>
+      <c r="E21" s="52">
+        <v>0.56000000000000105</v>
+      </c>
+      <c r="F21" s="47">
+        <v>0.44</v>
+      </c>
+      <c r="G21" s="47">
+        <v>0.46</v>
+      </c>
+      <c r="H21" s="47">
+        <v>0.42</v>
+      </c>
+      <c r="I21" s="47">
+        <v>0.81327212020033501</v>
+      </c>
+      <c r="J21" s="47">
+        <v>0.500000000000001</v>
+      </c>
+      <c r="K21" s="47">
+        <v>0.82696160267111896</v>
+      </c>
+      <c r="L21" s="47">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M21" s="47">
+        <v>0.500000000000001</v>
+      </c>
+      <c r="N21" s="47">
+        <v>0.82821368948247198</v>
+      </c>
+      <c r="O21" s="47">
+        <v>0.89916527545909997</v>
+      </c>
+      <c r="P21" s="47">
+        <v>0.48000000000000098</v>
+      </c>
+      <c r="Q21" s="50">
+        <v>0.44</v>
+      </c>
+      <c r="R21" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="28"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="48">
+        <v>0.36</v>
+      </c>
+      <c r="E22" s="53">
+        <v>0.24</v>
+      </c>
+      <c r="F22" s="48">
+        <v>0.24</v>
+      </c>
+      <c r="G22" s="48">
+        <v>0.24</v>
+      </c>
+      <c r="H22" s="48">
+        <v>0.24</v>
+      </c>
+      <c r="I22" s="48">
+        <v>0.42737896494157002</v>
+      </c>
+      <c r="J22" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="K22" s="48">
+        <v>0.32737896494156998</v>
+      </c>
+      <c r="L22" s="48">
+        <v>0.39999999999999902</v>
+      </c>
+      <c r="M22" s="48">
+        <v>0.22</v>
+      </c>
+      <c r="N22" s="48">
+        <v>0.385058430717864</v>
+      </c>
+      <c r="O22" s="48">
+        <v>0.398747913188648</v>
+      </c>
+      <c r="P22" s="48">
+        <v>0.26</v>
+      </c>
+      <c r="Q22" s="51">
+        <v>0.2</v>
+      </c>
+      <c r="R22" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="28"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="48">
+        <v>0.44</v>
+      </c>
+      <c r="E23" s="53">
+        <v>0.2</v>
+      </c>
+      <c r="F23" s="48">
+        <v>0.24</v>
+      </c>
+      <c r="G23" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="H23" s="48">
+        <v>0.18</v>
+      </c>
+      <c r="I23" s="48">
+        <v>0.41327212020033399</v>
+      </c>
+      <c r="J23" s="48">
+        <v>1.34</v>
+      </c>
+      <c r="K23" s="48">
+        <v>0.356844741235393</v>
+      </c>
+      <c r="L23" s="48">
+        <v>0.24</v>
+      </c>
+      <c r="M23" s="48">
+        <v>0.18</v>
+      </c>
+      <c r="N23" s="48">
+        <v>0.31535893155258798</v>
+      </c>
+      <c r="O23" s="48">
+        <v>0.42779632721202099</v>
+      </c>
+      <c r="P23" s="48">
+        <v>0.24</v>
+      </c>
+      <c r="Q23" s="51">
+        <v>0.18</v>
+      </c>
+      <c r="R23" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="28"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="48">
+        <v>0.26</v>
+      </c>
+      <c r="E24" s="53">
+        <v>0.3</v>
+      </c>
+      <c r="F24" s="48">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G24" s="48">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H24" s="48">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I24" s="48">
+        <v>0.45642737896494201</v>
+      </c>
+      <c r="J24" s="48">
+        <v>0.58000000000000096</v>
+      </c>
+      <c r="K24" s="48">
+        <v>0.484641068447413</v>
+      </c>
+      <c r="L24" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="M24" s="48">
+        <v>0.26</v>
+      </c>
+      <c r="N24" s="48">
+        <v>0.54148580968280502</v>
+      </c>
+      <c r="O24" s="48">
+        <v>0.44190317195325601</v>
+      </c>
+      <c r="P24" s="48">
+        <v>0.26</v>
+      </c>
+      <c r="Q24" s="51">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R24" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="28"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="48">
+        <v>0.26</v>
+      </c>
+      <c r="E25" s="53">
+        <v>0.24</v>
+      </c>
+      <c r="F25" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G25" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I25" s="48">
+        <v>0.32737896494156998</v>
+      </c>
+      <c r="J25" s="48">
+        <v>0.22</v>
+      </c>
+      <c r="K25" s="48">
+        <v>0.142737896494157</v>
+      </c>
+      <c r="L25" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M25" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="N25" s="48">
+        <v>0.32696160267111901</v>
+      </c>
+      <c r="O25" s="48">
+        <v>0.143155258764608</v>
+      </c>
+      <c r="P25" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q25" s="51">
+        <v>0.18</v>
+      </c>
+      <c r="R25" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="28"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="21">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="E26" s="22">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="F26" s="21">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="G26" s="48">
+        <v>0.16</v>
+      </c>
+      <c r="H26" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="I26" s="48">
+        <v>0.20041736227045101</v>
+      </c>
+      <c r="J26" s="21">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="K26" s="48">
+        <v>0.128631051752922</v>
+      </c>
+      <c r="L26" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="M26" s="21">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="N26" s="48">
+        <v>0.141485809682805</v>
+      </c>
+      <c r="O26" s="48">
+        <v>0.18384059062299701</v>
+      </c>
+      <c r="P26" s="48">
+        <v>0.16</v>
+      </c>
+      <c r="Q26" s="23">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="R26" s="59">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="28"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="E27" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F27" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G27" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="H27" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="I27" s="48">
+        <v>0.128213689482471</v>
+      </c>
+      <c r="J27" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K27" s="48">
+        <v>0.15726210350584299</v>
+      </c>
+      <c r="L27" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M27" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N27" s="48">
+        <v>0.18547579298831399</v>
+      </c>
+      <c r="O27" s="48">
+        <v>0.15684474123539299</v>
+      </c>
+      <c r="P27" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="Q27" s="51">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R27" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="28"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="E28" s="22">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="F28" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="H28" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I28" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="J28" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K28" s="48">
+        <v>0.21410684474123601</v>
+      </c>
+      <c r="L28" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="M28" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="N28" s="48">
+        <v>0.128631051752922</v>
+      </c>
+      <c r="O28" s="48">
+        <v>0.15684474123539299</v>
+      </c>
+      <c r="P28" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="Q28" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="R28" s="60">
+        <v>0.92900000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="28"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E29" s="22">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="F29" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G29" s="21">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="H29" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="I29" s="48">
+        <v>0.17095158597662799</v>
+      </c>
+      <c r="J29" s="21">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="K29" s="48">
+        <v>0.18547579298831399</v>
+      </c>
+      <c r="L29" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M29" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="N29" s="48">
+        <v>0.17053422370617699</v>
+      </c>
+      <c r="O29" s="48">
+        <v>0.15684474123539299</v>
+      </c>
+      <c r="P29" s="21">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="Q29" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="R29" s="60">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="28"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="E30" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="F30" s="49">
+        <v>0.12</v>
+      </c>
+      <c r="G30" s="25">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="H30" s="49">
+        <v>0.12</v>
+      </c>
+      <c r="I30" s="49">
+        <v>0.114524207011686</v>
+      </c>
+      <c r="J30" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="K30" s="49">
+        <v>0.114524207011686</v>
+      </c>
+      <c r="L30" s="49">
+        <v>0.12</v>
+      </c>
+      <c r="M30" s="25">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="N30" s="49">
+        <v>0.129048414023372</v>
+      </c>
+      <c r="O30" s="49">
+        <v>0.128631051752922</v>
+      </c>
+      <c r="P30" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="Q30" s="26">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="R30" s="60">
+        <v>0.78600000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="28"/>
+      <c r="B31" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="64"/>
+      <c r="D31" s="56">
+        <v>0.875</v>
+      </c>
+      <c r="E31" s="56">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="F31" s="56">
+        <v>0.875</v>
+      </c>
+      <c r="G31" s="57">
+        <v>0.75</v>
+      </c>
+      <c r="H31" s="57">
+        <v>1</v>
+      </c>
+      <c r="I31" s="57">
+        <v>1</v>
+      </c>
+      <c r="J31" s="57">
+        <v>0.75</v>
+      </c>
+      <c r="K31" s="57">
+        <v>1</v>
+      </c>
+      <c r="L31" s="57">
+        <v>1</v>
+      </c>
+      <c r="M31" s="57">
+        <v>0.75</v>
+      </c>
+      <c r="N31" s="57">
+        <v>1</v>
+      </c>
+      <c r="O31" s="57">
+        <v>1</v>
+      </c>
+      <c r="P31" s="56">
+        <v>0.875</v>
+      </c>
+      <c r="Q31" s="57">
+        <v>0.75</v>
+      </c>
+      <c r="R31" s="65"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="28"/>
+      <c r="B32" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="47">
+        <v>0.56000000000000105</v>
+      </c>
+      <c r="F32" s="47">
+        <v>0.44</v>
+      </c>
+      <c r="G32" s="47">
+        <v>0.46</v>
+      </c>
+      <c r="H32" s="47">
+        <v>0.42</v>
+      </c>
+      <c r="I32" s="47">
+        <v>0.81327212020033501</v>
+      </c>
+      <c r="J32" s="47">
+        <v>0.500000000000001</v>
+      </c>
+      <c r="K32" s="47">
+        <v>0.82696160267111896</v>
+      </c>
+      <c r="L32" s="47">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M32" s="47">
+        <v>0.46000000000000102</v>
+      </c>
+      <c r="N32" s="47">
+        <v>0.61368948247078503</v>
+      </c>
+      <c r="O32" s="47">
+        <v>0.75684474123539303</v>
+      </c>
+      <c r="P32" s="47">
+        <v>0.48000000000000098</v>
+      </c>
+      <c r="Q32" s="50">
+        <v>0.4</v>
+      </c>
+      <c r="R32" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="28"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="46">
+        <v>0.26</v>
+      </c>
+      <c r="E33" s="48">
+        <v>0.22</v>
+      </c>
+      <c r="F33" s="48">
+        <v>0.24</v>
+      </c>
+      <c r="G33" s="48">
+        <v>0.24</v>
+      </c>
+      <c r="H33" s="48">
+        <v>0.24</v>
+      </c>
+      <c r="I33" s="48">
+        <v>0.38631051752921602</v>
+      </c>
+      <c r="J33" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="K33" s="48">
+        <v>0.243155258764608</v>
+      </c>
+      <c r="L33" s="48">
+        <v>0.26</v>
+      </c>
+      <c r="M33" s="48">
+        <v>0.22</v>
+      </c>
+      <c r="N33" s="48">
+        <v>0.385058430717864</v>
+      </c>
+      <c r="O33" s="48">
+        <v>0.398747913188648</v>
+      </c>
+      <c r="P33" s="48">
+        <v>0.26</v>
+      </c>
+      <c r="Q33" s="51">
+        <v>0.18</v>
+      </c>
+      <c r="R33" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="28"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="46">
+        <v>0.34</v>
+      </c>
+      <c r="E34" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="F34" s="48">
+        <v>0.16</v>
+      </c>
+      <c r="G34" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="H34" s="48">
+        <v>0.18</v>
+      </c>
+      <c r="I34" s="48">
+        <v>0.37178631051753003</v>
+      </c>
+      <c r="J34" s="48">
+        <v>1.3</v>
+      </c>
+      <c r="K34" s="48">
+        <v>0.356844741235393</v>
+      </c>
+      <c r="L34" s="48">
+        <v>0.24</v>
+      </c>
+      <c r="M34" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="N34" s="48">
+        <v>0.270116861435726</v>
+      </c>
+      <c r="O34" s="48">
+        <v>0.42779632721202099</v>
+      </c>
+      <c r="P34" s="48">
+        <v>0.24</v>
+      </c>
+      <c r="Q34" s="51">
+        <v>0.18</v>
+      </c>
+      <c r="R34" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="28"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="46">
+        <v>0.26</v>
+      </c>
+      <c r="E35" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="F35" s="48">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G35" s="48">
+        <v>0.24</v>
+      </c>
+      <c r="H35" s="48">
+        <v>0.24</v>
+      </c>
+      <c r="I35" s="48">
+        <v>0.39958263772954999</v>
+      </c>
+      <c r="J35" s="48">
+        <v>0.58000000000000096</v>
+      </c>
+      <c r="K35" s="48">
+        <v>0.4</v>
+      </c>
+      <c r="L35" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="M35" s="48">
+        <v>0.26</v>
+      </c>
+      <c r="N35" s="48">
+        <v>0.54148580968280502</v>
+      </c>
+      <c r="O35" s="48">
+        <v>0.44190317195325601</v>
+      </c>
+      <c r="P35" s="48">
+        <v>0.24</v>
+      </c>
+      <c r="Q35" s="51">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R35" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="28"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="46">
+        <v>0.26</v>
+      </c>
+      <c r="E36" s="48">
+        <v>0.24</v>
+      </c>
+      <c r="F36" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G36" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H36" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I36" s="48">
+        <v>0.32737896494156998</v>
+      </c>
+      <c r="J36" s="48">
+        <v>0.22</v>
+      </c>
+      <c r="K36" s="48">
+        <v>0.142737896494157</v>
+      </c>
+      <c r="L36" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M36" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="N36" s="48">
+        <v>0.258096828046745</v>
+      </c>
+      <c r="O36" s="48">
+        <v>0.143155258764608</v>
+      </c>
+      <c r="P36" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="Q36" s="51">
+        <v>0.18</v>
+      </c>
+      <c r="R36" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="28"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="44">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="E37" s="21">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="F37" s="21">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="G37" s="48">
+        <v>0.16</v>
+      </c>
+      <c r="H37" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="I37" s="48">
+        <v>0.20041736227045101</v>
+      </c>
+      <c r="J37" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="K37" s="21">
+        <v>8.5475792988313995E-2</v>
+      </c>
+      <c r="L37" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="M37" s="21">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="N37" s="48">
+        <v>0.141485809682805</v>
+      </c>
+      <c r="O37" s="48">
+        <v>0.18384059062299701</v>
+      </c>
+      <c r="P37" s="48">
+        <v>0.16</v>
+      </c>
+      <c r="Q37" s="23">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="R37" s="59">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="28"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="46">
+        <v>0.12</v>
+      </c>
+      <c r="E38" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="F38" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="G38" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="H38" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="I38" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="J38" s="21">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="K38" s="48">
+        <v>0.15726210350584299</v>
+      </c>
+      <c r="L38" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M38" s="21">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="N38" s="48">
+        <v>0.18547579298831399</v>
+      </c>
+      <c r="O38" s="48">
+        <v>0.15684474123539299</v>
+      </c>
+      <c r="P38" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="Q38" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="R38" s="60">
+        <v>0.85699999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="28"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="E39" s="21">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="F39" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="G39" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="H39" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I39" s="48">
+        <v>0.17136894824707899</v>
+      </c>
+      <c r="J39" s="21">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="K39" s="48">
+        <v>0.21410684474123601</v>
+      </c>
+      <c r="L39" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="M39" s="21">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="N39" s="48">
+        <v>0.128631051752922</v>
+      </c>
+      <c r="O39" s="48">
+        <v>0.15684474123539299</v>
+      </c>
+      <c r="P39" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="Q39" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="R39" s="60">
+        <v>0.78600000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="28"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="46">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E40" s="21">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="F40" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G40" s="21">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="H40" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="I40" s="48">
+        <v>0.17095158597662799</v>
+      </c>
+      <c r="J40" s="21">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="K40" s="48">
+        <v>0.18547579298831399</v>
+      </c>
+      <c r="L40" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="M40" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="N40" s="48">
+        <v>0.17053422370617699</v>
+      </c>
+      <c r="O40" s="48">
+        <v>0.15684474123539299</v>
+      </c>
+      <c r="P40" s="21">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="Q40" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="R40" s="60">
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="28"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="39">
+        <v>0.04</v>
+      </c>
+      <c r="E41" s="25">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="F41" s="25">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="G41" s="25">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="H41" s="49">
+        <v>0.12</v>
+      </c>
+      <c r="I41" s="49">
+        <v>0.113689482470785</v>
+      </c>
+      <c r="J41" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="K41" s="49">
+        <v>0.114524207011686</v>
+      </c>
+      <c r="L41" s="25">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="M41" s="25">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="N41" s="25">
+        <v>5.6427378964941599E-2</v>
+      </c>
+      <c r="O41" s="25">
+        <v>8.5475792988313995E-2</v>
+      </c>
+      <c r="P41" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="Q41" s="26">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="R41" s="61">
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="28"/>
+      <c r="B42" s="55"/>
+      <c r="R42" s="62"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="28"/>
+      <c r="B43" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="45">
+        <v>0.500000000000001</v>
+      </c>
+      <c r="E43" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="47">
+        <v>0.44</v>
+      </c>
+      <c r="G43" s="47">
+        <v>0.38</v>
+      </c>
+      <c r="H43" s="47">
+        <v>0.38</v>
+      </c>
+      <c r="I43" s="47">
+        <v>0.65726210350584402</v>
+      </c>
+      <c r="J43" s="47">
+        <v>0.500000000000001</v>
+      </c>
+      <c r="K43" s="47">
+        <v>0.82696160267111896</v>
+      </c>
+      <c r="L43" s="47">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M43" s="47">
+        <v>0.4</v>
+      </c>
+      <c r="N43" s="47">
+        <v>0.82821368948247198</v>
+      </c>
+      <c r="O43" s="47">
+        <v>0.75684474123539303</v>
+      </c>
+      <c r="P43" s="47">
+        <v>0.48000000000000098</v>
+      </c>
+      <c r="Q43" s="50">
+        <v>0.4</v>
+      </c>
+      <c r="R43" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="28"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="46">
+        <v>0.36</v>
+      </c>
+      <c r="E44" s="48">
+        <v>0.22</v>
+      </c>
+      <c r="F44" s="48">
+        <v>0.22</v>
+      </c>
+      <c r="G44" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="H44" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="I44" s="48">
+        <v>0.42737896494157002</v>
+      </c>
+      <c r="J44" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="K44" s="48">
+        <v>0.243155258764608</v>
+      </c>
+      <c r="L44" s="48">
+        <v>0.26</v>
+      </c>
+      <c r="M44" s="48">
+        <v>0.22</v>
+      </c>
+      <c r="N44" s="48">
+        <v>0.21452420701168601</v>
+      </c>
+      <c r="O44" s="48">
+        <v>0.398747913188648</v>
+      </c>
+      <c r="P44" s="48">
+        <v>0.26</v>
+      </c>
+      <c r="Q44" s="51">
+        <v>0.18</v>
+      </c>
+      <c r="R44" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="28"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="46">
+        <v>0.24</v>
+      </c>
+      <c r="E45" s="21">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="F45" s="48">
+        <v>0.16</v>
+      </c>
+      <c r="G45" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="H45" s="48">
+        <v>0.18</v>
+      </c>
+      <c r="I45" s="48">
+        <v>0.41327212020033399</v>
+      </c>
+      <c r="J45" s="48">
+        <v>1.3</v>
+      </c>
+      <c r="K45" s="48">
+        <v>0.356844741235393</v>
+      </c>
+      <c r="L45" s="48">
+        <v>0.18</v>
+      </c>
+      <c r="M45" s="48">
+        <v>0.18</v>
+      </c>
+      <c r="N45" s="48">
+        <v>0.31535893155258798</v>
+      </c>
+      <c r="O45" s="48">
+        <v>0.42779632721202099</v>
+      </c>
+      <c r="P45" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="Q45" s="51">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R45" s="60">
+        <v>0.92900000000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="28"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="46">
+        <v>0.26</v>
+      </c>
+      <c r="E46" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="F46" s="48">
+        <v>0.24</v>
+      </c>
+      <c r="G46" s="48">
+        <v>0.24</v>
+      </c>
+      <c r="H46" s="48">
+        <v>0.18</v>
+      </c>
+      <c r="I46" s="48">
+        <v>0.39958263772954999</v>
+      </c>
+      <c r="J46" s="48">
+        <v>0.53999999999999904</v>
+      </c>
+      <c r="K46" s="48">
+        <v>0.29958263772955002</v>
+      </c>
+      <c r="L46" s="48">
+        <v>0.24</v>
+      </c>
+      <c r="M46" s="48">
+        <v>0.22</v>
+      </c>
+      <c r="N46" s="48">
+        <v>0.41452420701168702</v>
+      </c>
+      <c r="O46" s="48">
+        <v>0.27136894824707902</v>
+      </c>
+      <c r="P46" s="48">
+        <v>0.26</v>
+      </c>
+      <c r="Q46" s="51">
+        <v>0.18</v>
+      </c>
+      <c r="R46" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="28"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="46">
+        <v>0.26</v>
+      </c>
+      <c r="E47" s="48">
+        <v>0.24</v>
+      </c>
+      <c r="F47" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G47" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="H47" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I47" s="48">
+        <v>0.15767946577629399</v>
+      </c>
+      <c r="J47" s="48">
+        <v>0.22</v>
+      </c>
+      <c r="K47" s="48">
+        <v>0.142737896494157</v>
+      </c>
+      <c r="L47" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M47" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="N47" s="48">
+        <v>0.258096828046745</v>
+      </c>
+      <c r="O47" s="48">
+        <v>0.143155258764608</v>
+      </c>
+      <c r="P47" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="Q47" s="51">
+        <v>0.18</v>
+      </c>
+      <c r="R47" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="28"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="44">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="E48" s="21">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="F48" s="21">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="G48" s="48">
+        <v>0.16</v>
+      </c>
+      <c r="H48" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="I48" s="48">
+        <v>0.128213689482471</v>
+      </c>
+      <c r="J48" s="21">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="K48" s="21">
+        <v>8.5475792988313995E-2</v>
+      </c>
+      <c r="L48" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="M48" s="21">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="N48" s="48">
+        <v>0.141485809682805</v>
+      </c>
+      <c r="O48" s="48">
+        <v>0.18384059062299701</v>
+      </c>
+      <c r="P48" s="48">
+        <v>0.16</v>
+      </c>
+      <c r="Q48" s="23">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="R48" s="59">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="28"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="46">
+        <v>0.12</v>
+      </c>
+      <c r="E49" s="21">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="F49" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G49" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="H49" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="I49" s="48">
+        <v>0.128213689482471</v>
+      </c>
+      <c r="J49" s="21">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="K49" s="21">
+        <v>7.1368948247078498E-2</v>
+      </c>
+      <c r="L49" s="21">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="M49" s="21">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="N49" s="48">
+        <v>0.114524207011686</v>
+      </c>
+      <c r="O49" s="48">
+        <v>0.15684474123539299</v>
+      </c>
+      <c r="P49" s="21">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="Q49" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="R49" s="61">
+        <v>0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="28"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="E50" s="21">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="F50" s="21">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="G50" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="H50" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I50" s="48">
+        <v>8.5475792988313995E-2</v>
+      </c>
+      <c r="J50" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K50" s="48">
+        <v>0.128631051752922</v>
+      </c>
+      <c r="L50" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="M50" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="N50" s="48">
+        <v>0.114106844741236</v>
+      </c>
+      <c r="O50" s="21">
+        <v>4.2737896494156997E-2</v>
+      </c>
+      <c r="P50" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="Q50" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="R50" s="60">
+        <v>0.78600000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="28"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="46">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E51" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="F51" s="21">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="G51" s="21">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="H51" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="I51" s="48">
+        <v>0.17095158597662799</v>
+      </c>
+      <c r="J51" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="K51" s="21">
+        <v>8.5058430717863204E-2</v>
+      </c>
+      <c r="L51" s="48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M51" s="21">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="N51" s="48">
+        <v>0.128631051752922</v>
+      </c>
+      <c r="O51" s="48">
+        <v>0.114106844741236</v>
+      </c>
+      <c r="P51" s="21">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="Q51" s="23">
+        <v>0.04</v>
+      </c>
+      <c r="R51" s="61">
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="29"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="39">
+        <v>0.04</v>
+      </c>
+      <c r="E52" s="25">
+        <v>0.04</v>
+      </c>
+      <c r="F52" s="25">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="G52" s="25">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="H52" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="I52" s="49">
+        <v>0.113689482470785</v>
+      </c>
+      <c r="J52" s="25">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="K52" s="25">
+        <v>5.6844741235392397E-2</v>
+      </c>
+      <c r="L52" s="25">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="M52" s="25">
+        <v>0.06</v>
+      </c>
+      <c r="N52" s="25">
+        <v>5.6427378964941599E-2</v>
+      </c>
+      <c r="O52" s="25">
+        <v>7.1786310517529303E-2</v>
+      </c>
+      <c r="P52" s="25">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="Q52" s="26">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="R52" s="61">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B43:B52"/>
+    <mergeCell ref="A21:A52"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:B41"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B21:B30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Burst-Detection/压力数据.xlsx
+++ b/Burst-Detection/压力数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="平滑降噪" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="37">
   <si>
     <t>压力变化阈值</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -145,6 +145,10 @@
   </si>
   <si>
     <t>报警率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -556,12 +560,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -585,38 +583,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -666,13 +637,46 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -953,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:Q63"/>
+  <dimension ref="A4:R63"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:A63"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -964,12 +968,12 @@
     <col min="2" max="2" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -1013,7 +1017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
@@ -1060,14 +1064,14 @@
         <v>-6.3E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="53" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="53"/>
+      <c r="B8" s="54" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="4">
@@ -1113,9 +1117,9 @@
         <v>0.130376233037161</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="4">
         <v>0.20622203695893401</v>
       </c>
@@ -1159,9 +1163,9 @@
         <v>0.164342476747665</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="53"/>
+      <c r="B10" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="4">
@@ -1207,9 +1211,9 @@
         <v>0.105676294648791</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="53"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="4">
         <v>6.2105197897433698E-2</v>
       </c>
@@ -1252,10 +1256,13 @@
       <c r="P11" s="4">
         <v>7.4754047527578901E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9" t="s">
+      <c r="R11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="53"/>
+      <c r="B12" s="54" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="4">
@@ -1301,9 +1308,9 @@
         <v>1.4703160045293E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
       <c r="C13">
         <v>2.7664742714910401E-2</v>
       </c>
@@ -1347,9 +1354,9 @@
         <v>8.8702350159533903E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="53"/>
+      <c r="B14" s="54" t="s">
         <v>18</v>
       </c>
       <c r="C14">
@@ -1395,9 +1402,9 @@
         <v>1.3592189447387701E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9"/>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="53"/>
+      <c r="B15" s="54"/>
       <c r="C15">
         <v>1.8060443331874398E-2</v>
       </c>
@@ -1441,9 +1448,9 @@
         <v>9.8619042571818499E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="53"/>
+      <c r="B16" s="54" t="s">
         <v>19</v>
       </c>
       <c r="C16">
@@ -1490,8 +1497,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="54"/>
       <c r="C17">
         <v>1.13857990146845E-2</v>
       </c>
@@ -1536,10 +1543,10 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="54" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="6">
@@ -1586,8 +1593,8 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="6">
         <v>0.233333333333334</v>
       </c>
@@ -1632,8 +1639,8 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="6">
@@ -1680,8 +1687,8 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="6">
         <v>0.1048</v>
       </c>
@@ -1726,8 +1733,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="53"/>
+      <c r="B23" s="54" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="6">
@@ -1774,8 +1781,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="54"/>
       <c r="C24">
         <v>0.04</v>
       </c>
@@ -1820,8 +1827,8 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="53"/>
+      <c r="B25" s="54" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="6">
@@ -1868,8 +1875,8 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="54"/>
       <c r="C26">
         <v>5.1999999999999998E-2</v>
       </c>
@@ -1914,8 +1921,8 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="53"/>
+      <c r="B27" s="54" t="s">
         <v>19</v>
       </c>
       <c r="C27">
@@ -1962,8 +1969,8 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="54"/>
       <c r="C28">
         <v>3.5000000000000003E-2</v>
       </c>
@@ -2008,10 +2015,10 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="54" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="6">
@@ -2058,8 +2065,8 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="6">
         <v>0.53333333333333399</v>
       </c>
@@ -2104,8 +2111,8 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="53"/>
+      <c r="B32" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="6">
@@ -2152,8 +2159,8 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="6">
         <v>0.28399999999999997</v>
       </c>
@@ -2198,8 +2205,8 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="53"/>
+      <c r="B34" s="54" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="6">
@@ -2246,8 +2253,8 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="6">
         <v>8.7500000000000105E-2</v>
       </c>
@@ -2292,8 +2299,8 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="9" t="s">
+      <c r="A36" s="53"/>
+      <c r="B36" s="54" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="6">
@@ -2340,8 +2347,8 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="9"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="6">
         <v>0.14000000000000001</v>
       </c>
@@ -2386,8 +2393,8 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="53"/>
+      <c r="B38" s="54" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="6">
@@ -2434,8 +2441,8 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="6">
         <v>0.22500000000000001</v>
       </c>
@@ -2592,10 +2599,10 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="54" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="4">
@@ -2642,8 +2649,8 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="54"/>
       <c r="C44" s="4">
         <v>0.35929627778837298</v>
       </c>
@@ -2688,8 +2695,8 @@
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="10"/>
-      <c r="B45" s="9" t="s">
+      <c r="A45" s="53"/>
+      <c r="B45" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="4">
@@ -2736,8 +2743,8 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="54"/>
       <c r="C46" s="4">
         <v>0.11918811759426499</v>
       </c>
@@ -2782,8 +2789,8 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
-      <c r="B47" s="9" t="s">
+      <c r="A47" s="53"/>
+      <c r="B47" s="54" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="4">
@@ -2830,8 +2837,8 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
-      <c r="B48" s="9"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="54"/>
       <c r="C48">
         <v>4.1451873192934301E-2</v>
       </c>
@@ -2876,8 +2883,8 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="10"/>
-      <c r="B49" s="9" t="s">
+      <c r="A49" s="53"/>
+      <c r="B49" s="54" t="s">
         <v>18</v>
       </c>
       <c r="C49">
@@ -2924,8 +2931,8 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
-      <c r="B50" s="9"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="54"/>
       <c r="C50">
         <v>2.2165294764432301E-2</v>
       </c>
@@ -2970,8 +2977,8 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="10"/>
-      <c r="B51" s="9" t="s">
+      <c r="A51" s="53"/>
+      <c r="B51" s="54" t="s">
         <v>19</v>
       </c>
       <c r="C51">
@@ -3018,8 +3025,8 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
-      <c r="B52" s="9"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="54"/>
       <c r="C52">
         <v>1.9783438855451401E-2</v>
       </c>
@@ -3064,10 +3071,10 @@
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="54" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="4">
@@ -3114,8 +3121,8 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="10"/>
-      <c r="B55" s="9"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="4">
         <v>0.36</v>
       </c>
@@ -3160,8 +3167,8 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
-      <c r="B56" s="9" t="s">
+      <c r="A56" s="53"/>
+      <c r="B56" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C56" s="4">
@@ -3208,8 +3215,8 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="10"/>
-      <c r="B57" s="9"/>
+      <c r="A57" s="53"/>
+      <c r="B57" s="54"/>
       <c r="C57" s="4">
         <v>0.26</v>
       </c>
@@ -3254,8 +3261,8 @@
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="10"/>
-      <c r="B58" s="9" t="s">
+      <c r="A58" s="53"/>
+      <c r="B58" s="54" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="4">
@@ -3302,8 +3309,8 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="10"/>
-      <c r="B59" s="9"/>
+      <c r="A59" s="53"/>
+      <c r="B59" s="54"/>
       <c r="C59" s="4">
         <v>8.0000000000000099E-2</v>
       </c>
@@ -3348,8 +3355,8 @@
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="10"/>
-      <c r="B60" s="9" t="s">
+      <c r="A60" s="53"/>
+      <c r="B60" s="54" t="s">
         <v>18</v>
       </c>
       <c r="C60" s="4">
@@ -3396,8 +3403,8 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="10"/>
-      <c r="B61" s="9"/>
+      <c r="A61" s="53"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="4">
         <v>0.1</v>
       </c>
@@ -3442,8 +3449,8 @@
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="10"/>
-      <c r="B62" s="9" t="s">
+      <c r="A62" s="53"/>
+      <c r="B62" s="54" t="s">
         <v>19</v>
       </c>
       <c r="C62" s="4">
@@ -3490,8 +3497,8 @@
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" s="10"/>
-      <c r="B63" s="9"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="54"/>
       <c r="C63" s="4">
         <v>0.1</v>
       </c>
@@ -3537,24 +3544,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A7:A17"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="A54:A63"/>
     <mergeCell ref="A43:A52"/>
@@ -3567,6 +3556,24 @@
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A7:A17"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3578,85 +3585,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17 16384:16384" x14ac:dyDescent="0.2">
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17 16384:16384" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:17 16384:16384" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="1:17 16384:16384" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
       <c r="XFD4" t="e">
         <f>AVERAGE(A4:XFC4)</f>
         <v>#DIV/0!</v>
@@ -3664,1961 +3671,1965 @@
     </row>
     <row r="5" spans="1:17 16384:16384" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
     </row>
     <row r="6" spans="1:17 16384:16384" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
     </row>
     <row r="7" spans="1:17 16384:16384" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
     </row>
     <row r="8" spans="1:17 16384:16384" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
     </row>
     <row r="9" spans="1:17 16384:16384" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
     </row>
     <row r="10" spans="1:17 16384:16384" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
     </row>
     <row r="11" spans="1:17 16384:16384" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="1:17 16384:16384" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
     </row>
     <row r="13" spans="1:17 16384:16384" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
     </row>
     <row r="14" spans="1:17 16384:16384" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:17 16384:16384" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="1:17 16384:16384" x14ac:dyDescent="0.2">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
     </row>
     <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="I18" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="37" t="s">
+      <c r="J18" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="35" t="s">
+      <c r="K18" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="36" t="s">
+      <c r="L18" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="M18" s="36" t="s">
+      <c r="M18" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="36" t="s">
+      <c r="N18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="O18" s="36" t="s">
+      <c r="O18" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="P18" s="36" t="s">
+      <c r="P18" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="Q18" s="38" t="s">
+      <c r="Q18" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="R18" s="11"/>
+      <c r="R18" s="9"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C19" s="39">
+      <c r="C19" s="28">
         <f>AVERAGE(D19:R19)</f>
         <v>-9.2571428571428568E-2</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="29">
         <v>-9.6000000000000002E-2</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="30">
         <v>-9.6000000000000002E-2</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="30">
         <v>-9.1999999999999998E-2</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="30">
         <v>-9.1999999999999998E-2</v>
       </c>
-      <c r="H19" s="41">
+      <c r="H19" s="30">
         <v>-9.1999999999999998E-2</v>
       </c>
-      <c r="I19" s="41">
+      <c r="I19" s="30">
         <v>-9.1999999999999998E-2</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="31">
         <v>-9.1999999999999998E-2</v>
       </c>
-      <c r="K19" s="40">
+      <c r="K19" s="29">
         <v>-9.1999999999999998E-2</v>
       </c>
-      <c r="L19" s="41">
+      <c r="L19" s="30">
         <v>-9.6000000000000002E-2</v>
       </c>
-      <c r="M19" s="41">
+      <c r="M19" s="30">
         <v>-8.7999999999999995E-2</v>
       </c>
-      <c r="N19" s="41">
+      <c r="N19" s="30">
         <v>-9.6000000000000002E-2</v>
       </c>
-      <c r="O19" s="41">
+      <c r="O19" s="30">
         <v>-8.7999999999999995E-2</v>
       </c>
-      <c r="P19" s="41">
+      <c r="P19" s="30">
         <v>-9.1999999999999998E-2</v>
       </c>
-      <c r="Q19" s="43">
+      <c r="Q19" s="32">
         <v>-9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="62" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="51" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="36">
         <v>0.500000000000001</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="41">
         <v>0.56000000000000105</v>
       </c>
-      <c r="F21" s="47">
+      <c r="F21" s="36">
         <v>0.44</v>
       </c>
-      <c r="G21" s="47">
+      <c r="G21" s="36">
         <v>0.46</v>
       </c>
-      <c r="H21" s="47">
+      <c r="H21" s="36">
         <v>0.42</v>
       </c>
-      <c r="I21" s="47">
+      <c r="I21" s="36">
         <v>0.81327212020033501</v>
       </c>
-      <c r="J21" s="47">
+      <c r="J21" s="36">
         <v>0.500000000000001</v>
       </c>
-      <c r="K21" s="47">
+      <c r="K21" s="36">
         <v>0.82696160267111896</v>
       </c>
-      <c r="L21" s="47">
+      <c r="L21" s="36">
         <v>0.56000000000000005</v>
       </c>
-      <c r="M21" s="47">
+      <c r="M21" s="36">
         <v>0.500000000000001</v>
       </c>
-      <c r="N21" s="47">
+      <c r="N21" s="36">
         <v>0.82821368948247198</v>
       </c>
-      <c r="O21" s="47">
+      <c r="O21" s="36">
         <v>0.89916527545909997</v>
       </c>
-      <c r="P21" s="47">
+      <c r="P21" s="36">
         <v>0.48000000000000098</v>
       </c>
-      <c r="Q21" s="50">
+      <c r="Q21" s="39">
         <v>0.44</v>
       </c>
-      <c r="R21" s="58">
+      <c r="R21" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="48">
+      <c r="A22" s="59"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="37">
         <v>0.36</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="42">
         <v>0.24</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="37">
         <v>0.24</v>
       </c>
-      <c r="G22" s="48">
+      <c r="G22" s="37">
         <v>0.24</v>
       </c>
-      <c r="H22" s="48">
+      <c r="H22" s="37">
         <v>0.24</v>
       </c>
-      <c r="I22" s="48">
+      <c r="I22" s="37">
         <v>0.42737896494157002</v>
       </c>
-      <c r="J22" s="48">
+      <c r="J22" s="37">
         <v>0.2</v>
       </c>
-      <c r="K22" s="48">
+      <c r="K22" s="37">
         <v>0.32737896494156998</v>
       </c>
-      <c r="L22" s="48">
+      <c r="L22" s="37">
         <v>0.39999999999999902</v>
       </c>
-      <c r="M22" s="48">
+      <c r="M22" s="37">
         <v>0.22</v>
       </c>
-      <c r="N22" s="48">
+      <c r="N22" s="37">
         <v>0.385058430717864</v>
       </c>
-      <c r="O22" s="48">
+      <c r="O22" s="37">
         <v>0.398747913188648</v>
       </c>
-      <c r="P22" s="48">
+      <c r="P22" s="37">
         <v>0.26</v>
       </c>
-      <c r="Q22" s="51">
+      <c r="Q22" s="40">
         <v>0.2</v>
       </c>
-      <c r="R22" s="58">
+      <c r="R22" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="32" t="s">
+      <c r="A23" s="59"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="37">
         <v>0.44</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E23" s="42">
         <v>0.2</v>
       </c>
-      <c r="F23" s="48">
+      <c r="F23" s="37">
         <v>0.24</v>
       </c>
-      <c r="G23" s="48">
+      <c r="G23" s="37">
         <v>0.2</v>
       </c>
-      <c r="H23" s="48">
+      <c r="H23" s="37">
         <v>0.18</v>
       </c>
-      <c r="I23" s="48">
+      <c r="I23" s="37">
         <v>0.41327212020033399</v>
       </c>
-      <c r="J23" s="48">
+      <c r="J23" s="37">
         <v>1.34</v>
       </c>
-      <c r="K23" s="48">
+      <c r="K23" s="37">
         <v>0.356844741235393</v>
       </c>
-      <c r="L23" s="48">
+      <c r="L23" s="37">
         <v>0.24</v>
       </c>
-      <c r="M23" s="48">
+      <c r="M23" s="37">
         <v>0.18</v>
       </c>
-      <c r="N23" s="48">
+      <c r="N23" s="37">
         <v>0.31535893155258798</v>
       </c>
-      <c r="O23" s="48">
+      <c r="O23" s="37">
         <v>0.42779632721202099</v>
       </c>
-      <c r="P23" s="48">
+      <c r="P23" s="37">
         <v>0.24</v>
       </c>
-      <c r="Q23" s="51">
+      <c r="Q23" s="40">
         <v>0.18</v>
       </c>
-      <c r="R23" s="58">
+      <c r="R23" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="48">
+      <c r="A24" s="59"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="37">
         <v>0.26</v>
       </c>
-      <c r="E24" s="53">
+      <c r="E24" s="42">
         <v>0.3</v>
       </c>
-      <c r="F24" s="48">
+      <c r="F24" s="37">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G24" s="48">
+      <c r="G24" s="37">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H24" s="48">
+      <c r="H24" s="37">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I24" s="48">
+      <c r="I24" s="37">
         <v>0.45642737896494201</v>
       </c>
-      <c r="J24" s="48">
+      <c r="J24" s="37">
         <v>0.58000000000000096</v>
       </c>
-      <c r="K24" s="48">
+      <c r="K24" s="37">
         <v>0.484641068447413</v>
       </c>
-      <c r="L24" s="48">
+      <c r="L24" s="37">
         <v>0.3</v>
       </c>
-      <c r="M24" s="48">
+      <c r="M24" s="37">
         <v>0.26</v>
       </c>
-      <c r="N24" s="48">
+      <c r="N24" s="37">
         <v>0.54148580968280502</v>
       </c>
-      <c r="O24" s="48">
+      <c r="O24" s="37">
         <v>0.44190317195325601</v>
       </c>
-      <c r="P24" s="48">
+      <c r="P24" s="37">
         <v>0.26</v>
       </c>
-      <c r="Q24" s="51">
+      <c r="Q24" s="40">
         <v>0.28000000000000003</v>
       </c>
-      <c r="R24" s="58">
+      <c r="R24" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="32" t="s">
+      <c r="A25" s="59"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="48">
+      <c r="D25" s="37">
         <v>0.26</v>
       </c>
-      <c r="E25" s="53">
+      <c r="E25" s="42">
         <v>0.24</v>
       </c>
-      <c r="F25" s="48">
+      <c r="F25" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G25" s="48">
+      <c r="G25" s="37">
         <v>0.2</v>
       </c>
-      <c r="H25" s="48">
+      <c r="H25" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I25" s="48">
+      <c r="I25" s="37">
         <v>0.32737896494156998</v>
       </c>
-      <c r="J25" s="48">
+      <c r="J25" s="37">
         <v>0.22</v>
       </c>
-      <c r="K25" s="48">
+      <c r="K25" s="37">
         <v>0.142737896494157</v>
       </c>
-      <c r="L25" s="48">
+      <c r="L25" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M25" s="48">
+      <c r="M25" s="37">
         <v>0.12</v>
       </c>
-      <c r="N25" s="48">
+      <c r="N25" s="37">
         <v>0.32696160267111901</v>
       </c>
-      <c r="O25" s="48">
+      <c r="O25" s="37">
         <v>0.143155258764608</v>
       </c>
-      <c r="P25" s="48">
+      <c r="P25" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q25" s="51">
+      <c r="Q25" s="40">
         <v>0.18</v>
       </c>
-      <c r="R25" s="58">
+      <c r="R25" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="21">
+      <c r="A26" s="59"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="18">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="19">
         <v>6.0000000000000102E-2</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="18">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="G26" s="48">
+      <c r="G26" s="37">
         <v>0.16</v>
       </c>
-      <c r="H26" s="48">
+      <c r="H26" s="37">
         <v>0.12</v>
       </c>
-      <c r="I26" s="48">
+      <c r="I26" s="37">
         <v>0.20041736227045101</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="18">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="K26" s="48">
+      <c r="K26" s="37">
         <v>0.128631051752922</v>
       </c>
-      <c r="L26" s="48">
+      <c r="L26" s="37">
         <v>0.1</v>
       </c>
-      <c r="M26" s="21">
+      <c r="M26" s="18">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="N26" s="48">
+      <c r="N26" s="37">
         <v>0.141485809682805</v>
       </c>
-      <c r="O26" s="48">
+      <c r="O26" s="37">
         <v>0.18384059062299701</v>
       </c>
-      <c r="P26" s="48">
+      <c r="P26" s="37">
         <v>0.16</v>
       </c>
-      <c r="Q26" s="23">
+      <c r="Q26" s="20">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="R26" s="59">
+      <c r="R26" s="48">
         <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="32" t="s">
+      <c r="A27" s="59"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="37">
         <v>0.12</v>
       </c>
-      <c r="E27" s="53">
+      <c r="E27" s="42">
         <v>0.1</v>
       </c>
-      <c r="F27" s="48">
+      <c r="F27" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G27" s="48">
+      <c r="G27" s="37">
         <v>0.12</v>
       </c>
-      <c r="H27" s="48">
+      <c r="H27" s="37">
         <v>0.12</v>
       </c>
-      <c r="I27" s="48">
+      <c r="I27" s="37">
         <v>0.128213689482471</v>
       </c>
-      <c r="J27" s="48">
+      <c r="J27" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K27" s="48">
+      <c r="K27" s="37">
         <v>0.15726210350584299</v>
       </c>
-      <c r="L27" s="48">
+      <c r="L27" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M27" s="48">
+      <c r="M27" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N27" s="48">
+      <c r="N27" s="37">
         <v>0.18547579298831399</v>
       </c>
-      <c r="O27" s="48">
+      <c r="O27" s="37">
         <v>0.15684474123539299</v>
       </c>
-      <c r="P27" s="48">
+      <c r="P27" s="37">
         <v>0.12</v>
       </c>
-      <c r="Q27" s="51">
+      <c r="Q27" s="40">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R27" s="58">
+      <c r="R27" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="48">
+      <c r="A28" s="59"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="37">
         <v>0.1</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="19">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="F28" s="48">
+      <c r="F28" s="37">
         <v>0.1</v>
       </c>
-      <c r="G28" s="48">
+      <c r="G28" s="37">
         <v>0.12</v>
       </c>
-      <c r="H28" s="48">
+      <c r="H28" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I28" s="48">
+      <c r="I28" s="37">
         <v>0.2</v>
       </c>
-      <c r="J28" s="48">
+      <c r="J28" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K28" s="48">
+      <c r="K28" s="37">
         <v>0.21410684474123601</v>
       </c>
-      <c r="L28" s="48">
+      <c r="L28" s="37">
         <v>0.1</v>
       </c>
-      <c r="M28" s="48">
+      <c r="M28" s="37">
         <v>0.12</v>
       </c>
-      <c r="N28" s="48">
+      <c r="N28" s="37">
         <v>0.128631051752922</v>
       </c>
-      <c r="O28" s="48">
+      <c r="O28" s="37">
         <v>0.15684474123539299</v>
       </c>
-      <c r="P28" s="48">
+      <c r="P28" s="37">
         <v>0.12</v>
       </c>
-      <c r="Q28" s="51">
+      <c r="Q28" s="40">
         <v>0.1</v>
       </c>
-      <c r="R28" s="60">
+      <c r="R28" s="49">
         <v>0.92900000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="32" t="s">
+      <c r="A29" s="59"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="48">
+      <c r="D29" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="19">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="F29" s="48">
+      <c r="F29" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="18">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="H29" s="48">
+      <c r="H29" s="37">
         <v>0.1</v>
       </c>
-      <c r="I29" s="48">
+      <c r="I29" s="37">
         <v>0.17095158597662799</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="18">
         <v>6.0000000000000102E-2</v>
       </c>
-      <c r="K29" s="48">
+      <c r="K29" s="37">
         <v>0.18547579298831399</v>
       </c>
-      <c r="L29" s="48">
+      <c r="L29" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M29" s="48">
+      <c r="M29" s="37">
         <v>0.12</v>
       </c>
-      <c r="N29" s="48">
+      <c r="N29" s="37">
         <v>0.17053422370617699</v>
       </c>
-      <c r="O29" s="48">
+      <c r="O29" s="37">
         <v>0.15684474123539299</v>
       </c>
-      <c r="P29" s="21">
+      <c r="P29" s="18">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="Q29" s="51">
+      <c r="Q29" s="40">
         <v>0.1</v>
       </c>
-      <c r="R29" s="60">
+      <c r="R29" s="49">
         <v>0.71399999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="49">
+      <c r="A30" s="59"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="38">
         <v>0.1</v>
       </c>
-      <c r="E30" s="54">
+      <c r="E30" s="43">
         <v>0.1</v>
       </c>
-      <c r="F30" s="49">
+      <c r="F30" s="38">
         <v>0.12</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="21">
         <v>6.0000000000000102E-2</v>
       </c>
-      <c r="H30" s="49">
+      <c r="H30" s="38">
         <v>0.12</v>
       </c>
-      <c r="I30" s="49">
+      <c r="I30" s="38">
         <v>0.114524207011686</v>
       </c>
-      <c r="J30" s="49">
+      <c r="J30" s="38">
         <v>0.1</v>
       </c>
-      <c r="K30" s="49">
+      <c r="K30" s="38">
         <v>0.114524207011686</v>
       </c>
-      <c r="L30" s="49">
+      <c r="L30" s="38">
         <v>0.12</v>
       </c>
-      <c r="M30" s="25">
+      <c r="M30" s="21">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="N30" s="49">
+      <c r="N30" s="38">
         <v>0.129048414023372</v>
       </c>
-      <c r="O30" s="49">
+      <c r="O30" s="38">
         <v>0.128631051752922</v>
       </c>
-      <c r="P30" s="49">
+      <c r="P30" s="38">
         <v>0.1</v>
       </c>
-      <c r="Q30" s="26">
+      <c r="Q30" s="22">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="R30" s="60">
+      <c r="R30" s="49">
         <v>0.78600000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
-      <c r="B31" s="63" t="s">
+      <c r="A31" s="59"/>
+      <c r="B31" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="56">
+      <c r="C31" s="65"/>
+      <c r="D31" s="45">
         <v>0.875</v>
       </c>
-      <c r="E31" s="56">
+      <c r="E31" s="45">
         <v>0.65500000000000003</v>
       </c>
-      <c r="F31" s="56">
+      <c r="F31" s="45">
         <v>0.875</v>
       </c>
-      <c r="G31" s="57">
+      <c r="G31" s="46">
         <v>0.75</v>
       </c>
-      <c r="H31" s="57">
+      <c r="H31" s="46">
         <v>1</v>
       </c>
-      <c r="I31" s="57">
+      <c r="I31" s="46">
         <v>1</v>
       </c>
-      <c r="J31" s="57">
+      <c r="J31" s="46">
         <v>0.75</v>
       </c>
-      <c r="K31" s="57">
+      <c r="K31" s="46">
         <v>1</v>
       </c>
-      <c r="L31" s="57">
+      <c r="L31" s="46">
         <v>1</v>
       </c>
-      <c r="M31" s="57">
+      <c r="M31" s="46">
         <v>0.75</v>
       </c>
-      <c r="N31" s="57">
+      <c r="N31" s="46">
         <v>1</v>
       </c>
-      <c r="O31" s="57">
+      <c r="O31" s="46">
         <v>1</v>
       </c>
-      <c r="P31" s="56">
+      <c r="P31" s="45">
         <v>0.875</v>
       </c>
-      <c r="Q31" s="57">
+      <c r="Q31" s="46">
         <v>0.75</v>
       </c>
-      <c r="R31" s="65"/>
+      <c r="R31" s="52"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="30" t="s">
+      <c r="A32" s="59"/>
+      <c r="B32" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="45">
+      <c r="D32" s="34">
         <v>0.5</v>
       </c>
-      <c r="E32" s="47">
+      <c r="E32" s="36">
         <v>0.56000000000000105</v>
       </c>
-      <c r="F32" s="47">
+      <c r="F32" s="36">
         <v>0.44</v>
       </c>
-      <c r="G32" s="47">
+      <c r="G32" s="36">
         <v>0.46</v>
       </c>
-      <c r="H32" s="47">
+      <c r="H32" s="36">
         <v>0.42</v>
       </c>
-      <c r="I32" s="47">
+      <c r="I32" s="36">
         <v>0.81327212020033501</v>
       </c>
-      <c r="J32" s="47">
+      <c r="J32" s="36">
         <v>0.500000000000001</v>
       </c>
-      <c r="K32" s="47">
+      <c r="K32" s="36">
         <v>0.82696160267111896</v>
       </c>
-      <c r="L32" s="47">
+      <c r="L32" s="36">
         <v>0.56000000000000005</v>
       </c>
-      <c r="M32" s="47">
+      <c r="M32" s="36">
         <v>0.46000000000000102</v>
       </c>
-      <c r="N32" s="47">
+      <c r="N32" s="36">
         <v>0.61368948247078503</v>
       </c>
-      <c r="O32" s="47">
+      <c r="O32" s="36">
         <v>0.75684474123539303</v>
       </c>
-      <c r="P32" s="47">
+      <c r="P32" s="36">
         <v>0.48000000000000098</v>
       </c>
-      <c r="Q32" s="50">
+      <c r="Q32" s="39">
         <v>0.4</v>
       </c>
-      <c r="R32" s="58">
+      <c r="R32" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="46">
+      <c r="A33" s="59"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="35">
         <v>0.26</v>
       </c>
-      <c r="E33" s="48">
+      <c r="E33" s="37">
         <v>0.22</v>
       </c>
-      <c r="F33" s="48">
+      <c r="F33" s="37">
         <v>0.24</v>
       </c>
-      <c r="G33" s="48">
+      <c r="G33" s="37">
         <v>0.24</v>
       </c>
-      <c r="H33" s="48">
+      <c r="H33" s="37">
         <v>0.24</v>
       </c>
-      <c r="I33" s="48">
+      <c r="I33" s="37">
         <v>0.38631051752921602</v>
       </c>
-      <c r="J33" s="48">
+      <c r="J33" s="37">
         <v>0.2</v>
       </c>
-      <c r="K33" s="48">
+      <c r="K33" s="37">
         <v>0.243155258764608</v>
       </c>
-      <c r="L33" s="48">
+      <c r="L33" s="37">
         <v>0.26</v>
       </c>
-      <c r="M33" s="48">
+      <c r="M33" s="37">
         <v>0.22</v>
       </c>
-      <c r="N33" s="48">
+      <c r="N33" s="37">
         <v>0.385058430717864</v>
       </c>
-      <c r="O33" s="48">
+      <c r="O33" s="37">
         <v>0.398747913188648</v>
       </c>
-      <c r="P33" s="48">
+      <c r="P33" s="37">
         <v>0.26</v>
       </c>
-      <c r="Q33" s="51">
+      <c r="Q33" s="40">
         <v>0.18</v>
       </c>
-      <c r="R33" s="58">
+      <c r="R33" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="32" t="s">
+      <c r="A34" s="59"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="46">
+      <c r="D34" s="35">
         <v>0.34</v>
       </c>
-      <c r="E34" s="48">
+      <c r="E34" s="37">
         <v>0.2</v>
       </c>
-      <c r="F34" s="48">
+      <c r="F34" s="37">
         <v>0.16</v>
       </c>
-      <c r="G34" s="48">
+      <c r="G34" s="37">
         <v>0.2</v>
       </c>
-      <c r="H34" s="48">
+      <c r="H34" s="37">
         <v>0.18</v>
       </c>
-      <c r="I34" s="48">
+      <c r="I34" s="37">
         <v>0.37178631051753003</v>
       </c>
-      <c r="J34" s="48">
+      <c r="J34" s="37">
         <v>1.3</v>
       </c>
-      <c r="K34" s="48">
+      <c r="K34" s="37">
         <v>0.356844741235393</v>
       </c>
-      <c r="L34" s="48">
+      <c r="L34" s="37">
         <v>0.24</v>
       </c>
-      <c r="M34" s="48">
+      <c r="M34" s="37">
         <v>0.12</v>
       </c>
-      <c r="N34" s="48">
+      <c r="N34" s="37">
         <v>0.270116861435726</v>
       </c>
-      <c r="O34" s="48">
+      <c r="O34" s="37">
         <v>0.42779632721202099</v>
       </c>
-      <c r="P34" s="48">
+      <c r="P34" s="37">
         <v>0.24</v>
       </c>
-      <c r="Q34" s="51">
+      <c r="Q34" s="40">
         <v>0.18</v>
       </c>
-      <c r="R34" s="58">
+      <c r="R34" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="46">
+      <c r="A35" s="59"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="35">
         <v>0.26</v>
       </c>
-      <c r="E35" s="48">
+      <c r="E35" s="37">
         <v>0.3</v>
       </c>
-      <c r="F35" s="48">
+      <c r="F35" s="37">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G35" s="48">
+      <c r="G35" s="37">
         <v>0.24</v>
       </c>
-      <c r="H35" s="48">
+      <c r="H35" s="37">
         <v>0.24</v>
       </c>
-      <c r="I35" s="48">
+      <c r="I35" s="37">
         <v>0.39958263772954999</v>
       </c>
-      <c r="J35" s="48">
+      <c r="J35" s="37">
         <v>0.58000000000000096</v>
       </c>
-      <c r="K35" s="48">
+      <c r="K35" s="37">
         <v>0.4</v>
       </c>
-      <c r="L35" s="48">
+      <c r="L35" s="37">
         <v>0.3</v>
       </c>
-      <c r="M35" s="48">
+      <c r="M35" s="37">
         <v>0.26</v>
       </c>
-      <c r="N35" s="48">
+      <c r="N35" s="37">
         <v>0.54148580968280502</v>
       </c>
-      <c r="O35" s="48">
+      <c r="O35" s="37">
         <v>0.44190317195325601</v>
       </c>
-      <c r="P35" s="48">
+      <c r="P35" s="37">
         <v>0.24</v>
       </c>
-      <c r="Q35" s="51">
+      <c r="Q35" s="40">
         <v>0.28000000000000003</v>
       </c>
-      <c r="R35" s="58">
+      <c r="R35" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="32" t="s">
+      <c r="A36" s="59"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="46">
+      <c r="D36" s="35">
         <v>0.26</v>
       </c>
-      <c r="E36" s="48">
+      <c r="E36" s="37">
         <v>0.24</v>
       </c>
-      <c r="F36" s="48">
+      <c r="F36" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G36" s="48">
+      <c r="G36" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H36" s="48">
+      <c r="H36" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I36" s="48">
+      <c r="I36" s="37">
         <v>0.32737896494156998</v>
       </c>
-      <c r="J36" s="48">
+      <c r="J36" s="37">
         <v>0.22</v>
       </c>
-      <c r="K36" s="48">
+      <c r="K36" s="37">
         <v>0.142737896494157</v>
       </c>
-      <c r="L36" s="48">
+      <c r="L36" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M36" s="48">
+      <c r="M36" s="37">
         <v>0.12</v>
       </c>
-      <c r="N36" s="48">
+      <c r="N36" s="37">
         <v>0.258096828046745</v>
       </c>
-      <c r="O36" s="48">
+      <c r="O36" s="37">
         <v>0.143155258764608</v>
       </c>
-      <c r="P36" s="48">
+      <c r="P36" s="37">
         <v>0.12</v>
       </c>
-      <c r="Q36" s="51">
+      <c r="Q36" s="40">
         <v>0.18</v>
       </c>
-      <c r="R36" s="58">
+      <c r="R36" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="44">
+      <c r="A37" s="59"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="33">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="18">
         <v>6.0000000000000102E-2</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="18">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="G37" s="48">
+      <c r="G37" s="37">
         <v>0.16</v>
       </c>
-      <c r="H37" s="48">
+      <c r="H37" s="37">
         <v>0.12</v>
       </c>
-      <c r="I37" s="48">
+      <c r="I37" s="37">
         <v>0.20041736227045101</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J37" s="18">
         <v>0.04</v>
       </c>
-      <c r="K37" s="21">
+      <c r="K37" s="18">
         <v>8.5475792988313995E-2</v>
       </c>
-      <c r="L37" s="48">
+      <c r="L37" s="37">
         <v>0.1</v>
       </c>
-      <c r="M37" s="21">
+      <c r="M37" s="18">
         <v>6.0000000000000102E-2</v>
       </c>
-      <c r="N37" s="48">
+      <c r="N37" s="37">
         <v>0.141485809682805</v>
       </c>
-      <c r="O37" s="48">
+      <c r="O37" s="37">
         <v>0.18384059062299701</v>
       </c>
-      <c r="P37" s="48">
+      <c r="P37" s="37">
         <v>0.16</v>
       </c>
-      <c r="Q37" s="23">
+      <c r="Q37" s="20">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="R37" s="59">
+      <c r="R37" s="48">
         <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="32" t="s">
+      <c r="A38" s="59"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="46">
+      <c r="D38" s="35">
         <v>0.12</v>
       </c>
-      <c r="E38" s="48">
+      <c r="E38" s="37">
         <v>0.1</v>
       </c>
-      <c r="F38" s="48">
+      <c r="F38" s="37">
         <v>0.1</v>
       </c>
-      <c r="G38" s="48">
+      <c r="G38" s="37">
         <v>0.12</v>
       </c>
-      <c r="H38" s="48">
+      <c r="H38" s="37">
         <v>0.12</v>
       </c>
-      <c r="I38" s="48">
+      <c r="I38" s="37">
         <v>0.1</v>
       </c>
-      <c r="J38" s="21">
+      <c r="J38" s="18">
         <v>6.0000000000000102E-2</v>
       </c>
-      <c r="K38" s="48">
+      <c r="K38" s="37">
         <v>0.15726210350584299</v>
       </c>
-      <c r="L38" s="48">
+      <c r="L38" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M38" s="21">
+      <c r="M38" s="18">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="N38" s="48">
+      <c r="N38" s="37">
         <v>0.18547579298831399</v>
       </c>
-      <c r="O38" s="48">
+      <c r="O38" s="37">
         <v>0.15684474123539299</v>
       </c>
-      <c r="P38" s="48">
+      <c r="P38" s="37">
         <v>0.12</v>
       </c>
-      <c r="Q38" s="51">
+      <c r="Q38" s="40">
         <v>0.1</v>
       </c>
-      <c r="R38" s="60">
+      <c r="R38" s="49">
         <v>0.85699999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="46">
+      <c r="A39" s="59"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="35">
         <v>0.1</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="18">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="F39" s="48">
+      <c r="F39" s="37">
         <v>0.1</v>
       </c>
-      <c r="G39" s="48">
+      <c r="G39" s="37">
         <v>0.12</v>
       </c>
-      <c r="H39" s="48">
+      <c r="H39" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I39" s="48">
+      <c r="I39" s="37">
         <v>0.17136894824707899</v>
       </c>
-      <c r="J39" s="21">
+      <c r="J39" s="18">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="K39" s="48">
+      <c r="K39" s="37">
         <v>0.21410684474123601</v>
       </c>
-      <c r="L39" s="48">
+      <c r="L39" s="37">
         <v>0.1</v>
       </c>
-      <c r="M39" s="21">
+      <c r="M39" s="18">
         <v>6.0000000000000102E-2</v>
       </c>
-      <c r="N39" s="48">
+      <c r="N39" s="37">
         <v>0.128631051752922</v>
       </c>
-      <c r="O39" s="48">
+      <c r="O39" s="37">
         <v>0.15684474123539299</v>
       </c>
-      <c r="P39" s="48">
+      <c r="P39" s="37">
         <v>0.12</v>
       </c>
-      <c r="Q39" s="51">
+      <c r="Q39" s="40">
         <v>0.1</v>
       </c>
-      <c r="R39" s="60">
+      <c r="R39" s="49">
         <v>0.78600000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="28"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="32" t="s">
+      <c r="A40" s="59"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="46">
+      <c r="D40" s="35">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="18">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="F40" s="48">
+      <c r="F40" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G40" s="18">
         <v>6.0000000000000102E-2</v>
       </c>
-      <c r="H40" s="48">
+      <c r="H40" s="37">
         <v>0.1</v>
       </c>
-      <c r="I40" s="48">
+      <c r="I40" s="37">
         <v>0.17095158597662799</v>
       </c>
-      <c r="J40" s="21">
+      <c r="J40" s="18">
         <v>6.0000000000000102E-2</v>
       </c>
-      <c r="K40" s="48">
+      <c r="K40" s="37">
         <v>0.18547579298831399</v>
       </c>
-      <c r="L40" s="21">
+      <c r="L40" s="18">
         <v>0.06</v>
       </c>
-      <c r="M40" s="48">
+      <c r="M40" s="37">
         <v>0.12</v>
       </c>
-      <c r="N40" s="48">
+      <c r="N40" s="37">
         <v>0.17053422370617699</v>
       </c>
-      <c r="O40" s="48">
+      <c r="O40" s="37">
         <v>0.15684474123539299</v>
       </c>
-      <c r="P40" s="21">
+      <c r="P40" s="18">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="Q40" s="51">
+      <c r="Q40" s="40">
         <v>0.1</v>
       </c>
-      <c r="R40" s="60">
+      <c r="R40" s="49">
         <v>0.64300000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="28"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="39">
+      <c r="A41" s="59"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="28">
         <v>0.04</v>
       </c>
-      <c r="E41" s="25">
+      <c r="E41" s="21">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="F41" s="25">
+      <c r="F41" s="21">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="G41" s="25">
+      <c r="G41" s="21">
         <v>6.0000000000000102E-2</v>
       </c>
-      <c r="H41" s="49">
+      <c r="H41" s="38">
         <v>0.12</v>
       </c>
-      <c r="I41" s="49">
+      <c r="I41" s="38">
         <v>0.113689482470785</v>
       </c>
-      <c r="J41" s="49">
+      <c r="J41" s="38">
         <v>0.1</v>
       </c>
-      <c r="K41" s="49">
+      <c r="K41" s="38">
         <v>0.114524207011686</v>
       </c>
-      <c r="L41" s="25">
+      <c r="L41" s="21">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="M41" s="25">
+      <c r="M41" s="21">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="N41" s="25">
+      <c r="N41" s="21">
         <v>5.6427378964941599E-2</v>
       </c>
-      <c r="O41" s="25">
+      <c r="O41" s="21">
         <v>8.5475792988313995E-2</v>
       </c>
-      <c r="P41" s="49">
+      <c r="P41" s="38">
         <v>0.1</v>
       </c>
-      <c r="Q41" s="26">
+      <c r="Q41" s="22">
         <v>6.0000000000000102E-2</v>
       </c>
-      <c r="R41" s="61">
+      <c r="R41" s="50">
         <v>0.35699999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="28"/>
-      <c r="B42" s="55"/>
-      <c r="R42" s="62"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="44"/>
+      <c r="R42" s="51"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="28"/>
-      <c r="B43" s="30" t="s">
+      <c r="A43" s="59"/>
+      <c r="B43" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="45">
+      <c r="D43" s="34">
         <v>0.500000000000001</v>
       </c>
-      <c r="E43" s="47">
+      <c r="E43" s="36">
         <v>0.5</v>
       </c>
-      <c r="F43" s="47">
+      <c r="F43" s="36">
         <v>0.44</v>
       </c>
-      <c r="G43" s="47">
+      <c r="G43" s="36">
         <v>0.38</v>
       </c>
-      <c r="H43" s="47">
+      <c r="H43" s="36">
         <v>0.38</v>
       </c>
-      <c r="I43" s="47">
+      <c r="I43" s="36">
         <v>0.65726210350584402</v>
       </c>
-      <c r="J43" s="47">
+      <c r="J43" s="36">
         <v>0.500000000000001</v>
       </c>
-      <c r="K43" s="47">
+      <c r="K43" s="36">
         <v>0.82696160267111896</v>
       </c>
-      <c r="L43" s="47">
+      <c r="L43" s="36">
         <v>0.56000000000000005</v>
       </c>
-      <c r="M43" s="47">
+      <c r="M43" s="36">
         <v>0.4</v>
       </c>
-      <c r="N43" s="47">
+      <c r="N43" s="36">
         <v>0.82821368948247198</v>
       </c>
-      <c r="O43" s="47">
+      <c r="O43" s="36">
         <v>0.75684474123539303</v>
       </c>
-      <c r="P43" s="47">
+      <c r="P43" s="36">
         <v>0.48000000000000098</v>
       </c>
-      <c r="Q43" s="50">
+      <c r="Q43" s="39">
         <v>0.4</v>
       </c>
-      <c r="R43" s="58">
+      <c r="R43" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="28"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="46">
+      <c r="A44" s="59"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="35">
         <v>0.36</v>
       </c>
-      <c r="E44" s="48">
+      <c r="E44" s="37">
         <v>0.22</v>
       </c>
-      <c r="F44" s="48">
+      <c r="F44" s="37">
         <v>0.22</v>
       </c>
-      <c r="G44" s="48">
+      <c r="G44" s="37">
         <v>0.2</v>
       </c>
-      <c r="H44" s="48">
+      <c r="H44" s="37">
         <v>0.2</v>
       </c>
-      <c r="I44" s="48">
+      <c r="I44" s="37">
         <v>0.42737896494157002</v>
       </c>
-      <c r="J44" s="48">
+      <c r="J44" s="37">
         <v>0.2</v>
       </c>
-      <c r="K44" s="48">
+      <c r="K44" s="37">
         <v>0.243155258764608</v>
       </c>
-      <c r="L44" s="48">
+      <c r="L44" s="37">
         <v>0.26</v>
       </c>
-      <c r="M44" s="48">
+      <c r="M44" s="37">
         <v>0.22</v>
       </c>
-      <c r="N44" s="48">
+      <c r="N44" s="37">
         <v>0.21452420701168601</v>
       </c>
-      <c r="O44" s="48">
+      <c r="O44" s="37">
         <v>0.398747913188648</v>
       </c>
-      <c r="P44" s="48">
+      <c r="P44" s="37">
         <v>0.26</v>
       </c>
-      <c r="Q44" s="51">
+      <c r="Q44" s="40">
         <v>0.18</v>
       </c>
-      <c r="R44" s="58">
+      <c r="R44" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="32" t="s">
+      <c r="A45" s="59"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="46">
+      <c r="D45" s="35">
         <v>0.24</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="18">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="F45" s="48">
+      <c r="F45" s="37">
         <v>0.16</v>
       </c>
-      <c r="G45" s="48">
+      <c r="G45" s="37">
         <v>0.2</v>
       </c>
-      <c r="H45" s="48">
+      <c r="H45" s="37">
         <v>0.18</v>
       </c>
-      <c r="I45" s="48">
+      <c r="I45" s="37">
         <v>0.41327212020033399</v>
       </c>
-      <c r="J45" s="48">
+      <c r="J45" s="37">
         <v>1.3</v>
       </c>
-      <c r="K45" s="48">
+      <c r="K45" s="37">
         <v>0.356844741235393</v>
       </c>
-      <c r="L45" s="48">
+      <c r="L45" s="37">
         <v>0.18</v>
       </c>
-      <c r="M45" s="48">
+      <c r="M45" s="37">
         <v>0.18</v>
       </c>
-      <c r="N45" s="48">
+      <c r="N45" s="37">
         <v>0.31535893155258798</v>
       </c>
-      <c r="O45" s="48">
+      <c r="O45" s="37">
         <v>0.42779632721202099</v>
       </c>
-      <c r="P45" s="48">
+      <c r="P45" s="37">
         <v>0.2</v>
       </c>
-      <c r="Q45" s="51">
+      <c r="Q45" s="40">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R45" s="60">
+      <c r="R45" s="49">
         <v>0.92900000000000005</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="46">
+      <c r="A46" s="59"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="35">
         <v>0.26</v>
       </c>
-      <c r="E46" s="48">
+      <c r="E46" s="37">
         <v>0.3</v>
       </c>
-      <c r="F46" s="48">
+      <c r="F46" s="37">
         <v>0.24</v>
       </c>
-      <c r="G46" s="48">
+      <c r="G46" s="37">
         <v>0.24</v>
       </c>
-      <c r="H46" s="48">
+      <c r="H46" s="37">
         <v>0.18</v>
       </c>
-      <c r="I46" s="48">
+      <c r="I46" s="37">
         <v>0.39958263772954999</v>
       </c>
-      <c r="J46" s="48">
+      <c r="J46" s="37">
         <v>0.53999999999999904</v>
       </c>
-      <c r="K46" s="48">
+      <c r="K46" s="37">
         <v>0.29958263772955002</v>
       </c>
-      <c r="L46" s="48">
+      <c r="L46" s="37">
         <v>0.24</v>
       </c>
-      <c r="M46" s="48">
+      <c r="M46" s="37">
         <v>0.22</v>
       </c>
-      <c r="N46" s="48">
+      <c r="N46" s="37">
         <v>0.41452420701168702</v>
       </c>
-      <c r="O46" s="48">
+      <c r="O46" s="37">
         <v>0.27136894824707902</v>
       </c>
-      <c r="P46" s="48">
+      <c r="P46" s="37">
         <v>0.26</v>
       </c>
-      <c r="Q46" s="51">
+      <c r="Q46" s="40">
         <v>0.18</v>
       </c>
-      <c r="R46" s="58">
+      <c r="R46" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="32" t="s">
+      <c r="A47" s="59"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="46">
+      <c r="D47" s="35">
         <v>0.26</v>
       </c>
-      <c r="E47" s="48">
+      <c r="E47" s="37">
         <v>0.24</v>
       </c>
-      <c r="F47" s="48">
+      <c r="F47" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G47" s="48">
+      <c r="G47" s="37">
         <v>0.12</v>
       </c>
-      <c r="H47" s="48">
+      <c r="H47" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I47" s="48">
+      <c r="I47" s="37">
         <v>0.15767946577629399</v>
       </c>
-      <c r="J47" s="48">
+      <c r="J47" s="37">
         <v>0.22</v>
       </c>
-      <c r="K47" s="48">
+      <c r="K47" s="37">
         <v>0.142737896494157</v>
       </c>
-      <c r="L47" s="48">
+      <c r="L47" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M47" s="48">
+      <c r="M47" s="37">
         <v>0.12</v>
       </c>
-      <c r="N47" s="48">
+      <c r="N47" s="37">
         <v>0.258096828046745</v>
       </c>
-      <c r="O47" s="48">
+      <c r="O47" s="37">
         <v>0.143155258764608</v>
       </c>
-      <c r="P47" s="48">
+      <c r="P47" s="37">
         <v>0.12</v>
       </c>
-      <c r="Q47" s="51">
+      <c r="Q47" s="40">
         <v>0.18</v>
       </c>
-      <c r="R47" s="58">
+      <c r="R47" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="28"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="44">
+      <c r="A48" s="59"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="33">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="18">
         <v>6.0000000000000102E-2</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="18">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="G48" s="48">
+      <c r="G48" s="37">
         <v>0.16</v>
       </c>
-      <c r="H48" s="48">
+      <c r="H48" s="37">
         <v>0.12</v>
       </c>
-      <c r="I48" s="48">
+      <c r="I48" s="37">
         <v>0.128213689482471</v>
       </c>
-      <c r="J48" s="21">
+      <c r="J48" s="18">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="K48" s="21">
+      <c r="K48" s="18">
         <v>8.5475792988313995E-2</v>
       </c>
-      <c r="L48" s="48">
+      <c r="L48" s="37">
         <v>0.1</v>
       </c>
-      <c r="M48" s="21">
+      <c r="M48" s="18">
         <v>6.0000000000000102E-2</v>
       </c>
-      <c r="N48" s="48">
+      <c r="N48" s="37">
         <v>0.141485809682805</v>
       </c>
-      <c r="O48" s="48">
+      <c r="O48" s="37">
         <v>0.18384059062299701</v>
       </c>
-      <c r="P48" s="48">
+      <c r="P48" s="37">
         <v>0.16</v>
       </c>
-      <c r="Q48" s="23">
+      <c r="Q48" s="20">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="R48" s="59">
+      <c r="R48" s="48">
         <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="28"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="32" t="s">
+      <c r="A49" s="59"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="46">
+      <c r="D49" s="35">
         <v>0.12</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="18">
         <v>6.0000000000000102E-2</v>
       </c>
-      <c r="F49" s="48">
+      <c r="F49" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G49" s="48">
+      <c r="G49" s="37">
         <v>0.12</v>
       </c>
-      <c r="H49" s="48">
+      <c r="H49" s="37">
         <v>0.12</v>
       </c>
-      <c r="I49" s="48">
+      <c r="I49" s="37">
         <v>0.128213689482471</v>
       </c>
-      <c r="J49" s="21">
+      <c r="J49" s="18">
         <v>6.0000000000000102E-2</v>
       </c>
-      <c r="K49" s="21">
+      <c r="K49" s="18">
         <v>7.1368948247078498E-2</v>
       </c>
-      <c r="L49" s="21">
+      <c r="L49" s="18">
         <v>6.0000000000000102E-2</v>
       </c>
-      <c r="M49" s="21">
+      <c r="M49" s="18">
         <v>6.0000000000000102E-2</v>
       </c>
-      <c r="N49" s="48">
+      <c r="N49" s="37">
         <v>0.114524207011686</v>
       </c>
-      <c r="O49" s="48">
+      <c r="O49" s="37">
         <v>0.15684474123539299</v>
       </c>
-      <c r="P49" s="21">
+      <c r="P49" s="18">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="Q49" s="51">
+      <c r="Q49" s="40">
         <v>0.1</v>
       </c>
-      <c r="R49" s="61">
+      <c r="R49" s="50">
         <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="28"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="46">
+      <c r="A50" s="59"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="35">
         <v>0.1</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="18">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="F50" s="21">
+      <c r="F50" s="18">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="G50" s="48">
+      <c r="G50" s="37">
         <v>0.12</v>
       </c>
-      <c r="H50" s="48">
+      <c r="H50" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I50" s="48">
+      <c r="I50" s="37">
         <v>8.5475792988313995E-2</v>
       </c>
-      <c r="J50" s="48">
+      <c r="J50" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K50" s="48">
+      <c r="K50" s="37">
         <v>0.128631051752922</v>
       </c>
-      <c r="L50" s="48">
+      <c r="L50" s="37">
         <v>0.1</v>
       </c>
-      <c r="M50" s="48">
+      <c r="M50" s="37">
         <v>0.12</v>
       </c>
-      <c r="N50" s="48">
+      <c r="N50" s="37">
         <v>0.114106844741236</v>
       </c>
-      <c r="O50" s="21">
+      <c r="O50" s="18">
         <v>4.2737896494156997E-2</v>
       </c>
-      <c r="P50" s="48">
+      <c r="P50" s="37">
         <v>0.12</v>
       </c>
-      <c r="Q50" s="51">
+      <c r="Q50" s="40">
         <v>0.1</v>
       </c>
-      <c r="R50" s="60">
+      <c r="R50" s="49">
         <v>0.78600000000000003</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="28"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="32" t="s">
+      <c r="A51" s="59"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="46">
+      <c r="D51" s="35">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="18">
         <v>0.04</v>
       </c>
-      <c r="F51" s="21">
+      <c r="F51" s="18">
         <v>6.0000000000000102E-2</v>
       </c>
-      <c r="G51" s="21">
+      <c r="G51" s="18">
         <v>6.0000000000000102E-2</v>
       </c>
-      <c r="H51" s="21">
+      <c r="H51" s="18">
         <v>0.04</v>
       </c>
-      <c r="I51" s="48">
+      <c r="I51" s="37">
         <v>0.17095158597662799</v>
       </c>
-      <c r="J51" s="21">
+      <c r="J51" s="18">
         <v>0.04</v>
       </c>
-      <c r="K51" s="21">
+      <c r="K51" s="18">
         <v>8.5058430717863204E-2</v>
       </c>
-      <c r="L51" s="48">
+      <c r="L51" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M51" s="21">
+      <c r="M51" s="18">
         <v>6.0000000000000102E-2</v>
       </c>
-      <c r="N51" s="48">
+      <c r="N51" s="37">
         <v>0.128631051752922</v>
       </c>
-      <c r="O51" s="48">
+      <c r="O51" s="37">
         <v>0.114106844741236</v>
       </c>
-      <c r="P51" s="21">
+      <c r="P51" s="18">
         <v>6.0000000000000102E-2</v>
       </c>
-      <c r="Q51" s="23">
+      <c r="Q51" s="20">
         <v>0.04</v>
       </c>
-      <c r="R51" s="61">
+      <c r="R51" s="50">
         <v>0.35699999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="29"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="39">
+      <c r="A52" s="60"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="28">
         <v>0.04</v>
       </c>
-      <c r="E52" s="25">
+      <c r="E52" s="21">
         <v>0.04</v>
       </c>
-      <c r="F52" s="25">
+      <c r="F52" s="21">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="G52" s="25">
+      <c r="G52" s="21">
         <v>6.0000000000000102E-2</v>
       </c>
-      <c r="H52" s="49">
+      <c r="H52" s="38">
         <v>0.1</v>
       </c>
-      <c r="I52" s="49">
+      <c r="I52" s="38">
         <v>0.113689482470785</v>
       </c>
-      <c r="J52" s="25">
+      <c r="J52" s="21">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="K52" s="25">
+      <c r="K52" s="21">
         <v>5.6844741235392397E-2</v>
       </c>
-      <c r="L52" s="25">
+      <c r="L52" s="21">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="M52" s="25">
+      <c r="M52" s="21">
         <v>0.06</v>
       </c>
-      <c r="N52" s="25">
+      <c r="N52" s="21">
         <v>5.6427378964941599E-2</v>
       </c>
-      <c r="O52" s="25">
+      <c r="O52" s="21">
         <v>7.1786310517529303E-2</v>
       </c>
-      <c r="P52" s="25">
+      <c r="P52" s="21">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="Q52" s="26">
+      <c r="Q52" s="22">
         <v>8.0000000000000099E-2</v>
       </c>
-      <c r="R52" s="61">
+      <c r="R52" s="50">
         <v>0.14299999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B21:B30"/>
     <mergeCell ref="B43:B52"/>
     <mergeCell ref="A21:A52"/>
     <mergeCell ref="C43:C44"/>
@@ -5635,10 +5646,6 @@
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B21:B30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Burst-Detection/压力数据.xlsx
+++ b/Burst-Detection/压力数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2250" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="平滑降噪" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="46">
   <si>
     <t>压力变化阈值</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -153,10 +153,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>采用赵丹丹拐点作为判断的阈值，判断爆管发生的时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>爆管次数</t>
   </si>
   <si>
@@ -182,12 +178,20 @@
     <t>连续五个点超过阈值认为是爆管事件</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>采用赵丹丹拐点作为判断的阈值，判断爆管发生的时间（考虑负压和负压回升）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只考虑负压</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +235,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -577,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -675,26 +688,19 @@
     <xf numFmtId="10" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -708,20 +714,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1110,13 +1126,13 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="57" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="53" t="s">
+      <c r="A8" s="57"/>
+      <c r="B8" s="58" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="4">
@@ -1163,8 +1179,8 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="4">
         <v>0.20622203695893401</v>
       </c>
@@ -1209,8 +1225,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="57"/>
+      <c r="B10" s="58" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="4">
@@ -1257,8 +1273,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
-      <c r="B11" s="53"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="4">
         <v>6.2105197897433698E-2</v>
       </c>
@@ -1306,8 +1322,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="58" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="4">
@@ -1354,8 +1370,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="58"/>
       <c r="C13">
         <v>2.7664742714910401E-2</v>
       </c>
@@ -1400,8 +1416,8 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="53" t="s">
+      <c r="A14" s="57"/>
+      <c r="B14" s="58" t="s">
         <v>18</v>
       </c>
       <c r="C14">
@@ -1448,8 +1464,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="58"/>
       <c r="C15">
         <v>1.8060443331874398E-2</v>
       </c>
@@ -1494,8 +1510,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="57"/>
+      <c r="B16" s="58" t="s">
         <v>19</v>
       </c>
       <c r="C16">
@@ -1542,8 +1558,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="58"/>
       <c r="C17">
         <v>1.13857990146845E-2</v>
       </c>
@@ -1588,10 +1604,10 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="58" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="6">
@@ -1638,8 +1654,8 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="6">
         <v>0.233333333333334</v>
       </c>
@@ -1684,8 +1700,8 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="53" t="s">
+      <c r="A21" s="57"/>
+      <c r="B21" s="58" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="6">
@@ -1732,8 +1748,8 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="6">
         <v>0.1048</v>
       </c>
@@ -1778,8 +1794,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="53" t="s">
+      <c r="A23" s="57"/>
+      <c r="B23" s="58" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="6">
@@ -1826,8 +1842,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="58"/>
       <c r="C24">
         <v>0.04</v>
       </c>
@@ -1872,8 +1888,8 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="53" t="s">
+      <c r="A25" s="57"/>
+      <c r="B25" s="58" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="6">
@@ -1920,8 +1936,8 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="53"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="58"/>
       <c r="C26">
         <v>5.1999999999999998E-2</v>
       </c>
@@ -1966,8 +1982,8 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="53" t="s">
+      <c r="A27" s="57"/>
+      <c r="B27" s="58" t="s">
         <v>19</v>
       </c>
       <c r="C27">
@@ -2014,8 +2030,8 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
-      <c r="B28" s="53"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="58"/>
       <c r="C28">
         <v>3.5000000000000003E-2</v>
       </c>
@@ -2060,10 +2076,10 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="58" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="6">
@@ -2110,8 +2126,8 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="53"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="58"/>
       <c r="C31" s="6">
         <v>0.53333333333333399</v>
       </c>
@@ -2156,8 +2172,8 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
-      <c r="B32" s="53" t="s">
+      <c r="A32" s="57"/>
+      <c r="B32" s="58" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="6">
@@ -2204,8 +2220,8 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
-      <c r="B33" s="53"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="58"/>
       <c r="C33" s="6">
         <v>0.28399999999999997</v>
       </c>
@@ -2250,8 +2266,8 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
-      <c r="B34" s="53" t="s">
+      <c r="A34" s="57"/>
+      <c r="B34" s="58" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="6">
@@ -2298,8 +2314,8 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="54"/>
-      <c r="B35" s="53"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="58"/>
       <c r="C35" s="6">
         <v>8.7500000000000105E-2</v>
       </c>
@@ -2344,8 +2360,8 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="54"/>
-      <c r="B36" s="53" t="s">
+      <c r="A36" s="57"/>
+      <c r="B36" s="58" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="6">
@@ -2392,8 +2408,8 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="54"/>
-      <c r="B37" s="53"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="58"/>
       <c r="C37" s="6">
         <v>0.14000000000000001</v>
       </c>
@@ -2438,8 +2454,8 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="54"/>
-      <c r="B38" s="53" t="s">
+      <c r="A38" s="57"/>
+      <c r="B38" s="58" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="6">
@@ -2486,8 +2502,8 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
-      <c r="B39" s="53"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="6">
         <v>0.22500000000000001</v>
       </c>
@@ -2644,10 +2660,10 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="58" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="4">
@@ -2694,8 +2710,8 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="54"/>
-      <c r="B44" s="53"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="4">
         <v>0.35929627778837298</v>
       </c>
@@ -2740,8 +2756,8 @@
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="54"/>
-      <c r="B45" s="53" t="s">
+      <c r="A45" s="57"/>
+      <c r="B45" s="58" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="4">
@@ -2788,8 +2804,8 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
-      <c r="B46" s="53"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="4">
         <v>0.11918811759426499</v>
       </c>
@@ -2834,8 +2850,8 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="54"/>
-      <c r="B47" s="53" t="s">
+      <c r="A47" s="57"/>
+      <c r="B47" s="58" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="4">
@@ -2882,8 +2898,8 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="54"/>
-      <c r="B48" s="53"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="58"/>
       <c r="C48">
         <v>4.1451873192934301E-2</v>
       </c>
@@ -2928,8 +2944,8 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="54"/>
-      <c r="B49" s="53" t="s">
+      <c r="A49" s="57"/>
+      <c r="B49" s="58" t="s">
         <v>18</v>
       </c>
       <c r="C49">
@@ -2976,8 +2992,8 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="54"/>
-      <c r="B50" s="53"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="58"/>
       <c r="C50">
         <v>2.2165294764432301E-2</v>
       </c>
@@ -3022,8 +3038,8 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="54"/>
-      <c r="B51" s="53" t="s">
+      <c r="A51" s="57"/>
+      <c r="B51" s="58" t="s">
         <v>19</v>
       </c>
       <c r="C51">
@@ -3070,8 +3086,8 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="54"/>
-      <c r="B52" s="53"/>
+      <c r="A52" s="57"/>
+      <c r="B52" s="58"/>
       <c r="C52">
         <v>1.9783438855451401E-2</v>
       </c>
@@ -3116,10 +3132,10 @@
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="53" t="s">
+      <c r="B54" s="58" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="4">
@@ -3166,8 +3182,8 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="54"/>
-      <c r="B55" s="53"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="4">
         <v>0.36</v>
       </c>
@@ -3212,8 +3228,8 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="54"/>
-      <c r="B56" s="53" t="s">
+      <c r="A56" s="57"/>
+      <c r="B56" s="58" t="s">
         <v>15</v>
       </c>
       <c r="C56" s="4">
@@ -3260,8 +3276,8 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="54"/>
-      <c r="B57" s="53"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="4">
         <v>0.26</v>
       </c>
@@ -3306,8 +3322,8 @@
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="54"/>
-      <c r="B58" s="53" t="s">
+      <c r="A58" s="57"/>
+      <c r="B58" s="58" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="4">
@@ -3354,8 +3370,8 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="54"/>
-      <c r="B59" s="53"/>
+      <c r="A59" s="57"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="4">
         <v>8.0000000000000099E-2</v>
       </c>
@@ -3400,8 +3416,8 @@
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="54"/>
-      <c r="B60" s="53" t="s">
+      <c r="A60" s="57"/>
+      <c r="B60" s="58" t="s">
         <v>18</v>
       </c>
       <c r="C60" s="4">
@@ -3448,8 +3464,8 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="54"/>
-      <c r="B61" s="53"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="58"/>
       <c r="C61" s="4">
         <v>0.1</v>
       </c>
@@ -3494,8 +3510,8 @@
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="54"/>
-      <c r="B62" s="53" t="s">
+      <c r="A62" s="57"/>
+      <c r="B62" s="58" t="s">
         <v>19</v>
       </c>
       <c r="C62" s="4">
@@ -3542,8 +3558,8 @@
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" s="54"/>
-      <c r="B63" s="53"/>
+      <c r="A63" s="57"/>
+      <c r="B63" s="58"/>
       <c r="C63" s="4">
         <v>0.1</v>
       </c>
@@ -3589,24 +3605,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A7:A17"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="A54:A63"/>
     <mergeCell ref="A43:A52"/>
@@ -3619,6 +3617,24 @@
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A7:A17"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3628,152 +3644,152 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:LB60"/>
+  <dimension ref="B1:LB86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BU52" sqref="BU52:CI52"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:314" x14ac:dyDescent="0.2">
-      <c r="D1" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="D1" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" spans="2:314" x14ac:dyDescent="0.2">
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
     </row>
     <row r="3" spans="2:314" x14ac:dyDescent="0.2">
-      <c r="D3" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
+      <c r="D3" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
     </row>
     <row r="4" spans="2:314" x14ac:dyDescent="0.2">
-      <c r="C4" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="68">
+      <c r="C4" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="55">
         <v>1</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="55">
         <v>2</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="55">
         <v>3</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="55">
         <v>4</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="55">
         <v>5</v>
       </c>
-      <c r="I4" s="68">
+      <c r="I4" s="55">
         <v>6</v>
       </c>
-      <c r="J4" s="68">
+      <c r="J4" s="55">
         <v>7</v>
       </c>
-      <c r="K4" s="68">
+      <c r="K4" s="55">
         <v>8</v>
       </c>
-      <c r="L4" s="68">
+      <c r="L4" s="55">
         <v>9</v>
       </c>
-      <c r="M4" s="68">
+      <c r="M4" s="55">
         <v>10</v>
       </c>
-      <c r="N4" s="68">
+      <c r="N4" s="55">
         <v>11</v>
       </c>
-      <c r="O4" s="68">
+      <c r="O4" s="55">
         <v>12</v>
       </c>
-      <c r="P4" s="68">
+      <c r="P4" s="55">
         <v>13</v>
       </c>
-      <c r="Q4" s="68">
+      <c r="Q4" s="55">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:314" x14ac:dyDescent="0.2">
-      <c r="C5" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="68">
+      <c r="C5" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="55">
         <v>74</v>
       </c>
-      <c r="E5" s="68">
+      <c r="E5" s="55">
         <v>67</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="55">
         <v>66</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="55">
         <v>74</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="55">
         <v>72</v>
       </c>
-      <c r="I5" s="68">
+      <c r="I5" s="55">
         <v>85</v>
       </c>
-      <c r="J5" s="68">
+      <c r="J5" s="55">
         <v>69</v>
       </c>
-      <c r="K5" s="68">
+      <c r="K5" s="55">
         <v>82</v>
       </c>
-      <c r="L5" s="68">
+      <c r="L5" s="55">
         <v>74</v>
       </c>
-      <c r="M5" s="68">
+      <c r="M5" s="55">
         <v>75</v>
       </c>
-      <c r="N5" s="68">
+      <c r="N5" s="55">
         <v>104</v>
       </c>
-      <c r="O5" s="68">
+      <c r="O5" s="55">
         <v>97</v>
       </c>
-      <c r="P5" s="68">
+      <c r="P5" s="55">
         <v>78</v>
       </c>
-      <c r="Q5" s="68">
+      <c r="Q5" s="55">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:314" x14ac:dyDescent="0.2">
       <c r="C6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:314" x14ac:dyDescent="0.2">
-      <c r="B7" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="66">
+      <c r="B7" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="53">
         <v>1</v>
       </c>
       <c r="D7">
@@ -4073,73 +4089,73 @@
       <c r="CX7">
         <v>0</v>
       </c>
-      <c r="CY7" s="69">
+      <c r="CY7" s="56">
         <v>557</v>
       </c>
-      <c r="CZ7" s="69">
+      <c r="CZ7" s="56">
         <v>561</v>
       </c>
-      <c r="DA7" s="69">
-        <v>0</v>
-      </c>
-      <c r="DB7" s="69">
+      <c r="DA7" s="56">
+        <v>0</v>
+      </c>
+      <c r="DB7" s="56">
         <v>563</v>
       </c>
-      <c r="DC7" s="69">
+      <c r="DC7" s="56">
         <v>567</v>
       </c>
-      <c r="DD7" s="69">
-        <v>0</v>
-      </c>
-      <c r="DE7" s="69">
+      <c r="DD7" s="56">
+        <v>0</v>
+      </c>
+      <c r="DE7" s="56">
         <v>569</v>
       </c>
-      <c r="DF7" s="69">
+      <c r="DF7" s="56">
         <v>573</v>
       </c>
-      <c r="DG7" s="69">
-        <v>0</v>
-      </c>
-      <c r="DH7" s="69">
+      <c r="DG7" s="56">
+        <v>0</v>
+      </c>
+      <c r="DH7" s="56">
         <v>575</v>
       </c>
-      <c r="DI7" s="69">
+      <c r="DI7" s="56">
         <v>581</v>
       </c>
-      <c r="DJ7" s="69">
-        <v>0</v>
-      </c>
-      <c r="DK7" s="69">
+      <c r="DJ7" s="56">
+        <v>0</v>
+      </c>
+      <c r="DK7" s="56">
         <v>584</v>
       </c>
-      <c r="DL7" s="69">
+      <c r="DL7" s="56">
         <v>590</v>
       </c>
-      <c r="DM7" s="69">
-        <v>0</v>
-      </c>
-      <c r="DN7" s="69">
+      <c r="DM7" s="56">
+        <v>0</v>
+      </c>
+      <c r="DN7" s="56">
         <v>603</v>
       </c>
-      <c r="DO7" s="69">
+      <c r="DO7" s="56">
         <v>606</v>
       </c>
-      <c r="DP7" s="69">
-        <v>0</v>
-      </c>
-      <c r="DQ7" s="69">
+      <c r="DP7" s="56">
+        <v>0</v>
+      </c>
+      <c r="DQ7" s="56">
         <v>608</v>
       </c>
-      <c r="DR7" s="69">
+      <c r="DR7" s="56">
         <v>610</v>
       </c>
-      <c r="DS7" s="69">
-        <v>0</v>
-      </c>
-      <c r="DT7" s="69">
+      <c r="DS7" s="56">
+        <v>0</v>
+      </c>
+      <c r="DT7" s="56">
         <v>612</v>
       </c>
-      <c r="DU7" s="69">
+      <c r="DU7" s="56">
         <v>616</v>
       </c>
       <c r="DV7">
@@ -4474,8 +4490,8 @@
       </c>
     </row>
     <row r="8" spans="2:314" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="54"/>
-      <c r="C8" s="67">
+      <c r="B8" s="57"/>
+      <c r="C8" s="54">
         <v>2</v>
       </c>
       <c r="D8">
@@ -4802,37 +4818,37 @@
       <c r="DG8">
         <v>0</v>
       </c>
-      <c r="DH8" s="69">
+      <c r="DH8" s="56">
         <v>558</v>
       </c>
-      <c r="DI8" s="69">
+      <c r="DI8" s="56">
         <v>567</v>
       </c>
-      <c r="DJ8" s="69">
-        <v>0</v>
-      </c>
-      <c r="DK8" s="69">
+      <c r="DJ8" s="56">
+        <v>0</v>
+      </c>
+      <c r="DK8" s="56">
         <v>570</v>
       </c>
-      <c r="DL8" s="69">
+      <c r="DL8" s="56">
         <v>573</v>
       </c>
-      <c r="DM8" s="69">
-        <v>0</v>
-      </c>
-      <c r="DN8" s="69">
+      <c r="DM8" s="56">
+        <v>0</v>
+      </c>
+      <c r="DN8" s="56">
         <v>587</v>
       </c>
-      <c r="DO8" s="69">
+      <c r="DO8" s="56">
         <v>589</v>
       </c>
-      <c r="DP8" s="69">
-        <v>0</v>
-      </c>
-      <c r="DQ8" s="69">
+      <c r="DP8" s="56">
+        <v>0</v>
+      </c>
+      <c r="DQ8" s="56">
         <v>603</v>
       </c>
-      <c r="DR8" s="69">
+      <c r="DR8" s="56">
         <v>606</v>
       </c>
       <c r="DS8">
@@ -5413,8 +5429,8 @@
       </c>
     </row>
     <row r="9" spans="2:314" x14ac:dyDescent="0.2">
-      <c r="B9" s="54"/>
-      <c r="C9" s="66">
+      <c r="B9" s="57"/>
+      <c r="C9" s="53">
         <v>3</v>
       </c>
       <c r="D9">
@@ -5705,64 +5721,64 @@
       <c r="CU9">
         <v>0</v>
       </c>
-      <c r="CV9" s="69">
+      <c r="CV9" s="56">
         <v>554</v>
       </c>
-      <c r="CW9" s="69">
+      <c r="CW9" s="56">
         <v>558</v>
       </c>
-      <c r="CX9" s="69">
-        <v>0</v>
-      </c>
-      <c r="CY9" s="69">
+      <c r="CX9" s="56">
+        <v>0</v>
+      </c>
+      <c r="CY9" s="56">
         <v>560</v>
       </c>
-      <c r="CZ9" s="69">
+      <c r="CZ9" s="56">
         <v>564</v>
       </c>
-      <c r="DA9" s="69">
-        <v>0</v>
-      </c>
-      <c r="DB9" s="69">
+      <c r="DA9" s="56">
+        <v>0</v>
+      </c>
+      <c r="DB9" s="56">
         <v>566</v>
       </c>
-      <c r="DC9" s="69">
+      <c r="DC9" s="56">
         <v>571</v>
       </c>
-      <c r="DD9" s="69">
-        <v>0</v>
-      </c>
-      <c r="DE9" s="69">
+      <c r="DD9" s="56">
+        <v>0</v>
+      </c>
+      <c r="DE9" s="56">
         <v>573</v>
       </c>
-      <c r="DF9" s="69">
+      <c r="DF9" s="56">
         <v>577</v>
       </c>
-      <c r="DG9" s="69">
-        <v>0</v>
-      </c>
-      <c r="DH9" s="69">
+      <c r="DG9" s="56">
+        <v>0</v>
+      </c>
+      <c r="DH9" s="56">
         <v>582</v>
       </c>
-      <c r="DI9" s="69">
+      <c r="DI9" s="56">
         <v>586</v>
       </c>
-      <c r="DJ9" s="69">
-        <v>0</v>
-      </c>
-      <c r="DK9" s="69">
+      <c r="DJ9" s="56">
+        <v>0</v>
+      </c>
+      <c r="DK9" s="56">
         <v>599</v>
       </c>
-      <c r="DL9" s="69">
+      <c r="DL9" s="56">
         <v>603</v>
       </c>
-      <c r="DM9" s="69">
-        <v>0</v>
-      </c>
-      <c r="DN9" s="69">
+      <c r="DM9" s="56">
+        <v>0</v>
+      </c>
+      <c r="DN9" s="56">
         <v>609</v>
       </c>
-      <c r="DO9" s="69">
+      <c r="DO9" s="56">
         <v>612</v>
       </c>
       <c r="DP9">
@@ -6352,8 +6368,8 @@
       </c>
     </row>
     <row r="10" spans="2:314" x14ac:dyDescent="0.2">
-      <c r="B10" s="54"/>
-      <c r="C10" s="67">
+      <c r="B10" s="57"/>
+      <c r="C10" s="54">
         <v>4</v>
       </c>
       <c r="D10">
@@ -6680,76 +6696,76 @@
       <c r="DG10">
         <v>0</v>
       </c>
-      <c r="DH10" s="69">
+      <c r="DH10" s="56">
         <v>556</v>
       </c>
-      <c r="DI10" s="69">
+      <c r="DI10" s="56">
         <v>560</v>
       </c>
-      <c r="DJ10" s="69">
-        <v>0</v>
-      </c>
-      <c r="DK10" s="69">
+      <c r="DJ10" s="56">
+        <v>0</v>
+      </c>
+      <c r="DK10" s="56">
         <v>562</v>
       </c>
-      <c r="DL10" s="69">
+      <c r="DL10" s="56">
         <v>566</v>
       </c>
-      <c r="DM10" s="69">
-        <v>0</v>
-      </c>
-      <c r="DN10" s="69">
+      <c r="DM10" s="56">
+        <v>0</v>
+      </c>
+      <c r="DN10" s="56">
         <v>568</v>
       </c>
-      <c r="DO10" s="69">
+      <c r="DO10" s="56">
         <v>572</v>
       </c>
-      <c r="DP10" s="69">
-        <v>0</v>
-      </c>
-      <c r="DQ10" s="69">
+      <c r="DP10" s="56">
+        <v>0</v>
+      </c>
+      <c r="DQ10" s="56">
         <v>575</v>
       </c>
-      <c r="DR10" s="69">
+      <c r="DR10" s="56">
         <v>579</v>
       </c>
-      <c r="DS10" s="69">
-        <v>0</v>
-      </c>
-      <c r="DT10" s="69">
+      <c r="DS10" s="56">
+        <v>0</v>
+      </c>
+      <c r="DT10" s="56">
         <v>584</v>
       </c>
-      <c r="DU10" s="69">
+      <c r="DU10" s="56">
         <v>588</v>
       </c>
-      <c r="DV10" s="69">
-        <v>0</v>
-      </c>
-      <c r="DW10" s="69">
+      <c r="DV10" s="56">
+        <v>0</v>
+      </c>
+      <c r="DW10" s="56">
         <v>602</v>
       </c>
-      <c r="DX10" s="69">
+      <c r="DX10" s="56">
         <v>605</v>
       </c>
-      <c r="DY10" s="69">
-        <v>0</v>
-      </c>
-      <c r="DZ10" s="69">
+      <c r="DY10" s="56">
+        <v>0</v>
+      </c>
+      <c r="DZ10" s="56">
         <v>611</v>
       </c>
-      <c r="EA10" s="69">
+      <c r="EA10" s="56">
         <v>615</v>
       </c>
-      <c r="EB10" s="69">
-        <v>0</v>
-      </c>
-      <c r="EC10" s="69">
+      <c r="EB10" s="56">
+        <v>0</v>
+      </c>
+      <c r="EC10" s="56">
         <v>619</v>
       </c>
-      <c r="ED10" s="69">
+      <c r="ED10" s="56">
         <v>621</v>
       </c>
-      <c r="EE10" s="69">
+      <c r="EE10" s="56">
         <v>0</v>
       </c>
       <c r="EF10">
@@ -7291,8 +7307,8 @@
       </c>
     </row>
     <row r="11" spans="2:314" x14ac:dyDescent="0.2">
-      <c r="B11" s="54"/>
-      <c r="C11" s="66">
+      <c r="B11" s="57"/>
+      <c r="C11" s="53">
         <v>5</v>
       </c>
       <c r="D11">
@@ -7628,85 +7644,85 @@
       <c r="DJ11">
         <v>0</v>
       </c>
-      <c r="DK11" s="69">
+      <c r="DK11" s="56">
         <v>556</v>
       </c>
-      <c r="DL11" s="69">
+      <c r="DL11" s="56">
         <v>560</v>
       </c>
-      <c r="DM11" s="69">
-        <v>0</v>
-      </c>
-      <c r="DN11" s="69">
+      <c r="DM11" s="56">
+        <v>0</v>
+      </c>
+      <c r="DN11" s="56">
         <v>562</v>
       </c>
-      <c r="DO11" s="69">
+      <c r="DO11" s="56">
         <v>566</v>
       </c>
-      <c r="DP11" s="69">
-        <v>0</v>
-      </c>
-      <c r="DQ11" s="69">
+      <c r="DP11" s="56">
+        <v>0</v>
+      </c>
+      <c r="DQ11" s="56">
         <v>568</v>
       </c>
-      <c r="DR11" s="69">
+      <c r="DR11" s="56">
         <v>572</v>
       </c>
-      <c r="DS11" s="69">
-        <v>0</v>
-      </c>
-      <c r="DT11" s="69">
+      <c r="DS11" s="56">
+        <v>0</v>
+      </c>
+      <c r="DT11" s="56">
         <v>577</v>
       </c>
-      <c r="DU11" s="69">
+      <c r="DU11" s="56">
         <v>579</v>
       </c>
-      <c r="DV11" s="69">
-        <v>0</v>
-      </c>
-      <c r="DW11" s="69">
+      <c r="DV11" s="56">
+        <v>0</v>
+      </c>
+      <c r="DW11" s="56">
         <v>585</v>
       </c>
-      <c r="DX11" s="69">
+      <c r="DX11" s="56">
         <v>588</v>
       </c>
-      <c r="DY11" s="69">
-        <v>0</v>
-      </c>
-      <c r="DZ11" s="69">
+      <c r="DY11" s="56">
+        <v>0</v>
+      </c>
+      <c r="DZ11" s="56">
         <v>602</v>
       </c>
-      <c r="EA11" s="69">
+      <c r="EA11" s="56">
         <v>605</v>
       </c>
-      <c r="EB11" s="69">
-        <v>0</v>
-      </c>
-      <c r="EC11" s="69">
+      <c r="EB11" s="56">
+        <v>0</v>
+      </c>
+      <c r="EC11" s="56">
         <v>611</v>
       </c>
-      <c r="ED11" s="69">
+      <c r="ED11" s="56">
         <v>615</v>
       </c>
-      <c r="EE11" s="69">
-        <v>0</v>
-      </c>
-      <c r="EF11" s="69">
+      <c r="EE11" s="56">
+        <v>0</v>
+      </c>
+      <c r="EF11" s="56">
         <v>619</v>
       </c>
-      <c r="EG11" s="69">
+      <c r="EG11" s="56">
         <v>621</v>
       </c>
-      <c r="EH11" s="69">
-        <v>0</v>
-      </c>
-      <c r="EI11" s="69">
+      <c r="EH11" s="56">
+        <v>0</v>
+      </c>
+      <c r="EI11" s="56">
         <v>649</v>
       </c>
-      <c r="EJ11" s="69">
+      <c r="EJ11" s="56">
         <v>651</v>
       </c>
-      <c r="EK11" s="69">
+      <c r="EK11" s="56">
         <v>0</v>
       </c>
       <c r="EL11">
@@ -8230,8 +8246,8 @@
       </c>
     </row>
     <row r="12" spans="2:314" x14ac:dyDescent="0.2">
-      <c r="B12" s="54"/>
-      <c r="C12" s="67">
+      <c r="B12" s="57"/>
+      <c r="C12" s="54">
         <v>6</v>
       </c>
       <c r="D12">
@@ -8612,82 +8628,82 @@
       <c r="DY12">
         <v>0</v>
       </c>
-      <c r="DZ12" s="69">
+      <c r="DZ12" s="56">
         <v>558</v>
       </c>
-      <c r="EA12" s="69">
+      <c r="EA12" s="56">
         <v>561</v>
       </c>
-      <c r="EB12" s="69">
-        <v>0</v>
-      </c>
-      <c r="EC12" s="69">
+      <c r="EB12" s="56">
+        <v>0</v>
+      </c>
+      <c r="EC12" s="56">
         <v>563</v>
       </c>
-      <c r="ED12" s="69">
+      <c r="ED12" s="56">
         <v>567</v>
       </c>
-      <c r="EE12" s="69">
-        <v>0</v>
-      </c>
-      <c r="EF12" s="69">
+      <c r="EE12" s="56">
+        <v>0</v>
+      </c>
+      <c r="EF12" s="56">
         <v>571</v>
       </c>
-      <c r="EG12" s="69">
+      <c r="EG12" s="56">
         <v>573</v>
       </c>
-      <c r="EH12" s="69">
-        <v>0</v>
-      </c>
-      <c r="EI12" s="69">
+      <c r="EH12" s="56">
+        <v>0</v>
+      </c>
+      <c r="EI12" s="56">
         <v>577</v>
       </c>
-      <c r="EJ12" s="69">
+      <c r="EJ12" s="56">
         <v>579</v>
       </c>
-      <c r="EK12" s="69">
-        <v>0</v>
-      </c>
-      <c r="EL12" s="69">
+      <c r="EK12" s="56">
+        <v>0</v>
+      </c>
+      <c r="EL12" s="56">
         <v>587</v>
       </c>
-      <c r="EM12" s="69">
+      <c r="EM12" s="56">
         <v>589</v>
       </c>
-      <c r="EN12" s="69">
-        <v>0</v>
-      </c>
-      <c r="EO12" s="69">
+      <c r="EN12" s="56">
+        <v>0</v>
+      </c>
+      <c r="EO12" s="56">
         <v>604</v>
       </c>
-      <c r="EP12" s="69">
+      <c r="EP12" s="56">
         <v>606</v>
       </c>
-      <c r="EQ12" s="69">
-        <v>0</v>
-      </c>
-      <c r="ER12" s="69">
+      <c r="EQ12" s="56">
+        <v>0</v>
+      </c>
+      <c r="ER12" s="56">
         <v>613</v>
       </c>
-      <c r="ES12" s="69">
+      <c r="ES12" s="56">
         <v>616</v>
       </c>
-      <c r="ET12" s="69">
-        <v>0</v>
-      </c>
-      <c r="EU12" s="69">
+      <c r="ET12" s="56">
+        <v>0</v>
+      </c>
+      <c r="EU12" s="56">
         <v>621</v>
       </c>
-      <c r="EV12" s="69">
+      <c r="EV12" s="56">
         <v>623</v>
       </c>
-      <c r="EW12" s="69">
-        <v>0</v>
-      </c>
-      <c r="EX12" s="69">
+      <c r="EW12" s="56">
+        <v>0</v>
+      </c>
+      <c r="EX12" s="56">
         <v>651</v>
       </c>
-      <c r="EY12" s="69">
+      <c r="EY12" s="56">
         <v>653</v>
       </c>
       <c r="EZ12">
@@ -9169,8 +9185,8 @@
       </c>
     </row>
     <row r="13" spans="2:314" x14ac:dyDescent="0.2">
-      <c r="B13" s="54"/>
-      <c r="C13" s="66">
+      <c r="B13" s="57"/>
+      <c r="C13" s="53">
         <v>7</v>
       </c>
       <c r="D13">
@@ -9515,49 +9531,49 @@
       <c r="DM13">
         <v>0</v>
       </c>
-      <c r="DN13" s="69">
+      <c r="DN13" s="56">
         <v>555</v>
       </c>
-      <c r="DO13" s="69">
+      <c r="DO13" s="56">
         <v>559</v>
       </c>
-      <c r="DP13" s="69">
-        <v>0</v>
-      </c>
-      <c r="DQ13" s="69">
+      <c r="DP13" s="56">
+        <v>0</v>
+      </c>
+      <c r="DQ13" s="56">
         <v>561</v>
       </c>
-      <c r="DR13" s="69">
+      <c r="DR13" s="56">
         <v>565</v>
       </c>
-      <c r="DS13" s="69">
-        <v>0</v>
-      </c>
-      <c r="DT13" s="69">
+      <c r="DS13" s="56">
+        <v>0</v>
+      </c>
+      <c r="DT13" s="56">
         <v>568</v>
       </c>
-      <c r="DU13" s="69">
+      <c r="DU13" s="56">
         <v>572</v>
       </c>
-      <c r="DV13" s="69">
-        <v>0</v>
-      </c>
-      <c r="DW13" s="69">
+      <c r="DV13" s="56">
+        <v>0</v>
+      </c>
+      <c r="DW13" s="56">
         <v>574</v>
       </c>
-      <c r="DX13" s="69">
+      <c r="DX13" s="56">
         <v>590</v>
       </c>
-      <c r="DY13" s="69">
-        <v>0</v>
-      </c>
-      <c r="DZ13" s="69">
+      <c r="DY13" s="56">
+        <v>0</v>
+      </c>
+      <c r="DZ13" s="56">
         <v>606</v>
       </c>
-      <c r="EA13" s="69">
+      <c r="EA13" s="56">
         <v>612</v>
       </c>
-      <c r="EB13" s="69">
+      <c r="EB13" s="56">
         <v>0</v>
       </c>
       <c r="EC13">
@@ -10108,8 +10124,8 @@
       </c>
     </row>
     <row r="14" spans="2:314" x14ac:dyDescent="0.2">
-      <c r="B14" s="54"/>
-      <c r="C14" s="67">
+      <c r="B14" s="57"/>
+      <c r="C14" s="54">
         <v>8</v>
       </c>
       <c r="D14">
@@ -10445,76 +10461,76 @@
       <c r="DJ14">
         <v>0</v>
       </c>
-      <c r="DK14" s="69">
+      <c r="DK14" s="56">
         <v>555</v>
       </c>
-      <c r="DL14" s="69">
+      <c r="DL14" s="56">
         <v>557</v>
       </c>
-      <c r="DM14" s="69">
-        <v>0</v>
-      </c>
-      <c r="DN14" s="69">
+      <c r="DM14" s="56">
+        <v>0</v>
+      </c>
+      <c r="DN14" s="56">
         <v>561</v>
       </c>
-      <c r="DO14" s="69">
+      <c r="DO14" s="56">
         <v>563</v>
       </c>
-      <c r="DP14" s="69">
-        <v>0</v>
-      </c>
-      <c r="DQ14" s="69">
+      <c r="DP14" s="56">
+        <v>0</v>
+      </c>
+      <c r="DQ14" s="56">
         <v>567</v>
       </c>
-      <c r="DR14" s="69">
+      <c r="DR14" s="56">
         <v>570</v>
       </c>
-      <c r="DS14" s="69">
-        <v>0</v>
-      </c>
-      <c r="DT14" s="69">
+      <c r="DS14" s="56">
+        <v>0</v>
+      </c>
+      <c r="DT14" s="56">
         <v>573</v>
       </c>
-      <c r="DU14" s="69">
+      <c r="DU14" s="56">
         <v>576</v>
       </c>
-      <c r="DV14" s="69">
-        <v>0</v>
-      </c>
-      <c r="DW14" s="69">
+      <c r="DV14" s="56">
+        <v>0</v>
+      </c>
+      <c r="DW14" s="56">
         <v>580</v>
       </c>
-      <c r="DX14" s="69">
+      <c r="DX14" s="56">
         <v>585</v>
       </c>
-      <c r="DY14" s="69">
-        <v>0</v>
-      </c>
-      <c r="DZ14" s="69">
+      <c r="DY14" s="56">
+        <v>0</v>
+      </c>
+      <c r="DZ14" s="56">
         <v>591</v>
       </c>
-      <c r="EA14" s="69">
+      <c r="EA14" s="56">
         <v>595</v>
       </c>
-      <c r="EB14" s="69">
-        <v>0</v>
-      </c>
-      <c r="EC14" s="69">
+      <c r="EB14" s="56">
+        <v>0</v>
+      </c>
+      <c r="EC14" s="56">
         <v>600</v>
       </c>
-      <c r="ED14" s="69">
+      <c r="ED14" s="56">
         <v>604</v>
       </c>
-      <c r="EE14" s="69">
-        <v>0</v>
-      </c>
-      <c r="EF14" s="69">
+      <c r="EE14" s="56">
+        <v>0</v>
+      </c>
+      <c r="EF14" s="56">
         <v>609</v>
       </c>
-      <c r="EG14" s="69">
+      <c r="EG14" s="56">
         <v>611</v>
       </c>
-      <c r="EH14" s="69">
+      <c r="EH14" s="56">
         <v>0</v>
       </c>
       <c r="EI14">
@@ -11047,8 +11063,8 @@
       </c>
     </row>
     <row r="15" spans="2:314" x14ac:dyDescent="0.2">
-      <c r="B15" s="54"/>
-      <c r="C15" s="66">
+      <c r="B15" s="57"/>
+      <c r="C15" s="53">
         <v>9</v>
       </c>
       <c r="D15">
@@ -11375,70 +11391,70 @@
       <c r="DG15">
         <v>0</v>
       </c>
-      <c r="DH15" s="69">
+      <c r="DH15" s="56">
         <v>555</v>
       </c>
-      <c r="DI15" s="69">
+      <c r="DI15" s="56">
         <v>559</v>
       </c>
-      <c r="DJ15" s="69">
-        <v>0</v>
-      </c>
-      <c r="DK15" s="69">
+      <c r="DJ15" s="56">
+        <v>0</v>
+      </c>
+      <c r="DK15" s="56">
         <v>561</v>
       </c>
-      <c r="DL15" s="69">
+      <c r="DL15" s="56">
         <v>565</v>
       </c>
-      <c r="DM15" s="69">
-        <v>0</v>
-      </c>
-      <c r="DN15" s="69">
+      <c r="DM15" s="56">
+        <v>0</v>
+      </c>
+      <c r="DN15" s="56">
         <v>567</v>
       </c>
-      <c r="DO15" s="69">
+      <c r="DO15" s="56">
         <v>571</v>
       </c>
-      <c r="DP15" s="69">
-        <v>0</v>
-      </c>
-      <c r="DQ15" s="69">
+      <c r="DP15" s="56">
+        <v>0</v>
+      </c>
+      <c r="DQ15" s="56">
         <v>574</v>
       </c>
-      <c r="DR15" s="69">
+      <c r="DR15" s="56">
         <v>581</v>
       </c>
-      <c r="DS15" s="69">
-        <v>0</v>
-      </c>
-      <c r="DT15" s="69">
+      <c r="DS15" s="56">
+        <v>0</v>
+      </c>
+      <c r="DT15" s="56">
         <v>583</v>
       </c>
-      <c r="DU15" s="69">
+      <c r="DU15" s="56">
         <v>588</v>
       </c>
-      <c r="DV15" s="69">
-        <v>0</v>
-      </c>
-      <c r="DW15" s="69">
+      <c r="DV15" s="56">
+        <v>0</v>
+      </c>
+      <c r="DW15" s="56">
         <v>601</v>
       </c>
-      <c r="DX15" s="69">
+      <c r="DX15" s="56">
         <v>605</v>
       </c>
-      <c r="DY15" s="69">
-        <v>0</v>
-      </c>
-      <c r="DZ15" s="69">
+      <c r="DY15" s="56">
+        <v>0</v>
+      </c>
+      <c r="DZ15" s="56">
         <v>610</v>
       </c>
-      <c r="EA15" s="69">
+      <c r="EA15" s="56">
         <v>613</v>
       </c>
-      <c r="EB15" s="69">
-        <v>0</v>
-      </c>
-      <c r="EC15" s="69">
+      <c r="EB15" s="56">
+        <v>0</v>
+      </c>
+      <c r="EC15" s="56">
         <v>680</v>
       </c>
       <c r="ED15">
@@ -11986,8 +12002,8 @@
       </c>
     </row>
     <row r="16" spans="2:314" x14ac:dyDescent="0.2">
-      <c r="B16" s="54"/>
-      <c r="C16" s="67">
+      <c r="B16" s="57"/>
+      <c r="C16" s="54">
         <v>10</v>
       </c>
       <c r="D16">
@@ -12332,64 +12348,64 @@
       <c r="DM16">
         <v>0</v>
       </c>
-      <c r="DN16" s="69">
+      <c r="DN16" s="56">
         <v>555</v>
       </c>
-      <c r="DO16" s="69">
+      <c r="DO16" s="56">
         <v>559</v>
       </c>
-      <c r="DP16" s="69">
-        <v>0</v>
-      </c>
-      <c r="DQ16" s="69">
+      <c r="DP16" s="56">
+        <v>0</v>
+      </c>
+      <c r="DQ16" s="56">
         <v>561</v>
       </c>
-      <c r="DR16" s="69">
+      <c r="DR16" s="56">
         <v>565</v>
       </c>
-      <c r="DS16" s="69">
-        <v>0</v>
-      </c>
-      <c r="DT16" s="69">
+      <c r="DS16" s="56">
+        <v>0</v>
+      </c>
+      <c r="DT16" s="56">
         <v>568</v>
       </c>
-      <c r="DU16" s="69">
+      <c r="DU16" s="56">
         <v>571</v>
       </c>
-      <c r="DV16" s="69">
-        <v>0</v>
-      </c>
-      <c r="DW16" s="69">
+      <c r="DV16" s="56">
+        <v>0</v>
+      </c>
+      <c r="DW16" s="56">
         <v>576</v>
       </c>
-      <c r="DX16" s="69">
+      <c r="DX16" s="56">
         <v>578</v>
       </c>
-      <c r="DY16" s="69">
-        <v>0</v>
-      </c>
-      <c r="DZ16" s="69">
+      <c r="DY16" s="56">
+        <v>0</v>
+      </c>
+      <c r="DZ16" s="56">
         <v>584</v>
       </c>
-      <c r="EA16" s="69">
+      <c r="EA16" s="56">
         <v>588</v>
       </c>
-      <c r="EB16" s="69">
-        <v>0</v>
-      </c>
-      <c r="EC16" s="69">
+      <c r="EB16" s="56">
+        <v>0</v>
+      </c>
+      <c r="EC16" s="56">
         <v>601</v>
       </c>
-      <c r="ED16" s="69">
+      <c r="ED16" s="56">
         <v>604</v>
       </c>
-      <c r="EE16" s="69">
-        <v>0</v>
-      </c>
-      <c r="EF16" s="69">
+      <c r="EE16" s="56">
+        <v>0</v>
+      </c>
+      <c r="EF16" s="56">
         <v>610</v>
       </c>
-      <c r="EG16" s="69">
+      <c r="EG16" s="56">
         <v>612</v>
       </c>
       <c r="EH16">
@@ -12925,8 +12941,8 @@
       </c>
     </row>
     <row r="17" spans="2:314" x14ac:dyDescent="0.2">
-      <c r="B17" s="54"/>
-      <c r="C17" s="66">
+      <c r="B17" s="57"/>
+      <c r="C17" s="53">
         <v>11</v>
       </c>
       <c r="D17">
@@ -13361,94 +13377,94 @@
       <c r="EQ17">
         <v>0</v>
       </c>
-      <c r="ER17" s="69">
+      <c r="ER17" s="56">
         <v>556</v>
       </c>
-      <c r="ES17" s="69">
+      <c r="ES17" s="56">
         <v>561</v>
       </c>
-      <c r="ET17" s="69">
-        <v>0</v>
-      </c>
-      <c r="EU17" s="69">
+      <c r="ET17" s="56">
+        <v>0</v>
+      </c>
+      <c r="EU17" s="56">
         <v>563</v>
       </c>
-      <c r="EV17" s="69">
+      <c r="EV17" s="56">
         <v>566</v>
       </c>
-      <c r="EW17" s="69">
-        <v>0</v>
-      </c>
-      <c r="EX17" s="69">
+      <c r="EW17" s="56">
+        <v>0</v>
+      </c>
+      <c r="EX17" s="56">
         <v>570</v>
       </c>
-      <c r="EY17" s="69">
+      <c r="EY17" s="56">
         <v>572</v>
       </c>
-      <c r="EZ17" s="69">
-        <v>0</v>
-      </c>
-      <c r="FA17" s="69">
+      <c r="EZ17" s="56">
+        <v>0</v>
+      </c>
+      <c r="FA17" s="56">
         <v>575</v>
       </c>
-      <c r="FB17" s="69">
+      <c r="FB17" s="56">
         <v>578</v>
       </c>
-      <c r="FC17" s="69">
-        <v>0</v>
-      </c>
-      <c r="FD17" s="69">
+      <c r="FC17" s="56">
+        <v>0</v>
+      </c>
+      <c r="FD17" s="56">
         <v>582</v>
       </c>
-      <c r="FE17" s="69">
+      <c r="FE17" s="56">
         <v>587</v>
       </c>
-      <c r="FF17" s="69">
-        <v>0</v>
-      </c>
-      <c r="FG17" s="69">
+      <c r="FF17" s="56">
+        <v>0</v>
+      </c>
+      <c r="FG17" s="56">
         <v>592</v>
       </c>
-      <c r="FH17" s="69">
+      <c r="FH17" s="56">
         <v>598</v>
       </c>
-      <c r="FI17" s="69">
-        <v>0</v>
-      </c>
-      <c r="FJ17" s="69">
+      <c r="FI17" s="56">
+        <v>0</v>
+      </c>
+      <c r="FJ17" s="56">
         <v>603</v>
       </c>
-      <c r="FK17" s="69">
+      <c r="FK17" s="56">
         <v>605</v>
       </c>
-      <c r="FL17" s="69">
-        <v>0</v>
-      </c>
-      <c r="FM17" s="69">
+      <c r="FL17" s="56">
+        <v>0</v>
+      </c>
+      <c r="FM17" s="56">
         <v>608</v>
       </c>
-      <c r="FN17" s="69">
+      <c r="FN17" s="56">
         <v>610</v>
       </c>
-      <c r="FO17" s="69">
-        <v>0</v>
-      </c>
-      <c r="FP17" s="69">
+      <c r="FO17" s="56">
+        <v>0</v>
+      </c>
+      <c r="FP17" s="56">
         <v>612</v>
       </c>
-      <c r="FQ17" s="69">
+      <c r="FQ17" s="56">
         <v>614</v>
       </c>
-      <c r="FR17" s="69">
-        <v>0</v>
-      </c>
-      <c r="FS17" s="69">
+      <c r="FR17" s="56">
+        <v>0</v>
+      </c>
+      <c r="FS17" s="56">
         <v>650</v>
       </c>
-      <c r="FT17" s="69">
+      <c r="FT17" s="56">
         <v>654</v>
       </c>
-      <c r="FU17" s="69">
+      <c r="FU17" s="56">
         <v>0</v>
       </c>
       <c r="FV17">
@@ -13864,8 +13880,8 @@
       </c>
     </row>
     <row r="18" spans="2:314" x14ac:dyDescent="0.2">
-      <c r="B18" s="54"/>
-      <c r="C18" s="67">
+      <c r="B18" s="57"/>
+      <c r="C18" s="54">
         <v>12</v>
       </c>
       <c r="D18">
@@ -14246,85 +14262,85 @@
       <c r="DY18">
         <v>0</v>
       </c>
-      <c r="DZ18" s="69">
+      <c r="DZ18" s="56">
         <v>555</v>
       </c>
-      <c r="EA18" s="69">
+      <c r="EA18" s="56">
         <v>558</v>
       </c>
-      <c r="EB18" s="69">
-        <v>0</v>
-      </c>
-      <c r="EC18" s="69">
+      <c r="EB18" s="56">
+        <v>0</v>
+      </c>
+      <c r="EC18" s="56">
         <v>560</v>
       </c>
-      <c r="ED18" s="69">
+      <c r="ED18" s="56">
         <v>564</v>
       </c>
-      <c r="EE18" s="69">
-        <v>0</v>
-      </c>
-      <c r="EF18" s="69">
+      <c r="EE18" s="56">
+        <v>0</v>
+      </c>
+      <c r="EF18" s="56">
         <v>568</v>
       </c>
-      <c r="EG18" s="69">
+      <c r="EG18" s="56">
         <v>572</v>
       </c>
-      <c r="EH18" s="69">
-        <v>0</v>
-      </c>
-      <c r="EI18" s="69">
+      <c r="EH18" s="56">
+        <v>0</v>
+      </c>
+      <c r="EI18" s="56">
         <v>574</v>
       </c>
-      <c r="EJ18" s="69">
+      <c r="EJ18" s="56">
         <v>577</v>
       </c>
-      <c r="EK18" s="69">
-        <v>0</v>
-      </c>
-      <c r="EL18" s="69">
+      <c r="EK18" s="56">
+        <v>0</v>
+      </c>
+      <c r="EL18" s="56">
         <v>581</v>
       </c>
-      <c r="EM18" s="69">
+      <c r="EM18" s="56">
         <v>585</v>
       </c>
-      <c r="EN18" s="69">
-        <v>0</v>
-      </c>
-      <c r="EO18" s="69">
+      <c r="EN18" s="56">
+        <v>0</v>
+      </c>
+      <c r="EO18" s="56">
         <v>601</v>
       </c>
-      <c r="EP18" s="69">
+      <c r="EP18" s="56">
         <v>604</v>
       </c>
-      <c r="EQ18" s="69">
-        <v>0</v>
-      </c>
-      <c r="ER18" s="69">
+      <c r="EQ18" s="56">
+        <v>0</v>
+      </c>
+      <c r="ER18" s="56">
         <v>610</v>
       </c>
-      <c r="ES18" s="69">
+      <c r="ES18" s="56">
         <v>612</v>
       </c>
-      <c r="ET18" s="69">
-        <v>0</v>
-      </c>
-      <c r="EU18" s="69">
+      <c r="ET18" s="56">
+        <v>0</v>
+      </c>
+      <c r="EU18" s="56">
         <v>622</v>
       </c>
-      <c r="EV18" s="69">
+      <c r="EV18" s="56">
         <v>627</v>
       </c>
-      <c r="EW18" s="69">
-        <v>0</v>
-      </c>
-      <c r="EX18" s="69">
+      <c r="EW18" s="56">
+        <v>0</v>
+      </c>
+      <c r="EX18" s="56">
         <v>641</v>
       </c>
-      <c r="EY18" s="69">
+      <c r="EY18" s="56">
         <v>643</v>
       </c>
-      <c r="EZ18" s="69">
+      <c r="EZ18" s="56">
         <v>0</v>
       </c>
       <c r="FA18">
@@ -14803,8 +14819,8 @@
       </c>
     </row>
     <row r="19" spans="2:314" x14ac:dyDescent="0.2">
-      <c r="B19" s="54"/>
-      <c r="C19" s="66">
+      <c r="B19" s="57"/>
+      <c r="C19" s="53">
         <v>13</v>
       </c>
       <c r="D19">
@@ -15185,58 +15201,58 @@
       <c r="DY19">
         <v>0</v>
       </c>
-      <c r="DZ19" s="69">
+      <c r="DZ19" s="56">
         <v>567</v>
       </c>
-      <c r="EA19" s="69">
+      <c r="EA19" s="56">
         <v>571</v>
       </c>
-      <c r="EB19" s="69">
-        <v>0</v>
-      </c>
-      <c r="EC19" s="69">
+      <c r="EB19" s="56">
+        <v>0</v>
+      </c>
+      <c r="EC19" s="56">
         <v>573</v>
       </c>
-      <c r="ED19" s="69">
+      <c r="ED19" s="56">
         <v>577</v>
       </c>
-      <c r="EE19" s="69">
-        <v>0</v>
-      </c>
-      <c r="EF19" s="69">
+      <c r="EE19" s="56">
+        <v>0</v>
+      </c>
+      <c r="EF19" s="56">
         <v>581</v>
       </c>
-      <c r="EG19" s="69">
+      <c r="EG19" s="56">
         <v>589</v>
       </c>
-      <c r="EH19" s="69">
-        <v>0</v>
-      </c>
-      <c r="EI19" s="69">
+      <c r="EH19" s="56">
+        <v>0</v>
+      </c>
+      <c r="EI19" s="56">
         <v>600</v>
       </c>
-      <c r="EJ19" s="69">
+      <c r="EJ19" s="56">
         <v>604</v>
       </c>
-      <c r="EK19" s="69">
-        <v>0</v>
-      </c>
-      <c r="EL19" s="69">
+      <c r="EK19" s="56">
+        <v>0</v>
+      </c>
+      <c r="EL19" s="56">
         <v>610</v>
       </c>
-      <c r="EM19" s="69">
+      <c r="EM19" s="56">
         <v>613</v>
       </c>
-      <c r="EN19" s="69">
-        <v>0</v>
-      </c>
-      <c r="EO19" s="69">
+      <c r="EN19" s="56">
+        <v>0</v>
+      </c>
+      <c r="EO19" s="56">
         <v>647</v>
       </c>
-      <c r="EP19" s="69">
+      <c r="EP19" s="56">
         <v>649</v>
       </c>
-      <c r="EQ19" s="69">
+      <c r="EQ19" s="56">
         <v>0</v>
       </c>
       <c r="ER19">
@@ -15742,8 +15758,8 @@
       </c>
     </row>
     <row r="20" spans="2:314" x14ac:dyDescent="0.2">
-      <c r="B20" s="54"/>
-      <c r="C20" s="67">
+      <c r="B20" s="57"/>
+      <c r="C20" s="54">
         <v>14</v>
       </c>
       <c r="D20">
@@ -16061,73 +16077,73 @@
       <c r="DD20">
         <v>0</v>
       </c>
-      <c r="DE20" s="69">
+      <c r="DE20" s="56">
         <v>555</v>
       </c>
-      <c r="DF20" s="69">
+      <c r="DF20" s="56">
         <v>559</v>
       </c>
-      <c r="DG20" s="69">
-        <v>0</v>
-      </c>
-      <c r="DH20" s="69">
+      <c r="DG20" s="56">
+        <v>0</v>
+      </c>
+      <c r="DH20" s="56">
         <v>561</v>
       </c>
-      <c r="DI20" s="69">
+      <c r="DI20" s="56">
         <v>565</v>
       </c>
-      <c r="DJ20" s="69">
-        <v>0</v>
-      </c>
-      <c r="DK20" s="69">
+      <c r="DJ20" s="56">
+        <v>0</v>
+      </c>
+      <c r="DK20" s="56">
         <v>567</v>
       </c>
-      <c r="DL20" s="69">
+      <c r="DL20" s="56">
         <v>571</v>
       </c>
-      <c r="DM20" s="69">
-        <v>0</v>
-      </c>
-      <c r="DN20" s="69">
+      <c r="DM20" s="56">
+        <v>0</v>
+      </c>
+      <c r="DN20" s="56">
         <v>573</v>
       </c>
-      <c r="DO20" s="69">
+      <c r="DO20" s="56">
         <v>578</v>
       </c>
-      <c r="DP20" s="69">
-        <v>0</v>
-      </c>
-      <c r="DQ20" s="69">
+      <c r="DP20" s="56">
+        <v>0</v>
+      </c>
+      <c r="DQ20" s="56">
         <v>583</v>
       </c>
-      <c r="DR20" s="69">
+      <c r="DR20" s="56">
         <v>587</v>
       </c>
-      <c r="DS20" s="69">
-        <v>0</v>
-      </c>
-      <c r="DT20" s="69">
+      <c r="DS20" s="56">
+        <v>0</v>
+      </c>
+      <c r="DT20" s="56">
         <v>601</v>
       </c>
-      <c r="DU20" s="69">
+      <c r="DU20" s="56">
         <v>605</v>
       </c>
-      <c r="DV20" s="69">
-        <v>0</v>
-      </c>
-      <c r="DW20" s="69">
+      <c r="DV20" s="56">
+        <v>0</v>
+      </c>
+      <c r="DW20" s="56">
         <v>610</v>
       </c>
-      <c r="DX20" s="69">
+      <c r="DX20" s="56">
         <v>613</v>
       </c>
-      <c r="DY20" s="69">
-        <v>0</v>
-      </c>
-      <c r="DZ20" s="69">
+      <c r="DY20" s="56">
+        <v>0</v>
+      </c>
+      <c r="DZ20" s="56">
         <v>637</v>
       </c>
-      <c r="EA20" s="69">
+      <c r="EA20" s="56">
         <v>639</v>
       </c>
       <c r="EB20">
@@ -16681,117 +16697,117 @@
       </c>
     </row>
     <row r="23" spans="2:314" x14ac:dyDescent="0.2">
-      <c r="D23" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
+      <c r="D23" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
     </row>
     <row r="24" spans="2:314" x14ac:dyDescent="0.2">
-      <c r="C24" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="68">
+      <c r="C24" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="55">
         <v>1</v>
       </c>
-      <c r="E24" s="68">
+      <c r="E24" s="55">
         <v>2</v>
       </c>
-      <c r="F24" s="68">
+      <c r="F24" s="55">
         <v>3</v>
       </c>
-      <c r="G24" s="68">
+      <c r="G24" s="55">
         <v>4</v>
       </c>
-      <c r="H24" s="68">
+      <c r="H24" s="55">
         <v>5</v>
       </c>
-      <c r="I24" s="68">
+      <c r="I24" s="55">
         <v>6</v>
       </c>
-      <c r="J24" s="68">
+      <c r="J24" s="55">
         <v>7</v>
       </c>
-      <c r="K24" s="68">
+      <c r="K24" s="55">
         <v>8</v>
       </c>
-      <c r="L24" s="68">
+      <c r="L24" s="55">
         <v>9</v>
       </c>
-      <c r="M24" s="68">
+      <c r="M24" s="55">
         <v>10</v>
       </c>
-      <c r="N24" s="68">
+      <c r="N24" s="55">
         <v>11</v>
       </c>
-      <c r="O24" s="68">
+      <c r="O24" s="55">
         <v>12</v>
       </c>
-      <c r="P24" s="68">
+      <c r="P24" s="55">
         <v>13</v>
       </c>
-      <c r="Q24" s="68">
+      <c r="Q24" s="55">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="2:314" x14ac:dyDescent="0.2">
-      <c r="C25" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="68">
+      <c r="C25" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="55">
         <v>59</v>
       </c>
-      <c r="E25" s="68">
+      <c r="E25" s="55">
         <v>46</v>
       </c>
-      <c r="F25" s="68">
+      <c r="F25" s="55">
         <v>57</v>
       </c>
-      <c r="G25" s="68">
+      <c r="G25" s="55">
         <v>60</v>
       </c>
-      <c r="H25" s="68">
+      <c r="H25" s="55">
         <v>54</v>
       </c>
-      <c r="I25" s="68">
+      <c r="I25" s="55">
         <v>47</v>
       </c>
-      <c r="J25" s="68">
+      <c r="J25" s="55">
         <v>56</v>
       </c>
-      <c r="K25" s="68">
+      <c r="K25" s="55">
         <v>51</v>
       </c>
-      <c r="L25" s="68">
+      <c r="L25" s="55">
         <v>59</v>
       </c>
-      <c r="M25" s="68">
+      <c r="M25" s="55">
         <v>54</v>
       </c>
-      <c r="N25" s="68">
+      <c r="N25" s="55">
         <v>60</v>
       </c>
-      <c r="O25" s="68">
+      <c r="O25" s="55">
         <v>53</v>
       </c>
-      <c r="P25" s="68">
+      <c r="P25" s="55">
         <v>55</v>
       </c>
-      <c r="Q25" s="68">
+      <c r="Q25" s="55">
         <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:314" x14ac:dyDescent="0.2">
       <c r="C26" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:314" x14ac:dyDescent="0.2">
-      <c r="B27" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="66">
+      <c r="B27" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="53">
         <v>1</v>
       </c>
       <c r="D27">
@@ -17064,67 +17080,67 @@
       <c r="CO27">
         <v>0</v>
       </c>
-      <c r="CP27" s="69">
+      <c r="CP27" s="56">
         <v>557</v>
       </c>
-      <c r="CQ27" s="69">
+      <c r="CQ27" s="56">
         <v>561</v>
       </c>
-      <c r="CR27" s="69">
-        <v>0</v>
-      </c>
-      <c r="CS27" s="69">
+      <c r="CR27" s="56">
+        <v>0</v>
+      </c>
+      <c r="CS27" s="56">
         <v>563</v>
       </c>
-      <c r="CT27" s="69">
+      <c r="CT27" s="56">
         <v>567</v>
       </c>
-      <c r="CU27" s="69">
-        <v>0</v>
-      </c>
-      <c r="CV27" s="69">
+      <c r="CU27" s="56">
+        <v>0</v>
+      </c>
+      <c r="CV27" s="56">
         <v>569</v>
       </c>
-      <c r="CW27" s="69">
+      <c r="CW27" s="56">
         <v>573</v>
       </c>
-      <c r="CX27" s="69">
-        <v>0</v>
-      </c>
-      <c r="CY27" s="69">
+      <c r="CX27" s="56">
+        <v>0</v>
+      </c>
+      <c r="CY27" s="56">
         <v>575</v>
       </c>
-      <c r="CZ27" s="69">
+      <c r="CZ27" s="56">
         <v>581</v>
       </c>
-      <c r="DA27" s="69">
-        <v>0</v>
-      </c>
-      <c r="DB27" s="69">
+      <c r="DA27" s="56">
+        <v>0</v>
+      </c>
+      <c r="DB27" s="56">
         <v>584</v>
       </c>
-      <c r="DC27" s="69">
+      <c r="DC27" s="56">
         <v>590</v>
       </c>
-      <c r="DD27" s="69">
-        <v>0</v>
-      </c>
-      <c r="DE27" s="69">
+      <c r="DD27" s="56">
+        <v>0</v>
+      </c>
+      <c r="DE27" s="56">
         <v>603</v>
       </c>
-      <c r="DF27" s="69">
+      <c r="DF27" s="56">
         <v>606</v>
       </c>
-      <c r="DG27" s="69">
-        <v>0</v>
-      </c>
-      <c r="DH27" s="69">
+      <c r="DG27" s="56">
+        <v>0</v>
+      </c>
+      <c r="DH27" s="56">
         <v>612</v>
       </c>
-      <c r="DI27" s="69">
+      <c r="DI27" s="56">
         <v>616</v>
       </c>
-      <c r="DJ27" s="69">
+      <c r="DJ27" s="56">
         <v>0</v>
       </c>
       <c r="DK27">
@@ -17333,8 +17349,8 @@
       </c>
     </row>
     <row r="28" spans="2:314" x14ac:dyDescent="0.2">
-      <c r="B28" s="54"/>
-      <c r="C28" s="67">
+      <c r="B28" s="57"/>
+      <c r="C28" s="54">
         <v>2</v>
       </c>
       <c r="D28">
@@ -17571,31 +17587,31 @@
       <c r="CC28">
         <v>0</v>
       </c>
-      <c r="CD28" s="69">
+      <c r="CD28" s="56">
         <v>558</v>
       </c>
-      <c r="CE28" s="69">
+      <c r="CE28" s="56">
         <v>567</v>
       </c>
-      <c r="CF28" s="69">
-        <v>0</v>
-      </c>
-      <c r="CG28" s="69">
+      <c r="CF28" s="56">
+        <v>0</v>
+      </c>
+      <c r="CG28" s="56">
         <v>570</v>
       </c>
-      <c r="CH28" s="69">
+      <c r="CH28" s="56">
         <v>573</v>
       </c>
-      <c r="CI28" s="69">
-        <v>0</v>
-      </c>
-      <c r="CJ28" s="69">
+      <c r="CI28" s="56">
+        <v>0</v>
+      </c>
+      <c r="CJ28" s="56">
         <v>603</v>
       </c>
-      <c r="CK28" s="69">
+      <c r="CK28" s="56">
         <v>606</v>
       </c>
-      <c r="CL28" s="69">
+      <c r="CL28" s="56">
         <v>0</v>
       </c>
       <c r="CM28">
@@ -17876,8 +17892,8 @@
       </c>
     </row>
     <row r="29" spans="2:314" x14ac:dyDescent="0.2">
-      <c r="B29" s="54"/>
-      <c r="C29" s="66">
+      <c r="B29" s="57"/>
+      <c r="C29" s="53">
         <v>3</v>
       </c>
       <c r="D29">
@@ -18132,67 +18148,67 @@
       <c r="CI29">
         <v>0</v>
       </c>
-      <c r="CJ29" s="69">
+      <c r="CJ29" s="56">
         <v>554</v>
       </c>
-      <c r="CK29" s="69">
+      <c r="CK29" s="56">
         <v>558</v>
       </c>
-      <c r="CL29" s="69">
-        <v>0</v>
-      </c>
-      <c r="CM29" s="69">
+      <c r="CL29" s="56">
+        <v>0</v>
+      </c>
+      <c r="CM29" s="56">
         <v>560</v>
       </c>
-      <c r="CN29" s="69">
+      <c r="CN29" s="56">
         <v>564</v>
       </c>
-      <c r="CO29" s="69">
-        <v>0</v>
-      </c>
-      <c r="CP29" s="69">
+      <c r="CO29" s="56">
+        <v>0</v>
+      </c>
+      <c r="CP29" s="56">
         <v>566</v>
       </c>
-      <c r="CQ29" s="69">
+      <c r="CQ29" s="56">
         <v>571</v>
       </c>
-      <c r="CR29" s="69">
-        <v>0</v>
-      </c>
-      <c r="CS29" s="69">
+      <c r="CR29" s="56">
+        <v>0</v>
+      </c>
+      <c r="CS29" s="56">
         <v>573</v>
       </c>
-      <c r="CT29" s="69">
+      <c r="CT29" s="56">
         <v>577</v>
       </c>
-      <c r="CU29" s="69">
-        <v>0</v>
-      </c>
-      <c r="CV29" s="69">
+      <c r="CU29" s="56">
+        <v>0</v>
+      </c>
+      <c r="CV29" s="56">
         <v>582</v>
       </c>
-      <c r="CW29" s="69">
+      <c r="CW29" s="56">
         <v>586</v>
       </c>
-      <c r="CX29" s="69">
-        <v>0</v>
-      </c>
-      <c r="CY29" s="69">
+      <c r="CX29" s="56">
+        <v>0</v>
+      </c>
+      <c r="CY29" s="56">
         <v>599</v>
       </c>
-      <c r="CZ29" s="69">
+      <c r="CZ29" s="56">
         <v>603</v>
       </c>
-      <c r="DA29" s="69">
-        <v>0</v>
-      </c>
-      <c r="DB29" s="69">
+      <c r="DA29" s="56">
+        <v>0</v>
+      </c>
+      <c r="DB29" s="56">
         <v>609</v>
       </c>
-      <c r="DC29" s="69">
+      <c r="DC29" s="56">
         <v>612</v>
       </c>
-      <c r="DD29" s="69">
+      <c r="DD29" s="56">
         <v>0</v>
       </c>
       <c r="DE29">
@@ -18419,8 +18435,8 @@
       </c>
     </row>
     <row r="30" spans="2:314" x14ac:dyDescent="0.2">
-      <c r="B30" s="54"/>
-      <c r="C30" s="67">
+      <c r="B30" s="57"/>
+      <c r="C30" s="54">
         <v>4</v>
       </c>
       <c r="D30">
@@ -18702,67 +18718,67 @@
       <c r="CR30">
         <v>0</v>
       </c>
-      <c r="CS30" s="69">
+      <c r="CS30" s="56">
         <v>556</v>
       </c>
-      <c r="CT30" s="69">
+      <c r="CT30" s="56">
         <v>560</v>
       </c>
-      <c r="CU30" s="69">
-        <v>0</v>
-      </c>
-      <c r="CV30" s="69">
+      <c r="CU30" s="56">
+        <v>0</v>
+      </c>
+      <c r="CV30" s="56">
         <v>562</v>
       </c>
-      <c r="CW30" s="69">
+      <c r="CW30" s="56">
         <v>566</v>
       </c>
-      <c r="CX30" s="69">
-        <v>0</v>
-      </c>
-      <c r="CY30" s="69">
+      <c r="CX30" s="56">
+        <v>0</v>
+      </c>
+      <c r="CY30" s="56">
         <v>568</v>
       </c>
-      <c r="CZ30" s="69">
+      <c r="CZ30" s="56">
         <v>572</v>
       </c>
-      <c r="DA30" s="69">
-        <v>0</v>
-      </c>
-      <c r="DB30" s="69">
+      <c r="DA30" s="56">
+        <v>0</v>
+      </c>
+      <c r="DB30" s="56">
         <v>575</v>
       </c>
-      <c r="DC30" s="69">
+      <c r="DC30" s="56">
         <v>579</v>
       </c>
-      <c r="DD30" s="69">
-        <v>0</v>
-      </c>
-      <c r="DE30" s="69">
+      <c r="DD30" s="56">
+        <v>0</v>
+      </c>
+      <c r="DE30" s="56">
         <v>584</v>
       </c>
-      <c r="DF30" s="69">
+      <c r="DF30" s="56">
         <v>588</v>
       </c>
-      <c r="DG30" s="69">
-        <v>0</v>
-      </c>
-      <c r="DH30" s="69">
+      <c r="DG30" s="56">
+        <v>0</v>
+      </c>
+      <c r="DH30" s="56">
         <v>602</v>
       </c>
-      <c r="DI30" s="69">
+      <c r="DI30" s="56">
         <v>605</v>
       </c>
-      <c r="DJ30" s="69">
-        <v>0</v>
-      </c>
-      <c r="DK30" s="69">
+      <c r="DJ30" s="56">
+        <v>0</v>
+      </c>
+      <c r="DK30" s="56">
         <v>611</v>
       </c>
-      <c r="DL30" s="69">
+      <c r="DL30" s="56">
         <v>615</v>
       </c>
-      <c r="DM30" s="69">
+      <c r="DM30" s="56">
         <v>0</v>
       </c>
       <c r="DN30">
@@ -18962,8 +18978,8 @@
       </c>
     </row>
     <row r="31" spans="2:314" x14ac:dyDescent="0.2">
-      <c r="B31" s="54"/>
-      <c r="C31" s="66">
+      <c r="B31" s="57"/>
+      <c r="C31" s="53">
         <v>5</v>
       </c>
       <c r="D31">
@@ -19236,58 +19252,58 @@
       <c r="CO31">
         <v>0</v>
       </c>
-      <c r="CP31" s="69">
+      <c r="CP31" s="56">
         <v>556</v>
       </c>
-      <c r="CQ31" s="69">
+      <c r="CQ31" s="56">
         <v>560</v>
       </c>
-      <c r="CR31" s="69">
-        <v>0</v>
-      </c>
-      <c r="CS31" s="69">
+      <c r="CR31" s="56">
+        <v>0</v>
+      </c>
+      <c r="CS31" s="56">
         <v>562</v>
       </c>
-      <c r="CT31" s="69">
+      <c r="CT31" s="56">
         <v>566</v>
       </c>
-      <c r="CU31" s="69">
-        <v>0</v>
-      </c>
-      <c r="CV31" s="69">
+      <c r="CU31" s="56">
+        <v>0</v>
+      </c>
+      <c r="CV31" s="56">
         <v>568</v>
       </c>
-      <c r="CW31" s="69">
+      <c r="CW31" s="56">
         <v>572</v>
       </c>
-      <c r="CX31" s="69">
-        <v>0</v>
-      </c>
-      <c r="CY31" s="69">
+      <c r="CX31" s="56">
+        <v>0</v>
+      </c>
+      <c r="CY31" s="56">
         <v>585</v>
       </c>
-      <c r="CZ31" s="69">
+      <c r="CZ31" s="56">
         <v>588</v>
       </c>
-      <c r="DA31" s="69">
-        <v>0</v>
-      </c>
-      <c r="DB31" s="69">
+      <c r="DA31" s="56">
+        <v>0</v>
+      </c>
+      <c r="DB31" s="56">
         <v>602</v>
       </c>
-      <c r="DC31" s="69">
+      <c r="DC31" s="56">
         <v>605</v>
       </c>
-      <c r="DD31" s="69">
-        <v>0</v>
-      </c>
-      <c r="DE31" s="69">
+      <c r="DD31" s="56">
+        <v>0</v>
+      </c>
+      <c r="DE31" s="56">
         <v>611</v>
       </c>
-      <c r="DF31" s="69">
+      <c r="DF31" s="56">
         <v>615</v>
       </c>
-      <c r="DG31" s="69">
+      <c r="DG31" s="56">
         <v>0</v>
       </c>
       <c r="DH31">
@@ -19505,8 +19521,8 @@
       </c>
     </row>
     <row r="32" spans="2:314" x14ac:dyDescent="0.2">
-      <c r="B32" s="54"/>
-      <c r="C32" s="67">
+      <c r="B32" s="57"/>
+      <c r="C32" s="54">
         <v>6</v>
       </c>
       <c r="D32">
@@ -19752,31 +19768,31 @@
       <c r="CF32">
         <v>0</v>
       </c>
-      <c r="CG32" s="69">
+      <c r="CG32" s="56">
         <v>558</v>
       </c>
-      <c r="CH32" s="69">
+      <c r="CH32" s="56">
         <v>561</v>
       </c>
-      <c r="CI32" s="69">
-        <v>0</v>
-      </c>
-      <c r="CJ32" s="69">
+      <c r="CI32" s="56">
+        <v>0</v>
+      </c>
+      <c r="CJ32" s="56">
         <v>563</v>
       </c>
-      <c r="CK32" s="69">
+      <c r="CK32" s="56">
         <v>567</v>
       </c>
-      <c r="CL32" s="69">
-        <v>0</v>
-      </c>
-      <c r="CM32" s="69">
+      <c r="CL32" s="56">
+        <v>0</v>
+      </c>
+      <c r="CM32" s="56">
         <v>613</v>
       </c>
-      <c r="CN32" s="69">
+      <c r="CN32" s="56">
         <v>616</v>
       </c>
-      <c r="CO32" s="69">
+      <c r="CO32" s="56">
         <v>0</v>
       </c>
       <c r="CP32">
@@ -20048,8 +20064,8 @@
       </c>
     </row>
     <row r="33" spans="2:182" x14ac:dyDescent="0.2">
-      <c r="B33" s="54"/>
-      <c r="C33" s="66">
+      <c r="B33" s="57"/>
+      <c r="C33" s="53">
         <v>7</v>
       </c>
       <c r="D33">
@@ -20322,49 +20338,49 @@
       <c r="CO33">
         <v>0</v>
       </c>
-      <c r="CP33" s="69">
+      <c r="CP33" s="56">
         <v>555</v>
       </c>
-      <c r="CQ33" s="69">
+      <c r="CQ33" s="56">
         <v>559</v>
       </c>
-      <c r="CR33" s="69">
-        <v>0</v>
-      </c>
-      <c r="CS33" s="69">
+      <c r="CR33" s="56">
+        <v>0</v>
+      </c>
+      <c r="CS33" s="56">
         <v>561</v>
       </c>
-      <c r="CT33" s="69">
+      <c r="CT33" s="56">
         <v>565</v>
       </c>
-      <c r="CU33" s="69">
-        <v>0</v>
-      </c>
-      <c r="CV33" s="69">
+      <c r="CU33" s="56">
+        <v>0</v>
+      </c>
+      <c r="CV33" s="56">
         <v>568</v>
       </c>
-      <c r="CW33" s="69">
+      <c r="CW33" s="56">
         <v>572</v>
       </c>
-      <c r="CX33" s="69">
-        <v>0</v>
-      </c>
-      <c r="CY33" s="69">
+      <c r="CX33" s="56">
+        <v>0</v>
+      </c>
+      <c r="CY33" s="56">
         <v>574</v>
       </c>
-      <c r="CZ33" s="69">
+      <c r="CZ33" s="56">
         <v>590</v>
       </c>
-      <c r="DA33" s="69">
-        <v>0</v>
-      </c>
-      <c r="DB33" s="69">
+      <c r="DA33" s="56">
+        <v>0</v>
+      </c>
+      <c r="DB33" s="56">
         <v>606</v>
       </c>
-      <c r="DC33" s="69">
+      <c r="DC33" s="56">
         <v>612</v>
       </c>
-      <c r="DD33" s="69">
+      <c r="DD33" s="56">
         <v>0</v>
       </c>
       <c r="DE33">
@@ -20591,8 +20607,8 @@
       </c>
     </row>
     <row r="34" spans="2:182" x14ac:dyDescent="0.2">
-      <c r="B34" s="54"/>
-      <c r="C34" s="67">
+      <c r="B34" s="57"/>
+      <c r="C34" s="54">
         <v>8</v>
       </c>
       <c r="D34">
@@ -20829,49 +20845,49 @@
       <c r="CC34">
         <v>0</v>
       </c>
-      <c r="CD34" s="69">
+      <c r="CD34" s="56">
         <v>567</v>
       </c>
-      <c r="CE34" s="69">
+      <c r="CE34" s="56">
         <v>570</v>
       </c>
-      <c r="CF34" s="69">
-        <v>0</v>
-      </c>
-      <c r="CG34" s="69">
+      <c r="CF34" s="56">
+        <v>0</v>
+      </c>
+      <c r="CG34" s="56">
         <v>573</v>
       </c>
-      <c r="CH34" s="69">
+      <c r="CH34" s="56">
         <v>576</v>
       </c>
-      <c r="CI34" s="69">
-        <v>0</v>
-      </c>
-      <c r="CJ34" s="69">
+      <c r="CI34" s="56">
+        <v>0</v>
+      </c>
+      <c r="CJ34" s="56">
         <v>580</v>
       </c>
-      <c r="CK34" s="69">
+      <c r="CK34" s="56">
         <v>585</v>
       </c>
-      <c r="CL34" s="69">
-        <v>0</v>
-      </c>
-      <c r="CM34" s="69">
+      <c r="CL34" s="56">
+        <v>0</v>
+      </c>
+      <c r="CM34" s="56">
         <v>591</v>
       </c>
-      <c r="CN34" s="69">
+      <c r="CN34" s="56">
         <v>595</v>
       </c>
-      <c r="CO34" s="69">
-        <v>0</v>
-      </c>
-      <c r="CP34" s="69">
+      <c r="CO34" s="56">
+        <v>0</v>
+      </c>
+      <c r="CP34" s="56">
         <v>600</v>
       </c>
-      <c r="CQ34" s="69">
+      <c r="CQ34" s="56">
         <v>604</v>
       </c>
-      <c r="CR34" s="69">
+      <c r="CR34" s="56">
         <v>0</v>
       </c>
       <c r="CS34">
@@ -21134,8 +21150,8 @@
       </c>
     </row>
     <row r="35" spans="2:182" x14ac:dyDescent="0.2">
-      <c r="B35" s="54"/>
-      <c r="C35" s="66">
+      <c r="B35" s="57"/>
+      <c r="C35" s="53">
         <v>9</v>
       </c>
       <c r="D35">
@@ -21399,67 +21415,67 @@
       <c r="CL35">
         <v>0</v>
       </c>
-      <c r="CM35" s="69">
+      <c r="CM35" s="56">
         <v>555</v>
       </c>
-      <c r="CN35" s="69">
+      <c r="CN35" s="56">
         <v>559</v>
       </c>
-      <c r="CO35" s="69">
-        <v>0</v>
-      </c>
-      <c r="CP35" s="69">
+      <c r="CO35" s="56">
+        <v>0</v>
+      </c>
+      <c r="CP35" s="56">
         <v>561</v>
       </c>
-      <c r="CQ35" s="69">
+      <c r="CQ35" s="56">
         <v>565</v>
       </c>
-      <c r="CR35" s="69">
-        <v>0</v>
-      </c>
-      <c r="CS35" s="69">
+      <c r="CR35" s="56">
+        <v>0</v>
+      </c>
+      <c r="CS35" s="56">
         <v>567</v>
       </c>
-      <c r="CT35" s="69">
+      <c r="CT35" s="56">
         <v>571</v>
       </c>
-      <c r="CU35" s="69">
-        <v>0</v>
-      </c>
-      <c r="CV35" s="69">
+      <c r="CU35" s="56">
+        <v>0</v>
+      </c>
+      <c r="CV35" s="56">
         <v>574</v>
       </c>
-      <c r="CW35" s="69">
+      <c r="CW35" s="56">
         <v>581</v>
       </c>
-      <c r="CX35" s="69">
-        <v>0</v>
-      </c>
-      <c r="CY35" s="69">
+      <c r="CX35" s="56">
+        <v>0</v>
+      </c>
+      <c r="CY35" s="56">
         <v>583</v>
       </c>
-      <c r="CZ35" s="69">
+      <c r="CZ35" s="56">
         <v>588</v>
       </c>
-      <c r="DA35" s="69">
-        <v>0</v>
-      </c>
-      <c r="DB35" s="69">
+      <c r="DA35" s="56">
+        <v>0</v>
+      </c>
+      <c r="DB35" s="56">
         <v>601</v>
       </c>
-      <c r="DC35" s="69">
+      <c r="DC35" s="56">
         <v>605</v>
       </c>
-      <c r="DD35" s="69">
-        <v>0</v>
-      </c>
-      <c r="DE35" s="69">
+      <c r="DD35" s="56">
+        <v>0</v>
+      </c>
+      <c r="DE35" s="56">
         <v>610</v>
       </c>
-      <c r="DF35" s="69">
+      <c r="DF35" s="56">
         <v>613</v>
       </c>
-      <c r="DG35" s="69">
+      <c r="DG35" s="56">
         <v>0</v>
       </c>
       <c r="DH35">
@@ -21677,8 +21693,8 @@
       </c>
     </row>
     <row r="36" spans="2:182" x14ac:dyDescent="0.2">
-      <c r="B36" s="54"/>
-      <c r="C36" s="67">
+      <c r="B36" s="57"/>
+      <c r="C36" s="54">
         <v>10</v>
       </c>
       <c r="D36">
@@ -21942,49 +21958,49 @@
       <c r="CL36">
         <v>0</v>
       </c>
-      <c r="CM36" s="69">
+      <c r="CM36" s="56">
         <v>555</v>
       </c>
-      <c r="CN36" s="69">
+      <c r="CN36" s="56">
         <v>559</v>
       </c>
-      <c r="CO36" s="69">
-        <v>0</v>
-      </c>
-      <c r="CP36" s="69">
+      <c r="CO36" s="56">
+        <v>0</v>
+      </c>
+      <c r="CP36" s="56">
         <v>561</v>
       </c>
-      <c r="CQ36" s="69">
+      <c r="CQ36" s="56">
         <v>565</v>
       </c>
-      <c r="CR36" s="69">
-        <v>0</v>
-      </c>
-      <c r="CS36" s="69">
+      <c r="CR36" s="56">
+        <v>0</v>
+      </c>
+      <c r="CS36" s="56">
         <v>568</v>
       </c>
-      <c r="CT36" s="69">
+      <c r="CT36" s="56">
         <v>571</v>
       </c>
-      <c r="CU36" s="69">
-        <v>0</v>
-      </c>
-      <c r="CV36" s="69">
+      <c r="CU36" s="56">
+        <v>0</v>
+      </c>
+      <c r="CV36" s="56">
         <v>584</v>
       </c>
-      <c r="CW36" s="69">
+      <c r="CW36" s="56">
         <v>588</v>
       </c>
-      <c r="CX36" s="69">
-        <v>0</v>
-      </c>
-      <c r="CY36" s="69">
+      <c r="CX36" s="56">
+        <v>0</v>
+      </c>
+      <c r="CY36" s="56">
         <v>601</v>
       </c>
-      <c r="CZ36" s="69">
+      <c r="CZ36" s="56">
         <v>604</v>
       </c>
-      <c r="DA36" s="69">
+      <c r="DA36" s="56">
         <v>0</v>
       </c>
       <c r="DB36">
@@ -22220,8 +22236,8 @@
       </c>
     </row>
     <row r="37" spans="2:182" x14ac:dyDescent="0.2">
-      <c r="B37" s="54"/>
-      <c r="C37" s="66">
+      <c r="B37" s="57"/>
+      <c r="C37" s="53">
         <v>11</v>
       </c>
       <c r="D37">
@@ -22458,58 +22474,58 @@
       <c r="CC37">
         <v>0</v>
       </c>
-      <c r="CD37" s="69">
+      <c r="CD37" s="56">
         <v>556</v>
       </c>
-      <c r="CE37" s="69">
+      <c r="CE37" s="56">
         <v>561</v>
       </c>
-      <c r="CF37" s="69">
-        <v>0</v>
-      </c>
-      <c r="CG37" s="69">
+      <c r="CF37" s="56">
+        <v>0</v>
+      </c>
+      <c r="CG37" s="56">
         <v>563</v>
       </c>
-      <c r="CH37" s="69">
+      <c r="CH37" s="56">
         <v>566</v>
       </c>
-      <c r="CI37" s="69">
-        <v>0</v>
-      </c>
-      <c r="CJ37" s="69">
+      <c r="CI37" s="56">
+        <v>0</v>
+      </c>
+      <c r="CJ37" s="56">
         <v>575</v>
       </c>
-      <c r="CK37" s="69">
+      <c r="CK37" s="56">
         <v>578</v>
       </c>
-      <c r="CL37" s="69">
-        <v>0</v>
-      </c>
-      <c r="CM37" s="69">
+      <c r="CL37" s="56">
+        <v>0</v>
+      </c>
+      <c r="CM37" s="56">
         <v>582</v>
       </c>
-      <c r="CN37" s="69">
+      <c r="CN37" s="56">
         <v>587</v>
       </c>
-      <c r="CO37" s="69">
-        <v>0</v>
-      </c>
-      <c r="CP37" s="69">
+      <c r="CO37" s="56">
+        <v>0</v>
+      </c>
+      <c r="CP37" s="56">
         <v>592</v>
       </c>
-      <c r="CQ37" s="69">
+      <c r="CQ37" s="56">
         <v>598</v>
       </c>
-      <c r="CR37" s="69">
-        <v>0</v>
-      </c>
-      <c r="CS37" s="69">
+      <c r="CR37" s="56">
+        <v>0</v>
+      </c>
+      <c r="CS37" s="56">
         <v>650</v>
       </c>
-      <c r="CT37" s="69">
+      <c r="CT37" s="56">
         <v>654</v>
       </c>
-      <c r="CU37" s="69">
+      <c r="CU37" s="56">
         <v>0</v>
       </c>
       <c r="CV37">
@@ -22763,8 +22779,8 @@
       </c>
     </row>
     <row r="38" spans="2:182" x14ac:dyDescent="0.2">
-      <c r="B38" s="54"/>
-      <c r="C38" s="67">
+      <c r="B38" s="57"/>
+      <c r="C38" s="54">
         <v>12</v>
       </c>
       <c r="D38">
@@ -23028,67 +23044,67 @@
       <c r="CL38">
         <v>0</v>
       </c>
-      <c r="CM38" s="69">
+      <c r="CM38" s="56">
         <v>555</v>
       </c>
-      <c r="CN38" s="69">
+      <c r="CN38" s="56">
         <v>558</v>
       </c>
-      <c r="CO38" s="69">
-        <v>0</v>
-      </c>
-      <c r="CP38" s="69">
+      <c r="CO38" s="56">
+        <v>0</v>
+      </c>
+      <c r="CP38" s="56">
         <v>560</v>
       </c>
-      <c r="CQ38" s="69">
+      <c r="CQ38" s="56">
         <v>564</v>
       </c>
-      <c r="CR38" s="69">
-        <v>0</v>
-      </c>
-      <c r="CS38" s="69">
+      <c r="CR38" s="56">
+        <v>0</v>
+      </c>
+      <c r="CS38" s="56">
         <v>568</v>
       </c>
-      <c r="CT38" s="69">
+      <c r="CT38" s="56">
         <v>572</v>
       </c>
-      <c r="CU38" s="69">
-        <v>0</v>
-      </c>
-      <c r="CV38" s="69">
+      <c r="CU38" s="56">
+        <v>0</v>
+      </c>
+      <c r="CV38" s="56">
         <v>574</v>
       </c>
-      <c r="CW38" s="69">
+      <c r="CW38" s="56">
         <v>577</v>
       </c>
-      <c r="CX38" s="69">
-        <v>0</v>
-      </c>
-      <c r="CY38" s="69">
+      <c r="CX38" s="56">
+        <v>0</v>
+      </c>
+      <c r="CY38" s="56">
         <v>581</v>
       </c>
-      <c r="CZ38" s="69">
+      <c r="CZ38" s="56">
         <v>585</v>
       </c>
-      <c r="DA38" s="69">
-        <v>0</v>
-      </c>
-      <c r="DB38" s="69">
+      <c r="DA38" s="56">
+        <v>0</v>
+      </c>
+      <c r="DB38" s="56">
         <v>601</v>
       </c>
-      <c r="DC38" s="69">
+      <c r="DC38" s="56">
         <v>604</v>
       </c>
-      <c r="DD38" s="69">
-        <v>0</v>
-      </c>
-      <c r="DE38" s="69">
+      <c r="DD38" s="56">
+        <v>0</v>
+      </c>
+      <c r="DE38" s="56">
         <v>622</v>
       </c>
-      <c r="DF38" s="69">
+      <c r="DF38" s="56">
         <v>627</v>
       </c>
-      <c r="DG38" s="69">
+      <c r="DG38" s="56">
         <v>0</v>
       </c>
       <c r="DH38">
@@ -23306,8 +23322,8 @@
       </c>
     </row>
     <row r="39" spans="2:182" x14ac:dyDescent="0.2">
-      <c r="B39" s="54"/>
-      <c r="C39" s="66">
+      <c r="B39" s="57"/>
+      <c r="C39" s="53">
         <v>13</v>
       </c>
       <c r="D39">
@@ -23580,64 +23596,64 @@
       <c r="CO39">
         <v>0</v>
       </c>
-      <c r="CP39" s="69">
+      <c r="CP39" s="56">
         <v>555</v>
       </c>
-      <c r="CQ39" s="69">
+      <c r="CQ39" s="56">
         <v>559</v>
       </c>
-      <c r="CR39" s="69">
-        <v>0</v>
-      </c>
-      <c r="CS39" s="69">
+      <c r="CR39" s="56">
+        <v>0</v>
+      </c>
+      <c r="CS39" s="56">
         <v>561</v>
       </c>
-      <c r="CT39" s="69">
+      <c r="CT39" s="56">
         <v>565</v>
       </c>
-      <c r="CU39" s="69">
-        <v>0</v>
-      </c>
-      <c r="CV39" s="69">
+      <c r="CU39" s="56">
+        <v>0</v>
+      </c>
+      <c r="CV39" s="56">
         <v>567</v>
       </c>
-      <c r="CW39" s="69">
+      <c r="CW39" s="56">
         <v>571</v>
       </c>
-      <c r="CX39" s="69">
-        <v>0</v>
-      </c>
-      <c r="CY39" s="69">
+      <c r="CX39" s="56">
+        <v>0</v>
+      </c>
+      <c r="CY39" s="56">
         <v>573</v>
       </c>
-      <c r="CZ39" s="69">
+      <c r="CZ39" s="56">
         <v>577</v>
       </c>
-      <c r="DA39" s="69">
-        <v>0</v>
-      </c>
-      <c r="DB39" s="69">
+      <c r="DA39" s="56">
+        <v>0</v>
+      </c>
+      <c r="DB39" s="56">
         <v>581</v>
       </c>
-      <c r="DC39" s="69">
+      <c r="DC39" s="56">
         <v>589</v>
       </c>
-      <c r="DD39" s="69">
-        <v>0</v>
-      </c>
-      <c r="DE39" s="69">
+      <c r="DD39" s="56">
+        <v>0</v>
+      </c>
+      <c r="DE39" s="56">
         <v>600</v>
       </c>
-      <c r="DF39" s="69">
+      <c r="DF39" s="56">
         <v>604</v>
       </c>
-      <c r="DG39" s="69">
-        <v>0</v>
-      </c>
-      <c r="DH39" s="69">
+      <c r="DG39" s="56">
+        <v>0</v>
+      </c>
+      <c r="DH39" s="56">
         <v>610</v>
       </c>
-      <c r="DI39" s="69">
+      <c r="DI39" s="56">
         <v>613</v>
       </c>
       <c r="DJ39">
@@ -23849,8 +23865,8 @@
       </c>
     </row>
     <row r="40" spans="2:182" x14ac:dyDescent="0.2">
-      <c r="B40" s="54"/>
-      <c r="C40" s="67">
+      <c r="B40" s="57"/>
+      <c r="C40" s="54">
         <v>14</v>
       </c>
       <c r="D40">
@@ -24105,67 +24121,67 @@
       <c r="CI40">
         <v>0</v>
       </c>
-      <c r="CJ40" s="69">
+      <c r="CJ40" s="56">
         <v>555</v>
       </c>
-      <c r="CK40" s="69">
+      <c r="CK40" s="56">
         <v>559</v>
       </c>
-      <c r="CL40" s="69">
-        <v>0</v>
-      </c>
-      <c r="CM40" s="69">
+      <c r="CL40" s="56">
+        <v>0</v>
+      </c>
+      <c r="CM40" s="56">
         <v>561</v>
       </c>
-      <c r="CN40" s="69">
+      <c r="CN40" s="56">
         <v>565</v>
       </c>
-      <c r="CO40" s="69">
-        <v>0</v>
-      </c>
-      <c r="CP40" s="69">
+      <c r="CO40" s="56">
+        <v>0</v>
+      </c>
+      <c r="CP40" s="56">
         <v>567</v>
       </c>
-      <c r="CQ40" s="69">
+      <c r="CQ40" s="56">
         <v>571</v>
       </c>
-      <c r="CR40" s="69">
-        <v>0</v>
-      </c>
-      <c r="CS40" s="69">
+      <c r="CR40" s="56">
+        <v>0</v>
+      </c>
+      <c r="CS40" s="56">
         <v>573</v>
       </c>
-      <c r="CT40" s="69">
+      <c r="CT40" s="56">
         <v>578</v>
       </c>
-      <c r="CU40" s="69">
-        <v>0</v>
-      </c>
-      <c r="CV40" s="69">
+      <c r="CU40" s="56">
+        <v>0</v>
+      </c>
+      <c r="CV40" s="56">
         <v>583</v>
       </c>
-      <c r="CW40" s="69">
+      <c r="CW40" s="56">
         <v>587</v>
       </c>
-      <c r="CX40" s="69">
-        <v>0</v>
-      </c>
-      <c r="CY40" s="69">
+      <c r="CX40" s="56">
+        <v>0</v>
+      </c>
+      <c r="CY40" s="56">
         <v>601</v>
       </c>
-      <c r="CZ40" s="69">
+      <c r="CZ40" s="56">
         <v>605</v>
       </c>
-      <c r="DA40" s="69">
-        <v>0</v>
-      </c>
-      <c r="DB40" s="69">
+      <c r="DA40" s="56">
+        <v>0</v>
+      </c>
+      <c r="DB40" s="56">
         <v>610</v>
       </c>
-      <c r="DC40" s="69">
+      <c r="DC40" s="56">
         <v>613</v>
       </c>
-      <c r="DD40" s="69">
+      <c r="DD40" s="56">
         <v>0</v>
       </c>
       <c r="DE40">
@@ -24392,110 +24408,110 @@
       </c>
     </row>
     <row r="43" spans="2:182" x14ac:dyDescent="0.2">
-      <c r="D43" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
+      <c r="D43" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
     </row>
     <row r="44" spans="2:182" x14ac:dyDescent="0.2">
-      <c r="C44" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="68">
+      <c r="C44" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="55">
         <v>1</v>
       </c>
-      <c r="E44" s="68">
+      <c r="E44" s="55">
         <v>2</v>
       </c>
-      <c r="F44" s="68">
+      <c r="F44" s="55">
         <v>3</v>
       </c>
-      <c r="G44" s="68">
+      <c r="G44" s="55">
         <v>4</v>
       </c>
-      <c r="H44" s="68">
+      <c r="H44" s="55">
         <v>5</v>
       </c>
-      <c r="I44" s="68">
+      <c r="I44" s="55">
         <v>6</v>
       </c>
-      <c r="J44" s="68">
+      <c r="J44" s="55">
         <v>7</v>
       </c>
-      <c r="K44" s="68">
+      <c r="K44" s="55">
         <v>8</v>
       </c>
-      <c r="L44" s="68">
+      <c r="L44" s="55">
         <v>9</v>
       </c>
-      <c r="M44" s="68">
+      <c r="M44" s="55">
         <v>10</v>
       </c>
-      <c r="N44" s="68">
+      <c r="N44" s="55">
         <v>11</v>
       </c>
-      <c r="O44" s="68">
+      <c r="O44" s="55">
         <v>12</v>
       </c>
-      <c r="P44" s="68">
+      <c r="P44" s="55">
         <v>13</v>
       </c>
-      <c r="Q44" s="68">
+      <c r="Q44" s="55">
         <v>14</v>
       </c>
     </row>
     <row r="45" spans="2:182" x14ac:dyDescent="0.2">
-      <c r="C45" s="68" t="s">
+      <c r="C45" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="55">
+        <v>46</v>
+      </c>
+      <c r="E45" s="55">
+        <v>31</v>
+      </c>
+      <c r="F45" s="55">
+        <v>41</v>
+      </c>
+      <c r="G45" s="55">
+        <v>43</v>
+      </c>
+      <c r="H45" s="55">
+        <v>37</v>
+      </c>
+      <c r="I45" s="55">
+        <v>24</v>
+      </c>
+      <c r="J45" s="55">
+        <v>42</v>
+      </c>
+      <c r="K45" s="55">
+        <v>30</v>
+      </c>
+      <c r="L45" s="55">
+        <v>37</v>
+      </c>
+      <c r="M45" s="55">
         <v>38</v>
       </c>
-      <c r="D45" s="68">
-        <v>46</v>
-      </c>
-      <c r="E45" s="68">
-        <v>31</v>
-      </c>
-      <c r="F45" s="68">
-        <v>41</v>
-      </c>
-      <c r="G45" s="68">
-        <v>43</v>
-      </c>
-      <c r="H45" s="68">
+      <c r="N45" s="55">
+        <v>33</v>
+      </c>
+      <c r="O45" s="55">
+        <v>26</v>
+      </c>
+      <c r="P45" s="55">
         <v>37</v>
       </c>
-      <c r="I45" s="68">
-        <v>24</v>
-      </c>
-      <c r="J45" s="68">
-        <v>42</v>
-      </c>
-      <c r="K45" s="68">
-        <v>30</v>
-      </c>
-      <c r="L45" s="68">
-        <v>37</v>
-      </c>
-      <c r="M45" s="68">
-        <v>38</v>
-      </c>
-      <c r="N45" s="68">
-        <v>33</v>
-      </c>
-      <c r="O45" s="68">
-        <v>26</v>
-      </c>
-      <c r="P45" s="68">
-        <v>37</v>
-      </c>
-      <c r="Q45" s="68">
+      <c r="Q45" s="55">
         <v>39</v>
       </c>
     </row>
     <row r="46" spans="2:182" x14ac:dyDescent="0.2">
       <c r="C46" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -24695,58 +24711,58 @@
       <c r="BQ46">
         <v>0</v>
       </c>
-      <c r="BR46" s="69">
+      <c r="BR46" s="56">
         <v>557</v>
       </c>
-      <c r="BS46" s="69">
+      <c r="BS46" s="56">
         <v>561</v>
       </c>
-      <c r="BT46" s="69">
-        <v>0</v>
-      </c>
-      <c r="BU46" s="69">
+      <c r="BT46" s="56">
+        <v>0</v>
+      </c>
+      <c r="BU46" s="56">
         <v>563</v>
       </c>
-      <c r="BV46" s="69">
+      <c r="BV46" s="56">
         <v>567</v>
       </c>
-      <c r="BW46" s="69">
-        <v>0</v>
-      </c>
-      <c r="BX46" s="69">
+      <c r="BW46" s="56">
+        <v>0</v>
+      </c>
+      <c r="BX46" s="56">
         <v>569</v>
       </c>
-      <c r="BY46" s="69">
+      <c r="BY46" s="56">
         <v>573</v>
       </c>
-      <c r="BZ46" s="69">
-        <v>0</v>
-      </c>
-      <c r="CA46" s="69">
+      <c r="BZ46" s="56">
+        <v>0</v>
+      </c>
+      <c r="CA46" s="56">
         <v>575</v>
       </c>
-      <c r="CB46" s="69">
+      <c r="CB46" s="56">
         <v>581</v>
       </c>
-      <c r="CC46" s="69">
-        <v>0</v>
-      </c>
-      <c r="CD46" s="69">
+      <c r="CC46" s="56">
+        <v>0</v>
+      </c>
+      <c r="CD46" s="56">
         <v>584</v>
       </c>
-      <c r="CE46" s="69">
+      <c r="CE46" s="56">
         <v>590</v>
       </c>
-      <c r="CF46" s="69">
-        <v>0</v>
-      </c>
-      <c r="CG46" s="69">
+      <c r="CF46" s="56">
+        <v>0</v>
+      </c>
+      <c r="CG46" s="56">
         <v>612</v>
       </c>
-      <c r="CH46" s="69">
+      <c r="CH46" s="56">
         <v>616</v>
       </c>
-      <c r="CI46" s="69">
+      <c r="CI46" s="56">
         <v>0</v>
       </c>
       <c r="CJ46">
@@ -24910,10 +24926,10 @@
       </c>
     </row>
     <row r="47" spans="2:182" x14ac:dyDescent="0.2">
-      <c r="B47" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="66">
+      <c r="B47" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="53">
         <v>1</v>
       </c>
       <c r="D47">
@@ -25078,13 +25094,13 @@
       <c r="BE47">
         <v>0</v>
       </c>
-      <c r="BF47" s="69">
+      <c r="BF47" s="56">
         <v>558</v>
       </c>
-      <c r="BG47" s="69">
+      <c r="BG47" s="56">
         <v>567</v>
       </c>
-      <c r="BH47" s="69">
+      <c r="BH47" s="56">
         <v>0</v>
       </c>
       <c r="BI47">
@@ -25329,8 +25345,8 @@
       </c>
     </row>
     <row r="48" spans="2:182" x14ac:dyDescent="0.2">
-      <c r="B48" s="54"/>
-      <c r="C48" s="67">
+      <c r="B48" s="57"/>
+      <c r="C48" s="54">
         <v>2</v>
       </c>
       <c r="D48">
@@ -25522,58 +25538,58 @@
       <c r="BN48">
         <v>0</v>
       </c>
-      <c r="BO48" s="69">
+      <c r="BO48" s="56">
         <v>554</v>
       </c>
-      <c r="BP48" s="69">
+      <c r="BP48" s="56">
         <v>558</v>
       </c>
-      <c r="BQ48" s="69">
-        <v>0</v>
-      </c>
-      <c r="BR48" s="69">
+      <c r="BQ48" s="56">
+        <v>0</v>
+      </c>
+      <c r="BR48" s="56">
         <v>560</v>
       </c>
-      <c r="BS48" s="69">
+      <c r="BS48" s="56">
         <v>564</v>
       </c>
-      <c r="BT48" s="69">
-        <v>0</v>
-      </c>
-      <c r="BU48" s="69">
+      <c r="BT48" s="56">
+        <v>0</v>
+      </c>
+      <c r="BU48" s="56">
         <v>566</v>
       </c>
-      <c r="BV48" s="69">
+      <c r="BV48" s="56">
         <v>571</v>
       </c>
-      <c r="BW48" s="69">
-        <v>0</v>
-      </c>
-      <c r="BX48" s="69">
+      <c r="BW48" s="56">
+        <v>0</v>
+      </c>
+      <c r="BX48" s="56">
         <v>573</v>
       </c>
-      <c r="BY48" s="69">
+      <c r="BY48" s="56">
         <v>577</v>
       </c>
-      <c r="BZ48" s="69">
-        <v>0</v>
-      </c>
-      <c r="CA48" s="69">
+      <c r="BZ48" s="56">
+        <v>0</v>
+      </c>
+      <c r="CA48" s="56">
         <v>582</v>
       </c>
-      <c r="CB48" s="69">
+      <c r="CB48" s="56">
         <v>586</v>
       </c>
-      <c r="CC48" s="69">
-        <v>0</v>
-      </c>
-      <c r="CD48" s="69">
+      <c r="CC48" s="56">
+        <v>0</v>
+      </c>
+      <c r="CD48" s="56">
         <v>599</v>
       </c>
-      <c r="CE48" s="69">
+      <c r="CE48" s="56">
         <v>603</v>
       </c>
-      <c r="CF48" s="69">
+      <c r="CF48" s="56">
         <v>0</v>
       </c>
       <c r="CG48">
@@ -25746,8 +25762,8 @@
       </c>
     </row>
     <row r="49" spans="2:140" x14ac:dyDescent="0.2">
-      <c r="B49" s="54"/>
-      <c r="C49" s="66">
+      <c r="B49" s="57"/>
+      <c r="C49" s="53">
         <v>3</v>
       </c>
       <c r="D49">
@@ -25939,58 +25955,58 @@
       <c r="BN49">
         <v>0</v>
       </c>
-      <c r="BO49" s="69">
+      <c r="BO49" s="56">
         <v>556</v>
       </c>
-      <c r="BP49" s="69">
+      <c r="BP49" s="56">
         <v>560</v>
       </c>
-      <c r="BQ49" s="69">
-        <v>0</v>
-      </c>
-      <c r="BR49" s="69">
+      <c r="BQ49" s="56">
+        <v>0</v>
+      </c>
+      <c r="BR49" s="56">
         <v>562</v>
       </c>
-      <c r="BS49" s="69">
+      <c r="BS49" s="56">
         <v>566</v>
       </c>
-      <c r="BT49" s="69">
-        <v>0</v>
-      </c>
-      <c r="BU49" s="69">
+      <c r="BT49" s="56">
+        <v>0</v>
+      </c>
+      <c r="BU49" s="56">
         <v>568</v>
       </c>
-      <c r="BV49" s="69">
+      <c r="BV49" s="56">
         <v>572</v>
       </c>
-      <c r="BW49" s="69">
-        <v>0</v>
-      </c>
-      <c r="BX49" s="69">
+      <c r="BW49" s="56">
+        <v>0</v>
+      </c>
+      <c r="BX49" s="56">
         <v>575</v>
       </c>
-      <c r="BY49" s="69">
+      <c r="BY49" s="56">
         <v>579</v>
       </c>
-      <c r="BZ49" s="69">
-        <v>0</v>
-      </c>
-      <c r="CA49" s="69">
+      <c r="BZ49" s="56">
+        <v>0</v>
+      </c>
+      <c r="CA49" s="56">
         <v>584</v>
       </c>
-      <c r="CB49" s="69">
+      <c r="CB49" s="56">
         <v>588</v>
       </c>
-      <c r="CC49" s="69">
-        <v>0</v>
-      </c>
-      <c r="CD49" s="69">
+      <c r="CC49" s="56">
+        <v>0</v>
+      </c>
+      <c r="CD49" s="56">
         <v>611</v>
       </c>
-      <c r="CE49" s="69">
+      <c r="CE49" s="56">
         <v>615</v>
       </c>
-      <c r="CF49" s="69">
+      <c r="CF49" s="56">
         <v>0</v>
       </c>
       <c r="CG49">
@@ -26163,8 +26179,8 @@
       </c>
     </row>
     <row r="50" spans="2:140" x14ac:dyDescent="0.2">
-      <c r="B50" s="54"/>
-      <c r="C50" s="67">
+      <c r="B50" s="57"/>
+      <c r="C50" s="54">
         <v>4</v>
       </c>
       <c r="D50">
@@ -26356,40 +26372,40 @@
       <c r="BN50">
         <v>0</v>
       </c>
-      <c r="BO50" s="69">
+      <c r="BO50" s="56">
         <v>556</v>
       </c>
-      <c r="BP50" s="69">
+      <c r="BP50" s="56">
         <v>560</v>
       </c>
-      <c r="BQ50" s="69">
-        <v>0</v>
-      </c>
-      <c r="BR50" s="69">
+      <c r="BQ50" s="56">
+        <v>0</v>
+      </c>
+      <c r="BR50" s="56">
         <v>562</v>
       </c>
-      <c r="BS50" s="69">
+      <c r="BS50" s="56">
         <v>566</v>
       </c>
-      <c r="BT50" s="69">
-        <v>0</v>
-      </c>
-      <c r="BU50" s="69">
+      <c r="BT50" s="56">
+        <v>0</v>
+      </c>
+      <c r="BU50" s="56">
         <v>568</v>
       </c>
-      <c r="BV50" s="69">
+      <c r="BV50" s="56">
         <v>572</v>
       </c>
-      <c r="BW50" s="69">
-        <v>0</v>
-      </c>
-      <c r="BX50" s="69">
+      <c r="BW50" s="56">
+        <v>0</v>
+      </c>
+      <c r="BX50" s="56">
         <v>611</v>
       </c>
-      <c r="BY50" s="69">
+      <c r="BY50" s="56">
         <v>615</v>
       </c>
-      <c r="BZ50" s="69">
+      <c r="BZ50" s="56">
         <v>0</v>
       </c>
       <c r="CA50">
@@ -26580,8 +26596,8 @@
       </c>
     </row>
     <row r="51" spans="2:140" x14ac:dyDescent="0.2">
-      <c r="B51" s="54"/>
-      <c r="C51" s="66">
+      <c r="B51" s="57"/>
+      <c r="C51" s="53">
         <v>5</v>
       </c>
       <c r="D51">
@@ -26701,10 +26717,10 @@
       <c r="AP51">
         <v>0</v>
       </c>
-      <c r="AQ51" s="69">
+      <c r="AQ51" s="56">
         <v>563</v>
       </c>
-      <c r="AR51" s="69">
+      <c r="AR51" s="56">
         <v>567</v>
       </c>
       <c r="AS51">
@@ -26997,8 +27013,8 @@
       </c>
     </row>
     <row r="52" spans="2:140" x14ac:dyDescent="0.2">
-      <c r="B52" s="54"/>
-      <c r="C52" s="67">
+      <c r="B52" s="57"/>
+      <c r="C52" s="54">
         <v>6</v>
       </c>
       <c r="D52">
@@ -27208,49 +27224,49 @@
       <c r="BT52">
         <v>0</v>
       </c>
-      <c r="BU52" s="69">
+      <c r="BU52" s="56">
         <v>555</v>
       </c>
-      <c r="BV52" s="69">
+      <c r="BV52" s="56">
         <v>559</v>
       </c>
-      <c r="BW52" s="69">
-        <v>0</v>
-      </c>
-      <c r="BX52" s="69">
+      <c r="BW52" s="56">
+        <v>0</v>
+      </c>
+      <c r="BX52" s="56">
         <v>561</v>
       </c>
-      <c r="BY52" s="69">
+      <c r="BY52" s="56">
         <v>565</v>
       </c>
-      <c r="BZ52" s="69">
-        <v>0</v>
-      </c>
-      <c r="CA52" s="69">
+      <c r="BZ52" s="56">
+        <v>0</v>
+      </c>
+      <c r="CA52" s="56">
         <v>568</v>
       </c>
-      <c r="CB52" s="69">
+      <c r="CB52" s="56">
         <v>572</v>
       </c>
-      <c r="CC52" s="69">
-        <v>0</v>
-      </c>
-      <c r="CD52" s="69">
+      <c r="CC52" s="56">
+        <v>0</v>
+      </c>
+      <c r="CD52" s="56">
         <v>574</v>
       </c>
-      <c r="CE52" s="69">
+      <c r="CE52" s="56">
         <v>590</v>
       </c>
-      <c r="CF52" s="69">
-        <v>0</v>
-      </c>
-      <c r="CG52" s="69">
+      <c r="CF52" s="56">
+        <v>0</v>
+      </c>
+      <c r="CG52" s="56">
         <v>606</v>
       </c>
-      <c r="CH52" s="69">
+      <c r="CH52" s="56">
         <v>612</v>
       </c>
-      <c r="CI52" s="69">
+      <c r="CI52" s="56">
         <v>0</v>
       </c>
       <c r="CJ52">
@@ -27414,8 +27430,8 @@
       </c>
     </row>
     <row r="53" spans="2:140" x14ac:dyDescent="0.2">
-      <c r="B53" s="54"/>
-      <c r="C53" s="66">
+      <c r="B53" s="57"/>
+      <c r="C53" s="53">
         <v>7</v>
       </c>
       <c r="D53">
@@ -27535,31 +27551,31 @@
       <c r="AP53">
         <v>0</v>
       </c>
-      <c r="AQ53" s="69">
+      <c r="AQ53" s="56">
         <v>580</v>
       </c>
-      <c r="AR53" s="69">
+      <c r="AR53" s="56">
         <v>585</v>
       </c>
-      <c r="AS53" s="69">
-        <v>0</v>
-      </c>
-      <c r="AT53" s="69">
+      <c r="AS53" s="56">
+        <v>0</v>
+      </c>
+      <c r="AT53" s="56">
         <v>591</v>
       </c>
-      <c r="AU53" s="69">
+      <c r="AU53" s="56">
         <v>595</v>
       </c>
-      <c r="AV53" s="69">
-        <v>0</v>
-      </c>
-      <c r="AW53" s="69">
+      <c r="AV53" s="56">
+        <v>0</v>
+      </c>
+      <c r="AW53" s="56">
         <v>600</v>
       </c>
-      <c r="AX53" s="69">
+      <c r="AX53" s="56">
         <v>604</v>
       </c>
-      <c r="AY53" s="69">
+      <c r="AY53" s="56">
         <v>0</v>
       </c>
       <c r="AZ53">
@@ -27831,8 +27847,8 @@
       </c>
     </row>
     <row r="54" spans="2:140" x14ac:dyDescent="0.2">
-      <c r="B54" s="54"/>
-      <c r="C54" s="67">
+      <c r="B54" s="57"/>
+      <c r="C54" s="54">
         <v>8</v>
       </c>
       <c r="D54">
@@ -27988,58 +28004,58 @@
       <c r="BB54">
         <v>0</v>
       </c>
-      <c r="BC54" s="69">
+      <c r="BC54" s="56">
         <v>555</v>
       </c>
-      <c r="BD54" s="69">
+      <c r="BD54" s="56">
         <v>559</v>
       </c>
-      <c r="BE54" s="69">
-        <v>0</v>
-      </c>
-      <c r="BF54" s="69">
+      <c r="BE54" s="56">
+        <v>0</v>
+      </c>
+      <c r="BF54" s="56">
         <v>561</v>
       </c>
-      <c r="BG54" s="69">
+      <c r="BG54" s="56">
         <v>565</v>
       </c>
-      <c r="BH54" s="69">
-        <v>0</v>
-      </c>
-      <c r="BI54" s="69">
+      <c r="BH54" s="56">
+        <v>0</v>
+      </c>
+      <c r="BI54" s="56">
         <v>567</v>
       </c>
-      <c r="BJ54" s="69">
+      <c r="BJ54" s="56">
         <v>571</v>
       </c>
-      <c r="BK54" s="69">
-        <v>0</v>
-      </c>
-      <c r="BL54" s="69">
+      <c r="BK54" s="56">
+        <v>0</v>
+      </c>
+      <c r="BL54" s="56">
         <v>574</v>
       </c>
-      <c r="BM54" s="69">
+      <c r="BM54" s="56">
         <v>581</v>
       </c>
-      <c r="BN54" s="69">
-        <v>0</v>
-      </c>
-      <c r="BO54" s="69">
+      <c r="BN54" s="56">
+        <v>0</v>
+      </c>
+      <c r="BO54" s="56">
         <v>583</v>
       </c>
-      <c r="BP54" s="69">
+      <c r="BP54" s="56">
         <v>588</v>
       </c>
-      <c r="BQ54" s="69">
-        <v>0</v>
-      </c>
-      <c r="BR54" s="69">
+      <c r="BQ54" s="56">
+        <v>0</v>
+      </c>
+      <c r="BR54" s="56">
         <v>601</v>
       </c>
-      <c r="BS54" s="69">
+      <c r="BS54" s="56">
         <v>605</v>
       </c>
-      <c r="BT54" s="69">
+      <c r="BT54" s="56">
         <v>0</v>
       </c>
       <c r="BU54">
@@ -28248,8 +28264,8 @@
       </c>
     </row>
     <row r="55" spans="2:140" x14ac:dyDescent="0.2">
-      <c r="B55" s="54"/>
-      <c r="C55" s="66">
+      <c r="B55" s="57"/>
+      <c r="C55" s="53">
         <v>9</v>
       </c>
       <c r="D55">
@@ -28441,31 +28457,31 @@
       <c r="BN55">
         <v>0</v>
       </c>
-      <c r="BO55" s="69">
+      <c r="BO55" s="56">
         <v>555</v>
       </c>
-      <c r="BP55" s="69">
+      <c r="BP55" s="56">
         <v>559</v>
       </c>
-      <c r="BQ55" s="69">
-        <v>0</v>
-      </c>
-      <c r="BR55" s="69">
+      <c r="BQ55" s="56">
+        <v>0</v>
+      </c>
+      <c r="BR55" s="56">
         <v>561</v>
       </c>
-      <c r="BS55" s="69">
+      <c r="BS55" s="56">
         <v>565</v>
       </c>
-      <c r="BT55" s="69">
-        <v>0</v>
-      </c>
-      <c r="BU55" s="69">
+      <c r="BT55" s="56">
+        <v>0</v>
+      </c>
+      <c r="BU55" s="56">
         <v>584</v>
       </c>
-      <c r="BV55" s="69">
+      <c r="BV55" s="56">
         <v>588</v>
       </c>
-      <c r="BW55" s="69">
+      <c r="BW55" s="56">
         <v>0</v>
       </c>
       <c r="BX55">
@@ -28665,8 +28681,8 @@
       </c>
     </row>
     <row r="56" spans="2:140" x14ac:dyDescent="0.2">
-      <c r="B56" s="54"/>
-      <c r="C56" s="67">
+      <c r="B56" s="57"/>
+      <c r="C56" s="54">
         <v>10</v>
       </c>
       <c r="D56">
@@ -28786,40 +28802,40 @@
       <c r="AP56">
         <v>0</v>
       </c>
-      <c r="AQ56" s="69">
+      <c r="AQ56" s="56">
         <v>556</v>
       </c>
-      <c r="AR56" s="69">
+      <c r="AR56" s="56">
         <v>561</v>
       </c>
-      <c r="AS56" s="69">
-        <v>0</v>
-      </c>
-      <c r="AT56" s="69">
+      <c r="AS56" s="56">
+        <v>0</v>
+      </c>
+      <c r="AT56" s="56">
         <v>582</v>
       </c>
-      <c r="AU56" s="69">
+      <c r="AU56" s="56">
         <v>587</v>
       </c>
-      <c r="AV56" s="69">
-        <v>0</v>
-      </c>
-      <c r="AW56" s="69">
+      <c r="AV56" s="56">
+        <v>0</v>
+      </c>
+      <c r="AW56" s="56">
         <v>592</v>
       </c>
-      <c r="AX56" s="69">
+      <c r="AX56" s="56">
         <v>598</v>
       </c>
-      <c r="AY56" s="69">
-        <v>0</v>
-      </c>
-      <c r="AZ56" s="69">
+      <c r="AY56" s="56">
+        <v>0</v>
+      </c>
+      <c r="AZ56" s="56">
         <v>650</v>
       </c>
-      <c r="BA56" s="69">
+      <c r="BA56" s="56">
         <v>654</v>
       </c>
-      <c r="BB56" s="69">
+      <c r="BB56" s="56">
         <v>0</v>
       </c>
       <c r="BC56">
@@ -29082,8 +29098,8 @@
       </c>
     </row>
     <row r="57" spans="2:140" x14ac:dyDescent="0.2">
-      <c r="B57" s="54"/>
-      <c r="C57" s="66">
+      <c r="B57" s="57"/>
+      <c r="C57" s="53">
         <v>11</v>
       </c>
       <c r="D57">
@@ -29185,40 +29201,40 @@
       <c r="AJ57">
         <v>0</v>
       </c>
-      <c r="AK57" s="69">
+      <c r="AK57" s="56">
         <v>560</v>
       </c>
-      <c r="AL57" s="69">
+      <c r="AL57" s="56">
         <v>564</v>
       </c>
-      <c r="AM57" s="69">
-        <v>0</v>
-      </c>
-      <c r="AN57" s="69">
+      <c r="AM57" s="56">
+        <v>0</v>
+      </c>
+      <c r="AN57" s="56">
         <v>568</v>
       </c>
-      <c r="AO57" s="69">
+      <c r="AO57" s="56">
         <v>572</v>
       </c>
-      <c r="AP57" s="69">
-        <v>0</v>
-      </c>
-      <c r="AQ57" s="69">
+      <c r="AP57" s="56">
+        <v>0</v>
+      </c>
+      <c r="AQ57" s="56">
         <v>581</v>
       </c>
-      <c r="AR57" s="69">
+      <c r="AR57" s="56">
         <v>585</v>
       </c>
-      <c r="AS57" s="69">
-        <v>0</v>
-      </c>
-      <c r="AT57" s="69">
+      <c r="AS57" s="56">
+        <v>0</v>
+      </c>
+      <c r="AT57" s="56">
         <v>622</v>
       </c>
-      <c r="AU57" s="69">
+      <c r="AU57" s="56">
         <v>627</v>
       </c>
-      <c r="AV57" s="69">
+      <c r="AV57" s="56">
         <v>0</v>
       </c>
       <c r="AW57">
@@ -29499,8 +29515,8 @@
       </c>
     </row>
     <row r="58" spans="2:140" x14ac:dyDescent="0.2">
-      <c r="B58" s="54"/>
-      <c r="C58" s="67">
+      <c r="B58" s="57"/>
+      <c r="C58" s="54">
         <v>12</v>
       </c>
       <c r="D58">
@@ -29674,58 +29690,58 @@
       <c r="BH58">
         <v>0</v>
       </c>
-      <c r="BI58" s="69">
+      <c r="BI58" s="56">
         <v>555</v>
       </c>
-      <c r="BJ58" s="69">
+      <c r="BJ58" s="56">
         <v>559</v>
       </c>
-      <c r="BK58" s="69">
-        <v>0</v>
-      </c>
-      <c r="BL58" s="69">
+      <c r="BK58" s="56">
+        <v>0</v>
+      </c>
+      <c r="BL58" s="56">
         <v>561</v>
       </c>
-      <c r="BM58" s="69">
+      <c r="BM58" s="56">
         <v>565</v>
       </c>
-      <c r="BN58" s="69">
-        <v>0</v>
-      </c>
-      <c r="BO58" s="69">
+      <c r="BN58" s="56">
+        <v>0</v>
+      </c>
+      <c r="BO58" s="56">
         <v>567</v>
       </c>
-      <c r="BP58" s="69">
+      <c r="BP58" s="56">
         <v>571</v>
       </c>
-      <c r="BQ58" s="69">
-        <v>0</v>
-      </c>
-      <c r="BR58" s="69">
+      <c r="BQ58" s="56">
+        <v>0</v>
+      </c>
+      <c r="BR58" s="56">
         <v>573</v>
       </c>
-      <c r="BS58" s="69">
+      <c r="BS58" s="56">
         <v>577</v>
       </c>
-      <c r="BT58" s="69">
-        <v>0</v>
-      </c>
-      <c r="BU58" s="69">
+      <c r="BT58" s="56">
+        <v>0</v>
+      </c>
+      <c r="BU58" s="56">
         <v>581</v>
       </c>
-      <c r="BV58" s="69">
+      <c r="BV58" s="56">
         <v>589</v>
       </c>
-      <c r="BW58" s="69">
-        <v>0</v>
-      </c>
-      <c r="BX58" s="69">
+      <c r="BW58" s="56">
+        <v>0</v>
+      </c>
+      <c r="BX58" s="56">
         <v>600</v>
       </c>
-      <c r="BY58" s="69">
+      <c r="BY58" s="56">
         <v>604</v>
       </c>
-      <c r="BZ58" s="69">
+      <c r="BZ58" s="56">
         <v>0</v>
       </c>
       <c r="CA58">
@@ -29916,8 +29932,8 @@
       </c>
     </row>
     <row r="59" spans="2:140" x14ac:dyDescent="0.2">
-      <c r="B59" s="54"/>
-      <c r="C59" s="66">
+      <c r="B59" s="57"/>
+      <c r="C59" s="53">
         <v>13</v>
       </c>
       <c r="D59">
@@ -30109,55 +30125,55 @@
       <c r="BN59">
         <v>0</v>
       </c>
-      <c r="BO59" s="69">
+      <c r="BO59" s="56">
         <v>555</v>
       </c>
-      <c r="BP59" s="69">
+      <c r="BP59" s="56">
         <v>559</v>
       </c>
-      <c r="BQ59" s="69">
-        <v>0</v>
-      </c>
-      <c r="BR59" s="69">
+      <c r="BQ59" s="56">
+        <v>0</v>
+      </c>
+      <c r="BR59" s="56">
         <v>561</v>
       </c>
-      <c r="BS59" s="69">
+      <c r="BS59" s="56">
         <v>565</v>
       </c>
-      <c r="BT59" s="69">
-        <v>0</v>
-      </c>
-      <c r="BU59" s="69">
+      <c r="BT59" s="56">
+        <v>0</v>
+      </c>
+      <c r="BU59" s="56">
         <v>567</v>
       </c>
-      <c r="BV59" s="69">
+      <c r="BV59" s="56">
         <v>571</v>
       </c>
-      <c r="BW59" s="69">
-        <v>0</v>
-      </c>
-      <c r="BX59" s="69">
+      <c r="BW59" s="56">
+        <v>0</v>
+      </c>
+      <c r="BX59" s="56">
         <v>573</v>
       </c>
-      <c r="BY59" s="69">
+      <c r="BY59" s="56">
         <v>578</v>
       </c>
-      <c r="BZ59" s="69">
-        <v>0</v>
-      </c>
-      <c r="CA59" s="69">
+      <c r="BZ59" s="56">
+        <v>0</v>
+      </c>
+      <c r="CA59" s="56">
         <v>583</v>
       </c>
-      <c r="CB59" s="69">
+      <c r="CB59" s="56">
         <v>587</v>
       </c>
-      <c r="CC59" s="69">
-        <v>0</v>
-      </c>
-      <c r="CD59" s="69">
+      <c r="CC59" s="56">
+        <v>0</v>
+      </c>
+      <c r="CD59" s="56">
         <v>601</v>
       </c>
-      <c r="CE59" s="69">
+      <c r="CE59" s="56">
         <v>605</v>
       </c>
       <c r="CF59">
@@ -30333,13 +30349,3269 @@
       </c>
     </row>
     <row r="60" spans="2:140" x14ac:dyDescent="0.2">
-      <c r="B60" s="54"/>
-      <c r="C60" s="67">
+      <c r="B60" s="57"/>
+      <c r="C60" s="54">
         <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="2:87" x14ac:dyDescent="0.2">
+      <c r="B67" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
+    </row>
+    <row r="69" spans="2:87" x14ac:dyDescent="0.2">
+      <c r="D69" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E69" s="58"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="58"/>
+    </row>
+    <row r="70" spans="2:87" x14ac:dyDescent="0.2">
+      <c r="C70" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="55">
+        <v>1</v>
+      </c>
+      <c r="E70" s="55">
+        <v>2</v>
+      </c>
+      <c r="F70" s="55">
+        <v>3</v>
+      </c>
+      <c r="G70" s="55">
+        <v>4</v>
+      </c>
+      <c r="H70" s="55">
+        <v>5</v>
+      </c>
+      <c r="I70" s="55">
+        <v>6</v>
+      </c>
+      <c r="J70" s="55">
+        <v>7</v>
+      </c>
+      <c r="K70" s="55">
+        <v>8</v>
+      </c>
+      <c r="L70" s="55">
+        <v>9</v>
+      </c>
+      <c r="M70" s="55">
+        <v>10</v>
+      </c>
+      <c r="N70" s="55">
+        <v>11</v>
+      </c>
+      <c r="O70" s="55">
+        <v>12</v>
+      </c>
+      <c r="P70" s="55">
+        <v>13</v>
+      </c>
+      <c r="Q70" s="55">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="2:87" x14ac:dyDescent="0.2">
+      <c r="C71" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="55">
+        <v>24</v>
+      </c>
+      <c r="E71" s="55">
+        <v>16</v>
+      </c>
+      <c r="F71" s="55">
+        <v>23</v>
+      </c>
+      <c r="G71" s="55">
+        <v>21</v>
+      </c>
+      <c r="H71" s="55">
+        <v>21</v>
+      </c>
+      <c r="I71" s="55">
+        <v>11</v>
+      </c>
+      <c r="J71" s="55">
+        <v>19</v>
+      </c>
+      <c r="K71" s="55">
+        <v>14</v>
+      </c>
+      <c r="L71" s="55">
+        <v>19</v>
+      </c>
+      <c r="M71" s="55">
+        <v>20</v>
+      </c>
+      <c r="N71" s="55">
+        <v>13</v>
+      </c>
+      <c r="O71" s="55">
+        <v>12</v>
+      </c>
+      <c r="P71" s="55">
+        <v>19</v>
+      </c>
+      <c r="Q71" s="55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="2:87" x14ac:dyDescent="0.2">
+      <c r="C72" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BR72" s="56"/>
+      <c r="BS72" s="56"/>
+      <c r="BT72" s="56"/>
+      <c r="BU72" s="56"/>
+      <c r="BV72" s="56"/>
+      <c r="BW72" s="56"/>
+      <c r="BX72" s="56"/>
+      <c r="BY72" s="56"/>
+      <c r="BZ72" s="56"/>
+      <c r="CA72" s="56"/>
+      <c r="CB72" s="56"/>
+      <c r="CC72" s="56"/>
+      <c r="CD72" s="56"/>
+      <c r="CE72" s="56"/>
+      <c r="CF72" s="56"/>
+      <c r="CG72" s="56"/>
+      <c r="CH72" s="56"/>
+      <c r="CI72" s="56"/>
+    </row>
+    <row r="73" spans="2:87" x14ac:dyDescent="0.2">
+      <c r="B73" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="53">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>7</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>57</v>
+      </c>
+      <c r="H73">
+        <v>61</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>110</v>
+      </c>
+      <c r="K73">
+        <v>114</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>195</v>
+      </c>
+      <c r="N73">
+        <v>200</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>297</v>
+      </c>
+      <c r="Q73">
+        <v>302</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>327</v>
+      </c>
+      <c r="T73">
+        <v>331</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>343</v>
+      </c>
+      <c r="W73">
+        <v>348</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>354</v>
+      </c>
+      <c r="Z73">
+        <v>358</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>366</v>
+      </c>
+      <c r="AC73">
+        <v>373</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>504</v>
+      </c>
+      <c r="AF73">
+        <v>508</v>
+      </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
+      <c r="AH73">
+        <v>557</v>
+      </c>
+      <c r="AI73">
+        <v>561</v>
+      </c>
+      <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>575</v>
+      </c>
+      <c r="AL73">
+        <v>580</v>
+      </c>
+      <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>612</v>
+      </c>
+      <c r="AO73">
+        <v>616</v>
+      </c>
+      <c r="AP73">
+        <v>0</v>
+      </c>
+      <c r="AQ73">
+        <v>738</v>
+      </c>
+      <c r="AR73">
+        <v>742</v>
+      </c>
+      <c r="AS73">
+        <v>0</v>
+      </c>
+      <c r="AT73">
+        <v>777</v>
+      </c>
+      <c r="AU73">
+        <v>781</v>
+      </c>
+      <c r="AV73">
+        <v>0</v>
+      </c>
+      <c r="AW73">
+        <v>834</v>
+      </c>
+      <c r="AX73">
+        <v>840</v>
+      </c>
+      <c r="AY73">
+        <v>0</v>
+      </c>
+      <c r="AZ73">
+        <v>980</v>
+      </c>
+      <c r="BA73">
+        <v>985</v>
+      </c>
+      <c r="BB73">
+        <v>0</v>
+      </c>
+      <c r="BC73">
+        <v>1137</v>
+      </c>
+      <c r="BD73">
+        <v>1142</v>
+      </c>
+      <c r="BE73">
+        <v>0</v>
+      </c>
+      <c r="BF73" s="56">
+        <v>1164</v>
+      </c>
+      <c r="BG73" s="56">
+        <v>1168</v>
+      </c>
+      <c r="BH73" s="56">
+        <v>0</v>
+      </c>
+      <c r="BI73">
+        <v>1184</v>
+      </c>
+      <c r="BJ73">
+        <v>1190</v>
+      </c>
+      <c r="BK73">
+        <v>0</v>
+      </c>
+      <c r="BL73">
+        <v>1215</v>
+      </c>
+      <c r="BM73">
+        <v>1219</v>
+      </c>
+      <c r="BN73">
+        <v>0</v>
+      </c>
+      <c r="BO73">
+        <v>1272</v>
+      </c>
+      <c r="BP73">
+        <v>1276</v>
+      </c>
+      <c r="BQ73">
+        <v>0</v>
+      </c>
+      <c r="BR73">
+        <v>1320</v>
+      </c>
+      <c r="BS73">
+        <v>1324</v>
+      </c>
+      <c r="BT73">
+        <v>0</v>
+      </c>
+      <c r="BU73">
+        <v>1336</v>
+      </c>
+      <c r="BV73">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="74" spans="2:87" x14ac:dyDescent="0.2">
+      <c r="B74" s="57"/>
+      <c r="C74" s="54">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>57</v>
+      </c>
+      <c r="E74">
+        <v>61</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>110</v>
+      </c>
+      <c r="H74">
+        <v>114</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>153</v>
+      </c>
+      <c r="K74">
+        <v>157</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>196</v>
+      </c>
+      <c r="N74">
+        <v>200</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>220</v>
+      </c>
+      <c r="Q74">
+        <v>224</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>327</v>
+      </c>
+      <c r="T74">
+        <v>331</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>366</v>
+      </c>
+      <c r="W74">
+        <v>373</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>558</v>
+      </c>
+      <c r="Z74">
+        <v>562</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>738</v>
+      </c>
+      <c r="AC74">
+        <v>742</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>777</v>
+      </c>
+      <c r="AF74">
+        <v>781</v>
+      </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
+      <c r="AH74">
+        <v>834</v>
+      </c>
+      <c r="AI74">
+        <v>838</v>
+      </c>
+      <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>908</v>
+      </c>
+      <c r="AL74">
+        <v>912</v>
+      </c>
+      <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AN74">
+        <v>1136</v>
+      </c>
+      <c r="AO74">
+        <v>1141</v>
+      </c>
+      <c r="AP74">
+        <v>0</v>
+      </c>
+      <c r="AQ74">
+        <v>1163</v>
+      </c>
+      <c r="AR74">
+        <v>1167</v>
+      </c>
+      <c r="AS74">
+        <v>0</v>
+      </c>
+      <c r="AT74">
+        <v>1185</v>
+      </c>
+      <c r="AU74">
+        <v>1191</v>
+      </c>
+      <c r="AV74">
+        <v>0</v>
+      </c>
+      <c r="AW74">
+        <v>1337</v>
+      </c>
+      <c r="AX74">
+        <v>1342</v>
+      </c>
+      <c r="AY74">
+        <v>0</v>
+      </c>
+      <c r="AZ74">
+        <v>0</v>
+      </c>
+      <c r="BA74">
+        <v>0</v>
+      </c>
+      <c r="BB74">
+        <v>0</v>
+      </c>
+      <c r="BC74">
+        <v>0</v>
+      </c>
+      <c r="BD74">
+        <v>0</v>
+      </c>
+      <c r="BE74">
+        <v>0</v>
+      </c>
+      <c r="BF74">
+        <v>0</v>
+      </c>
+      <c r="BG74">
+        <v>0</v>
+      </c>
+      <c r="BH74">
+        <v>0</v>
+      </c>
+      <c r="BI74">
+        <v>0</v>
+      </c>
+      <c r="BJ74">
+        <v>0</v>
+      </c>
+      <c r="BK74">
+        <v>0</v>
+      </c>
+      <c r="BL74">
+        <v>0</v>
+      </c>
+      <c r="BM74">
+        <v>0</v>
+      </c>
+      <c r="BN74">
+        <v>0</v>
+      </c>
+      <c r="BO74" s="56">
+        <v>0</v>
+      </c>
+      <c r="BP74" s="56">
+        <v>0</v>
+      </c>
+      <c r="BQ74" s="56">
+        <v>0</v>
+      </c>
+      <c r="BR74" s="56">
+        <v>0</v>
+      </c>
+      <c r="BS74" s="56">
+        <v>0</v>
+      </c>
+      <c r="BT74" s="56">
+        <v>0</v>
+      </c>
+      <c r="BU74" s="56">
+        <v>0</v>
+      </c>
+      <c r="BV74" s="56">
+        <v>0</v>
+      </c>
+      <c r="BW74" s="56"/>
+      <c r="BX74" s="56"/>
+      <c r="BY74" s="56"/>
+      <c r="BZ74" s="56"/>
+      <c r="CA74" s="56"/>
+      <c r="CB74" s="56"/>
+      <c r="CC74" s="56"/>
+      <c r="CD74" s="56"/>
+      <c r="CE74" s="56"/>
+      <c r="CF74" s="56"/>
+    </row>
+    <row r="75" spans="2:87" x14ac:dyDescent="0.2">
+      <c r="B75" s="57"/>
+      <c r="C75" s="53">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>40</v>
+      </c>
+      <c r="E75">
+        <v>44</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>54</v>
+      </c>
+      <c r="H75">
+        <v>58</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>107</v>
+      </c>
+      <c r="K75">
+        <v>111</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>192</v>
+      </c>
+      <c r="N75">
+        <v>196</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>294</v>
+      </c>
+      <c r="Q75">
+        <v>299</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>323</v>
+      </c>
+      <c r="T75">
+        <v>328</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>339</v>
+      </c>
+      <c r="W75">
+        <v>345</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>363</v>
+      </c>
+      <c r="Z75">
+        <v>369</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>388</v>
+      </c>
+      <c r="AC75">
+        <v>392</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>501</v>
+      </c>
+      <c r="AF75">
+        <v>505</v>
+      </c>
+      <c r="AG75">
+        <v>0</v>
+      </c>
+      <c r="AH75">
+        <v>554</v>
+      </c>
+      <c r="AI75">
+        <v>558</v>
+      </c>
+      <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>573</v>
+      </c>
+      <c r="AL75">
+        <v>577</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>599</v>
+      </c>
+      <c r="AO75">
+        <v>603</v>
+      </c>
+      <c r="AP75">
+        <v>0</v>
+      </c>
+      <c r="AQ75">
+        <v>735</v>
+      </c>
+      <c r="AR75">
+        <v>740</v>
+      </c>
+      <c r="AS75">
+        <v>0</v>
+      </c>
+      <c r="AT75">
+        <v>774</v>
+      </c>
+      <c r="AU75">
+        <v>783</v>
+      </c>
+      <c r="AV75">
+        <v>0</v>
+      </c>
+      <c r="AW75">
+        <v>830</v>
+      </c>
+      <c r="AX75">
+        <v>836</v>
+      </c>
+      <c r="AY75">
+        <v>0</v>
+      </c>
+      <c r="AZ75">
+        <v>975</v>
+      </c>
+      <c r="BA75">
+        <v>982</v>
+      </c>
+      <c r="BB75">
+        <v>0</v>
+      </c>
+      <c r="BC75">
+        <v>1134</v>
+      </c>
+      <c r="BD75">
+        <v>1138</v>
+      </c>
+      <c r="BE75">
+        <v>0</v>
+      </c>
+      <c r="BF75">
+        <v>1161</v>
+      </c>
+      <c r="BG75">
+        <v>1165</v>
+      </c>
+      <c r="BH75">
+        <v>0</v>
+      </c>
+      <c r="BI75">
+        <v>1181</v>
+      </c>
+      <c r="BJ75">
+        <v>1187</v>
+      </c>
+      <c r="BK75">
+        <v>0</v>
+      </c>
+      <c r="BL75">
+        <v>1316</v>
+      </c>
+      <c r="BM75">
+        <v>1320</v>
+      </c>
+      <c r="BN75">
+        <v>0</v>
+      </c>
+      <c r="BO75" s="56">
+        <v>1333</v>
+      </c>
+      <c r="BP75" s="56">
+        <v>1340</v>
+      </c>
+      <c r="BQ75" s="56">
+        <v>0</v>
+      </c>
+      <c r="BR75" s="56">
+        <v>1425</v>
+      </c>
+      <c r="BS75" s="56">
+        <v>1429</v>
+      </c>
+      <c r="BT75" s="56">
+        <v>0</v>
+      </c>
+      <c r="BU75" s="56">
+        <v>0</v>
+      </c>
+      <c r="BV75" s="56">
+        <v>0</v>
+      </c>
+      <c r="BW75" s="56"/>
+      <c r="BX75" s="56"/>
+      <c r="BY75" s="56"/>
+      <c r="BZ75" s="56"/>
+      <c r="CA75" s="56"/>
+      <c r="CB75" s="56"/>
+      <c r="CC75" s="56"/>
+      <c r="CD75" s="56"/>
+      <c r="CE75" s="56"/>
+      <c r="CF75" s="56"/>
+    </row>
+    <row r="76" spans="2:87" x14ac:dyDescent="0.2">
+      <c r="B76" s="57"/>
+      <c r="C76" s="54">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>56</v>
+      </c>
+      <c r="E76">
+        <v>61</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>109</v>
+      </c>
+      <c r="H76">
+        <v>113</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>194</v>
+      </c>
+      <c r="K76">
+        <v>198</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>296</v>
+      </c>
+      <c r="N76">
+        <v>301</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>326</v>
+      </c>
+      <c r="Q76">
+        <v>330</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>340</v>
+      </c>
+      <c r="T76">
+        <v>347</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>364</v>
+      </c>
+      <c r="W76">
+        <v>371</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>503</v>
+      </c>
+      <c r="Z76">
+        <v>507</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>556</v>
+      </c>
+      <c r="AC76">
+        <v>560</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>575</v>
+      </c>
+      <c r="AF76">
+        <v>579</v>
+      </c>
+      <c r="AG76">
+        <v>0</v>
+      </c>
+      <c r="AH76">
+        <v>611</v>
+      </c>
+      <c r="AI76">
+        <v>615</v>
+      </c>
+      <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>737</v>
+      </c>
+      <c r="AL76">
+        <v>741</v>
+      </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>776</v>
+      </c>
+      <c r="AO76">
+        <v>780</v>
+      </c>
+      <c r="AP76">
+        <v>0</v>
+      </c>
+      <c r="AQ76">
+        <v>832</v>
+      </c>
+      <c r="AR76">
+        <v>836</v>
+      </c>
+      <c r="AS76">
+        <v>0</v>
+      </c>
+      <c r="AT76">
+        <v>978</v>
+      </c>
+      <c r="AU76">
+        <v>983</v>
+      </c>
+      <c r="AV76">
+        <v>0</v>
+      </c>
+      <c r="AW76">
+        <v>1136</v>
+      </c>
+      <c r="AX76">
+        <v>1140</v>
+      </c>
+      <c r="AY76">
+        <v>0</v>
+      </c>
+      <c r="AZ76">
+        <v>1163</v>
+      </c>
+      <c r="BA76">
+        <v>1167</v>
+      </c>
+      <c r="BB76">
+        <v>0</v>
+      </c>
+      <c r="BC76">
+        <v>1183</v>
+      </c>
+      <c r="BD76">
+        <v>1188</v>
+      </c>
+      <c r="BE76">
+        <v>0</v>
+      </c>
+      <c r="BF76">
+        <v>1319</v>
+      </c>
+      <c r="BG76">
+        <v>1323</v>
+      </c>
+      <c r="BH76">
+        <v>0</v>
+      </c>
+      <c r="BI76">
+        <v>1335</v>
+      </c>
+      <c r="BJ76">
+        <v>1342</v>
+      </c>
+      <c r="BK76">
+        <v>0</v>
+      </c>
+      <c r="BL76">
+        <v>1427</v>
+      </c>
+      <c r="BM76">
+        <v>1431</v>
+      </c>
+      <c r="BN76">
+        <v>0</v>
+      </c>
+      <c r="BO76" s="56">
+        <v>0</v>
+      </c>
+      <c r="BP76" s="56">
+        <v>0</v>
+      </c>
+      <c r="BQ76" s="56">
+        <v>0</v>
+      </c>
+      <c r="BR76" s="56">
+        <v>0</v>
+      </c>
+      <c r="BS76" s="56">
+        <v>0</v>
+      </c>
+      <c r="BT76" s="56">
+        <v>0</v>
+      </c>
+      <c r="BU76" s="56">
+        <v>0</v>
+      </c>
+      <c r="BV76" s="56">
+        <v>0</v>
+      </c>
+      <c r="BW76" s="56"/>
+      <c r="BX76" s="56"/>
+      <c r="BY76" s="56"/>
+      <c r="BZ76" s="56"/>
+    </row>
+    <row r="77" spans="2:87" x14ac:dyDescent="0.2">
+      <c r="B77" s="57"/>
+      <c r="C77" s="53">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>56</v>
+      </c>
+      <c r="E77">
+        <v>61</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>67</v>
+      </c>
+      <c r="H77">
+        <v>71</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>109</v>
+      </c>
+      <c r="K77">
+        <v>113</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>194</v>
+      </c>
+      <c r="N77">
+        <v>198</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>297</v>
+      </c>
+      <c r="Q77">
+        <v>301</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>326</v>
+      </c>
+      <c r="T77">
+        <v>330</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>341</v>
+      </c>
+      <c r="W77">
+        <v>347</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>365</v>
+      </c>
+      <c r="Z77">
+        <v>371</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>391</v>
+      </c>
+      <c r="AC77">
+        <v>395</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>503</v>
+      </c>
+      <c r="AF77">
+        <v>507</v>
+      </c>
+      <c r="AG77">
+        <v>0</v>
+      </c>
+      <c r="AH77">
+        <v>556</v>
+      </c>
+      <c r="AI77">
+        <v>560</v>
+      </c>
+      <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>611</v>
+      </c>
+      <c r="AL77">
+        <v>615</v>
+      </c>
+      <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>737</v>
+      </c>
+      <c r="AO77">
+        <v>742</v>
+      </c>
+      <c r="AP77">
+        <v>0</v>
+      </c>
+      <c r="AQ77" s="56">
+        <v>776</v>
+      </c>
+      <c r="AR77" s="56">
+        <v>780</v>
+      </c>
+      <c r="AS77">
+        <v>0</v>
+      </c>
+      <c r="AT77">
+        <v>819</v>
+      </c>
+      <c r="AU77">
+        <v>823</v>
+      </c>
+      <c r="AV77">
+        <v>0</v>
+      </c>
+      <c r="AW77">
+        <v>833</v>
+      </c>
+      <c r="AX77">
+        <v>838</v>
+      </c>
+      <c r="AY77">
+        <v>0</v>
+      </c>
+      <c r="AZ77">
+        <v>907</v>
+      </c>
+      <c r="BA77">
+        <v>911</v>
+      </c>
+      <c r="BB77">
+        <v>0</v>
+      </c>
+      <c r="BC77">
+        <v>977</v>
+      </c>
+      <c r="BD77">
+        <v>981</v>
+      </c>
+      <c r="BE77">
+        <v>0</v>
+      </c>
+      <c r="BF77">
+        <v>1136</v>
+      </c>
+      <c r="BG77">
+        <v>1140</v>
+      </c>
+      <c r="BH77">
+        <v>0</v>
+      </c>
+      <c r="BI77">
+        <v>1183</v>
+      </c>
+      <c r="BJ77">
+        <v>1188</v>
+      </c>
+      <c r="BK77">
+        <v>0</v>
+      </c>
+      <c r="BL77">
+        <v>1335</v>
+      </c>
+      <c r="BM77">
+        <v>1342</v>
+      </c>
+      <c r="BN77">
+        <v>0</v>
+      </c>
+      <c r="BO77">
+        <v>0</v>
+      </c>
+      <c r="BP77">
+        <v>0</v>
+      </c>
+      <c r="BQ77">
+        <v>0</v>
+      </c>
+      <c r="BR77">
+        <v>0</v>
+      </c>
+      <c r="BS77">
+        <v>0</v>
+      </c>
+      <c r="BT77">
+        <v>0</v>
+      </c>
+      <c r="BU77">
+        <v>0</v>
+      </c>
+      <c r="BV77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:87" x14ac:dyDescent="0.2">
+      <c r="B78" s="57"/>
+      <c r="C78" s="54">
+        <v>6</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>7</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>44</v>
+      </c>
+      <c r="H78">
+        <v>48</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>154</v>
+      </c>
+      <c r="K78">
+        <v>158</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>220</v>
+      </c>
+      <c r="N78">
+        <v>224</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>262</v>
+      </c>
+      <c r="Q78">
+        <v>266</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>299</v>
+      </c>
+      <c r="T78">
+        <v>304</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>328</v>
+      </c>
+      <c r="W78">
+        <v>333</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>365</v>
+      </c>
+      <c r="Z78">
+        <v>374</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>1186</v>
+      </c>
+      <c r="AC78">
+        <v>1190</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>1338</v>
+      </c>
+      <c r="AF78">
+        <v>1343</v>
+      </c>
+      <c r="AG78">
+        <v>0</v>
+      </c>
+      <c r="AH78">
+        <v>1429</v>
+      </c>
+      <c r="AI78">
+        <v>1433</v>
+      </c>
+      <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>0</v>
+      </c>
+      <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>0</v>
+      </c>
+      <c r="AO78">
+        <v>0</v>
+      </c>
+      <c r="AP78">
+        <v>0</v>
+      </c>
+      <c r="AQ78">
+        <v>0</v>
+      </c>
+      <c r="AR78">
+        <v>0</v>
+      </c>
+      <c r="AS78">
+        <v>0</v>
+      </c>
+      <c r="AT78">
+        <v>0</v>
+      </c>
+      <c r="AU78">
+        <v>0</v>
+      </c>
+      <c r="AV78">
+        <v>0</v>
+      </c>
+      <c r="AW78">
+        <v>0</v>
+      </c>
+      <c r="AX78">
+        <v>0</v>
+      </c>
+      <c r="AY78">
+        <v>0</v>
+      </c>
+      <c r="AZ78">
+        <v>0</v>
+      </c>
+      <c r="BA78">
+        <v>0</v>
+      </c>
+      <c r="BB78">
+        <v>0</v>
+      </c>
+      <c r="BC78">
+        <v>0</v>
+      </c>
+      <c r="BD78">
+        <v>0</v>
+      </c>
+      <c r="BE78">
+        <v>0</v>
+      </c>
+      <c r="BF78">
+        <v>0</v>
+      </c>
+      <c r="BG78">
+        <v>0</v>
+      </c>
+      <c r="BH78">
+        <v>0</v>
+      </c>
+      <c r="BI78">
+        <v>0</v>
+      </c>
+      <c r="BJ78">
+        <v>0</v>
+      </c>
+      <c r="BK78">
+        <v>0</v>
+      </c>
+      <c r="BL78">
+        <v>0</v>
+      </c>
+      <c r="BM78">
+        <v>0</v>
+      </c>
+      <c r="BN78">
+        <v>0</v>
+      </c>
+      <c r="BO78">
+        <v>0</v>
+      </c>
+      <c r="BP78">
+        <v>0</v>
+      </c>
+      <c r="BQ78">
+        <v>0</v>
+      </c>
+      <c r="BR78">
+        <v>0</v>
+      </c>
+      <c r="BS78">
+        <v>0</v>
+      </c>
+      <c r="BT78">
+        <v>0</v>
+      </c>
+      <c r="BU78" s="56">
+        <v>0</v>
+      </c>
+      <c r="BV78" s="56">
+        <v>0</v>
+      </c>
+      <c r="BW78" s="56"/>
+      <c r="BX78" s="56"/>
+      <c r="BY78" s="56"/>
+      <c r="BZ78" s="56"/>
+      <c r="CA78" s="56"/>
+      <c r="CB78" s="56"/>
+      <c r="CC78" s="56"/>
+      <c r="CD78" s="56"/>
+      <c r="CE78" s="56"/>
+      <c r="CF78" s="56"/>
+      <c r="CG78" s="56"/>
+      <c r="CH78" s="56"/>
+      <c r="CI78" s="56"/>
+    </row>
+    <row r="79" spans="2:87" x14ac:dyDescent="0.2">
+      <c r="B79" s="57"/>
+      <c r="C79" s="53">
+        <v>7</v>
+      </c>
+      <c r="D79">
+        <v>56</v>
+      </c>
+      <c r="E79">
+        <v>60</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>66</v>
+      </c>
+      <c r="H79">
+        <v>70</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>108</v>
+      </c>
+      <c r="K79">
+        <v>113</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>151</v>
+      </c>
+      <c r="N79">
+        <v>155</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>296</v>
+      </c>
+      <c r="Q79">
+        <v>300</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>324</v>
+      </c>
+      <c r="T79">
+        <v>329</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>341</v>
+      </c>
+      <c r="W79">
+        <v>346</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>364</v>
+      </c>
+      <c r="Z79">
+        <v>371</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>503</v>
+      </c>
+      <c r="AC79">
+        <v>507</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>555</v>
+      </c>
+      <c r="AF79">
+        <v>559</v>
+      </c>
+      <c r="AG79">
+        <v>0</v>
+      </c>
+      <c r="AH79">
+        <v>574</v>
+      </c>
+      <c r="AI79">
+        <v>578</v>
+      </c>
+      <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>736</v>
+      </c>
+      <c r="AL79">
+        <v>741</v>
+      </c>
+      <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AN79">
+        <v>776</v>
+      </c>
+      <c r="AO79">
+        <v>780</v>
+      </c>
+      <c r="AP79">
+        <v>0</v>
+      </c>
+      <c r="AQ79" s="56">
+        <v>979</v>
+      </c>
+      <c r="AR79" s="56">
+        <v>983</v>
+      </c>
+      <c r="AS79" s="56">
+        <v>0</v>
+      </c>
+      <c r="AT79" s="56">
+        <v>1135</v>
+      </c>
+      <c r="AU79" s="56">
+        <v>1139</v>
+      </c>
+      <c r="AV79" s="56">
+        <v>0</v>
+      </c>
+      <c r="AW79" s="56">
+        <v>1162</v>
+      </c>
+      <c r="AX79" s="56">
+        <v>1166</v>
+      </c>
+      <c r="AY79" s="56">
+        <v>0</v>
+      </c>
+      <c r="AZ79">
+        <v>1182</v>
+      </c>
+      <c r="BA79">
+        <v>1188</v>
+      </c>
+      <c r="BB79">
+        <v>0</v>
+      </c>
+      <c r="BC79">
+        <v>1334</v>
+      </c>
+      <c r="BD79">
+        <v>1341</v>
+      </c>
+      <c r="BE79">
+        <v>0</v>
+      </c>
+      <c r="BF79">
+        <v>1427</v>
+      </c>
+      <c r="BG79">
+        <v>1431</v>
+      </c>
+      <c r="BH79">
+        <v>0</v>
+      </c>
+      <c r="BI79">
+        <v>0</v>
+      </c>
+      <c r="BJ79">
+        <v>0</v>
+      </c>
+      <c r="BK79">
+        <v>0</v>
+      </c>
+      <c r="BL79">
+        <v>0</v>
+      </c>
+      <c r="BM79">
+        <v>0</v>
+      </c>
+      <c r="BN79">
+        <v>0</v>
+      </c>
+      <c r="BO79">
+        <v>0</v>
+      </c>
+      <c r="BP79">
+        <v>0</v>
+      </c>
+      <c r="BQ79">
+        <v>0</v>
+      </c>
+      <c r="BR79">
+        <v>0</v>
+      </c>
+      <c r="BS79">
+        <v>0</v>
+      </c>
+      <c r="BT79">
+        <v>0</v>
+      </c>
+      <c r="BU79">
+        <v>0</v>
+      </c>
+      <c r="BV79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:87" x14ac:dyDescent="0.2">
+      <c r="B80" s="57"/>
+      <c r="C80" s="54">
+        <v>8</v>
+      </c>
+      <c r="D80">
+        <v>39</v>
+      </c>
+      <c r="E80">
+        <v>43</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>150</v>
+      </c>
+      <c r="H80">
+        <v>154</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>216</v>
+      </c>
+      <c r="K80">
+        <v>220</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>247</v>
+      </c>
+      <c r="N80">
+        <v>251</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>295</v>
+      </c>
+      <c r="Q80">
+        <v>300</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>324</v>
+      </c>
+      <c r="T80">
+        <v>328</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>338</v>
+      </c>
+      <c r="W80">
+        <v>342</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>362</v>
+      </c>
+      <c r="Z80">
+        <v>370</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>600</v>
+      </c>
+      <c r="AC80">
+        <v>604</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>830</v>
+      </c>
+      <c r="AF80">
+        <v>836</v>
+      </c>
+      <c r="AG80">
+        <v>0</v>
+      </c>
+      <c r="AH80">
+        <v>1182</v>
+      </c>
+      <c r="AI80">
+        <v>1186</v>
+      </c>
+      <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>1334</v>
+      </c>
+      <c r="AL80">
+        <v>1339</v>
+      </c>
+      <c r="AM80">
+        <v>0</v>
+      </c>
+      <c r="AN80">
+        <v>1425</v>
+      </c>
+      <c r="AO80">
+        <v>1429</v>
+      </c>
+      <c r="AP80">
+        <v>0</v>
+      </c>
+      <c r="AQ80">
+        <v>1435</v>
+      </c>
+      <c r="AR80">
+        <v>1439</v>
+      </c>
+      <c r="AS80">
+        <v>0</v>
+      </c>
+      <c r="AT80">
+        <v>0</v>
+      </c>
+      <c r="AU80">
+        <v>0</v>
+      </c>
+      <c r="AV80">
+        <v>0</v>
+      </c>
+      <c r="AW80">
+        <v>0</v>
+      </c>
+      <c r="AX80">
+        <v>0</v>
+      </c>
+      <c r="AY80">
+        <v>0</v>
+      </c>
+      <c r="AZ80">
+        <v>0</v>
+      </c>
+      <c r="BA80">
+        <v>0</v>
+      </c>
+      <c r="BB80">
+        <v>0</v>
+      </c>
+      <c r="BC80" s="56">
+        <v>0</v>
+      </c>
+      <c r="BD80" s="56">
+        <v>0</v>
+      </c>
+      <c r="BE80" s="56">
+        <v>0</v>
+      </c>
+      <c r="BF80" s="56">
+        <v>0</v>
+      </c>
+      <c r="BG80" s="56">
+        <v>0</v>
+      </c>
+      <c r="BH80" s="56">
+        <v>0</v>
+      </c>
+      <c r="BI80" s="56">
+        <v>0</v>
+      </c>
+      <c r="BJ80" s="56">
+        <v>0</v>
+      </c>
+      <c r="BK80" s="56">
+        <v>0</v>
+      </c>
+      <c r="BL80" s="56">
+        <v>0</v>
+      </c>
+      <c r="BM80" s="56">
+        <v>0</v>
+      </c>
+      <c r="BN80" s="56">
+        <v>0</v>
+      </c>
+      <c r="BO80" s="56">
+        <v>0</v>
+      </c>
+      <c r="BP80" s="56">
+        <v>0</v>
+      </c>
+      <c r="BQ80" s="56">
+        <v>0</v>
+      </c>
+      <c r="BR80" s="56">
+        <v>0</v>
+      </c>
+      <c r="BS80" s="56">
+        <v>0</v>
+      </c>
+      <c r="BT80" s="56">
+        <v>0</v>
+      </c>
+      <c r="BU80">
+        <v>0</v>
+      </c>
+      <c r="BV80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:83" x14ac:dyDescent="0.2">
+      <c r="B81" s="57"/>
+      <c r="C81" s="53">
+        <v>9</v>
+      </c>
+      <c r="D81">
+        <v>40</v>
+      </c>
+      <c r="E81">
+        <v>44</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>55</v>
+      </c>
+      <c r="H81">
+        <v>59</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>108</v>
+      </c>
+      <c r="K81">
+        <v>112</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>193</v>
+      </c>
+      <c r="N81">
+        <v>197</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>295</v>
+      </c>
+      <c r="Q81">
+        <v>300</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>325</v>
+      </c>
+      <c r="T81">
+        <v>329</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>339</v>
+      </c>
+      <c r="W81">
+        <v>346</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>364</v>
+      </c>
+      <c r="Z81">
+        <v>371</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>390</v>
+      </c>
+      <c r="AC81">
+        <v>394</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>555</v>
+      </c>
+      <c r="AF81">
+        <v>559</v>
+      </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
+      <c r="AH81">
+        <v>574</v>
+      </c>
+      <c r="AI81">
+        <v>581</v>
+      </c>
+      <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>601</v>
+      </c>
+      <c r="AL81">
+        <v>605</v>
+      </c>
+      <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>736</v>
+      </c>
+      <c r="AO81">
+        <v>741</v>
+      </c>
+      <c r="AP81">
+        <v>0</v>
+      </c>
+      <c r="AQ81">
+        <v>775</v>
+      </c>
+      <c r="AR81">
+        <v>779</v>
+      </c>
+      <c r="AS81">
+        <v>0</v>
+      </c>
+      <c r="AT81">
+        <v>832</v>
+      </c>
+      <c r="AU81">
+        <v>836</v>
+      </c>
+      <c r="AV81">
+        <v>0</v>
+      </c>
+      <c r="AW81">
+        <v>979</v>
+      </c>
+      <c r="AX81">
+        <v>984</v>
+      </c>
+      <c r="AY81">
+        <v>0</v>
+      </c>
+      <c r="AZ81">
+        <v>1135</v>
+      </c>
+      <c r="BA81">
+        <v>1139</v>
+      </c>
+      <c r="BB81">
+        <v>0</v>
+      </c>
+      <c r="BC81">
+        <v>1182</v>
+      </c>
+      <c r="BD81">
+        <v>1187</v>
+      </c>
+      <c r="BE81">
+        <v>0</v>
+      </c>
+      <c r="BF81">
+        <v>1335</v>
+      </c>
+      <c r="BG81">
+        <v>1341</v>
+      </c>
+      <c r="BH81">
+        <v>0</v>
+      </c>
+      <c r="BI81">
+        <v>0</v>
+      </c>
+      <c r="BJ81">
+        <v>0</v>
+      </c>
+      <c r="BK81">
+        <v>0</v>
+      </c>
+      <c r="BL81">
+        <v>0</v>
+      </c>
+      <c r="BM81">
+        <v>0</v>
+      </c>
+      <c r="BN81">
+        <v>0</v>
+      </c>
+      <c r="BO81" s="56">
+        <v>0</v>
+      </c>
+      <c r="BP81" s="56">
+        <v>0</v>
+      </c>
+      <c r="BQ81" s="56">
+        <v>0</v>
+      </c>
+      <c r="BR81" s="56">
+        <v>0</v>
+      </c>
+      <c r="BS81" s="56">
+        <v>0</v>
+      </c>
+      <c r="BT81" s="56">
+        <v>0</v>
+      </c>
+      <c r="BU81" s="56">
+        <v>0</v>
+      </c>
+      <c r="BV81" s="56">
+        <v>0</v>
+      </c>
+      <c r="BW81" s="56"/>
+    </row>
+    <row r="82" spans="2:83" x14ac:dyDescent="0.2">
+      <c r="B82" s="57"/>
+      <c r="C82" s="54">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <v>55</v>
+      </c>
+      <c r="E82">
+        <v>60</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>108</v>
+      </c>
+      <c r="H82">
+        <v>113</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>151</v>
+      </c>
+      <c r="K82">
+        <v>155</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>193</v>
+      </c>
+      <c r="N82">
+        <v>198</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>295</v>
+      </c>
+      <c r="Q82">
+        <v>300</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>313</v>
+      </c>
+      <c r="T82">
+        <v>317</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>325</v>
+      </c>
+      <c r="W82">
+        <v>329</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>341</v>
+      </c>
+      <c r="Z82">
+        <v>346</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>364</v>
+      </c>
+      <c r="AC82">
+        <v>371</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>503</v>
+      </c>
+      <c r="AF82">
+        <v>507</v>
+      </c>
+      <c r="AG82">
+        <v>0</v>
+      </c>
+      <c r="AH82">
+        <v>555</v>
+      </c>
+      <c r="AI82">
+        <v>559</v>
+      </c>
+      <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>736</v>
+      </c>
+      <c r="AL82">
+        <v>741</v>
+      </c>
+      <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AN82">
+        <v>775</v>
+      </c>
+      <c r="AO82">
+        <v>780</v>
+      </c>
+      <c r="AP82">
+        <v>0</v>
+      </c>
+      <c r="AQ82" s="56">
+        <v>832</v>
+      </c>
+      <c r="AR82" s="56">
+        <v>837</v>
+      </c>
+      <c r="AS82" s="56">
+        <v>0</v>
+      </c>
+      <c r="AT82" s="56">
+        <v>1135</v>
+      </c>
+      <c r="AU82" s="56">
+        <v>1139</v>
+      </c>
+      <c r="AV82" s="56">
+        <v>0</v>
+      </c>
+      <c r="AW82" s="56">
+        <v>1182</v>
+      </c>
+      <c r="AX82" s="56">
+        <v>1187</v>
+      </c>
+      <c r="AY82" s="56">
+        <v>0</v>
+      </c>
+      <c r="AZ82" s="56">
+        <v>1213</v>
+      </c>
+      <c r="BA82" s="56">
+        <v>1217</v>
+      </c>
+      <c r="BB82" s="56">
+        <v>0</v>
+      </c>
+      <c r="BC82">
+        <v>1335</v>
+      </c>
+      <c r="BD82">
+        <v>1341</v>
+      </c>
+      <c r="BE82">
+        <v>0</v>
+      </c>
+      <c r="BF82">
+        <v>1386</v>
+      </c>
+      <c r="BG82">
+        <v>1390</v>
+      </c>
+      <c r="BH82">
+        <v>0</v>
+      </c>
+      <c r="BI82">
+        <v>1427</v>
+      </c>
+      <c r="BJ82">
+        <v>1431</v>
+      </c>
+      <c r="BK82">
+        <v>0</v>
+      </c>
+      <c r="BL82">
+        <v>0</v>
+      </c>
+      <c r="BM82">
+        <v>0</v>
+      </c>
+      <c r="BN82">
+        <v>0</v>
+      </c>
+      <c r="BO82">
+        <v>0</v>
+      </c>
+      <c r="BP82">
+        <v>0</v>
+      </c>
+      <c r="BQ82">
+        <v>0</v>
+      </c>
+      <c r="BR82">
+        <v>0</v>
+      </c>
+      <c r="BS82">
+        <v>0</v>
+      </c>
+      <c r="BT82">
+        <v>0</v>
+      </c>
+      <c r="BU82">
+        <v>0</v>
+      </c>
+      <c r="BV82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:83" x14ac:dyDescent="0.2">
+      <c r="B83" s="57"/>
+      <c r="C83" s="53">
+        <v>11</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>6</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>58</v>
+      </c>
+      <c r="H83">
+        <v>62</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>153</v>
+      </c>
+      <c r="K83">
+        <v>157</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>219</v>
+      </c>
+      <c r="N83">
+        <v>223</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>250</v>
+      </c>
+      <c r="Q83">
+        <v>254</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>298</v>
+      </c>
+      <c r="T83">
+        <v>303</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>327</v>
+      </c>
+      <c r="W83">
+        <v>332</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>365</v>
+      </c>
+      <c r="Z83">
+        <v>373</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>556</v>
+      </c>
+      <c r="AC83">
+        <v>561</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>777</v>
+      </c>
+      <c r="AF83">
+        <v>784</v>
+      </c>
+      <c r="AG83">
+        <v>0</v>
+      </c>
+      <c r="AH83">
+        <v>1136</v>
+      </c>
+      <c r="AI83">
+        <v>1141</v>
+      </c>
+      <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83" s="56">
+        <v>1337</v>
+      </c>
+      <c r="AL83" s="56">
+        <v>1343</v>
+      </c>
+      <c r="AM83" s="56">
+        <v>0</v>
+      </c>
+      <c r="AN83" s="56">
+        <v>1428</v>
+      </c>
+      <c r="AO83" s="56">
+        <v>1432</v>
+      </c>
+      <c r="AP83" s="56">
+        <v>0</v>
+      </c>
+      <c r="AQ83" s="56">
+        <v>0</v>
+      </c>
+      <c r="AR83" s="56">
+        <v>0</v>
+      </c>
+      <c r="AS83" s="56">
+        <v>0</v>
+      </c>
+      <c r="AT83" s="56">
+        <v>0</v>
+      </c>
+      <c r="AU83" s="56">
+        <v>0</v>
+      </c>
+      <c r="AV83" s="56">
+        <v>0</v>
+      </c>
+      <c r="AW83">
+        <v>0</v>
+      </c>
+      <c r="AX83">
+        <v>0</v>
+      </c>
+      <c r="AY83">
+        <v>0</v>
+      </c>
+      <c r="AZ83">
+        <v>0</v>
+      </c>
+      <c r="BA83">
+        <v>0</v>
+      </c>
+      <c r="BB83">
+        <v>0</v>
+      </c>
+      <c r="BC83">
+        <v>0</v>
+      </c>
+      <c r="BD83">
+        <v>0</v>
+      </c>
+      <c r="BE83">
+        <v>0</v>
+      </c>
+      <c r="BF83">
+        <v>0</v>
+      </c>
+      <c r="BG83">
+        <v>0</v>
+      </c>
+      <c r="BH83">
+        <v>0</v>
+      </c>
+      <c r="BI83">
+        <v>0</v>
+      </c>
+      <c r="BJ83">
+        <v>0</v>
+      </c>
+      <c r="BK83">
+        <v>0</v>
+      </c>
+      <c r="BL83">
+        <v>0</v>
+      </c>
+      <c r="BM83">
+        <v>0</v>
+      </c>
+      <c r="BN83">
+        <v>0</v>
+      </c>
+      <c r="BO83">
+        <v>0</v>
+      </c>
+      <c r="BP83">
+        <v>0</v>
+      </c>
+      <c r="BQ83">
+        <v>0</v>
+      </c>
+      <c r="BR83">
+        <v>0</v>
+      </c>
+      <c r="BS83">
+        <v>0</v>
+      </c>
+      <c r="BT83">
+        <v>0</v>
+      </c>
+      <c r="BU83">
+        <v>0</v>
+      </c>
+      <c r="BV83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:83" x14ac:dyDescent="0.2">
+      <c r="B84" s="57"/>
+      <c r="C84" s="54">
+        <v>12</v>
+      </c>
+      <c r="D84">
+        <v>151</v>
+      </c>
+      <c r="E84">
+        <v>155</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>217</v>
+      </c>
+      <c r="H84">
+        <v>221</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>259</v>
+      </c>
+      <c r="K84">
+        <v>263</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>296</v>
+      </c>
+      <c r="N84">
+        <v>301</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>325</v>
+      </c>
+      <c r="Q84">
+        <v>329</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>339</v>
+      </c>
+      <c r="T84">
+        <v>347</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>363</v>
+      </c>
+      <c r="W84">
+        <v>371</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>622</v>
+      </c>
+      <c r="Z84">
+        <v>627</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>687</v>
+      </c>
+      <c r="AC84">
+        <v>691</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>1183</v>
+      </c>
+      <c r="AF84">
+        <v>1187</v>
+      </c>
+      <c r="AG84">
+        <v>0</v>
+      </c>
+      <c r="AH84">
+        <v>1335</v>
+      </c>
+      <c r="AI84">
+        <v>1340</v>
+      </c>
+      <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>1426</v>
+      </c>
+      <c r="AL84">
+        <v>1430</v>
+      </c>
+      <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>0</v>
+      </c>
+      <c r="AO84">
+        <v>0</v>
+      </c>
+      <c r="AP84">
+        <v>0</v>
+      </c>
+      <c r="AQ84">
+        <v>0</v>
+      </c>
+      <c r="AR84">
+        <v>0</v>
+      </c>
+      <c r="AS84">
+        <v>0</v>
+      </c>
+      <c r="AT84">
+        <v>0</v>
+      </c>
+      <c r="AU84">
+        <v>0</v>
+      </c>
+      <c r="AV84">
+        <v>0</v>
+      </c>
+      <c r="AW84">
+        <v>0</v>
+      </c>
+      <c r="AX84">
+        <v>0</v>
+      </c>
+      <c r="AY84">
+        <v>0</v>
+      </c>
+      <c r="AZ84">
+        <v>0</v>
+      </c>
+      <c r="BA84">
+        <v>0</v>
+      </c>
+      <c r="BB84">
+        <v>0</v>
+      </c>
+      <c r="BC84">
+        <v>0</v>
+      </c>
+      <c r="BD84">
+        <v>0</v>
+      </c>
+      <c r="BE84">
+        <v>0</v>
+      </c>
+      <c r="BF84">
+        <v>0</v>
+      </c>
+      <c r="BG84">
+        <v>0</v>
+      </c>
+      <c r="BH84">
+        <v>0</v>
+      </c>
+      <c r="BI84" s="56">
+        <v>0</v>
+      </c>
+      <c r="BJ84" s="56">
+        <v>0</v>
+      </c>
+      <c r="BK84" s="56">
+        <v>0</v>
+      </c>
+      <c r="BL84" s="56">
+        <v>0</v>
+      </c>
+      <c r="BM84" s="56">
+        <v>0</v>
+      </c>
+      <c r="BN84" s="56">
+        <v>0</v>
+      </c>
+      <c r="BO84" s="56">
+        <v>0</v>
+      </c>
+      <c r="BP84" s="56">
+        <v>0</v>
+      </c>
+      <c r="BQ84" s="56">
+        <v>0</v>
+      </c>
+      <c r="BR84" s="56">
+        <v>0</v>
+      </c>
+      <c r="BS84" s="56">
+        <v>0</v>
+      </c>
+      <c r="BT84" s="56">
+        <v>0</v>
+      </c>
+      <c r="BU84" s="56">
+        <v>0</v>
+      </c>
+      <c r="BV84" s="56">
+        <v>0</v>
+      </c>
+      <c r="BW84" s="56"/>
+      <c r="BX84" s="56"/>
+      <c r="BY84" s="56"/>
+      <c r="BZ84" s="56"/>
+    </row>
+    <row r="85" spans="2:83" x14ac:dyDescent="0.2">
+      <c r="B85" s="57"/>
+      <c r="C85" s="53">
+        <v>13</v>
+      </c>
+      <c r="D85">
+        <v>55</v>
+      </c>
+      <c r="E85">
+        <v>59</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>108</v>
+      </c>
+      <c r="H85">
+        <v>113</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>193</v>
+      </c>
+      <c r="K85">
+        <v>197</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>296</v>
+      </c>
+      <c r="N85">
+        <v>300</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>325</v>
+      </c>
+      <c r="Q85">
+        <v>329</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>342</v>
+      </c>
+      <c r="T85">
+        <v>346</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>363</v>
+      </c>
+      <c r="W85">
+        <v>370</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>502</v>
+      </c>
+      <c r="Z85">
+        <v>506</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>555</v>
+      </c>
+      <c r="AC85">
+        <v>559</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>573</v>
+      </c>
+      <c r="AF85">
+        <v>577</v>
+      </c>
+      <c r="AG85">
+        <v>0</v>
+      </c>
+      <c r="AH85">
+        <v>600</v>
+      </c>
+      <c r="AI85">
+        <v>604</v>
+      </c>
+      <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>736</v>
+      </c>
+      <c r="AL85">
+        <v>741</v>
+      </c>
+      <c r="AM85">
+        <v>0</v>
+      </c>
+      <c r="AN85">
+        <v>775</v>
+      </c>
+      <c r="AO85">
+        <v>783</v>
+      </c>
+      <c r="AP85">
+        <v>0</v>
+      </c>
+      <c r="AQ85">
+        <v>832</v>
+      </c>
+      <c r="AR85">
+        <v>836</v>
+      </c>
+      <c r="AS85">
+        <v>0</v>
+      </c>
+      <c r="AT85">
+        <v>1135</v>
+      </c>
+      <c r="AU85">
+        <v>1139</v>
+      </c>
+      <c r="AV85">
+        <v>0</v>
+      </c>
+      <c r="AW85">
+        <v>1161</v>
+      </c>
+      <c r="AX85">
+        <v>1165</v>
+      </c>
+      <c r="AY85">
+        <v>0</v>
+      </c>
+      <c r="AZ85">
+        <v>1182</v>
+      </c>
+      <c r="BA85">
+        <v>1187</v>
+      </c>
+      <c r="BB85">
+        <v>0</v>
+      </c>
+      <c r="BC85">
+        <v>1212</v>
+      </c>
+      <c r="BD85">
+        <v>1216</v>
+      </c>
+      <c r="BE85">
+        <v>0</v>
+      </c>
+      <c r="BF85">
+        <v>1334</v>
+      </c>
+      <c r="BG85">
+        <v>1340</v>
+      </c>
+      <c r="BH85">
+        <v>0</v>
+      </c>
+      <c r="BI85">
+        <v>0</v>
+      </c>
+      <c r="BJ85">
+        <v>0</v>
+      </c>
+      <c r="BK85">
+        <v>0</v>
+      </c>
+      <c r="BL85">
+        <v>0</v>
+      </c>
+      <c r="BM85">
+        <v>0</v>
+      </c>
+      <c r="BN85">
+        <v>0</v>
+      </c>
+      <c r="BO85" s="56">
+        <v>0</v>
+      </c>
+      <c r="BP85" s="56">
+        <v>0</v>
+      </c>
+      <c r="BQ85" s="56">
+        <v>0</v>
+      </c>
+      <c r="BR85" s="56">
+        <v>0</v>
+      </c>
+      <c r="BS85" s="56">
+        <v>0</v>
+      </c>
+      <c r="BT85" s="56">
+        <v>0</v>
+      </c>
+      <c r="BU85" s="56">
+        <v>0</v>
+      </c>
+      <c r="BV85" s="56">
+        <v>0</v>
+      </c>
+      <c r="BW85" s="56"/>
+      <c r="BX85" s="56"/>
+      <c r="BY85" s="56"/>
+      <c r="BZ85" s="56"/>
+      <c r="CA85" s="56"/>
+      <c r="CB85" s="56"/>
+      <c r="CC85" s="56"/>
+      <c r="CD85" s="56"/>
+      <c r="CE85" s="56"/>
+    </row>
+    <row r="86" spans="2:83" x14ac:dyDescent="0.2">
+      <c r="B86" s="57"/>
+      <c r="C86" s="54">
+        <v>14</v>
+      </c>
+      <c r="D86">
+        <v>55</v>
+      </c>
+      <c r="E86">
+        <v>60</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>108</v>
+      </c>
+      <c r="H86">
+        <v>112</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>193</v>
+      </c>
+      <c r="K86">
+        <v>197</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>295</v>
+      </c>
+      <c r="N86">
+        <v>300</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>325</v>
+      </c>
+      <c r="Q86">
+        <v>329</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>341</v>
+      </c>
+      <c r="T86">
+        <v>346</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>364</v>
+      </c>
+      <c r="W86">
+        <v>371</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>390</v>
+      </c>
+      <c r="Z86">
+        <v>394</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>502</v>
+      </c>
+      <c r="AC86">
+        <v>506</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>555</v>
+      </c>
+      <c r="AF86">
+        <v>559</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+      <c r="AH86">
+        <v>573</v>
+      </c>
+      <c r="AI86">
+        <v>578</v>
+      </c>
+      <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>601</v>
+      </c>
+      <c r="AL86">
+        <v>605</v>
+      </c>
+      <c r="AM86">
+        <v>0</v>
+      </c>
+      <c r="AN86">
+        <v>736</v>
+      </c>
+      <c r="AO86">
+        <v>740</v>
+      </c>
+      <c r="AP86">
+        <v>0</v>
+      </c>
+      <c r="AQ86">
+        <v>775</v>
+      </c>
+      <c r="AR86">
+        <v>784</v>
+      </c>
+      <c r="AS86">
+        <v>0</v>
+      </c>
+      <c r="AT86">
+        <v>832</v>
+      </c>
+      <c r="AU86">
+        <v>836</v>
+      </c>
+      <c r="AV86">
+        <v>0</v>
+      </c>
+      <c r="AW86">
+        <v>1135</v>
+      </c>
+      <c r="AX86">
+        <v>1139</v>
+      </c>
+      <c r="AY86">
+        <v>0</v>
+      </c>
+      <c r="AZ86">
+        <v>1182</v>
+      </c>
+      <c r="BA86">
+        <v>1188</v>
+      </c>
+      <c r="BB86">
+        <v>0</v>
+      </c>
+      <c r="BC86">
+        <v>1212</v>
+      </c>
+      <c r="BD86">
+        <v>1216</v>
+      </c>
+      <c r="BE86">
+        <v>0</v>
+      </c>
+      <c r="BF86">
+        <v>1318</v>
+      </c>
+      <c r="BG86">
+        <v>1322</v>
+      </c>
+      <c r="BH86">
+        <v>0</v>
+      </c>
+      <c r="BI86">
+        <v>1334</v>
+      </c>
+      <c r="BJ86">
+        <v>1341</v>
+      </c>
+      <c r="BK86">
+        <v>0</v>
+      </c>
+      <c r="BL86">
+        <v>0</v>
+      </c>
+      <c r="BM86">
+        <v>0</v>
+      </c>
+      <c r="BN86">
+        <v>0</v>
+      </c>
+      <c r="BO86">
+        <v>0</v>
+      </c>
+      <c r="BP86">
+        <v>0</v>
+      </c>
+      <c r="BQ86">
+        <v>0</v>
+      </c>
+      <c r="BR86">
+        <v>0</v>
+      </c>
+      <c r="BS86">
+        <v>0</v>
+      </c>
+      <c r="BT86">
+        <v>0</v>
+      </c>
+      <c r="BU86">
+        <v>0</v>
+      </c>
+      <c r="BV86">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="B73:B86"/>
+    <mergeCell ref="B67:F67"/>
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="B47:B60"/>
     <mergeCell ref="D1:M2"/>
@@ -30805,13 +34077,13 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="62" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="36">
@@ -30861,9 +34133,9 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="61"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="55"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="37">
         <v>0.36</v>
       </c>
@@ -30911,9 +34183,9 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="61"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="55" t="s">
+      <c r="A23" s="60"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="63" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="37">
@@ -30963,9 +34235,9 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="61"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="55"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="37">
         <v>0.26</v>
       </c>
@@ -31013,9 +34285,9 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="61"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="55" t="s">
+      <c r="A25" s="60"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="63" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="37">
@@ -31065,9 +34337,9 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="61"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="55"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="18">
         <v>8.0000000000000099E-2</v>
       </c>
@@ -31115,9 +34387,9 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="55" t="s">
+      <c r="A27" s="60"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="63" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="37">
@@ -31167,9 +34439,9 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="61"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="55"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="37">
         <v>0.1</v>
       </c>
@@ -31217,9 +34489,9 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="61"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="55" t="s">
+      <c r="A29" s="60"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="63" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="37">
@@ -31269,9 +34541,9 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="61"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="56"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="38">
         <v>0.1</v>
       </c>
@@ -31319,11 +34591,11 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="61"/>
-      <c r="B31" s="64" t="s">
+      <c r="A31" s="60"/>
+      <c r="B31" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="65"/>
+      <c r="C31" s="66"/>
       <c r="D31" s="45">
         <v>0.875</v>
       </c>
@@ -31369,11 +34641,11 @@
       <c r="R31" s="52"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="61"/>
-      <c r="B32" s="57" t="s">
+      <c r="A32" s="60"/>
+      <c r="B32" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="62" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="34">
@@ -31423,9 +34695,9 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="61"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="55"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="63"/>
       <c r="D33" s="35">
         <v>0.26</v>
       </c>
@@ -31473,9 +34745,9 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="61"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="55" t="s">
+      <c r="A34" s="60"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="63" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="35">
@@ -31525,9 +34797,9 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="61"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="55"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="35">
         <v>0.26</v>
       </c>
@@ -31575,9 +34847,9 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="61"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="55" t="s">
+      <c r="A36" s="60"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="63" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="35">
@@ -31627,9 +34899,9 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="61"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="55"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="33">
         <v>8.0000000000000099E-2</v>
       </c>
@@ -31677,9 +34949,9 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="61"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="55" t="s">
+      <c r="A38" s="60"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="63" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="35">
@@ -31729,9 +35001,9 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="61"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="55"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="35">
         <v>0.1</v>
       </c>
@@ -31779,9 +35051,9 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="61"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="55" t="s">
+      <c r="A40" s="60"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="63" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="35">
@@ -31831,9 +35103,9 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="61"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="56"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="28">
         <v>0.04</v>
       </c>
@@ -31881,16 +35153,16 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="61"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="44"/>
       <c r="R42" s="51"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="61"/>
-      <c r="B43" s="57" t="s">
+      <c r="A43" s="60"/>
+      <c r="B43" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="62" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="34">
@@ -31940,9 +35212,9 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="61"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="55"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="63"/>
       <c r="D44" s="35">
         <v>0.36</v>
       </c>
@@ -31990,9 +35262,9 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="61"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="55" t="s">
+      <c r="A45" s="60"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="63" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="35">
@@ -32042,9 +35314,9 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="61"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="55"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="63"/>
       <c r="D46" s="35">
         <v>0.26</v>
       </c>
@@ -32092,9 +35364,9 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="61"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="55" t="s">
+      <c r="A47" s="60"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="63" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="35">
@@ -32144,9 +35416,9 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="61"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="55"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="63"/>
       <c r="D48" s="33">
         <v>8.0000000000000099E-2</v>
       </c>
@@ -32194,9 +35466,9 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="61"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="55" t="s">
+      <c r="A49" s="60"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="63" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="35">
@@ -32246,9 +35518,9 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="61"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="55"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="63"/>
       <c r="D50" s="35">
         <v>0.1</v>
       </c>
@@ -32296,9 +35568,9 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="61"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="55" t="s">
+      <c r="A51" s="60"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="63" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="35">
@@ -32348,9 +35620,9 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="62"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="56"/>
+      <c r="A52" s="61"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="64"/>
       <c r="D52" s="28">
         <v>0.04</v>
       </c>
@@ -32399,6 +35671,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B21:B30"/>
+    <mergeCell ref="B43:B52"/>
     <mergeCell ref="A21:A52"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C45:C46"/>
@@ -32415,10 +35691,6 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B21:B30"/>
-    <mergeCell ref="B43:B52"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Burst-Detection/压力数据.xlsx
+++ b/Burst-Detection/压力数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4050" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="4500" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="平滑降噪" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="114">
   <si>
     <t>压力变化阈值</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -420,11 +420,38 @@
     <t>提高采样频率（n=6）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>不平滑不降噪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点阈值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.0.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平滑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为平滑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -515,7 +542,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,6 +618,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,7 +959,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1061,12 +1094,18 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1090,12 +1129,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1108,6 +1141,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1390,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:R63"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70:P72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1496,13 +1537,13 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="71" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="72"/>
-      <c r="B8" s="71" t="s">
+      <c r="A8" s="71"/>
+      <c r="B8" s="72" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="4">
@@ -1549,8 +1590,8 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="72"/>
-      <c r="B9" s="71"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="4">
         <v>0.20622203695893401</v>
       </c>
@@ -1595,8 +1636,8 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="72"/>
-      <c r="B10" s="71" t="s">
+      <c r="A10" s="71"/>
+      <c r="B10" s="72" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="4">
@@ -1643,8 +1684,8 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="72"/>
-      <c r="B11" s="71"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="4">
         <v>6.2105197897433698E-2</v>
       </c>
@@ -1692,8 +1733,8 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="72"/>
-      <c r="B12" s="71" t="s">
+      <c r="A12" s="71"/>
+      <c r="B12" s="72" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="4">
@@ -1740,8 +1781,8 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="72"/>
-      <c r="B13" s="71"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="72"/>
       <c r="C13">
         <v>2.7664742714910401E-2</v>
       </c>
@@ -1786,8 +1827,8 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="72"/>
-      <c r="B14" s="71" t="s">
+      <c r="A14" s="71"/>
+      <c r="B14" s="72" t="s">
         <v>18</v>
       </c>
       <c r="C14">
@@ -1834,8 +1875,8 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="72"/>
-      <c r="B15" s="71"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="72"/>
       <c r="C15">
         <v>1.8060443331874398E-2</v>
       </c>
@@ -1880,8 +1921,8 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="72"/>
-      <c r="B16" s="71" t="s">
+      <c r="A16" s="71"/>
+      <c r="B16" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C16">
@@ -1928,8 +1969,8 @@
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="72"/>
-      <c r="B17" s="71"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
       <c r="C17">
         <v>1.13857990146845E-2</v>
       </c>
@@ -1974,10 +2015,10 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="72" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="6">
@@ -2024,8 +2065,8 @@
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="72"/>
-      <c r="B20" s="71"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="6">
         <v>0.233333333333334</v>
       </c>
@@ -2070,8 +2111,8 @@
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="72"/>
-      <c r="B21" s="71" t="s">
+      <c r="A21" s="71"/>
+      <c r="B21" s="72" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="6">
@@ -2118,8 +2159,8 @@
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="72"/>
-      <c r="B22" s="71"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="6">
         <v>0.1048</v>
       </c>
@@ -2164,8 +2205,8 @@
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="72"/>
-      <c r="B23" s="71" t="s">
+      <c r="A23" s="71"/>
+      <c r="B23" s="72" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="6">
@@ -2212,8 +2253,8 @@
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="72"/>
-      <c r="B24" s="71"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="72"/>
       <c r="C24">
         <v>0.04</v>
       </c>
@@ -2258,8 +2299,8 @@
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="72"/>
-      <c r="B25" s="71" t="s">
+      <c r="A25" s="71"/>
+      <c r="B25" s="72" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="6">
@@ -2306,8 +2347,8 @@
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="72"/>
-      <c r="B26" s="71"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="72"/>
       <c r="C26">
         <v>5.1999999999999998E-2</v>
       </c>
@@ -2352,8 +2393,8 @@
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="72"/>
-      <c r="B27" s="71" t="s">
+      <c r="A27" s="71"/>
+      <c r="B27" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C27">
@@ -2400,8 +2441,8 @@
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="72"/>
-      <c r="B28" s="71"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="72"/>
       <c r="C28">
         <v>3.5000000000000003E-2</v>
       </c>
@@ -2446,10 +2487,10 @@
       </c>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="72" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="6">
@@ -2496,8 +2537,8 @@
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="72"/>
-      <c r="B31" s="71"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="6">
         <v>0.53333333333333399</v>
       </c>
@@ -2542,8 +2583,8 @@
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="72"/>
-      <c r="B32" s="71" t="s">
+      <c r="A32" s="71"/>
+      <c r="B32" s="72" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="6">
@@ -2590,8 +2631,8 @@
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="72"/>
-      <c r="B33" s="71"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="6">
         <v>0.28399999999999997</v>
       </c>
@@ -2636,8 +2677,8 @@
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="72"/>
-      <c r="B34" s="71" t="s">
+      <c r="A34" s="71"/>
+      <c r="B34" s="72" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="6">
@@ -2684,8 +2725,8 @@
       </c>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="72"/>
-      <c r="B35" s="71"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="6">
         <v>8.7500000000000105E-2</v>
       </c>
@@ -2730,8 +2771,8 @@
       </c>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="72"/>
-      <c r="B36" s="71" t="s">
+      <c r="A36" s="71"/>
+      <c r="B36" s="72" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="6">
@@ -2778,8 +2819,8 @@
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="72"/>
-      <c r="B37" s="71"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="6">
         <v>0.14000000000000001</v>
       </c>
@@ -2824,8 +2865,8 @@
       </c>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="72"/>
-      <c r="B38" s="71" t="s">
+      <c r="A38" s="71"/>
+      <c r="B38" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="6">
@@ -2872,8 +2913,8 @@
       </c>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="72"/>
-      <c r="B39" s="71"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="6">
         <v>0.22500000000000001</v>
       </c>
@@ -3030,10 +3071,10 @@
       </c>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="72" t="s">
+      <c r="A43" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="72" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="4">
@@ -3080,8 +3121,8 @@
       </c>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="72"/>
-      <c r="B44" s="71"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="72"/>
       <c r="C44" s="4">
         <v>0.35929627778837298</v>
       </c>
@@ -3126,8 +3167,8 @@
       </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="72"/>
-      <c r="B45" s="71" t="s">
+      <c r="A45" s="71"/>
+      <c r="B45" s="72" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="4">
@@ -3174,8 +3215,8 @@
       </c>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="72"/>
-      <c r="B46" s="71"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="72"/>
       <c r="C46" s="4">
         <v>0.11918811759426499</v>
       </c>
@@ -3220,8 +3261,8 @@
       </c>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="72"/>
-      <c r="B47" s="71" t="s">
+      <c r="A47" s="71"/>
+      <c r="B47" s="72" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="4">
@@ -3268,8 +3309,8 @@
       </c>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="72"/>
-      <c r="B48" s="71"/>
+      <c r="A48" s="71"/>
+      <c r="B48" s="72"/>
       <c r="C48">
         <v>4.1451873192934301E-2</v>
       </c>
@@ -3314,8 +3355,8 @@
       </c>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="72"/>
-      <c r="B49" s="71" t="s">
+      <c r="A49" s="71"/>
+      <c r="B49" s="72" t="s">
         <v>18</v>
       </c>
       <c r="C49">
@@ -3362,8 +3403,8 @@
       </c>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="72"/>
-      <c r="B50" s="71"/>
+      <c r="A50" s="71"/>
+      <c r="B50" s="72"/>
       <c r="C50">
         <v>2.2165294764432301E-2</v>
       </c>
@@ -3408,8 +3449,8 @@
       </c>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="72"/>
-      <c r="B51" s="71" t="s">
+      <c r="A51" s="71"/>
+      <c r="B51" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C51">
@@ -3456,8 +3497,8 @@
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="72"/>
-      <c r="B52" s="71"/>
+      <c r="A52" s="71"/>
+      <c r="B52" s="72"/>
       <c r="C52">
         <v>1.9783438855451401E-2</v>
       </c>
@@ -3502,10 +3543,10 @@
       </c>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="72" t="s">
+      <c r="A54" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="71" t="s">
+      <c r="B54" s="72" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="4">
@@ -3552,8 +3593,8 @@
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="72"/>
-      <c r="B55" s="71"/>
+      <c r="A55" s="71"/>
+      <c r="B55" s="72"/>
       <c r="C55" s="4">
         <v>0.36</v>
       </c>
@@ -3598,8 +3639,8 @@
       </c>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="72"/>
-      <c r="B56" s="71" t="s">
+      <c r="A56" s="71"/>
+      <c r="B56" s="72" t="s">
         <v>15</v>
       </c>
       <c r="C56" s="4">
@@ -3646,8 +3687,8 @@
       </c>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="72"/>
-      <c r="B57" s="71"/>
+      <c r="A57" s="71"/>
+      <c r="B57" s="72"/>
       <c r="C57" s="4">
         <v>0.26</v>
       </c>
@@ -3692,8 +3733,8 @@
       </c>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="72"/>
-      <c r="B58" s="71" t="s">
+      <c r="A58" s="71"/>
+      <c r="B58" s="72" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="4">
@@ -3740,8 +3781,8 @@
       </c>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="72"/>
-      <c r="B59" s="71"/>
+      <c r="A59" s="71"/>
+      <c r="B59" s="72"/>
       <c r="C59" s="4">
         <v>8.0000000000000099E-2</v>
       </c>
@@ -3786,8 +3827,8 @@
       </c>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="72"/>
-      <c r="B60" s="71" t="s">
+      <c r="A60" s="71"/>
+      <c r="B60" s="72" t="s">
         <v>18</v>
       </c>
       <c r="C60" s="4">
@@ -3834,8 +3875,8 @@
       </c>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="72"/>
-      <c r="B61" s="71"/>
+      <c r="A61" s="71"/>
+      <c r="B61" s="72"/>
       <c r="C61" s="4">
         <v>0.1</v>
       </c>
@@ -3880,8 +3921,8 @@
       </c>
     </row>
     <row r="62" spans="1:16">
-      <c r="A62" s="72"/>
-      <c r="B62" s="71" t="s">
+      <c r="A62" s="71"/>
+      <c r="B62" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C62" s="4">
@@ -3928,8 +3969,8 @@
       </c>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="72"/>
-      <c r="B63" s="71"/>
+      <c r="A63" s="71"/>
+      <c r="B63" s="72"/>
       <c r="C63" s="4">
         <v>0.1</v>
       </c>
@@ -3975,24 +4016,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A7:A17"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="A54:A63"/>
     <mergeCell ref="A43:A52"/>
@@ -4005,6 +4028,24 @@
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A7:A17"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4023,38 +4064,38 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="2:314">
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
     </row>
     <row r="2" spans="2:314">
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
     </row>
     <row r="3" spans="2:314">
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="2:314">
       <c r="C4" s="55" t="s">
@@ -4156,7 +4197,7 @@
       </c>
     </row>
     <row r="7" spans="2:314">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="71" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="53">
@@ -4860,7 +4901,7 @@
       </c>
     </row>
     <row r="8" spans="2:314" ht="14.25" customHeight="1">
-      <c r="B8" s="72"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="54">
         <v>2</v>
       </c>
@@ -5799,7 +5840,7 @@
       </c>
     </row>
     <row r="9" spans="2:314">
-      <c r="B9" s="72"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="53">
         <v>3</v>
       </c>
@@ -6738,7 +6779,7 @@
       </c>
     </row>
     <row r="10" spans="2:314">
-      <c r="B10" s="72"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="54">
         <v>4</v>
       </c>
@@ -7677,7 +7718,7 @@
       </c>
     </row>
     <row r="11" spans="2:314">
-      <c r="B11" s="72"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="53">
         <v>5</v>
       </c>
@@ -8616,7 +8657,7 @@
       </c>
     </row>
     <row r="12" spans="2:314">
-      <c r="B12" s="72"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="54">
         <v>6</v>
       </c>
@@ -9555,7 +9596,7 @@
       </c>
     </row>
     <row r="13" spans="2:314">
-      <c r="B13" s="72"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="53">
         <v>7</v>
       </c>
@@ -10494,7 +10535,7 @@
       </c>
     </row>
     <row r="14" spans="2:314">
-      <c r="B14" s="72"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="54">
         <v>8</v>
       </c>
@@ -11433,7 +11474,7 @@
       </c>
     </row>
     <row r="15" spans="2:314">
-      <c r="B15" s="72"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="53">
         <v>9</v>
       </c>
@@ -12372,7 +12413,7 @@
       </c>
     </row>
     <row r="16" spans="2:314">
-      <c r="B16" s="72"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="54">
         <v>10</v>
       </c>
@@ -13311,7 +13352,7 @@
       </c>
     </row>
     <row r="17" spans="2:314">
-      <c r="B17" s="72"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="53">
         <v>11</v>
       </c>
@@ -14250,7 +14291,7 @@
       </c>
     </row>
     <row r="18" spans="2:314">
-      <c r="B18" s="72"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="54">
         <v>12</v>
       </c>
@@ -15189,7 +15230,7 @@
       </c>
     </row>
     <row r="19" spans="2:314">
-      <c r="B19" s="72"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="53">
         <v>13</v>
       </c>
@@ -16128,7 +16169,7 @@
       </c>
     </row>
     <row r="20" spans="2:314">
-      <c r="B20" s="72"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="54">
         <v>14</v>
       </c>
@@ -17067,12 +17108,12 @@
       </c>
     </row>
     <row r="23" spans="2:314">
-      <c r="D23" s="71" t="s">
+      <c r="D23" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
     </row>
     <row r="24" spans="2:314">
       <c r="C24" s="55" t="s">
@@ -17174,7 +17215,7 @@
       </c>
     </row>
     <row r="27" spans="2:314">
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="71" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="53">
@@ -17719,7 +17760,7 @@
       </c>
     </row>
     <row r="28" spans="2:314">
-      <c r="B28" s="72"/>
+      <c r="B28" s="71"/>
       <c r="C28" s="54">
         <v>2</v>
       </c>
@@ -18262,7 +18303,7 @@
       </c>
     </row>
     <row r="29" spans="2:314">
-      <c r="B29" s="72"/>
+      <c r="B29" s="71"/>
       <c r="C29" s="53">
         <v>3</v>
       </c>
@@ -18805,7 +18846,7 @@
       </c>
     </row>
     <row r="30" spans="2:314">
-      <c r="B30" s="72"/>
+      <c r="B30" s="71"/>
       <c r="C30" s="54">
         <v>4</v>
       </c>
@@ -19348,7 +19389,7 @@
       </c>
     </row>
     <row r="31" spans="2:314">
-      <c r="B31" s="72"/>
+      <c r="B31" s="71"/>
       <c r="C31" s="53">
         <v>5</v>
       </c>
@@ -19891,7 +19932,7 @@
       </c>
     </row>
     <row r="32" spans="2:314">
-      <c r="B32" s="72"/>
+      <c r="B32" s="71"/>
       <c r="C32" s="54">
         <v>6</v>
       </c>
@@ -20434,7 +20475,7 @@
       </c>
     </row>
     <row r="33" spans="2:182">
-      <c r="B33" s="72"/>
+      <c r="B33" s="71"/>
       <c r="C33" s="53">
         <v>7</v>
       </c>
@@ -20977,7 +21018,7 @@
       </c>
     </row>
     <row r="34" spans="2:182">
-      <c r="B34" s="72"/>
+      <c r="B34" s="71"/>
       <c r="C34" s="54">
         <v>8</v>
       </c>
@@ -21520,7 +21561,7 @@
       </c>
     </row>
     <row r="35" spans="2:182">
-      <c r="B35" s="72"/>
+      <c r="B35" s="71"/>
       <c r="C35" s="53">
         <v>9</v>
       </c>
@@ -22063,7 +22104,7 @@
       </c>
     </row>
     <row r="36" spans="2:182">
-      <c r="B36" s="72"/>
+      <c r="B36" s="71"/>
       <c r="C36" s="54">
         <v>10</v>
       </c>
@@ -22606,7 +22647,7 @@
       </c>
     </row>
     <row r="37" spans="2:182">
-      <c r="B37" s="72"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="53">
         <v>11</v>
       </c>
@@ -23149,7 +23190,7 @@
       </c>
     </row>
     <row r="38" spans="2:182">
-      <c r="B38" s="72"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="54">
         <v>12</v>
       </c>
@@ -23692,7 +23733,7 @@
       </c>
     </row>
     <row r="39" spans="2:182">
-      <c r="B39" s="72"/>
+      <c r="B39" s="71"/>
       <c r="C39" s="53">
         <v>13</v>
       </c>
@@ -24235,7 +24276,7 @@
       </c>
     </row>
     <row r="40" spans="2:182">
-      <c r="B40" s="72"/>
+      <c r="B40" s="71"/>
       <c r="C40" s="54">
         <v>14</v>
       </c>
@@ -24778,12 +24819,12 @@
       </c>
     </row>
     <row r="43" spans="2:182">
-      <c r="D43" s="71" t="s">
+      <c r="D43" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
     </row>
     <row r="44" spans="2:182">
       <c r="C44" s="55" t="s">
@@ -25296,7 +25337,7 @@
       </c>
     </row>
     <row r="47" spans="2:182">
-      <c r="B47" s="72" t="s">
+      <c r="B47" s="71" t="s">
         <v>39</v>
       </c>
       <c r="C47" s="53">
@@ -25715,7 +25756,7 @@
       </c>
     </row>
     <row r="48" spans="2:182">
-      <c r="B48" s="72"/>
+      <c r="B48" s="71"/>
       <c r="C48" s="54">
         <v>2</v>
       </c>
@@ -26132,7 +26173,7 @@
       </c>
     </row>
     <row r="49" spans="2:140">
-      <c r="B49" s="72"/>
+      <c r="B49" s="71"/>
       <c r="C49" s="53">
         <v>3</v>
       </c>
@@ -26549,7 +26590,7 @@
       </c>
     </row>
     <row r="50" spans="2:140">
-      <c r="B50" s="72"/>
+      <c r="B50" s="71"/>
       <c r="C50" s="54">
         <v>4</v>
       </c>
@@ -26966,7 +27007,7 @@
       </c>
     </row>
     <row r="51" spans="2:140">
-      <c r="B51" s="72"/>
+      <c r="B51" s="71"/>
       <c r="C51" s="53">
         <v>5</v>
       </c>
@@ -27383,7 +27424,7 @@
       </c>
     </row>
     <row r="52" spans="2:140">
-      <c r="B52" s="72"/>
+      <c r="B52" s="71"/>
       <c r="C52" s="54">
         <v>6</v>
       </c>
@@ -27800,7 +27841,7 @@
       </c>
     </row>
     <row r="53" spans="2:140">
-      <c r="B53" s="72"/>
+      <c r="B53" s="71"/>
       <c r="C53" s="53">
         <v>7</v>
       </c>
@@ -28217,7 +28258,7 @@
       </c>
     </row>
     <row r="54" spans="2:140">
-      <c r="B54" s="72"/>
+      <c r="B54" s="71"/>
       <c r="C54" s="54">
         <v>8</v>
       </c>
@@ -28634,7 +28675,7 @@
       </c>
     </row>
     <row r="55" spans="2:140">
-      <c r="B55" s="72"/>
+      <c r="B55" s="71"/>
       <c r="C55" s="53">
         <v>9</v>
       </c>
@@ -29051,7 +29092,7 @@
       </c>
     </row>
     <row r="56" spans="2:140">
-      <c r="B56" s="72"/>
+      <c r="B56" s="71"/>
       <c r="C56" s="54">
         <v>10</v>
       </c>
@@ -29468,7 +29509,7 @@
       </c>
     </row>
     <row r="57" spans="2:140">
-      <c r="B57" s="72"/>
+      <c r="B57" s="71"/>
       <c r="C57" s="53">
         <v>11</v>
       </c>
@@ -29885,7 +29926,7 @@
       </c>
     </row>
     <row r="58" spans="2:140">
-      <c r="B58" s="72"/>
+      <c r="B58" s="71"/>
       <c r="C58" s="54">
         <v>12</v>
       </c>
@@ -30302,7 +30343,7 @@
       </c>
     </row>
     <row r="59" spans="2:140">
-      <c r="B59" s="72"/>
+      <c r="B59" s="71"/>
       <c r="C59" s="53">
         <v>13</v>
       </c>
@@ -30719,7 +30760,7 @@
       </c>
     </row>
     <row r="60" spans="2:140">
-      <c r="B60" s="72"/>
+      <c r="B60" s="71"/>
       <c r="C60" s="54">
         <v>14</v>
       </c>
@@ -30728,18 +30769,18 @@
       <c r="B67" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="71"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
     </row>
     <row r="69" spans="2:88">
-      <c r="D69" s="71" t="s">
+      <c r="D69" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="E69" s="71"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="72"/>
     </row>
     <row r="70" spans="2:88">
       <c r="C70" s="55" t="s">
@@ -30861,7 +30902,7 @@
       <c r="CJ72" s="10"/>
     </row>
     <row r="73" spans="2:88">
-      <c r="B73" s="72" t="s">
+      <c r="B73" s="71" t="s">
         <v>39</v>
       </c>
       <c r="C73" s="53">
@@ -31096,7 +31137,7 @@
       <c r="CJ73" s="10"/>
     </row>
     <row r="74" spans="2:88">
-      <c r="B74" s="72"/>
+      <c r="B74" s="71"/>
       <c r="C74" s="54">
         <v>2</v>
       </c>
@@ -31329,7 +31370,7 @@
       <c r="CJ74" s="10"/>
     </row>
     <row r="75" spans="2:88">
-      <c r="B75" s="72"/>
+      <c r="B75" s="71"/>
       <c r="C75" s="53">
         <v>3</v>
       </c>
@@ -31562,7 +31603,7 @@
       <c r="CJ75" s="10"/>
     </row>
     <row r="76" spans="2:88">
-      <c r="B76" s="72"/>
+      <c r="B76" s="71"/>
       <c r="C76" s="54">
         <v>4</v>
       </c>
@@ -31795,7 +31836,7 @@
       <c r="CJ76" s="10"/>
     </row>
     <row r="77" spans="2:88">
-      <c r="B77" s="72"/>
+      <c r="B77" s="71"/>
       <c r="C77" s="53">
         <v>5</v>
       </c>
@@ -32028,7 +32069,7 @@
       <c r="CJ77" s="10"/>
     </row>
     <row r="78" spans="2:88">
-      <c r="B78" s="72"/>
+      <c r="B78" s="71"/>
       <c r="C78" s="54">
         <v>6</v>
       </c>
@@ -32261,7 +32302,7 @@
       <c r="CJ78" s="10"/>
     </row>
     <row r="79" spans="2:88">
-      <c r="B79" s="72"/>
+      <c r="B79" s="71"/>
       <c r="C79" s="53">
         <v>7</v>
       </c>
@@ -32494,7 +32535,7 @@
       <c r="CJ79" s="10"/>
     </row>
     <row r="80" spans="2:88">
-      <c r="B80" s="72"/>
+      <c r="B80" s="71"/>
       <c r="C80" s="54">
         <v>8</v>
       </c>
@@ -32727,7 +32768,7 @@
       <c r="CJ80" s="10"/>
     </row>
     <row r="81" spans="2:88">
-      <c r="B81" s="72"/>
+      <c r="B81" s="71"/>
       <c r="C81" s="53">
         <v>9</v>
       </c>
@@ -32960,7 +33001,7 @@
       <c r="CJ81" s="10"/>
     </row>
     <row r="82" spans="2:88">
-      <c r="B82" s="72"/>
+      <c r="B82" s="71"/>
       <c r="C82" s="54">
         <v>10</v>
       </c>
@@ -33193,7 +33234,7 @@
       <c r="CJ82" s="10"/>
     </row>
     <row r="83" spans="2:88">
-      <c r="B83" s="72"/>
+      <c r="B83" s="71"/>
       <c r="C83" s="53">
         <v>11</v>
       </c>
@@ -33426,7 +33467,7 @@
       <c r="CJ83" s="10"/>
     </row>
     <row r="84" spans="2:88">
-      <c r="B84" s="72"/>
+      <c r="B84" s="71"/>
       <c r="C84" s="54">
         <v>12</v>
       </c>
@@ -33659,7 +33700,7 @@
       <c r="CJ84" s="10"/>
     </row>
     <row r="85" spans="2:88">
-      <c r="B85" s="72"/>
+      <c r="B85" s="71"/>
       <c r="C85" s="53">
         <v>13</v>
       </c>
@@ -33892,7 +33933,7 @@
       <c r="CJ85" s="10"/>
     </row>
     <row r="86" spans="2:88">
-      <c r="B86" s="72"/>
+      <c r="B86" s="71"/>
       <c r="C86" s="54">
         <v>14</v>
       </c>
@@ -34126,16 +34167,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="B73:B86"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B47:B60"/>
     <mergeCell ref="D1:M2"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="B7:B20"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="B27:B40"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="B73:B86"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B47:B60"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34154,16 +34195,16 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3">
@@ -34254,16 +34295,16 @@
       </c>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71" t="s">
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7">
@@ -34369,7 +34410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:CS94"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
@@ -44654,13 +44695,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD52"/>
+  <dimension ref="A1:XFD78"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17 16384:16384">
       <c r="B1" s="10"/>
@@ -45103,13 +45147,13 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="82" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="36">
@@ -45159,9 +45203,9 @@
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="78"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="81"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="74"/>
       <c r="D22" s="37">
         <v>0.36</v>
       </c>
@@ -45209,9 +45253,9 @@
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="78"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="81" t="s">
+      <c r="A23" s="80"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="74" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="37">
@@ -45261,9 +45305,9 @@
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="78"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="81"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="37">
         <v>0.26</v>
       </c>
@@ -45311,9 +45355,9 @@
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="78"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="81" t="s">
+      <c r="A25" s="80"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="74" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="37">
@@ -45363,9 +45407,9 @@
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="78"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="81"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="74"/>
       <c r="D26" s="18">
         <v>8.0000000000000099E-2</v>
       </c>
@@ -45413,9 +45457,9 @@
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="78"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="81" t="s">
+      <c r="A27" s="80"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="74" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="37">
@@ -45465,9 +45509,9 @@
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="78"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="81"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="37">
         <v>0.1</v>
       </c>
@@ -45515,9 +45559,9 @@
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="78"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="81" t="s">
+      <c r="A29" s="80"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="74" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="37">
@@ -45567,9 +45611,9 @@
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="78"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="82"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="38">
         <v>0.1</v>
       </c>
@@ -45617,7 +45661,7 @@
       </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="78"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="83" t="s">
         <v>34</v>
       </c>
@@ -45667,11 +45711,11 @@
       <c r="R31" s="52"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="78"/>
-      <c r="B32" s="74" t="s">
+      <c r="A32" s="80"/>
+      <c r="B32" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="80" t="s">
+      <c r="C32" s="82" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="34">
@@ -45721,9 +45765,9 @@
       </c>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="78"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="81"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="35">
         <v>0.26</v>
       </c>
@@ -45771,9 +45815,9 @@
       </c>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="78"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="81" t="s">
+      <c r="A34" s="80"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="74" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="35">
@@ -45823,9 +45867,9 @@
       </c>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="78"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="81"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="35">
         <v>0.26</v>
       </c>
@@ -45873,9 +45917,9 @@
       </c>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="78"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="81" t="s">
+      <c r="A36" s="80"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="74" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="35">
@@ -45925,9 +45969,9 @@
       </c>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="78"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="81"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="33">
         <v>8.0000000000000099E-2</v>
       </c>
@@ -45975,9 +46019,9 @@
       </c>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="78"/>
-      <c r="B38" s="75"/>
-      <c r="C38" s="81" t="s">
+      <c r="A38" s="80"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="74" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="35">
@@ -46027,9 +46071,9 @@
       </c>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="78"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="81"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="35">
         <v>0.1</v>
       </c>
@@ -46077,9 +46121,9 @@
       </c>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="78"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="81" t="s">
+      <c r="A40" s="80"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="74" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="35">
@@ -46129,9 +46173,9 @@
       </c>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="78"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="82"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="75"/>
       <c r="D41" s="28">
         <v>0.04</v>
       </c>
@@ -46179,16 +46223,16 @@
       </c>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="78"/>
+      <c r="A42" s="80"/>
       <c r="B42" s="44"/>
       <c r="R42" s="51"/>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="78"/>
-      <c r="B43" s="74" t="s">
+      <c r="A43" s="80"/>
+      <c r="B43" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="80" t="s">
+      <c r="C43" s="82" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="34">
@@ -46238,9 +46282,9 @@
       </c>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="78"/>
-      <c r="B44" s="75"/>
-      <c r="C44" s="81"/>
+      <c r="A44" s="80"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="74"/>
       <c r="D44" s="35">
         <v>0.36</v>
       </c>
@@ -46288,9 +46332,9 @@
       </c>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="78"/>
-      <c r="B45" s="75"/>
-      <c r="C45" s="81" t="s">
+      <c r="A45" s="80"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="74" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="35">
@@ -46340,9 +46384,9 @@
       </c>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="78"/>
-      <c r="B46" s="75"/>
-      <c r="C46" s="81"/>
+      <c r="A46" s="80"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="74"/>
       <c r="D46" s="35">
         <v>0.26</v>
       </c>
@@ -46390,9 +46434,9 @@
       </c>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="78"/>
-      <c r="B47" s="75"/>
-      <c r="C47" s="81" t="s">
+      <c r="A47" s="80"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="74" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="35">
@@ -46442,9 +46486,9 @@
       </c>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="78"/>
-      <c r="B48" s="75"/>
-      <c r="C48" s="81"/>
+      <c r="A48" s="80"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="74"/>
       <c r="D48" s="33">
         <v>8.0000000000000099E-2</v>
       </c>
@@ -46492,9 +46536,9 @@
       </c>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="78"/>
-      <c r="B49" s="75"/>
-      <c r="C49" s="81" t="s">
+      <c r="A49" s="80"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="74" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="35">
@@ -46544,9 +46588,9 @@
       </c>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="78"/>
-      <c r="B50" s="75"/>
-      <c r="C50" s="81"/>
+      <c r="A50" s="80"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="74"/>
       <c r="D50" s="35">
         <v>0.1</v>
       </c>
@@ -46594,9 +46638,9 @@
       </c>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="78"/>
-      <c r="B51" s="75"/>
-      <c r="C51" s="81" t="s">
+      <c r="A51" s="80"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="74" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="35">
@@ -46646,9 +46690,9 @@
       </c>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="79"/>
-      <c r="B52" s="76"/>
-      <c r="C52" s="82"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="28">
         <v>0.04</v>
       </c>
@@ -46693,15 +46737,563 @@
       </c>
       <c r="R52" s="50">
         <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="C60" s="87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="C61" s="87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="C62" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="K62" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="M62" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="N62" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="O62" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="P62" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q62" s="87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="C63" s="88">
+        <f>AVERAGE(D63:Q63)</f>
+        <v>0.19692307692307692</v>
+      </c>
+      <c r="D63" s="89">
+        <v>0.2</v>
+      </c>
+      <c r="E63" s="89">
+        <v>0.26</v>
+      </c>
+      <c r="F63" s="88">
+        <v>0.2</v>
+      </c>
+      <c r="G63" s="88">
+        <v>0.18</v>
+      </c>
+      <c r="H63" s="88">
+        <v>0.18</v>
+      </c>
+      <c r="I63" s="88">
+        <v>0.18</v>
+      </c>
+      <c r="J63" s="88">
+        <v>0.2</v>
+      </c>
+      <c r="K63" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="L63" s="88">
+        <v>0.18</v>
+      </c>
+      <c r="M63" s="88">
+        <v>0.2</v>
+      </c>
+      <c r="N63" s="88">
+        <v>0.24</v>
+      </c>
+      <c r="O63" s="88">
+        <v>0.18</v>
+      </c>
+      <c r="P63" s="88">
+        <v>0.18</v>
+      </c>
+      <c r="Q63" s="88">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="66" spans="3:17">
+      <c r="C66" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" s="90">
+        <v>0.500000000000001</v>
+      </c>
+      <c r="E66" s="90">
+        <v>0.5</v>
+      </c>
+      <c r="F66" s="90">
+        <v>0.44</v>
+      </c>
+      <c r="G66" s="90">
+        <v>0.38</v>
+      </c>
+      <c r="H66" s="90">
+        <v>0.38</v>
+      </c>
+      <c r="I66" s="90">
+        <v>0.65726210350584402</v>
+      </c>
+      <c r="J66" s="90">
+        <v>0.500000000000001</v>
+      </c>
+      <c r="K66" s="90">
+        <v>0.82696160267111896</v>
+      </c>
+      <c r="L66" s="90">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M66" s="90">
+        <v>0.4</v>
+      </c>
+      <c r="N66" s="90">
+        <v>0.82821368948247198</v>
+      </c>
+      <c r="O66" s="90">
+        <v>0.75684474123539303</v>
+      </c>
+      <c r="P66" s="90">
+        <v>0.48000000000000098</v>
+      </c>
+      <c r="Q66" s="90">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="67" spans="3:17">
+      <c r="D67" s="90">
+        <v>0.36</v>
+      </c>
+      <c r="E67">
+        <v>0.22</v>
+      </c>
+      <c r="F67" s="90">
+        <v>0.22</v>
+      </c>
+      <c r="G67" s="90">
+        <v>0.2</v>
+      </c>
+      <c r="H67" s="90">
+        <v>0.2</v>
+      </c>
+      <c r="I67" s="90">
+        <v>0.42737896494157002</v>
+      </c>
+      <c r="J67" s="90">
+        <v>0.2</v>
+      </c>
+      <c r="K67" s="90">
+        <v>0.243155258764608</v>
+      </c>
+      <c r="L67" s="90">
+        <v>0.26</v>
+      </c>
+      <c r="M67" s="90">
+        <v>0.22</v>
+      </c>
+      <c r="N67">
+        <v>0.21452420701168601</v>
+      </c>
+      <c r="O67" s="90">
+        <v>0.398747913188648</v>
+      </c>
+      <c r="P67" s="90">
+        <v>0.26</v>
+      </c>
+      <c r="Q67" s="90">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="68" spans="3:17">
+      <c r="D68" s="90">
+        <v>0.24</v>
+      </c>
+      <c r="E68">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="F68">
+        <v>0.16</v>
+      </c>
+      <c r="G68" s="90">
+        <v>0.2</v>
+      </c>
+      <c r="H68" s="90">
+        <v>0.18</v>
+      </c>
+      <c r="I68" s="90">
+        <v>0.41327212020033399</v>
+      </c>
+      <c r="J68">
+        <v>1.3</v>
+      </c>
+      <c r="K68" s="90">
+        <v>0.356844741235393</v>
+      </c>
+      <c r="L68" s="90">
+        <v>0.18</v>
+      </c>
+      <c r="M68">
+        <v>0.18</v>
+      </c>
+      <c r="N68" s="90">
+        <v>0.31535893155258798</v>
+      </c>
+      <c r="O68" s="90">
+        <v>0.42779632721202099</v>
+      </c>
+      <c r="P68" s="90">
+        <v>0.2</v>
+      </c>
+      <c r="Q68">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="3:17">
+      <c r="D69" s="90">
+        <v>0.26</v>
+      </c>
+      <c r="E69">
+        <v>0.3</v>
+      </c>
+      <c r="F69" s="90">
+        <v>0.24</v>
+      </c>
+      <c r="G69" s="90">
+        <v>0.24</v>
+      </c>
+      <c r="H69" s="90">
+        <v>0.18</v>
+      </c>
+      <c r="I69" s="90">
+        <v>0.39958263772954999</v>
+      </c>
+      <c r="J69" s="90">
+        <v>0.53999999999999904</v>
+      </c>
+      <c r="K69" s="90">
+        <v>0.29958263772955002</v>
+      </c>
+      <c r="L69" s="90">
+        <v>0.24</v>
+      </c>
+      <c r="M69" s="90">
+        <v>0.22</v>
+      </c>
+      <c r="N69" s="90">
+        <v>0.41452420701168702</v>
+      </c>
+      <c r="O69" s="90">
+        <v>0.27136894824707902</v>
+      </c>
+      <c r="P69" s="90">
+        <v>0.26</v>
+      </c>
+      <c r="Q69" s="90">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="70" spans="3:17">
+      <c r="D70" s="90">
+        <v>0.26</v>
+      </c>
+      <c r="E70">
+        <v>0.24</v>
+      </c>
+      <c r="F70">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G70">
+        <v>0.12</v>
+      </c>
+      <c r="H70">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I70">
+        <v>0.15767946577629399</v>
+      </c>
+      <c r="J70" s="90">
+        <v>0.22</v>
+      </c>
+      <c r="K70">
+        <v>0.142737896494157</v>
+      </c>
+      <c r="L70">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M70">
+        <v>0.12</v>
+      </c>
+      <c r="N70" s="90">
+        <v>0.258096828046745</v>
+      </c>
+      <c r="O70">
+        <v>0.143155258764608</v>
+      </c>
+      <c r="P70">
+        <v>0.12</v>
+      </c>
+      <c r="Q70" s="90">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="71" spans="3:17">
+      <c r="D71">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="E71">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="F71">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="G71">
+        <v>0.16</v>
+      </c>
+      <c r="H71">
+        <v>0.12</v>
+      </c>
+      <c r="I71">
+        <v>0.128213689482471</v>
+      </c>
+      <c r="J71">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="K71">
+        <v>8.5475792988313995E-2</v>
+      </c>
+      <c r="L71">
+        <v>0.1</v>
+      </c>
+      <c r="M71">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="N71">
+        <v>0.141485809682805</v>
+      </c>
+      <c r="O71" s="90">
+        <v>0.18384059062299701</v>
+      </c>
+      <c r="P71">
+        <v>0.16</v>
+      </c>
+      <c r="Q71">
+        <v>8.0000000000000099E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="3:17">
+      <c r="D72">
+        <v>0.12</v>
+      </c>
+      <c r="E72">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="F72">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G72">
+        <v>0.12</v>
+      </c>
+      <c r="H72">
+        <v>0.12</v>
+      </c>
+      <c r="I72">
+        <v>0.128213689482471</v>
+      </c>
+      <c r="J72">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="K72">
+        <v>7.1368948247078498E-2</v>
+      </c>
+      <c r="L72">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="M72">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="N72">
+        <v>0.114524207011686</v>
+      </c>
+      <c r="O72">
+        <v>0.15684474123539299</v>
+      </c>
+      <c r="P72">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="Q72">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="73" spans="3:17">
+      <c r="D73">
+        <v>0.1</v>
+      </c>
+      <c r="E73">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="F73">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="G73">
+        <v>0.12</v>
+      </c>
+      <c r="H73">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I73">
+        <v>8.5475792988313995E-2</v>
+      </c>
+      <c r="J73">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K73">
+        <v>0.128631051752922</v>
+      </c>
+      <c r="L73">
+        <v>0.1</v>
+      </c>
+      <c r="M73">
+        <v>0.12</v>
+      </c>
+      <c r="N73">
+        <v>0.114106844741236</v>
+      </c>
+      <c r="O73">
+        <v>4.2737896494156997E-2</v>
+      </c>
+      <c r="P73">
+        <v>0.12</v>
+      </c>
+      <c r="Q73">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="74" spans="3:17">
+      <c r="D74">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E74">
+        <v>0.04</v>
+      </c>
+      <c r="F74">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="G74">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="H74">
+        <v>0.04</v>
+      </c>
+      <c r="I74">
+        <v>0.17095158597662799</v>
+      </c>
+      <c r="J74">
+        <v>0.04</v>
+      </c>
+      <c r="K74">
+        <v>8.5058430717863204E-2</v>
+      </c>
+      <c r="L74">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M74">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="N74">
+        <v>0.128631051752922</v>
+      </c>
+      <c r="O74">
+        <v>0.114106844741236</v>
+      </c>
+      <c r="P74">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="Q74">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="75" spans="3:17">
+      <c r="D75">
+        <v>0.04</v>
+      </c>
+      <c r="E75">
+        <v>0.04</v>
+      </c>
+      <c r="F75">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="G75">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="H75">
+        <v>0.1</v>
+      </c>
+      <c r="I75">
+        <v>0.113689482470785</v>
+      </c>
+      <c r="J75">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="K75">
+        <v>5.6844741235392397E-2</v>
+      </c>
+      <c r="L75">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="M75">
+        <v>0.06</v>
+      </c>
+      <c r="N75">
+        <v>5.6427378964941599E-2</v>
+      </c>
+      <c r="O75">
+        <v>7.1786310517529303E-2</v>
+      </c>
+      <c r="P75">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="Q75">
+        <v>8.0000000000000099E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="3:17">
+      <c r="C78" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B21:B30"/>
     <mergeCell ref="B43:B52"/>
     <mergeCell ref="A21:A52"/>
     <mergeCell ref="C43:C44"/>
@@ -46717,6 +47309,11 @@
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B21:B30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46728,7 +47325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:MK121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
@@ -47043,13 +47640,13 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="58">
@@ -54104,13 +54701,13 @@
       <c r="CE34" s="8"/>
     </row>
     <row r="39" spans="2:208">
-      <c r="B39" s="71" t="s">
+      <c r="B39" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
     </row>
     <row r="40" spans="2:208">
       <c r="B40" s="58">
@@ -62923,13 +63520,13 @@
       </c>
     </row>
     <row r="61" spans="2:208">
-      <c r="B61" s="71" t="s">
+      <c r="B61" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
     </row>
     <row r="62" spans="2:208">
       <c r="B62" s="58">
@@ -75144,13 +75741,13 @@
       </c>
     </row>
     <row r="83" spans="2:349">
-      <c r="B83" s="71" t="s">
+      <c r="B83" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="C83" s="71"/>
-      <c r="D83" s="71"/>
-      <c r="E83" s="71"/>
-      <c r="F83" s="71"/>
+      <c r="C83" s="72"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
     </row>
     <row r="84" spans="2:349">
       <c r="B84" s="58">
@@ -89885,13 +90482,13 @@
       </c>
     </row>
     <row r="104" spans="2:349">
-      <c r="B104" s="71" t="s">
+      <c r="B104" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="C104" s="71"/>
-      <c r="D104" s="71"/>
-      <c r="E104" s="71"/>
-      <c r="F104" s="71"/>
+      <c r="C104" s="72"/>
+      <c r="D104" s="72"/>
+      <c r="E104" s="72"/>
+      <c r="F104" s="72"/>
     </row>
     <row r="105" spans="2:349">
       <c r="B105" s="58">
@@ -93539,11 +94136,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B15:F15"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="B11:B12"/>
@@ -93554,6 +94146,11 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B15:F15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Burst-Detection/压力数据.xlsx
+++ b/Burst-Detection/压力数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4500" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="4950" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="平滑降噪" sheetId="1" r:id="rId1"/>
@@ -1094,18 +1094,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1129,6 +1131,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1141,14 +1149,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1537,13 +1537,13 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="76" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72" t="s">
+      <c r="A8" s="76"/>
+      <c r="B8" s="75" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="4">
@@ -1590,8 +1590,8 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="4">
         <v>0.20622203695893401</v>
       </c>
@@ -1636,8 +1636,8 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="71"/>
-      <c r="B10" s="72" t="s">
+      <c r="A10" s="76"/>
+      <c r="B10" s="75" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="4">
@@ -1684,8 +1684,8 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="71"/>
-      <c r="B11" s="72"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="75"/>
       <c r="C11" s="4">
         <v>6.2105197897433698E-2</v>
       </c>
@@ -1733,8 +1733,8 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72" t="s">
+      <c r="A12" s="76"/>
+      <c r="B12" s="75" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="4">
@@ -1781,8 +1781,8 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="71"/>
-      <c r="B13" s="72"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="75"/>
       <c r="C13">
         <v>2.7664742714910401E-2</v>
       </c>
@@ -1827,8 +1827,8 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="71"/>
-      <c r="B14" s="72" t="s">
+      <c r="A14" s="76"/>
+      <c r="B14" s="75" t="s">
         <v>18</v>
       </c>
       <c r="C14">
@@ -1875,8 +1875,8 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="71"/>
-      <c r="B15" s="72"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="75"/>
       <c r="C15">
         <v>1.8060443331874398E-2</v>
       </c>
@@ -1921,8 +1921,8 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="71"/>
-      <c r="B16" s="72" t="s">
+      <c r="A16" s="76"/>
+      <c r="B16" s="75" t="s">
         <v>19</v>
       </c>
       <c r="C16">
@@ -1969,8 +1969,8 @@
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="71"/>
-      <c r="B17" s="72"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="75"/>
       <c r="C17">
         <v>1.13857990146845E-2</v>
       </c>
@@ -2015,10 +2015,10 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="75" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="6">
@@ -2065,8 +2065,8 @@
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="71"/>
-      <c r="B20" s="72"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="75"/>
       <c r="C20" s="6">
         <v>0.233333333333334</v>
       </c>
@@ -2111,8 +2111,8 @@
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="71"/>
-      <c r="B21" s="72" t="s">
+      <c r="A21" s="76"/>
+      <c r="B21" s="75" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="6">
@@ -2159,8 +2159,8 @@
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="71"/>
-      <c r="B22" s="72"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="75"/>
       <c r="C22" s="6">
         <v>0.1048</v>
       </c>
@@ -2205,8 +2205,8 @@
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="71"/>
-      <c r="B23" s="72" t="s">
+      <c r="A23" s="76"/>
+      <c r="B23" s="75" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="6">
@@ -2253,8 +2253,8 @@
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="71"/>
-      <c r="B24" s="72"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="75"/>
       <c r="C24">
         <v>0.04</v>
       </c>
@@ -2299,8 +2299,8 @@
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="71"/>
-      <c r="B25" s="72" t="s">
+      <c r="A25" s="76"/>
+      <c r="B25" s="75" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="6">
@@ -2347,8 +2347,8 @@
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="71"/>
-      <c r="B26" s="72"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="75"/>
       <c r="C26">
         <v>5.1999999999999998E-2</v>
       </c>
@@ -2393,8 +2393,8 @@
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="71"/>
-      <c r="B27" s="72" t="s">
+      <c r="A27" s="76"/>
+      <c r="B27" s="75" t="s">
         <v>19</v>
       </c>
       <c r="C27">
@@ -2441,8 +2441,8 @@
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="71"/>
-      <c r="B28" s="72"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="75"/>
       <c r="C28">
         <v>3.5000000000000003E-2</v>
       </c>
@@ -2487,10 +2487,10 @@
       </c>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="75" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="6">
@@ -2537,8 +2537,8 @@
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="71"/>
-      <c r="B31" s="72"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="75"/>
       <c r="C31" s="6">
         <v>0.53333333333333399</v>
       </c>
@@ -2583,8 +2583,8 @@
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="71"/>
-      <c r="B32" s="72" t="s">
+      <c r="A32" s="76"/>
+      <c r="B32" s="75" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="6">
@@ -2631,8 +2631,8 @@
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="71"/>
-      <c r="B33" s="72"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="75"/>
       <c r="C33" s="6">
         <v>0.28399999999999997</v>
       </c>
@@ -2677,8 +2677,8 @@
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="71"/>
-      <c r="B34" s="72" t="s">
+      <c r="A34" s="76"/>
+      <c r="B34" s="75" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="6">
@@ -2725,8 +2725,8 @@
       </c>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="71"/>
-      <c r="B35" s="72"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="75"/>
       <c r="C35" s="6">
         <v>8.7500000000000105E-2</v>
       </c>
@@ -2771,8 +2771,8 @@
       </c>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="71"/>
-      <c r="B36" s="72" t="s">
+      <c r="A36" s="76"/>
+      <c r="B36" s="75" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="6">
@@ -2819,8 +2819,8 @@
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="71"/>
-      <c r="B37" s="72"/>
+      <c r="A37" s="76"/>
+      <c r="B37" s="75"/>
       <c r="C37" s="6">
         <v>0.14000000000000001</v>
       </c>
@@ -2865,8 +2865,8 @@
       </c>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="71"/>
-      <c r="B38" s="72" t="s">
+      <c r="A38" s="76"/>
+      <c r="B38" s="75" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="6">
@@ -2913,8 +2913,8 @@
       </c>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="71"/>
-      <c r="B39" s="72"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="75"/>
       <c r="C39" s="6">
         <v>0.22500000000000001</v>
       </c>
@@ -3071,10 +3071,10 @@
       </c>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="71" t="s">
+      <c r="A43" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="75" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="4">
@@ -3121,8 +3121,8 @@
       </c>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="71"/>
-      <c r="B44" s="72"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="75"/>
       <c r="C44" s="4">
         <v>0.35929627778837298</v>
       </c>
@@ -3167,8 +3167,8 @@
       </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="71"/>
-      <c r="B45" s="72" t="s">
+      <c r="A45" s="76"/>
+      <c r="B45" s="75" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="4">
@@ -3215,8 +3215,8 @@
       </c>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="71"/>
-      <c r="B46" s="72"/>
+      <c r="A46" s="76"/>
+      <c r="B46" s="75"/>
       <c r="C46" s="4">
         <v>0.11918811759426499</v>
       </c>
@@ -3261,8 +3261,8 @@
       </c>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="71"/>
-      <c r="B47" s="72" t="s">
+      <c r="A47" s="76"/>
+      <c r="B47" s="75" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="4">
@@ -3309,8 +3309,8 @@
       </c>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="71"/>
-      <c r="B48" s="72"/>
+      <c r="A48" s="76"/>
+      <c r="B48" s="75"/>
       <c r="C48">
         <v>4.1451873192934301E-2</v>
       </c>
@@ -3355,8 +3355,8 @@
       </c>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="71"/>
-      <c r="B49" s="72" t="s">
+      <c r="A49" s="76"/>
+      <c r="B49" s="75" t="s">
         <v>18</v>
       </c>
       <c r="C49">
@@ -3403,8 +3403,8 @@
       </c>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="71"/>
-      <c r="B50" s="72"/>
+      <c r="A50" s="76"/>
+      <c r="B50" s="75"/>
       <c r="C50">
         <v>2.2165294764432301E-2</v>
       </c>
@@ -3449,8 +3449,8 @@
       </c>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="71"/>
-      <c r="B51" s="72" t="s">
+      <c r="A51" s="76"/>
+      <c r="B51" s="75" t="s">
         <v>19</v>
       </c>
       <c r="C51">
@@ -3497,8 +3497,8 @@
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="71"/>
-      <c r="B52" s="72"/>
+      <c r="A52" s="76"/>
+      <c r="B52" s="75"/>
       <c r="C52">
         <v>1.9783438855451401E-2</v>
       </c>
@@ -3543,10 +3543,10 @@
       </c>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="71" t="s">
+      <c r="A54" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="72" t="s">
+      <c r="B54" s="75" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="4">
@@ -3593,8 +3593,8 @@
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="71"/>
-      <c r="B55" s="72"/>
+      <c r="A55" s="76"/>
+      <c r="B55" s="75"/>
       <c r="C55" s="4">
         <v>0.36</v>
       </c>
@@ -3639,8 +3639,8 @@
       </c>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="71"/>
-      <c r="B56" s="72" t="s">
+      <c r="A56" s="76"/>
+      <c r="B56" s="75" t="s">
         <v>15</v>
       </c>
       <c r="C56" s="4">
@@ -3687,8 +3687,8 @@
       </c>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="71"/>
-      <c r="B57" s="72"/>
+      <c r="A57" s="76"/>
+      <c r="B57" s="75"/>
       <c r="C57" s="4">
         <v>0.26</v>
       </c>
@@ -3733,8 +3733,8 @@
       </c>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="71"/>
-      <c r="B58" s="72" t="s">
+      <c r="A58" s="76"/>
+      <c r="B58" s="75" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="4">
@@ -3781,8 +3781,8 @@
       </c>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="71"/>
-      <c r="B59" s="72"/>
+      <c r="A59" s="76"/>
+      <c r="B59" s="75"/>
       <c r="C59" s="4">
         <v>8.0000000000000099E-2</v>
       </c>
@@ -3827,8 +3827,8 @@
       </c>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="71"/>
-      <c r="B60" s="72" t="s">
+      <c r="A60" s="76"/>
+      <c r="B60" s="75" t="s">
         <v>18</v>
       </c>
       <c r="C60" s="4">
@@ -3875,8 +3875,8 @@
       </c>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="71"/>
-      <c r="B61" s="72"/>
+      <c r="A61" s="76"/>
+      <c r="B61" s="75"/>
       <c r="C61" s="4">
         <v>0.1</v>
       </c>
@@ -3921,8 +3921,8 @@
       </c>
     </row>
     <row r="62" spans="1:16">
-      <c r="A62" s="71"/>
-      <c r="B62" s="72" t="s">
+      <c r="A62" s="76"/>
+      <c r="B62" s="75" t="s">
         <v>19</v>
       </c>
       <c r="C62" s="4">
@@ -3969,8 +3969,8 @@
       </c>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="71"/>
-      <c r="B63" s="72"/>
+      <c r="A63" s="76"/>
+      <c r="B63" s="75"/>
       <c r="C63" s="4">
         <v>0.1</v>
       </c>
@@ -4016,6 +4016,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A7:A17"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="A54:A63"/>
     <mergeCell ref="A43:A52"/>
@@ -4028,24 +4046,6 @@
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A7:A17"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4064,38 +4064,38 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="2:314">
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
     </row>
     <row r="2" spans="2:314">
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
     </row>
     <row r="3" spans="2:314">
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
     </row>
     <row r="4" spans="2:314">
       <c r="C4" s="55" t="s">
@@ -4197,7 +4197,7 @@
       </c>
     </row>
     <row r="7" spans="2:314">
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="76" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="53">
@@ -4901,7 +4901,7 @@
       </c>
     </row>
     <row r="8" spans="2:314" ht="14.25" customHeight="1">
-      <c r="B8" s="71"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="54">
         <v>2</v>
       </c>
@@ -5840,7 +5840,7 @@
       </c>
     </row>
     <row r="9" spans="2:314">
-      <c r="B9" s="71"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="53">
         <v>3</v>
       </c>
@@ -6779,7 +6779,7 @@
       </c>
     </row>
     <row r="10" spans="2:314">
-      <c r="B10" s="71"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="54">
         <v>4</v>
       </c>
@@ -7718,7 +7718,7 @@
       </c>
     </row>
     <row r="11" spans="2:314">
-      <c r="B11" s="71"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="53">
         <v>5</v>
       </c>
@@ -8657,7 +8657,7 @@
       </c>
     </row>
     <row r="12" spans="2:314">
-      <c r="B12" s="71"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="54">
         <v>6</v>
       </c>
@@ -9596,7 +9596,7 @@
       </c>
     </row>
     <row r="13" spans="2:314">
-      <c r="B13" s="71"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="53">
         <v>7</v>
       </c>
@@ -10535,7 +10535,7 @@
       </c>
     </row>
     <row r="14" spans="2:314">
-      <c r="B14" s="71"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="54">
         <v>8</v>
       </c>
@@ -11474,7 +11474,7 @@
       </c>
     </row>
     <row r="15" spans="2:314">
-      <c r="B15" s="71"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="53">
         <v>9</v>
       </c>
@@ -12413,7 +12413,7 @@
       </c>
     </row>
     <row r="16" spans="2:314">
-      <c r="B16" s="71"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="54">
         <v>10</v>
       </c>
@@ -13352,7 +13352,7 @@
       </c>
     </row>
     <row r="17" spans="2:314">
-      <c r="B17" s="71"/>
+      <c r="B17" s="76"/>
       <c r="C17" s="53">
         <v>11</v>
       </c>
@@ -14291,7 +14291,7 @@
       </c>
     </row>
     <row r="18" spans="2:314">
-      <c r="B18" s="71"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="54">
         <v>12</v>
       </c>
@@ -15230,7 +15230,7 @@
       </c>
     </row>
     <row r="19" spans="2:314">
-      <c r="B19" s="71"/>
+      <c r="B19" s="76"/>
       <c r="C19" s="53">
         <v>13</v>
       </c>
@@ -16169,7 +16169,7 @@
       </c>
     </row>
     <row r="20" spans="2:314">
-      <c r="B20" s="71"/>
+      <c r="B20" s="76"/>
       <c r="C20" s="54">
         <v>14</v>
       </c>
@@ -17108,12 +17108,12 @@
       </c>
     </row>
     <row r="23" spans="2:314">
-      <c r="D23" s="72" t="s">
+      <c r="D23" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
     </row>
     <row r="24" spans="2:314">
       <c r="C24" s="55" t="s">
@@ -17215,7 +17215,7 @@
       </c>
     </row>
     <row r="27" spans="2:314">
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="76" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="53">
@@ -17760,7 +17760,7 @@
       </c>
     </row>
     <row r="28" spans="2:314">
-      <c r="B28" s="71"/>
+      <c r="B28" s="76"/>
       <c r="C28" s="54">
         <v>2</v>
       </c>
@@ -18303,7 +18303,7 @@
       </c>
     </row>
     <row r="29" spans="2:314">
-      <c r="B29" s="71"/>
+      <c r="B29" s="76"/>
       <c r="C29" s="53">
         <v>3</v>
       </c>
@@ -18846,7 +18846,7 @@
       </c>
     </row>
     <row r="30" spans="2:314">
-      <c r="B30" s="71"/>
+      <c r="B30" s="76"/>
       <c r="C30" s="54">
         <v>4</v>
       </c>
@@ -19389,7 +19389,7 @@
       </c>
     </row>
     <row r="31" spans="2:314">
-      <c r="B31" s="71"/>
+      <c r="B31" s="76"/>
       <c r="C31" s="53">
         <v>5</v>
       </c>
@@ -19932,7 +19932,7 @@
       </c>
     </row>
     <row r="32" spans="2:314">
-      <c r="B32" s="71"/>
+      <c r="B32" s="76"/>
       <c r="C32" s="54">
         <v>6</v>
       </c>
@@ -20475,7 +20475,7 @@
       </c>
     </row>
     <row r="33" spans="2:182">
-      <c r="B33" s="71"/>
+      <c r="B33" s="76"/>
       <c r="C33" s="53">
         <v>7</v>
       </c>
@@ -21018,7 +21018,7 @@
       </c>
     </row>
     <row r="34" spans="2:182">
-      <c r="B34" s="71"/>
+      <c r="B34" s="76"/>
       <c r="C34" s="54">
         <v>8</v>
       </c>
@@ -21561,7 +21561,7 @@
       </c>
     </row>
     <row r="35" spans="2:182">
-      <c r="B35" s="71"/>
+      <c r="B35" s="76"/>
       <c r="C35" s="53">
         <v>9</v>
       </c>
@@ -22104,7 +22104,7 @@
       </c>
     </row>
     <row r="36" spans="2:182">
-      <c r="B36" s="71"/>
+      <c r="B36" s="76"/>
       <c r="C36" s="54">
         <v>10</v>
       </c>
@@ -22647,7 +22647,7 @@
       </c>
     </row>
     <row r="37" spans="2:182">
-      <c r="B37" s="71"/>
+      <c r="B37" s="76"/>
       <c r="C37" s="53">
         <v>11</v>
       </c>
@@ -23190,7 +23190,7 @@
       </c>
     </row>
     <row r="38" spans="2:182">
-      <c r="B38" s="71"/>
+      <c r="B38" s="76"/>
       <c r="C38" s="54">
         <v>12</v>
       </c>
@@ -23733,7 +23733,7 @@
       </c>
     </row>
     <row r="39" spans="2:182">
-      <c r="B39" s="71"/>
+      <c r="B39" s="76"/>
       <c r="C39" s="53">
         <v>13</v>
       </c>
@@ -24276,7 +24276,7 @@
       </c>
     </row>
     <row r="40" spans="2:182">
-      <c r="B40" s="71"/>
+      <c r="B40" s="76"/>
       <c r="C40" s="54">
         <v>14</v>
       </c>
@@ -24819,12 +24819,12 @@
       </c>
     </row>
     <row r="43" spans="2:182">
-      <c r="D43" s="72" t="s">
+      <c r="D43" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
     </row>
     <row r="44" spans="2:182">
       <c r="C44" s="55" t="s">
@@ -25337,7 +25337,7 @@
       </c>
     </row>
     <row r="47" spans="2:182">
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="76" t="s">
         <v>39</v>
       </c>
       <c r="C47" s="53">
@@ -25756,7 +25756,7 @@
       </c>
     </row>
     <row r="48" spans="2:182">
-      <c r="B48" s="71"/>
+      <c r="B48" s="76"/>
       <c r="C48" s="54">
         <v>2</v>
       </c>
@@ -26173,7 +26173,7 @@
       </c>
     </row>
     <row r="49" spans="2:140">
-      <c r="B49" s="71"/>
+      <c r="B49" s="76"/>
       <c r="C49" s="53">
         <v>3</v>
       </c>
@@ -26590,7 +26590,7 @@
       </c>
     </row>
     <row r="50" spans="2:140">
-      <c r="B50" s="71"/>
+      <c r="B50" s="76"/>
       <c r="C50" s="54">
         <v>4</v>
       </c>
@@ -27007,7 +27007,7 @@
       </c>
     </row>
     <row r="51" spans="2:140">
-      <c r="B51" s="71"/>
+      <c r="B51" s="76"/>
       <c r="C51" s="53">
         <v>5</v>
       </c>
@@ -27424,7 +27424,7 @@
       </c>
     </row>
     <row r="52" spans="2:140">
-      <c r="B52" s="71"/>
+      <c r="B52" s="76"/>
       <c r="C52" s="54">
         <v>6</v>
       </c>
@@ -27841,7 +27841,7 @@
       </c>
     </row>
     <row r="53" spans="2:140">
-      <c r="B53" s="71"/>
+      <c r="B53" s="76"/>
       <c r="C53" s="53">
         <v>7</v>
       </c>
@@ -28258,7 +28258,7 @@
       </c>
     </row>
     <row r="54" spans="2:140">
-      <c r="B54" s="71"/>
+      <c r="B54" s="76"/>
       <c r="C54" s="54">
         <v>8</v>
       </c>
@@ -28675,7 +28675,7 @@
       </c>
     </row>
     <row r="55" spans="2:140">
-      <c r="B55" s="71"/>
+      <c r="B55" s="76"/>
       <c r="C55" s="53">
         <v>9</v>
       </c>
@@ -29092,7 +29092,7 @@
       </c>
     </row>
     <row r="56" spans="2:140">
-      <c r="B56" s="71"/>
+      <c r="B56" s="76"/>
       <c r="C56" s="54">
         <v>10</v>
       </c>
@@ -29509,7 +29509,7 @@
       </c>
     </row>
     <row r="57" spans="2:140">
-      <c r="B57" s="71"/>
+      <c r="B57" s="76"/>
       <c r="C57" s="53">
         <v>11</v>
       </c>
@@ -29926,7 +29926,7 @@
       </c>
     </row>
     <row r="58" spans="2:140">
-      <c r="B58" s="71"/>
+      <c r="B58" s="76"/>
       <c r="C58" s="54">
         <v>12</v>
       </c>
@@ -30343,7 +30343,7 @@
       </c>
     </row>
     <row r="59" spans="2:140">
-      <c r="B59" s="71"/>
+      <c r="B59" s="76"/>
       <c r="C59" s="53">
         <v>13</v>
       </c>
@@ -30760,27 +30760,27 @@
       </c>
     </row>
     <row r="60" spans="2:140">
-      <c r="B60" s="71"/>
+      <c r="B60" s="76"/>
       <c r="C60" s="54">
         <v>14</v>
       </c>
     </row>
     <row r="67" spans="2:88">
-      <c r="B67" s="73" t="s">
+      <c r="B67" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
     </row>
     <row r="69" spans="2:88">
-      <c r="D69" s="72" t="s">
+      <c r="D69" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="72"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="75"/>
+      <c r="G69" s="75"/>
     </row>
     <row r="70" spans="2:88">
       <c r="C70" s="55" t="s">
@@ -30902,7 +30902,7 @@
       <c r="CJ72" s="10"/>
     </row>
     <row r="73" spans="2:88">
-      <c r="B73" s="71" t="s">
+      <c r="B73" s="76" t="s">
         <v>39</v>
       </c>
       <c r="C73" s="53">
@@ -31137,7 +31137,7 @@
       <c r="CJ73" s="10"/>
     </row>
     <row r="74" spans="2:88">
-      <c r="B74" s="71"/>
+      <c r="B74" s="76"/>
       <c r="C74" s="54">
         <v>2</v>
       </c>
@@ -31370,7 +31370,7 @@
       <c r="CJ74" s="10"/>
     </row>
     <row r="75" spans="2:88">
-      <c r="B75" s="71"/>
+      <c r="B75" s="76"/>
       <c r="C75" s="53">
         <v>3</v>
       </c>
@@ -31603,7 +31603,7 @@
       <c r="CJ75" s="10"/>
     </row>
     <row r="76" spans="2:88">
-      <c r="B76" s="71"/>
+      <c r="B76" s="76"/>
       <c r="C76" s="54">
         <v>4</v>
       </c>
@@ -31836,7 +31836,7 @@
       <c r="CJ76" s="10"/>
     </row>
     <row r="77" spans="2:88">
-      <c r="B77" s="71"/>
+      <c r="B77" s="76"/>
       <c r="C77" s="53">
         <v>5</v>
       </c>
@@ -32069,7 +32069,7 @@
       <c r="CJ77" s="10"/>
     </row>
     <row r="78" spans="2:88">
-      <c r="B78" s="71"/>
+      <c r="B78" s="76"/>
       <c r="C78" s="54">
         <v>6</v>
       </c>
@@ -32302,7 +32302,7 @@
       <c r="CJ78" s="10"/>
     </row>
     <row r="79" spans="2:88">
-      <c r="B79" s="71"/>
+      <c r="B79" s="76"/>
       <c r="C79" s="53">
         <v>7</v>
       </c>
@@ -32535,7 +32535,7 @@
       <c r="CJ79" s="10"/>
     </row>
     <row r="80" spans="2:88">
-      <c r="B80" s="71"/>
+      <c r="B80" s="76"/>
       <c r="C80" s="54">
         <v>8</v>
       </c>
@@ -32768,7 +32768,7 @@
       <c r="CJ80" s="10"/>
     </row>
     <row r="81" spans="2:88">
-      <c r="B81" s="71"/>
+      <c r="B81" s="76"/>
       <c r="C81" s="53">
         <v>9</v>
       </c>
@@ -33001,7 +33001,7 @@
       <c r="CJ81" s="10"/>
     </row>
     <row r="82" spans="2:88">
-      <c r="B82" s="71"/>
+      <c r="B82" s="76"/>
       <c r="C82" s="54">
         <v>10</v>
       </c>
@@ -33234,7 +33234,7 @@
       <c r="CJ82" s="10"/>
     </row>
     <row r="83" spans="2:88">
-      <c r="B83" s="71"/>
+      <c r="B83" s="76"/>
       <c r="C83" s="53">
         <v>11</v>
       </c>
@@ -33467,7 +33467,7 @@
       <c r="CJ83" s="10"/>
     </row>
     <row r="84" spans="2:88">
-      <c r="B84" s="71"/>
+      <c r="B84" s="76"/>
       <c r="C84" s="54">
         <v>12</v>
       </c>
@@ -33700,7 +33700,7 @@
       <c r="CJ84" s="10"/>
     </row>
     <row r="85" spans="2:88">
-      <c r="B85" s="71"/>
+      <c r="B85" s="76"/>
       <c r="C85" s="53">
         <v>13</v>
       </c>
@@ -33933,7 +33933,7 @@
       <c r="CJ85" s="10"/>
     </row>
     <row r="86" spans="2:88">
-      <c r="B86" s="71"/>
+      <c r="B86" s="76"/>
       <c r="C86" s="54">
         <v>14</v>
       </c>
@@ -34167,16 +34167,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D1:M2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B7:B20"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B27:B40"/>
     <mergeCell ref="D69:G69"/>
     <mergeCell ref="B73:B86"/>
     <mergeCell ref="B67:F67"/>
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="B47:B60"/>
-    <mergeCell ref="D1:M2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B7:B20"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B27:B40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34195,16 +34195,16 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3">
@@ -34295,16 +34295,16 @@
       </c>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72" t="s">
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7">
@@ -44695,10 +44695,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD78"/>
+  <dimension ref="A1:XFD102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="C20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -45147,13 +45147,13 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="84" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="36">
@@ -45203,9 +45203,9 @@
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="80"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="74"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="37">
         <v>0.36</v>
       </c>
@@ -45253,9 +45253,9 @@
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="80"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="74" t="s">
+      <c r="A23" s="82"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="85" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="37">
@@ -45305,9 +45305,9 @@
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="80"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="74"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="37">
         <v>0.26</v>
       </c>
@@ -45355,9 +45355,9 @@
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="80"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="74" t="s">
+      <c r="A25" s="82"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="85" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="37">
@@ -45407,9 +45407,9 @@
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="80"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="74"/>
+      <c r="A26" s="82"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="85"/>
       <c r="D26" s="18">
         <v>8.0000000000000099E-2</v>
       </c>
@@ -45457,9 +45457,9 @@
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="80"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="74" t="s">
+      <c r="A27" s="82"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="85" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="37">
@@ -45509,9 +45509,9 @@
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="80"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="74"/>
+      <c r="A28" s="82"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="85"/>
       <c r="D28" s="37">
         <v>0.1</v>
       </c>
@@ -45559,9 +45559,9 @@
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="80"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="74" t="s">
+      <c r="A29" s="82"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="85" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="37">
@@ -45611,9 +45611,9 @@
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="80"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="75"/>
+      <c r="A30" s="82"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="86"/>
       <c r="D30" s="38">
         <v>0.1</v>
       </c>
@@ -45661,11 +45661,11 @@
       </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="80"/>
-      <c r="B31" s="83" t="s">
+      <c r="A31" s="82"/>
+      <c r="B31" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="84"/>
+      <c r="C31" s="88"/>
       <c r="D31" s="45">
         <v>0.875</v>
       </c>
@@ -45711,11 +45711,11 @@
       <c r="R31" s="52"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="80"/>
-      <c r="B32" s="76" t="s">
+      <c r="A32" s="82"/>
+      <c r="B32" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="82" t="s">
+      <c r="C32" s="84" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="34">
@@ -45765,9 +45765,9 @@
       </c>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="80"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="74"/>
+      <c r="A33" s="82"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="85"/>
       <c r="D33" s="35">
         <v>0.26</v>
       </c>
@@ -45815,9 +45815,9 @@
       </c>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="80"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="74" t="s">
+      <c r="A34" s="82"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="85" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="35">
@@ -45867,9 +45867,9 @@
       </c>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="80"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="74"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="85"/>
       <c r="D35" s="35">
         <v>0.26</v>
       </c>
@@ -45917,9 +45917,9 @@
       </c>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="80"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="74" t="s">
+      <c r="A36" s="82"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="85" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="35">
@@ -45969,9 +45969,9 @@
       </c>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="80"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="74"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="85"/>
       <c r="D37" s="33">
         <v>8.0000000000000099E-2</v>
       </c>
@@ -46019,9 +46019,9 @@
       </c>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="80"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="74" t="s">
+      <c r="A38" s="82"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="85" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="35">
@@ -46071,9 +46071,9 @@
       </c>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="80"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="74"/>
+      <c r="A39" s="82"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="85"/>
       <c r="D39" s="35">
         <v>0.1</v>
       </c>
@@ -46121,9 +46121,9 @@
       </c>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="80"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="74" t="s">
+      <c r="A40" s="82"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="85" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="35">
@@ -46173,9 +46173,9 @@
       </c>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="80"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="75"/>
+      <c r="A41" s="82"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="86"/>
       <c r="D41" s="28">
         <v>0.04</v>
       </c>
@@ -46223,16 +46223,16 @@
       </c>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="80"/>
+      <c r="A42" s="82"/>
       <c r="B42" s="44"/>
       <c r="R42" s="51"/>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="80"/>
-      <c r="B43" s="76" t="s">
+      <c r="A43" s="82"/>
+      <c r="B43" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="82" t="s">
+      <c r="C43" s="84" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="34">
@@ -46282,9 +46282,9 @@
       </c>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="80"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="74"/>
+      <c r="A44" s="82"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="85"/>
       <c r="D44" s="35">
         <v>0.36</v>
       </c>
@@ -46332,9 +46332,9 @@
       </c>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="80"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="74" t="s">
+      <c r="A45" s="82"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="85" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="35">
@@ -46384,9 +46384,9 @@
       </c>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="80"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="74"/>
+      <c r="A46" s="82"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="85"/>
       <c r="D46" s="35">
         <v>0.26</v>
       </c>
@@ -46434,9 +46434,9 @@
       </c>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="80"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="74" t="s">
+      <c r="A47" s="82"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="85" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="35">
@@ -46486,9 +46486,9 @@
       </c>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="80"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="74"/>
+      <c r="A48" s="82"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="85"/>
       <c r="D48" s="33">
         <v>8.0000000000000099E-2</v>
       </c>
@@ -46536,9 +46536,9 @@
       </c>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="80"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="74" t="s">
+      <c r="A49" s="82"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="85" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="35">
@@ -46588,9 +46588,9 @@
       </c>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="80"/>
-      <c r="B50" s="77"/>
-      <c r="C50" s="74"/>
+      <c r="A50" s="82"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="85"/>
       <c r="D50" s="35">
         <v>0.1</v>
       </c>
@@ -46638,9 +46638,9 @@
       </c>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="80"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="74" t="s">
+      <c r="A51" s="82"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="85" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="35">
@@ -46690,9 +46690,9 @@
       </c>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="81"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="75"/>
+      <c r="A52" s="83"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="86"/>
       <c r="D52" s="28">
         <v>0.04</v>
       </c>
@@ -46740,107 +46740,107 @@
       </c>
     </row>
     <row r="60" spans="1:18">
-      <c r="C60" s="87" t="s">
+      <c r="C60" s="71" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:18">
-      <c r="C61" s="87" t="s">
+      <c r="C61" s="71" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:18">
-      <c r="C62" s="87" t="s">
+      <c r="C62" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="D62" s="87" t="s">
+      <c r="D62" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="E62" s="87" t="s">
+      <c r="E62" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="F62" s="87" t="s">
+      <c r="F62" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="G62" s="87" t="s">
+      <c r="G62" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="87" t="s">
+      <c r="H62" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="I62" s="87" t="s">
+      <c r="I62" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="J62" s="87" t="s">
+      <c r="J62" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="K62" s="87" t="s">
+      <c r="K62" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="87" t="s">
+      <c r="L62" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="M62" s="87" t="s">
+      <c r="M62" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="N62" s="87" t="s">
+      <c r="N62" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="O62" s="87" t="s">
+      <c r="O62" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="P62" s="87" t="s">
+      <c r="P62" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="Q62" s="87" t="s">
+      <c r="Q62" s="71" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:18">
-      <c r="C63" s="88">
+      <c r="C63" s="72">
         <f>AVERAGE(D63:Q63)</f>
         <v>0.19692307692307692</v>
       </c>
-      <c r="D63" s="89">
+      <c r="D63" s="73">
         <v>0.2</v>
       </c>
-      <c r="E63" s="89">
+      <c r="E63" s="73">
         <v>0.26</v>
       </c>
-      <c r="F63" s="88">
+      <c r="F63" s="72">
         <v>0.2</v>
       </c>
-      <c r="G63" s="88">
+      <c r="G63" s="72">
         <v>0.18</v>
       </c>
-      <c r="H63" s="88">
+      <c r="H63" s="72">
         <v>0.18</v>
       </c>
-      <c r="I63" s="88">
+      <c r="I63" s="72">
         <v>0.18</v>
       </c>
-      <c r="J63" s="88">
+      <c r="J63" s="72">
         <v>0.2</v>
       </c>
-      <c r="K63" s="88" t="s">
+      <c r="K63" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="L63" s="88">
+      <c r="L63" s="72">
         <v>0.18</v>
       </c>
-      <c r="M63" s="88">
+      <c r="M63" s="72">
         <v>0.2</v>
       </c>
-      <c r="N63" s="88">
+      <c r="N63" s="72">
         <v>0.24</v>
       </c>
-      <c r="O63" s="88">
+      <c r="O63" s="72">
         <v>0.18</v>
       </c>
-      <c r="P63" s="88">
+      <c r="P63" s="72">
         <v>0.18</v>
       </c>
-      <c r="Q63" s="88">
+      <c r="Q63" s="72">
         <v>0.18</v>
       </c>
     </row>
@@ -46848,95 +46848,95 @@
       <c r="C66" t="s">
         <v>112</v>
       </c>
-      <c r="D66" s="90">
+      <c r="D66" s="74">
         <v>0.500000000000001</v>
       </c>
-      <c r="E66" s="90">
+      <c r="E66" s="74">
         <v>0.5</v>
       </c>
-      <c r="F66" s="90">
+      <c r="F66" s="74">
         <v>0.44</v>
       </c>
-      <c r="G66" s="90">
+      <c r="G66" s="74">
         <v>0.38</v>
       </c>
-      <c r="H66" s="90">
+      <c r="H66" s="74">
         <v>0.38</v>
       </c>
-      <c r="I66" s="90">
+      <c r="I66" s="74">
         <v>0.65726210350584402</v>
       </c>
-      <c r="J66" s="90">
+      <c r="J66" s="74">
         <v>0.500000000000001</v>
       </c>
-      <c r="K66" s="90">
+      <c r="K66" s="74">
         <v>0.82696160267111896</v>
       </c>
-      <c r="L66" s="90">
+      <c r="L66" s="74">
         <v>0.56000000000000005</v>
       </c>
-      <c r="M66" s="90">
+      <c r="M66" s="74">
         <v>0.4</v>
       </c>
-      <c r="N66" s="90">
+      <c r="N66" s="74">
         <v>0.82821368948247198</v>
       </c>
-      <c r="O66" s="90">
+      <c r="O66" s="74">
         <v>0.75684474123539303</v>
       </c>
-      <c r="P66" s="90">
+      <c r="P66" s="74">
         <v>0.48000000000000098</v>
       </c>
-      <c r="Q66" s="90">
+      <c r="Q66" s="74">
         <v>0.4</v>
       </c>
     </row>
     <row r="67" spans="3:17">
-      <c r="D67" s="90">
+      <c r="D67" s="74">
         <v>0.36</v>
       </c>
       <c r="E67">
         <v>0.22</v>
       </c>
-      <c r="F67" s="90">
+      <c r="F67" s="74">
         <v>0.22</v>
       </c>
-      <c r="G67" s="90">
+      <c r="G67" s="74">
         <v>0.2</v>
       </c>
-      <c r="H67" s="90">
+      <c r="H67" s="74">
         <v>0.2</v>
       </c>
-      <c r="I67" s="90">
+      <c r="I67" s="74">
         <v>0.42737896494157002</v>
       </c>
-      <c r="J67" s="90">
+      <c r="J67" s="74">
         <v>0.2</v>
       </c>
-      <c r="K67" s="90">
+      <c r="K67" s="74">
         <v>0.243155258764608</v>
       </c>
-      <c r="L67" s="90">
+      <c r="L67" s="74">
         <v>0.26</v>
       </c>
-      <c r="M67" s="90">
+      <c r="M67" s="74">
         <v>0.22</v>
       </c>
       <c r="N67">
         <v>0.21452420701168601</v>
       </c>
-      <c r="O67" s="90">
+      <c r="O67" s="74">
         <v>0.398747913188648</v>
       </c>
-      <c r="P67" s="90">
+      <c r="P67" s="74">
         <v>0.26</v>
       </c>
-      <c r="Q67" s="90">
+      <c r="Q67" s="74">
         <v>0.18</v>
       </c>
     </row>
     <row r="68" spans="3:17">
-      <c r="D68" s="90">
+      <c r="D68" s="74">
         <v>0.24</v>
       </c>
       <c r="E68">
@@ -46945,34 +46945,34 @@
       <c r="F68">
         <v>0.16</v>
       </c>
-      <c r="G68" s="90">
+      <c r="G68" s="74">
         <v>0.2</v>
       </c>
-      <c r="H68" s="90">
+      <c r="H68" s="74">
         <v>0.18</v>
       </c>
-      <c r="I68" s="90">
+      <c r="I68" s="74">
         <v>0.41327212020033399</v>
       </c>
       <c r="J68">
         <v>1.3</v>
       </c>
-      <c r="K68" s="90">
+      <c r="K68" s="74">
         <v>0.356844741235393</v>
       </c>
-      <c r="L68" s="90">
+      <c r="L68" s="74">
         <v>0.18</v>
       </c>
       <c r="M68">
         <v>0.18</v>
       </c>
-      <c r="N68" s="90">
+      <c r="N68" s="74">
         <v>0.31535893155258798</v>
       </c>
-      <c r="O68" s="90">
+      <c r="O68" s="74">
         <v>0.42779632721202099</v>
       </c>
-      <c r="P68" s="90">
+      <c r="P68" s="74">
         <v>0.2</v>
       </c>
       <c r="Q68">
@@ -46980,51 +46980,51 @@
       </c>
     </row>
     <row r="69" spans="3:17">
-      <c r="D69" s="90">
+      <c r="D69" s="74">
         <v>0.26</v>
       </c>
       <c r="E69">
         <v>0.3</v>
       </c>
-      <c r="F69" s="90">
+      <c r="F69" s="74">
         <v>0.24</v>
       </c>
-      <c r="G69" s="90">
+      <c r="G69" s="74">
         <v>0.24</v>
       </c>
-      <c r="H69" s="90">
+      <c r="H69" s="74">
         <v>0.18</v>
       </c>
-      <c r="I69" s="90">
+      <c r="I69" s="74">
         <v>0.39958263772954999</v>
       </c>
-      <c r="J69" s="90">
+      <c r="J69" s="74">
         <v>0.53999999999999904</v>
       </c>
-      <c r="K69" s="90">
+      <c r="K69" s="74">
         <v>0.29958263772955002</v>
       </c>
-      <c r="L69" s="90">
+      <c r="L69" s="74">
         <v>0.24</v>
       </c>
-      <c r="M69" s="90">
+      <c r="M69" s="74">
         <v>0.22</v>
       </c>
-      <c r="N69" s="90">
+      <c r="N69" s="74">
         <v>0.41452420701168702</v>
       </c>
-      <c r="O69" s="90">
+      <c r="O69" s="74">
         <v>0.27136894824707902</v>
       </c>
-      <c r="P69" s="90">
+      <c r="P69" s="74">
         <v>0.26</v>
       </c>
-      <c r="Q69" s="90">
+      <c r="Q69" s="74">
         <v>0.18</v>
       </c>
     </row>
     <row r="70" spans="3:17">
-      <c r="D70" s="90">
+      <c r="D70" s="74">
         <v>0.26</v>
       </c>
       <c r="E70">
@@ -47042,7 +47042,7 @@
       <c r="I70">
         <v>0.15767946577629399</v>
       </c>
-      <c r="J70" s="90">
+      <c r="J70" s="74">
         <v>0.22</v>
       </c>
       <c r="K70">
@@ -47054,7 +47054,7 @@
       <c r="M70">
         <v>0.12</v>
       </c>
-      <c r="N70" s="90">
+      <c r="N70" s="74">
         <v>0.258096828046745</v>
       </c>
       <c r="O70">
@@ -47063,7 +47063,7 @@
       <c r="P70">
         <v>0.12</v>
       </c>
-      <c r="Q70" s="90">
+      <c r="Q70" s="74">
         <v>0.18</v>
       </c>
     </row>
@@ -47101,7 +47101,7 @@
       <c r="N71">
         <v>0.141485809682805</v>
       </c>
-      <c r="O71" s="90">
+      <c r="O71" s="74">
         <v>0.18384059062299701</v>
       </c>
       <c r="P71">
@@ -47292,8 +47292,892 @@
         <v>113</v>
       </c>
     </row>
+    <row r="79" spans="3:17">
+      <c r="D79" s="36">
+        <v>0.500000000000001</v>
+      </c>
+      <c r="E79" s="41">
+        <v>0.56000000000000105</v>
+      </c>
+      <c r="F79" s="36">
+        <v>0.44</v>
+      </c>
+      <c r="G79" s="36">
+        <v>0.46</v>
+      </c>
+      <c r="H79" s="36">
+        <v>0.42</v>
+      </c>
+      <c r="I79" s="36">
+        <v>0.81327212020033501</v>
+      </c>
+      <c r="J79" s="36">
+        <v>0.500000000000001</v>
+      </c>
+      <c r="K79" s="36">
+        <v>0.82696160267111896</v>
+      </c>
+      <c r="L79" s="36">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M79" s="36">
+        <v>0.500000000000001</v>
+      </c>
+      <c r="N79" s="36">
+        <v>0.82821368948247198</v>
+      </c>
+      <c r="O79" s="36">
+        <v>0.89916527545909997</v>
+      </c>
+      <c r="P79" s="36">
+        <v>0.48000000000000098</v>
+      </c>
+      <c r="Q79" s="39">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="80" spans="3:17">
+      <c r="D80" s="37">
+        <v>0.36</v>
+      </c>
+      <c r="E80" s="42">
+        <v>0.24</v>
+      </c>
+      <c r="F80" s="37">
+        <v>0.24</v>
+      </c>
+      <c r="G80" s="37">
+        <v>0.24</v>
+      </c>
+      <c r="H80" s="37">
+        <v>0.24</v>
+      </c>
+      <c r="I80" s="37">
+        <v>0.42737896494157002</v>
+      </c>
+      <c r="J80" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="K80" s="37">
+        <v>0.32737896494156998</v>
+      </c>
+      <c r="L80" s="37">
+        <v>0.39999999999999902</v>
+      </c>
+      <c r="M80" s="37">
+        <v>0.22</v>
+      </c>
+      <c r="N80" s="37">
+        <v>0.385058430717864</v>
+      </c>
+      <c r="O80" s="37">
+        <v>0.398747913188648</v>
+      </c>
+      <c r="P80" s="37">
+        <v>0.26</v>
+      </c>
+      <c r="Q80" s="40">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="81" spans="4:17">
+      <c r="D81" s="37">
+        <v>0.44</v>
+      </c>
+      <c r="E81" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="F81" s="37">
+        <v>0.24</v>
+      </c>
+      <c r="G81" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="H81" s="37">
+        <v>0.18</v>
+      </c>
+      <c r="I81" s="37">
+        <v>0.41327212020033399</v>
+      </c>
+      <c r="J81" s="37">
+        <v>1.34</v>
+      </c>
+      <c r="K81" s="37">
+        <v>0.356844741235393</v>
+      </c>
+      <c r="L81" s="37">
+        <v>0.24</v>
+      </c>
+      <c r="M81" s="37">
+        <v>0.18</v>
+      </c>
+      <c r="N81" s="37">
+        <v>0.31535893155258798</v>
+      </c>
+      <c r="O81" s="37">
+        <v>0.42779632721202099</v>
+      </c>
+      <c r="P81" s="37">
+        <v>0.24</v>
+      </c>
+      <c r="Q81" s="40">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="82" spans="4:17">
+      <c r="D82" s="37">
+        <v>0.26</v>
+      </c>
+      <c r="E82" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="F82" s="37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G82" s="37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H82" s="37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I82" s="37">
+        <v>0.45642737896494201</v>
+      </c>
+      <c r="J82" s="37">
+        <v>0.58000000000000096</v>
+      </c>
+      <c r="K82" s="37">
+        <v>0.484641068447413</v>
+      </c>
+      <c r="L82" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="M82" s="37">
+        <v>0.26</v>
+      </c>
+      <c r="N82" s="37">
+        <v>0.54148580968280502</v>
+      </c>
+      <c r="O82" s="37">
+        <v>0.44190317195325601</v>
+      </c>
+      <c r="P82" s="37">
+        <v>0.26</v>
+      </c>
+      <c r="Q82" s="40">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="4:17">
+      <c r="D83" s="37">
+        <v>0.26</v>
+      </c>
+      <c r="E83" s="42">
+        <v>0.24</v>
+      </c>
+      <c r="F83" s="37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G83" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="H83" s="37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I83" s="37">
+        <v>0.32737896494156998</v>
+      </c>
+      <c r="J83" s="37">
+        <v>0.22</v>
+      </c>
+      <c r="K83" s="37">
+        <v>0.142737896494157</v>
+      </c>
+      <c r="L83" s="37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M83" s="37">
+        <v>0.12</v>
+      </c>
+      <c r="N83" s="37">
+        <v>0.32696160267111901</v>
+      </c>
+      <c r="O83" s="37">
+        <v>0.143155258764608</v>
+      </c>
+      <c r="P83" s="37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q83" s="40">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="84" spans="4:17">
+      <c r="D84" s="18">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="E84" s="19">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="F84" s="18">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="G84" s="37">
+        <v>0.16</v>
+      </c>
+      <c r="H84" s="37">
+        <v>0.12</v>
+      </c>
+      <c r="I84" s="37">
+        <v>0.20041736227045101</v>
+      </c>
+      <c r="J84" s="18">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="K84" s="37">
+        <v>0.128631051752922</v>
+      </c>
+      <c r="L84" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="M84" s="18">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="N84" s="37">
+        <v>0.141485809682805</v>
+      </c>
+      <c r="O84" s="37">
+        <v>0.18384059062299701</v>
+      </c>
+      <c r="P84" s="37">
+        <v>0.16</v>
+      </c>
+      <c r="Q84" s="20">
+        <v>8.0000000000000099E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="4:17">
+      <c r="D85" s="37">
+        <v>0.12</v>
+      </c>
+      <c r="E85" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="F85" s="37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G85" s="37">
+        <v>0.12</v>
+      </c>
+      <c r="H85" s="37">
+        <v>0.12</v>
+      </c>
+      <c r="I85" s="37">
+        <v>0.128213689482471</v>
+      </c>
+      <c r="J85" s="37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K85" s="37">
+        <v>0.15726210350584299</v>
+      </c>
+      <c r="L85" s="37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M85" s="37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N85" s="37">
+        <v>0.18547579298831399</v>
+      </c>
+      <c r="O85" s="37">
+        <v>0.15684474123539299</v>
+      </c>
+      <c r="P85" s="37">
+        <v>0.12</v>
+      </c>
+      <c r="Q85" s="40">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="4:17">
+      <c r="D86" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="E86" s="19">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="F86" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="G86" s="37">
+        <v>0.12</v>
+      </c>
+      <c r="H86" s="37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I86" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="J86" s="37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K86" s="37">
+        <v>0.21410684474123601</v>
+      </c>
+      <c r="L86" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="M86" s="37">
+        <v>0.12</v>
+      </c>
+      <c r="N86" s="37">
+        <v>0.128631051752922</v>
+      </c>
+      <c r="O86" s="37">
+        <v>0.15684474123539299</v>
+      </c>
+      <c r="P86" s="37">
+        <v>0.12</v>
+      </c>
+      <c r="Q86" s="40">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="87" spans="4:17">
+      <c r="D87" s="37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E87" s="19">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="F87" s="37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G87" s="18">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="H87" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="I87" s="37">
+        <v>0.17095158597662799</v>
+      </c>
+      <c r="J87" s="18">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="K87" s="37">
+        <v>0.18547579298831399</v>
+      </c>
+      <c r="L87" s="37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M87" s="37">
+        <v>0.12</v>
+      </c>
+      <c r="N87" s="37">
+        <v>0.17053422370617699</v>
+      </c>
+      <c r="O87" s="37">
+        <v>0.15684474123539299</v>
+      </c>
+      <c r="P87" s="18">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="Q87" s="40">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="88" spans="4:17">
+      <c r="D88" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="E88" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="F88" s="38">
+        <v>0.12</v>
+      </c>
+      <c r="G88" s="21">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="H88" s="38">
+        <v>0.12</v>
+      </c>
+      <c r="I88" s="38">
+        <v>0.114524207011686</v>
+      </c>
+      <c r="J88" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="K88" s="38">
+        <v>0.114524207011686</v>
+      </c>
+      <c r="L88" s="38">
+        <v>0.12</v>
+      </c>
+      <c r="M88" s="21">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="N88" s="38">
+        <v>0.129048414023372</v>
+      </c>
+      <c r="O88" s="38">
+        <v>0.128631051752922</v>
+      </c>
+      <c r="P88" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="Q88" s="22">
+        <v>8.0000000000000099E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="4:17">
+      <c r="D93">
+        <v>0.500000000000001</v>
+      </c>
+      <c r="E93">
+        <v>0.5</v>
+      </c>
+      <c r="F93">
+        <v>0.44</v>
+      </c>
+      <c r="G93">
+        <v>0.38</v>
+      </c>
+      <c r="H93">
+        <v>0.38</v>
+      </c>
+      <c r="I93">
+        <v>0.65726210350584402</v>
+      </c>
+      <c r="J93">
+        <v>0.500000000000001</v>
+      </c>
+      <c r="K93">
+        <v>0.82696160267111896</v>
+      </c>
+      <c r="L93">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M93">
+        <v>0.4</v>
+      </c>
+      <c r="N93">
+        <v>0.82821368948247198</v>
+      </c>
+      <c r="O93">
+        <v>0.75684474123539303</v>
+      </c>
+      <c r="P93">
+        <v>0.48000000000000098</v>
+      </c>
+      <c r="Q93">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="94" spans="4:17">
+      <c r="D94">
+        <v>0.36</v>
+      </c>
+      <c r="E94">
+        <v>0.22</v>
+      </c>
+      <c r="F94">
+        <v>0.22</v>
+      </c>
+      <c r="G94">
+        <v>0.2</v>
+      </c>
+      <c r="H94">
+        <v>0.2</v>
+      </c>
+      <c r="I94">
+        <v>0.42737896494157002</v>
+      </c>
+      <c r="J94">
+        <v>0.2</v>
+      </c>
+      <c r="K94">
+        <v>0.243155258764608</v>
+      </c>
+      <c r="L94">
+        <v>0.26</v>
+      </c>
+      <c r="M94">
+        <v>0.22</v>
+      </c>
+      <c r="N94">
+        <v>0.21452420701168601</v>
+      </c>
+      <c r="O94">
+        <v>0.398747913188648</v>
+      </c>
+      <c r="P94">
+        <v>0.26</v>
+      </c>
+      <c r="Q94">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="95" spans="4:17">
+      <c r="D95">
+        <v>0.24</v>
+      </c>
+      <c r="E95">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="F95">
+        <v>0.16</v>
+      </c>
+      <c r="G95">
+        <v>0.2</v>
+      </c>
+      <c r="H95">
+        <v>0.18</v>
+      </c>
+      <c r="I95">
+        <v>0.41327212020033399</v>
+      </c>
+      <c r="J95">
+        <v>1.3</v>
+      </c>
+      <c r="K95">
+        <v>0.356844741235393</v>
+      </c>
+      <c r="L95">
+        <v>0.18</v>
+      </c>
+      <c r="M95">
+        <v>0.18</v>
+      </c>
+      <c r="N95">
+        <v>0.31535893155258798</v>
+      </c>
+      <c r="O95">
+        <v>0.42779632721202099</v>
+      </c>
+      <c r="P95">
+        <v>0.2</v>
+      </c>
+      <c r="Q95">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="4:17">
+      <c r="D96">
+        <v>0.26</v>
+      </c>
+      <c r="E96">
+        <v>0.3</v>
+      </c>
+      <c r="F96">
+        <v>0.24</v>
+      </c>
+      <c r="G96">
+        <v>0.24</v>
+      </c>
+      <c r="H96">
+        <v>0.18</v>
+      </c>
+      <c r="I96">
+        <v>0.39958263772954999</v>
+      </c>
+      <c r="J96">
+        <v>0.53999999999999904</v>
+      </c>
+      <c r="K96">
+        <v>0.29958263772955002</v>
+      </c>
+      <c r="L96">
+        <v>0.24</v>
+      </c>
+      <c r="M96">
+        <v>0.22</v>
+      </c>
+      <c r="N96">
+        <v>0.41452420701168702</v>
+      </c>
+      <c r="O96">
+        <v>0.27136894824707902</v>
+      </c>
+      <c r="P96">
+        <v>0.26</v>
+      </c>
+      <c r="Q96">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="97" spans="4:17">
+      <c r="D97">
+        <v>0.26</v>
+      </c>
+      <c r="E97">
+        <v>0.24</v>
+      </c>
+      <c r="F97">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G97">
+        <v>0.12</v>
+      </c>
+      <c r="H97">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I97">
+        <v>0.15767946577629399</v>
+      </c>
+      <c r="J97">
+        <v>0.22</v>
+      </c>
+      <c r="K97">
+        <v>0.142737896494157</v>
+      </c>
+      <c r="L97">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M97">
+        <v>0.12</v>
+      </c>
+      <c r="N97">
+        <v>0.258096828046745</v>
+      </c>
+      <c r="O97">
+        <v>0.143155258764608</v>
+      </c>
+      <c r="P97">
+        <v>0.12</v>
+      </c>
+      <c r="Q97">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="98" spans="4:17">
+      <c r="D98">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="E98">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="F98">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="G98">
+        <v>0.16</v>
+      </c>
+      <c r="H98">
+        <v>0.12</v>
+      </c>
+      <c r="I98">
+        <v>0.128213689482471</v>
+      </c>
+      <c r="J98">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="K98">
+        <v>8.5475792988313995E-2</v>
+      </c>
+      <c r="L98">
+        <v>0.1</v>
+      </c>
+      <c r="M98">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="N98">
+        <v>0.141485809682805</v>
+      </c>
+      <c r="O98">
+        <v>0.18384059062299701</v>
+      </c>
+      <c r="P98">
+        <v>0.16</v>
+      </c>
+      <c r="Q98">
+        <v>8.0000000000000099E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="4:17">
+      <c r="D99">
+        <v>0.12</v>
+      </c>
+      <c r="E99">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="F99">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G99">
+        <v>0.12</v>
+      </c>
+      <c r="H99">
+        <v>0.12</v>
+      </c>
+      <c r="I99">
+        <v>0.128213689482471</v>
+      </c>
+      <c r="J99">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="K99">
+        <v>7.1368948247078498E-2</v>
+      </c>
+      <c r="L99">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="M99">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="N99">
+        <v>0.114524207011686</v>
+      </c>
+      <c r="O99">
+        <v>0.15684474123539299</v>
+      </c>
+      <c r="P99">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="Q99">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="100" spans="4:17">
+      <c r="D100">
+        <v>0.1</v>
+      </c>
+      <c r="E100">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="F100">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="G100">
+        <v>0.12</v>
+      </c>
+      <c r="H100">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I100">
+        <v>8.5475792988313995E-2</v>
+      </c>
+      <c r="J100">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K100">
+        <v>0.128631051752922</v>
+      </c>
+      <c r="L100">
+        <v>0.1</v>
+      </c>
+      <c r="M100">
+        <v>0.12</v>
+      </c>
+      <c r="N100">
+        <v>0.114106844741236</v>
+      </c>
+      <c r="O100">
+        <v>4.2737896494156997E-2</v>
+      </c>
+      <c r="P100">
+        <v>0.12</v>
+      </c>
+      <c r="Q100">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="101" spans="4:17">
+      <c r="D101">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E101">
+        <v>0.04</v>
+      </c>
+      <c r="F101">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="G101">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="H101">
+        <v>0.04</v>
+      </c>
+      <c r="I101">
+        <v>0.17095158597662799</v>
+      </c>
+      <c r="J101">
+        <v>0.04</v>
+      </c>
+      <c r="K101">
+        <v>8.5058430717863204E-2</v>
+      </c>
+      <c r="L101">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M101">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="N101">
+        <v>0.128631051752922</v>
+      </c>
+      <c r="O101">
+        <v>0.114106844741236</v>
+      </c>
+      <c r="P101">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="Q101">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="102" spans="4:17">
+      <c r="D102">
+        <v>0.04</v>
+      </c>
+      <c r="E102">
+        <v>0.04</v>
+      </c>
+      <c r="F102">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="G102">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="H102">
+        <v>0.1</v>
+      </c>
+      <c r="I102">
+        <v>0.113689482470785</v>
+      </c>
+      <c r="J102">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="K102">
+        <v>5.6844741235392397E-2</v>
+      </c>
+      <c r="L102">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="M102">
+        <v>0.06</v>
+      </c>
+      <c r="N102">
+        <v>5.6427378964941599E-2</v>
+      </c>
+      <c r="O102">
+        <v>7.1786310517529303E-2</v>
+      </c>
+      <c r="P102">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="Q102">
+        <v>8.0000000000000099E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B21:B30"/>
     <mergeCell ref="B43:B52"/>
     <mergeCell ref="A21:A52"/>
     <mergeCell ref="C43:C44"/>
@@ -47310,10 +48194,6 @@
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B21:B30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47367,10 +48247,10 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75">
-      <c r="B3" s="85">
+      <c r="B3" s="89">
         <v>1</v>
       </c>
-      <c r="C3" s="85">
+      <c r="C3" s="89">
         <v>400</v>
       </c>
       <c r="D3" s="67">
@@ -47402,8 +48282,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75">
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
       <c r="D4" s="67">
         <v>0.39097222222222222</v>
       </c>
@@ -47421,10 +48301,10 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75">
-      <c r="B5" s="85">
+      <c r="B5" s="89">
         <v>2</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="89">
         <v>400</v>
       </c>
       <c r="D5" s="67">
@@ -47456,8 +48336,8 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75">
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
       <c r="D6" s="67">
         <v>0.40416666666666662</v>
       </c>
@@ -47475,10 +48355,10 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75">
-      <c r="B7" s="85">
+      <c r="B7" s="89">
         <v>3</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="89">
         <v>800</v>
       </c>
       <c r="D7" s="67">
@@ -47510,8 +48390,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75">
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="67">
         <v>0.43055555555555558</v>
       </c>
@@ -47532,10 +48412,10 @@
       <c r="A9" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="85">
+      <c r="B9" s="89">
         <v>4</v>
       </c>
-      <c r="C9" s="85">
+      <c r="C9" s="89">
         <v>300</v>
       </c>
       <c r="D9" s="67">
@@ -47567,8 +48447,8 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75">
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
       <c r="D10" s="67">
         <v>0.44722222222222219</v>
       </c>
@@ -47586,10 +48466,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75">
-      <c r="B11" s="85">
+      <c r="B11" s="89">
         <v>5</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="89">
         <v>300</v>
       </c>
       <c r="D11" s="67">
@@ -47621,8 +48501,8 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75">
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
       <c r="D12" s="67">
         <v>0.46180555555555558</v>
       </c>
@@ -47640,13 +48520,13 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="58">
@@ -54701,13 +55581,13 @@
       <c r="CE34" s="8"/>
     </row>
     <row r="39" spans="2:208">
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
     </row>
     <row r="40" spans="2:208">
       <c r="B40" s="58">
@@ -63520,13 +64400,13 @@
       </c>
     </row>
     <row r="61" spans="2:208">
-      <c r="B61" s="72" t="s">
+      <c r="B61" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="72"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="75"/>
+      <c r="F61" s="75"/>
     </row>
     <row r="62" spans="2:208">
       <c r="B62" s="58">
@@ -75741,13 +76621,13 @@
       </c>
     </row>
     <row r="83" spans="2:349">
-      <c r="B83" s="72" t="s">
+      <c r="B83" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="C83" s="72"/>
-      <c r="D83" s="72"/>
-      <c r="E83" s="72"/>
-      <c r="F83" s="72"/>
+      <c r="C83" s="75"/>
+      <c r="D83" s="75"/>
+      <c r="E83" s="75"/>
+      <c r="F83" s="75"/>
     </row>
     <row r="84" spans="2:349">
       <c r="B84" s="58">
@@ -90482,13 +91362,13 @@
       </c>
     </row>
     <row r="104" spans="2:349">
-      <c r="B104" s="72" t="s">
+      <c r="B104" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="C104" s="72"/>
-      <c r="D104" s="72"/>
-      <c r="E104" s="72"/>
-      <c r="F104" s="72"/>
+      <c r="C104" s="75"/>
+      <c r="D104" s="75"/>
+      <c r="E104" s="75"/>
+      <c r="F104" s="75"/>
     </row>
     <row r="105" spans="2:349">
       <c r="B105" s="58">
@@ -94136,6 +95016,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B15:F15"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="B11:B12"/>
@@ -94146,11 +95031,6 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B15:F15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Burst-Detection/压力数据.xlsx
+++ b/Burst-Detection/压力数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="5850" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="平滑降噪" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="129">
   <si>
     <t>压力变化阈值</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -495,6 +495,14 @@
   </si>
   <si>
     <t>1,2,3,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>误报率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏报率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1017,7 +1025,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1156,19 +1164,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1180,41 +1217,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1603,13 +1613,13 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="80" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75" t="s">
+      <c r="A8" s="80"/>
+      <c r="B8" s="79" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="4">
@@ -1656,8 +1666,8 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="4">
         <v>0.20622203695893401</v>
       </c>
@@ -1702,8 +1712,8 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="74"/>
-      <c r="B10" s="75" t="s">
+      <c r="A10" s="80"/>
+      <c r="B10" s="79" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="4">
@@ -1750,8 +1760,8 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="74"/>
-      <c r="B11" s="75"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="4">
         <v>6.2105197897433698E-2</v>
       </c>
@@ -1799,8 +1809,8 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="74"/>
-      <c r="B12" s="75" t="s">
+      <c r="A12" s="80"/>
+      <c r="B12" s="79" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="4">
@@ -1847,8 +1857,8 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="74"/>
-      <c r="B13" s="75"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="79"/>
       <c r="C13">
         <v>2.7664742714910401E-2</v>
       </c>
@@ -1893,8 +1903,8 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="74"/>
-      <c r="B14" s="75" t="s">
+      <c r="A14" s="80"/>
+      <c r="B14" s="79" t="s">
         <v>18</v>
       </c>
       <c r="C14">
@@ -1941,8 +1951,8 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="74"/>
-      <c r="B15" s="75"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="79"/>
       <c r="C15">
         <v>1.8060443331874398E-2</v>
       </c>
@@ -1987,8 +1997,8 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="74"/>
-      <c r="B16" s="75" t="s">
+      <c r="A16" s="80"/>
+      <c r="B16" s="79" t="s">
         <v>19</v>
       </c>
       <c r="C16">
@@ -2035,8 +2045,8 @@
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="74"/>
-      <c r="B17" s="75"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="79"/>
       <c r="C17">
         <v>1.13857990146845E-2</v>
       </c>
@@ -2081,10 +2091,10 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="79" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="6">
@@ -2131,8 +2141,8 @@
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="74"/>
-      <c r="B20" s="75"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="79"/>
       <c r="C20" s="6">
         <v>0.233333333333334</v>
       </c>
@@ -2177,8 +2187,8 @@
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="74"/>
-      <c r="B21" s="75" t="s">
+      <c r="A21" s="80"/>
+      <c r="B21" s="79" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="6">
@@ -2225,8 +2235,8 @@
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="74"/>
-      <c r="B22" s="75"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="6">
         <v>0.1048</v>
       </c>
@@ -2271,8 +2281,8 @@
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="74"/>
-      <c r="B23" s="75" t="s">
+      <c r="A23" s="80"/>
+      <c r="B23" s="79" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="6">
@@ -2319,8 +2329,8 @@
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="74"/>
-      <c r="B24" s="75"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="79"/>
       <c r="C24">
         <v>0.04</v>
       </c>
@@ -2365,8 +2375,8 @@
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="74"/>
-      <c r="B25" s="75" t="s">
+      <c r="A25" s="80"/>
+      <c r="B25" s="79" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="6">
@@ -2413,8 +2423,8 @@
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="74"/>
-      <c r="B26" s="75"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="79"/>
       <c r="C26">
         <v>5.1999999999999998E-2</v>
       </c>
@@ -2459,8 +2469,8 @@
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="74"/>
-      <c r="B27" s="75" t="s">
+      <c r="A27" s="80"/>
+      <c r="B27" s="79" t="s">
         <v>19</v>
       </c>
       <c r="C27">
@@ -2507,8 +2517,8 @@
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="74"/>
-      <c r="B28" s="75"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="79"/>
       <c r="C28">
         <v>3.5000000000000003E-2</v>
       </c>
@@ -2553,10 +2563,10 @@
       </c>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="74" t="s">
+      <c r="A30" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="79" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="6">
@@ -2603,8 +2613,8 @@
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="74"/>
-      <c r="B31" s="75"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="79"/>
       <c r="C31" s="6">
         <v>0.53333333333333399</v>
       </c>
@@ -2649,8 +2659,8 @@
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="74"/>
-      <c r="B32" s="75" t="s">
+      <c r="A32" s="80"/>
+      <c r="B32" s="79" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="6">
@@ -2697,8 +2707,8 @@
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="74"/>
-      <c r="B33" s="75"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="79"/>
       <c r="C33" s="6">
         <v>0.28399999999999997</v>
       </c>
@@ -2743,8 +2753,8 @@
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="74"/>
-      <c r="B34" s="75" t="s">
+      <c r="A34" s="80"/>
+      <c r="B34" s="79" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="6">
@@ -2791,8 +2801,8 @@
       </c>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="74"/>
-      <c r="B35" s="75"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="79"/>
       <c r="C35" s="6">
         <v>8.7500000000000105E-2</v>
       </c>
@@ -2837,8 +2847,8 @@
       </c>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="74"/>
-      <c r="B36" s="75" t="s">
+      <c r="A36" s="80"/>
+      <c r="B36" s="79" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="6">
@@ -2885,8 +2895,8 @@
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="74"/>
-      <c r="B37" s="75"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="79"/>
       <c r="C37" s="6">
         <v>0.14000000000000001</v>
       </c>
@@ -2931,8 +2941,8 @@
       </c>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="74"/>
-      <c r="B38" s="75" t="s">
+      <c r="A38" s="80"/>
+      <c r="B38" s="79" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="6">
@@ -2979,8 +2989,8 @@
       </c>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="74"/>
-      <c r="B39" s="75"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="79"/>
       <c r="C39" s="6">
         <v>0.22500000000000001</v>
       </c>
@@ -3137,10 +3147,10 @@
       </c>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="74" t="s">
+      <c r="A43" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="79" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="4">
@@ -3187,8 +3197,8 @@
       </c>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="74"/>
-      <c r="B44" s="75"/>
+      <c r="A44" s="80"/>
+      <c r="B44" s="79"/>
       <c r="C44" s="4">
         <v>0.35929627778837298</v>
       </c>
@@ -3233,8 +3243,8 @@
       </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="74"/>
-      <c r="B45" s="75" t="s">
+      <c r="A45" s="80"/>
+      <c r="B45" s="79" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="4">
@@ -3281,8 +3291,8 @@
       </c>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="74"/>
-      <c r="B46" s="75"/>
+      <c r="A46" s="80"/>
+      <c r="B46" s="79"/>
       <c r="C46" s="4">
         <v>0.11918811759426499</v>
       </c>
@@ -3327,8 +3337,8 @@
       </c>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="74"/>
-      <c r="B47" s="75" t="s">
+      <c r="A47" s="80"/>
+      <c r="B47" s="79" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="4">
@@ -3375,8 +3385,8 @@
       </c>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="74"/>
-      <c r="B48" s="75"/>
+      <c r="A48" s="80"/>
+      <c r="B48" s="79"/>
       <c r="C48">
         <v>4.1451873192934301E-2</v>
       </c>
@@ -3421,8 +3431,8 @@
       </c>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="74"/>
-      <c r="B49" s="75" t="s">
+      <c r="A49" s="80"/>
+      <c r="B49" s="79" t="s">
         <v>18</v>
       </c>
       <c r="C49">
@@ -3469,8 +3479,8 @@
       </c>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="74"/>
-      <c r="B50" s="75"/>
+      <c r="A50" s="80"/>
+      <c r="B50" s="79"/>
       <c r="C50">
         <v>2.2165294764432301E-2</v>
       </c>
@@ -3515,8 +3525,8 @@
       </c>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="74"/>
-      <c r="B51" s="75" t="s">
+      <c r="A51" s="80"/>
+      <c r="B51" s="79" t="s">
         <v>19</v>
       </c>
       <c r="C51">
@@ -3563,8 +3573,8 @@
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="74"/>
-      <c r="B52" s="75"/>
+      <c r="A52" s="80"/>
+      <c r="B52" s="79"/>
       <c r="C52">
         <v>1.9783438855451401E-2</v>
       </c>
@@ -3609,10 +3619,10 @@
       </c>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="74" t="s">
+      <c r="A54" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="75" t="s">
+      <c r="B54" s="79" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="4">
@@ -3659,8 +3669,8 @@
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="74"/>
-      <c r="B55" s="75"/>
+      <c r="A55" s="80"/>
+      <c r="B55" s="79"/>
       <c r="C55" s="4">
         <v>0.36</v>
       </c>
@@ -3705,8 +3715,8 @@
       </c>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="74"/>
-      <c r="B56" s="75" t="s">
+      <c r="A56" s="80"/>
+      <c r="B56" s="79" t="s">
         <v>15</v>
       </c>
       <c r="C56" s="4">
@@ -3753,8 +3763,8 @@
       </c>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="74"/>
-      <c r="B57" s="75"/>
+      <c r="A57" s="80"/>
+      <c r="B57" s="79"/>
       <c r="C57" s="4">
         <v>0.26</v>
       </c>
@@ -3799,8 +3809,8 @@
       </c>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="74"/>
-      <c r="B58" s="75" t="s">
+      <c r="A58" s="80"/>
+      <c r="B58" s="79" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="4">
@@ -3847,8 +3857,8 @@
       </c>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="74"/>
-      <c r="B59" s="75"/>
+      <c r="A59" s="80"/>
+      <c r="B59" s="79"/>
       <c r="C59" s="4">
         <v>8.0000000000000099E-2</v>
       </c>
@@ -3893,8 +3903,8 @@
       </c>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="74"/>
-      <c r="B60" s="75" t="s">
+      <c r="A60" s="80"/>
+      <c r="B60" s="79" t="s">
         <v>18</v>
       </c>
       <c r="C60" s="4">
@@ -3941,8 +3951,8 @@
       </c>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="74"/>
-      <c r="B61" s="75"/>
+      <c r="A61" s="80"/>
+      <c r="B61" s="79"/>
       <c r="C61" s="4">
         <v>0.1</v>
       </c>
@@ -3987,8 +3997,8 @@
       </c>
     </row>
     <row r="62" spans="1:16">
-      <c r="A62" s="74"/>
-      <c r="B62" s="75" t="s">
+      <c r="A62" s="80"/>
+      <c r="B62" s="79" t="s">
         <v>19</v>
       </c>
       <c r="C62" s="4">
@@ -4035,8 +4045,8 @@
       </c>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="74"/>
-      <c r="B63" s="75"/>
+      <c r="A63" s="80"/>
+      <c r="B63" s="79"/>
       <c r="C63" s="4">
         <v>0.1</v>
       </c>
@@ -4082,6 +4092,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A7:A17"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="A54:A63"/>
     <mergeCell ref="A43:A52"/>
@@ -4094,24 +4122,6 @@
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A7:A17"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4123,45 +4133,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:LB86"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView topLeftCell="B55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="2:314">
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
     </row>
     <row r="2" spans="2:314">
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
     </row>
     <row r="3" spans="2:314">
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
     </row>
     <row r="4" spans="2:314">
       <c r="C4" s="53" t="s">
@@ -4263,7 +4273,7 @@
       </c>
     </row>
     <row r="7" spans="2:314">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="80" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="51">
@@ -4967,7 +4977,7 @@
       </c>
     </row>
     <row r="8" spans="2:314" ht="14.25" customHeight="1">
-      <c r="B8" s="74"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="52">
         <v>2</v>
       </c>
@@ -5906,7 +5916,7 @@
       </c>
     </row>
     <row r="9" spans="2:314">
-      <c r="B9" s="74"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="51">
         <v>3</v>
       </c>
@@ -6845,7 +6855,7 @@
       </c>
     </row>
     <row r="10" spans="2:314">
-      <c r="B10" s="74"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="52">
         <v>4</v>
       </c>
@@ -7784,7 +7794,7 @@
       </c>
     </row>
     <row r="11" spans="2:314">
-      <c r="B11" s="74"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="51">
         <v>5</v>
       </c>
@@ -8723,7 +8733,7 @@
       </c>
     </row>
     <row r="12" spans="2:314">
-      <c r="B12" s="74"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="52">
         <v>6</v>
       </c>
@@ -9662,7 +9672,7 @@
       </c>
     </row>
     <row r="13" spans="2:314">
-      <c r="B13" s="74"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="51">
         <v>7</v>
       </c>
@@ -10601,7 +10611,7 @@
       </c>
     </row>
     <row r="14" spans="2:314">
-      <c r="B14" s="74"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="52">
         <v>8</v>
       </c>
@@ -11540,7 +11550,7 @@
       </c>
     </row>
     <row r="15" spans="2:314">
-      <c r="B15" s="74"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="51">
         <v>9</v>
       </c>
@@ -12479,7 +12489,7 @@
       </c>
     </row>
     <row r="16" spans="2:314">
-      <c r="B16" s="74"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="52">
         <v>10</v>
       </c>
@@ -13418,7 +13428,7 @@
       </c>
     </row>
     <row r="17" spans="2:314">
-      <c r="B17" s="74"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="51">
         <v>11</v>
       </c>
@@ -14357,7 +14367,7 @@
       </c>
     </row>
     <row r="18" spans="2:314">
-      <c r="B18" s="74"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="52">
         <v>12</v>
       </c>
@@ -15296,7 +15306,7 @@
       </c>
     </row>
     <row r="19" spans="2:314">
-      <c r="B19" s="74"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="51">
         <v>13</v>
       </c>
@@ -16235,7 +16245,7 @@
       </c>
     </row>
     <row r="20" spans="2:314">
-      <c r="B20" s="74"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="52">
         <v>14</v>
       </c>
@@ -17174,12 +17184,12 @@
       </c>
     </row>
     <row r="23" spans="2:314">
-      <c r="D23" s="75" t="s">
+      <c r="D23" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
     </row>
     <row r="24" spans="2:314">
       <c r="C24" s="53" t="s">
@@ -17281,7 +17291,7 @@
       </c>
     </row>
     <row r="27" spans="2:314">
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="80" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="51">
@@ -17826,7 +17836,7 @@
       </c>
     </row>
     <row r="28" spans="2:314">
-      <c r="B28" s="74"/>
+      <c r="B28" s="80"/>
       <c r="C28" s="52">
         <v>2</v>
       </c>
@@ -18369,7 +18379,7 @@
       </c>
     </row>
     <row r="29" spans="2:314">
-      <c r="B29" s="74"/>
+      <c r="B29" s="80"/>
       <c r="C29" s="51">
         <v>3</v>
       </c>
@@ -18912,7 +18922,7 @@
       </c>
     </row>
     <row r="30" spans="2:314">
-      <c r="B30" s="74"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="52">
         <v>4</v>
       </c>
@@ -19455,7 +19465,7 @@
       </c>
     </row>
     <row r="31" spans="2:314">
-      <c r="B31" s="74"/>
+      <c r="B31" s="80"/>
       <c r="C31" s="51">
         <v>5</v>
       </c>
@@ -19998,7 +20008,7 @@
       </c>
     </row>
     <row r="32" spans="2:314">
-      <c r="B32" s="74"/>
+      <c r="B32" s="80"/>
       <c r="C32" s="52">
         <v>6</v>
       </c>
@@ -20541,7 +20551,7 @@
       </c>
     </row>
     <row r="33" spans="2:182">
-      <c r="B33" s="74"/>
+      <c r="B33" s="80"/>
       <c r="C33" s="51">
         <v>7</v>
       </c>
@@ -21084,7 +21094,7 @@
       </c>
     </row>
     <row r="34" spans="2:182">
-      <c r="B34" s="74"/>
+      <c r="B34" s="80"/>
       <c r="C34" s="52">
         <v>8</v>
       </c>
@@ -21627,7 +21637,7 @@
       </c>
     </row>
     <row r="35" spans="2:182">
-      <c r="B35" s="74"/>
+      <c r="B35" s="80"/>
       <c r="C35" s="51">
         <v>9</v>
       </c>
@@ -22170,7 +22180,7 @@
       </c>
     </row>
     <row r="36" spans="2:182">
-      <c r="B36" s="74"/>
+      <c r="B36" s="80"/>
       <c r="C36" s="52">
         <v>10</v>
       </c>
@@ -22713,7 +22723,7 @@
       </c>
     </row>
     <row r="37" spans="2:182">
-      <c r="B37" s="74"/>
+      <c r="B37" s="80"/>
       <c r="C37" s="51">
         <v>11</v>
       </c>
@@ -23256,7 +23266,7 @@
       </c>
     </row>
     <row r="38" spans="2:182">
-      <c r="B38" s="74"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="52">
         <v>12</v>
       </c>
@@ -23799,7 +23809,7 @@
       </c>
     </row>
     <row r="39" spans="2:182">
-      <c r="B39" s="74"/>
+      <c r="B39" s="80"/>
       <c r="C39" s="51">
         <v>13</v>
       </c>
@@ -24342,7 +24352,7 @@
       </c>
     </row>
     <row r="40" spans="2:182">
-      <c r="B40" s="74"/>
+      <c r="B40" s="80"/>
       <c r="C40" s="52">
         <v>14</v>
       </c>
@@ -24885,12 +24895,12 @@
       </c>
     </row>
     <row r="43" spans="2:182">
-      <c r="D43" s="75" t="s">
+      <c r="D43" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
     </row>
     <row r="44" spans="2:182">
       <c r="C44" s="53" t="s">
@@ -25403,7 +25413,7 @@
       </c>
     </row>
     <row r="47" spans="2:182">
-      <c r="B47" s="74" t="s">
+      <c r="B47" s="80" t="s">
         <v>39</v>
       </c>
       <c r="C47" s="51">
@@ -25822,7 +25832,7 @@
       </c>
     </row>
     <row r="48" spans="2:182">
-      <c r="B48" s="74"/>
+      <c r="B48" s="80"/>
       <c r="C48" s="52">
         <v>2</v>
       </c>
@@ -26239,7 +26249,7 @@
       </c>
     </row>
     <row r="49" spans="2:140">
-      <c r="B49" s="74"/>
+      <c r="B49" s="80"/>
       <c r="C49" s="51">
         <v>3</v>
       </c>
@@ -26656,7 +26666,7 @@
       </c>
     </row>
     <row r="50" spans="2:140">
-      <c r="B50" s="74"/>
+      <c r="B50" s="80"/>
       <c r="C50" s="52">
         <v>4</v>
       </c>
@@ -27073,7 +27083,7 @@
       </c>
     </row>
     <row r="51" spans="2:140">
-      <c r="B51" s="74"/>
+      <c r="B51" s="80"/>
       <c r="C51" s="51">
         <v>5</v>
       </c>
@@ -27490,7 +27500,7 @@
       </c>
     </row>
     <row r="52" spans="2:140">
-      <c r="B52" s="74"/>
+      <c r="B52" s="80"/>
       <c r="C52" s="52">
         <v>6</v>
       </c>
@@ -27907,7 +27917,7 @@
       </c>
     </row>
     <row r="53" spans="2:140">
-      <c r="B53" s="74"/>
+      <c r="B53" s="80"/>
       <c r="C53" s="51">
         <v>7</v>
       </c>
@@ -28324,7 +28334,7 @@
       </c>
     </row>
     <row r="54" spans="2:140">
-      <c r="B54" s="74"/>
+      <c r="B54" s="80"/>
       <c r="C54" s="52">
         <v>8</v>
       </c>
@@ -28741,7 +28751,7 @@
       </c>
     </row>
     <row r="55" spans="2:140">
-      <c r="B55" s="74"/>
+      <c r="B55" s="80"/>
       <c r="C55" s="51">
         <v>9</v>
       </c>
@@ -29158,7 +29168,7 @@
       </c>
     </row>
     <row r="56" spans="2:140">
-      <c r="B56" s="74"/>
+      <c r="B56" s="80"/>
       <c r="C56" s="52">
         <v>10</v>
       </c>
@@ -29575,7 +29585,7 @@
       </c>
     </row>
     <row r="57" spans="2:140">
-      <c r="B57" s="74"/>
+      <c r="B57" s="80"/>
       <c r="C57" s="51">
         <v>11</v>
       </c>
@@ -29992,7 +30002,7 @@
       </c>
     </row>
     <row r="58" spans="2:140">
-      <c r="B58" s="74"/>
+      <c r="B58" s="80"/>
       <c r="C58" s="52">
         <v>12</v>
       </c>
@@ -30409,7 +30419,7 @@
       </c>
     </row>
     <row r="59" spans="2:140">
-      <c r="B59" s="74"/>
+      <c r="B59" s="80"/>
       <c r="C59" s="51">
         <v>13</v>
       </c>
@@ -30826,27 +30836,27 @@
       </c>
     </row>
     <row r="60" spans="2:140">
-      <c r="B60" s="74"/>
+      <c r="B60" s="80"/>
       <c r="C60" s="52">
         <v>14</v>
       </c>
     </row>
     <row r="67" spans="2:88">
-      <c r="B67" s="76" t="s">
+      <c r="B67" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="C67" s="75"/>
-      <c r="D67" s="75"/>
-      <c r="E67" s="75"/>
-      <c r="F67" s="75"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="79"/>
     </row>
     <row r="69" spans="2:88">
-      <c r="D69" s="75" t="s">
+      <c r="D69" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="E69" s="75"/>
-      <c r="F69" s="75"/>
-      <c r="G69" s="75"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="79"/>
     </row>
     <row r="70" spans="2:88">
       <c r="C70" s="53" t="s">
@@ -30968,7 +30978,7 @@
       <c r="CJ72" s="10"/>
     </row>
     <row r="73" spans="2:88">
-      <c r="B73" s="74" t="s">
+      <c r="B73" s="80" t="s">
         <v>39</v>
       </c>
       <c r="C73" s="51">
@@ -31203,7 +31213,7 @@
       <c r="CJ73" s="10"/>
     </row>
     <row r="74" spans="2:88">
-      <c r="B74" s="74"/>
+      <c r="B74" s="80"/>
       <c r="C74" s="52">
         <v>2</v>
       </c>
@@ -31436,7 +31446,7 @@
       <c r="CJ74" s="10"/>
     </row>
     <row r="75" spans="2:88">
-      <c r="B75" s="74"/>
+      <c r="B75" s="80"/>
       <c r="C75" s="51">
         <v>3</v>
       </c>
@@ -31669,7 +31679,7 @@
       <c r="CJ75" s="10"/>
     </row>
     <row r="76" spans="2:88">
-      <c r="B76" s="74"/>
+      <c r="B76" s="80"/>
       <c r="C76" s="52">
         <v>4</v>
       </c>
@@ -31902,7 +31912,7 @@
       <c r="CJ76" s="10"/>
     </row>
     <row r="77" spans="2:88">
-      <c r="B77" s="74"/>
+      <c r="B77" s="80"/>
       <c r="C77" s="51">
         <v>5</v>
       </c>
@@ -32135,7 +32145,7 @@
       <c r="CJ77" s="10"/>
     </row>
     <row r="78" spans="2:88">
-      <c r="B78" s="74"/>
+      <c r="B78" s="80"/>
       <c r="C78" s="52">
         <v>6</v>
       </c>
@@ -32368,7 +32378,7 @@
       <c r="CJ78" s="10"/>
     </row>
     <row r="79" spans="2:88">
-      <c r="B79" s="74"/>
+      <c r="B79" s="80"/>
       <c r="C79" s="51">
         <v>7</v>
       </c>
@@ -32601,7 +32611,7 @@
       <c r="CJ79" s="10"/>
     </row>
     <row r="80" spans="2:88">
-      <c r="B80" s="74"/>
+      <c r="B80" s="80"/>
       <c r="C80" s="52">
         <v>8</v>
       </c>
@@ -32834,7 +32844,7 @@
       <c r="CJ80" s="10"/>
     </row>
     <row r="81" spans="2:88">
-      <c r="B81" s="74"/>
+      <c r="B81" s="80"/>
       <c r="C81" s="51">
         <v>9</v>
       </c>
@@ -33067,7 +33077,7 @@
       <c r="CJ81" s="10"/>
     </row>
     <row r="82" spans="2:88">
-      <c r="B82" s="74"/>
+      <c r="B82" s="80"/>
       <c r="C82" s="52">
         <v>10</v>
       </c>
@@ -33300,7 +33310,7 @@
       <c r="CJ82" s="10"/>
     </row>
     <row r="83" spans="2:88">
-      <c r="B83" s="74"/>
+      <c r="B83" s="80"/>
       <c r="C83" s="51">
         <v>11</v>
       </c>
@@ -33533,7 +33543,7 @@
       <c r="CJ83" s="10"/>
     </row>
     <row r="84" spans="2:88">
-      <c r="B84" s="74"/>
+      <c r="B84" s="80"/>
       <c r="C84" s="52">
         <v>12</v>
       </c>
@@ -33766,7 +33776,7 @@
       <c r="CJ84" s="10"/>
     </row>
     <row r="85" spans="2:88">
-      <c r="B85" s="74"/>
+      <c r="B85" s="80"/>
       <c r="C85" s="51">
         <v>13</v>
       </c>
@@ -33999,7 +34009,7 @@
       <c r="CJ85" s="10"/>
     </row>
     <row r="86" spans="2:88">
-      <c r="B86" s="74"/>
+      <c r="B86" s="80"/>
       <c r="C86" s="52">
         <v>14</v>
       </c>
@@ -34233,16 +34243,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D1:M2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B7:B20"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B27:B40"/>
     <mergeCell ref="D69:G69"/>
     <mergeCell ref="B73:B86"/>
     <mergeCell ref="B67:F67"/>
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="B47:B60"/>
-    <mergeCell ref="D1:M2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B7:B20"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B27:B40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34261,16 +34271,16 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3">
@@ -34361,16 +34371,16 @@
       </c>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7">
@@ -34476,8 +34486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:CS94"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:P95"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -44763,8 +44773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD141"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="C82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -44811,41 +44821,41 @@
     <row r="3" spans="1:17 16384:16384" ht="15" thickBot="1">
       <c r="A3" s="8"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92" t="s">
+      <c r="C3" s="76"/>
+      <c r="D3" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="92" t="s">
+      <c r="E3" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="92" t="s">
+      <c r="F3" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="92" t="s">
+      <c r="G3" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="93" t="s">
+      <c r="H3" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="I3" s="94" t="s">
+      <c r="I3" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="J3" s="92" t="s">
+      <c r="J3" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="92" t="s">
+      <c r="K3" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="L3" s="92" t="s">
+      <c r="L3" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="M3" s="92" t="s">
+      <c r="M3" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="92" t="s">
+      <c r="N3" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="O3" s="93" t="s">
+      <c r="O3" s="77" t="s">
         <v>119</v>
       </c>
       <c r="P3" s="15" t="s">
@@ -44902,7 +44912,7 @@
     <row r="6" spans="1:17 16384:16384">
       <c r="A6" s="8"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="82" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="4">
@@ -44951,11 +44961,11 @@
     <row r="7" spans="1:17 16384:16384">
       <c r="A7" s="8"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="77"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="10">
         <v>-0.04</v>
       </c>
-      <c r="E7" s="91">
+      <c r="E7" s="75">
         <v>1.0842021724855E-17</v>
       </c>
       <c r="F7" s="10">
@@ -44976,7 +44986,7 @@
       <c r="K7" s="10">
         <v>-4.3155258764607698E-2</v>
       </c>
-      <c r="L7" s="91">
+      <c r="L7" s="75">
         <v>2.1684043449710101E-17</v>
       </c>
       <c r="M7" s="10">
@@ -44998,7 +45008,7 @@
     <row r="8" spans="1:17 16384:16384">
       <c r="A8" s="8"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="83" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="4">
@@ -45047,7 +45057,7 @@
     <row r="9" spans="1:17 16384:16384">
       <c r="A9" s="8"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="77"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="4">
         <v>-0.26</v>
       </c>
@@ -45094,7 +45104,7 @@
     <row r="10" spans="1:17 16384:16384">
       <c r="A10" s="8"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="83" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="4">
@@ -45143,7 +45153,7 @@
     <row r="11" spans="1:17 16384:16384">
       <c r="A11" s="8"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="77"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="10">
         <v>-8.0000000000000099E-2</v>
       </c>
@@ -45190,7 +45200,7 @@
     <row r="12" spans="1:17 16384:16384">
       <c r="A12" s="8"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="83" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="4">
@@ -45239,7 +45249,7 @@
     <row r="13" spans="1:17 16384:16384">
       <c r="A13" s="8"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="77"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="4">
         <v>-0.1</v>
       </c>
@@ -45286,7 +45296,7 @@
     <row r="14" spans="1:17 16384:16384">
       <c r="A14" s="8"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="83" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="4">
@@ -45335,7 +45345,7 @@
     <row r="15" spans="1:17 16384:16384">
       <c r="A15" s="8"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="78"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="10">
         <v>-6.0000000000000102E-2</v>
       </c>
@@ -45533,13 +45543,13 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="82" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="34">
@@ -45589,9 +45599,9 @@
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="83"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="77"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="83"/>
       <c r="D22" s="35">
         <v>0.36</v>
       </c>
@@ -45639,9 +45649,9 @@
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="83"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="77" t="s">
+      <c r="A23" s="86"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="83" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="35">
@@ -45691,9 +45701,9 @@
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="83"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="77"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="35">
         <v>0.26</v>
       </c>
@@ -45741,9 +45751,9 @@
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="83"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="77" t="s">
+      <c r="A25" s="86"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="83" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="35">
@@ -45793,9 +45803,9 @@
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="83"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="77"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="83"/>
       <c r="D26" s="16">
         <v>8.0000000000000099E-2</v>
       </c>
@@ -45843,9 +45853,9 @@
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="83"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="77" t="s">
+      <c r="A27" s="86"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="83" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="35">
@@ -45895,9 +45905,9 @@
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="83"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="77"/>
+      <c r="A28" s="86"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="83"/>
       <c r="D28" s="35">
         <v>0.1</v>
       </c>
@@ -45945,9 +45955,9 @@
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="83"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="77" t="s">
+      <c r="A29" s="86"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="83" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="35">
@@ -45997,9 +46007,9 @@
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="83"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="78"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="84"/>
       <c r="D30" s="36">
         <v>0.1</v>
       </c>
@@ -46047,11 +46057,11 @@
       </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="83"/>
-      <c r="B31" s="86" t="s">
+      <c r="A31" s="86"/>
+      <c r="B31" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="87"/>
+      <c r="C31" s="89"/>
       <c r="D31" s="43">
         <v>0.875</v>
       </c>
@@ -46097,11 +46107,11 @@
       <c r="R31" s="50"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="83"/>
-      <c r="B32" s="79" t="s">
+      <c r="A32" s="86"/>
+      <c r="B32" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="85" t="s">
+      <c r="C32" s="82" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="32">
@@ -46151,9 +46161,9 @@
       </c>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="83"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="77"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="83"/>
       <c r="D33" s="33">
         <v>0.26</v>
       </c>
@@ -46201,9 +46211,9 @@
       </c>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="83"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="77" t="s">
+      <c r="A34" s="86"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="83" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="33">
@@ -46253,9 +46263,9 @@
       </c>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="83"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="77"/>
+      <c r="A35" s="86"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="83"/>
       <c r="D35" s="33">
         <v>0.26</v>
       </c>
@@ -46303,9 +46313,9 @@
       </c>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="83"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="77" t="s">
+      <c r="A36" s="86"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="83" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="33">
@@ -46355,9 +46365,9 @@
       </c>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="83"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="77"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="83"/>
       <c r="D37" s="31">
         <v>8.0000000000000099E-2</v>
       </c>
@@ -46405,9 +46415,9 @@
       </c>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="83"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="77" t="s">
+      <c r="A38" s="86"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="83" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="33">
@@ -46457,9 +46467,9 @@
       </c>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="83"/>
-      <c r="B39" s="80"/>
-      <c r="C39" s="77"/>
+      <c r="A39" s="86"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="83"/>
       <c r="D39" s="33">
         <v>0.1</v>
       </c>
@@ -46507,9 +46517,9 @@
       </c>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="83"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="77" t="s">
+      <c r="A40" s="86"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="83" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="33">
@@ -46559,9 +46569,9 @@
       </c>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="83"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="78"/>
+      <c r="A41" s="86"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="84"/>
       <c r="D41" s="26">
         <v>0.04</v>
       </c>
@@ -46609,16 +46619,16 @@
       </c>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="83"/>
+      <c r="A42" s="86"/>
       <c r="B42" s="42"/>
       <c r="R42" s="49"/>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="83"/>
-      <c r="B43" s="79" t="s">
+      <c r="A43" s="86"/>
+      <c r="B43" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="85" t="s">
+      <c r="C43" s="82" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="32">
@@ -46668,9 +46678,9 @@
       </c>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="83"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="77"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="83"/>
       <c r="D44" s="33">
         <v>0.36</v>
       </c>
@@ -46718,9 +46728,9 @@
       </c>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="83"/>
-      <c r="B45" s="80"/>
-      <c r="C45" s="77" t="s">
+      <c r="A45" s="86"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="83" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="33">
@@ -46770,9 +46780,9 @@
       </c>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="83"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="77"/>
+      <c r="A46" s="86"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="83"/>
       <c r="D46" s="33">
         <v>0.26</v>
       </c>
@@ -46820,9 +46830,9 @@
       </c>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="83"/>
-      <c r="B47" s="80"/>
-      <c r="C47" s="77" t="s">
+      <c r="A47" s="86"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="83" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="33">
@@ -46872,9 +46882,9 @@
       </c>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="83"/>
-      <c r="B48" s="80"/>
-      <c r="C48" s="77"/>
+      <c r="A48" s="86"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="83"/>
       <c r="D48" s="31">
         <v>8.0000000000000099E-2</v>
       </c>
@@ -46922,9 +46932,9 @@
       </c>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="83"/>
-      <c r="B49" s="80"/>
-      <c r="C49" s="77" t="s">
+      <c r="A49" s="86"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="83" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="33">
@@ -46974,9 +46984,9 @@
       </c>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="83"/>
-      <c r="B50" s="80"/>
-      <c r="C50" s="77"/>
+      <c r="A50" s="86"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="83"/>
       <c r="D50" s="33">
         <v>0.1</v>
       </c>
@@ -47024,9 +47034,9 @@
       </c>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="83"/>
-      <c r="B51" s="80"/>
-      <c r="C51" s="77" t="s">
+      <c r="A51" s="86"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="83" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="33">
@@ -47076,9 +47086,9 @@
       </c>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="84"/>
-      <c r="B52" s="81"/>
-      <c r="C52" s="78"/>
+      <c r="A52" s="87"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="84"/>
       <c r="D52" s="26">
         <v>0.04</v>
       </c>
@@ -49592,7 +49602,7 @@
       <c r="D133">
         <v>-0.04</v>
       </c>
-      <c r="E133" s="90">
+      <c r="E133" s="74">
         <v>1.0842021724855E-17</v>
       </c>
       <c r="F133">
@@ -49613,7 +49623,7 @@
       <c r="K133">
         <v>-4.3155258764607698E-2</v>
       </c>
-      <c r="L133" s="90">
+      <c r="L133" s="74">
         <v>2.1684043449710101E-17</v>
       </c>
       <c r="M133">
@@ -49986,11 +49996,10 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B21:B30"/>
+    <mergeCell ref="B43:B52"/>
     <mergeCell ref="A21:A52"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C45:C46"/>
@@ -50007,10 +50016,11 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B21:B30"/>
-    <mergeCell ref="B43:B52"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50064,10 +50074,10 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75">
-      <c r="B3" s="88">
+      <c r="B3" s="93">
         <v>1</v>
       </c>
-      <c r="C3" s="88">
+      <c r="C3" s="93">
         <v>400</v>
       </c>
       <c r="D3" s="65">
@@ -50099,8 +50109,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75">
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="65">
         <v>0.39097222222222222</v>
       </c>
@@ -50118,10 +50128,10 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75">
-      <c r="B5" s="88">
+      <c r="B5" s="93">
         <v>2</v>
       </c>
-      <c r="C5" s="88">
+      <c r="C5" s="93">
         <v>400</v>
       </c>
       <c r="D5" s="65">
@@ -50153,8 +50163,8 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75">
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
       <c r="D6" s="65">
         <v>0.40416666666666662</v>
       </c>
@@ -50172,10 +50182,10 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75">
-      <c r="B7" s="88">
+      <c r="B7" s="93">
         <v>3</v>
       </c>
-      <c r="C7" s="88">
+      <c r="C7" s="93">
         <v>800</v>
       </c>
       <c r="D7" s="65">
@@ -50207,8 +50217,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75">
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
       <c r="D8" s="65">
         <v>0.43055555555555558</v>
       </c>
@@ -50229,10 +50239,10 @@
       <c r="A9" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="88">
+      <c r="B9" s="93">
         <v>4</v>
       </c>
-      <c r="C9" s="88">
+      <c r="C9" s="93">
         <v>300</v>
       </c>
       <c r="D9" s="65">
@@ -50264,8 +50274,8 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75">
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
       <c r="D10" s="65">
         <v>0.44722222222222219</v>
       </c>
@@ -50283,10 +50293,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75">
-      <c r="B11" s="88">
+      <c r="B11" s="93">
         <v>5</v>
       </c>
-      <c r="C11" s="88">
+      <c r="C11" s="93">
         <v>300</v>
       </c>
       <c r="D11" s="65">
@@ -50318,8 +50328,8 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75">
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="65">
         <v>0.46180555555555558</v>
       </c>
@@ -50337,13 +50347,13 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="56">
@@ -57398,13 +57408,13 @@
       <c r="CE34" s="8"/>
     </row>
     <row r="39" spans="2:208">
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
     </row>
     <row r="40" spans="2:208">
       <c r="B40" s="56">
@@ -66217,13 +66227,13 @@
       </c>
     </row>
     <row r="61" spans="2:208">
-      <c r="B61" s="75" t="s">
+      <c r="B61" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="C61" s="75"/>
-      <c r="D61" s="75"/>
-      <c r="E61" s="75"/>
-      <c r="F61" s="75"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
     </row>
     <row r="62" spans="2:208">
       <c r="B62" s="56">
@@ -78438,13 +78448,13 @@
       </c>
     </row>
     <row r="83" spans="2:349">
-      <c r="B83" s="75" t="s">
+      <c r="B83" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="C83" s="75"/>
-      <c r="D83" s="75"/>
-      <c r="E83" s="75"/>
-      <c r="F83" s="75"/>
+      <c r="C83" s="79"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="79"/>
+      <c r="F83" s="79"/>
     </row>
     <row r="84" spans="2:349">
       <c r="B84" s="56">
@@ -93179,13 +93189,13 @@
       </c>
     </row>
     <row r="104" spans="2:349">
-      <c r="B104" s="75" t="s">
+      <c r="B104" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="C104" s="75"/>
-      <c r="D104" s="75"/>
-      <c r="E104" s="75"/>
-      <c r="F104" s="75"/>
+      <c r="C104" s="79"/>
+      <c r="D104" s="79"/>
+      <c r="E104" s="79"/>
+      <c r="F104" s="79"/>
     </row>
     <row r="105" spans="2:349">
       <c r="B105" s="56">
@@ -96833,6 +96843,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B15:F15"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="B11:B12"/>
@@ -96843,11 +96858,6 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B15:F15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -96857,14 +96867,88 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D6:CI96"/>
+  <dimension ref="D1:CI96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
+    <row r="1" spans="4:60">
+      <c r="E1" s="58">
+        <v>1</v>
+      </c>
+      <c r="F1" s="58">
+        <v>2</v>
+      </c>
+      <c r="G1" s="58">
+        <v>3</v>
+      </c>
+      <c r="H1" s="58">
+        <v>4</v>
+      </c>
+      <c r="I1" s="58">
+        <v>5</v>
+      </c>
+      <c r="J1" s="58">
+        <v>6</v>
+      </c>
+      <c r="K1" s="58">
+        <v>7</v>
+      </c>
+      <c r="L1" s="58">
+        <v>8</v>
+      </c>
+      <c r="M1" s="58">
+        <v>9</v>
+      </c>
+      <c r="N1" s="58">
+        <v>10</v>
+      </c>
+      <c r="O1" s="58">
+        <v>11</v>
+      </c>
+      <c r="P1" s="58">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="58">
+        <v>13</v>
+      </c>
+      <c r="R1" s="58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="4:60">
+      <c r="E2" s="95">
+        <v>1</v>
+      </c>
+      <c r="F2" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="4:60">
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="96">
+        <v>0.76</v>
+      </c>
+      <c r="F3" s="96">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="4" spans="4:60">
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
     <row r="6" spans="4:60">
       <c r="E6" s="57" t="s">
         <v>45</v>
@@ -96992,10 +97076,10 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <v>647</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="4">
         <v>649</v>
       </c>
       <c r="J12">
@@ -97174,19 +97258,19 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="4">
         <v>647</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="4">
         <v>649</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="4">
         <v>667</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="4">
         <v>668</v>
       </c>
       <c r="P13">
@@ -97693,28 +97777,28 @@
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="4">
         <v>645</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="4">
         <v>648</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="4">
         <v>657</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="4">
         <v>658</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="4">
         <v>666</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="4">
         <v>666</v>
       </c>
       <c r="S16">
@@ -97866,19 +97950,19 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="4">
         <v>646</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="4">
         <v>650</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="4">
         <v>660</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="4">
         <v>660</v>
       </c>
       <c r="P17">
@@ -98030,19 +98114,19 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="4">
         <v>646</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="4">
         <v>646</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="4">
         <v>666</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="4">
         <v>666</v>
       </c>
       <c r="M18">
@@ -99528,10 +99612,10 @@
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="4">
         <v>646</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="4">
         <v>650</v>
       </c>
       <c r="J35">

--- a/Burst-Detection/压力数据.xlsx
+++ b/Burst-Detection/压力数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5850" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="平滑降噪" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="130">
   <si>
     <t>压力变化阈值</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -438,10 +438,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>为平滑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">   </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -503,6 +499,14 @@
   </si>
   <si>
     <t>漏报率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不平滑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1025,7 +1029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1175,37 +1179,21 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1217,14 +1205,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1507,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:R63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70:P72"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1613,13 +1620,13 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="80"/>
-      <c r="B8" s="79" t="s">
+      <c r="A8" s="81"/>
+      <c r="B8" s="82" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="4">
@@ -1666,8 +1673,8 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="80"/>
-      <c r="B9" s="79"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="4">
         <v>0.20622203695893401</v>
       </c>
@@ -1712,8 +1719,8 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="80"/>
-      <c r="B10" s="79" t="s">
+      <c r="A10" s="81"/>
+      <c r="B10" s="82" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="4">
@@ -1760,8 +1767,8 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="80"/>
-      <c r="B11" s="79"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="4">
         <v>6.2105197897433698E-2</v>
       </c>
@@ -1809,8 +1816,8 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="80"/>
-      <c r="B12" s="79" t="s">
+      <c r="A12" s="81"/>
+      <c r="B12" s="82" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="4">
@@ -1857,8 +1864,8 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="80"/>
-      <c r="B13" s="79"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="82"/>
       <c r="C13">
         <v>2.7664742714910401E-2</v>
       </c>
@@ -1903,8 +1910,8 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="80"/>
-      <c r="B14" s="79" t="s">
+      <c r="A14" s="81"/>
+      <c r="B14" s="82" t="s">
         <v>18</v>
       </c>
       <c r="C14">
@@ -1951,8 +1958,8 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="80"/>
-      <c r="B15" s="79"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="82"/>
       <c r="C15">
         <v>1.8060443331874398E-2</v>
       </c>
@@ -1997,8 +2004,8 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="80"/>
-      <c r="B16" s="79" t="s">
+      <c r="A16" s="81"/>
+      <c r="B16" s="82" t="s">
         <v>19</v>
       </c>
       <c r="C16">
@@ -2045,8 +2052,8 @@
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="80"/>
-      <c r="B17" s="79"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="82"/>
       <c r="C17">
         <v>1.13857990146845E-2</v>
       </c>
@@ -2091,10 +2098,10 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="82" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="6">
@@ -2141,8 +2148,8 @@
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="80"/>
-      <c r="B20" s="79"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="6">
         <v>0.233333333333334</v>
       </c>
@@ -2187,8 +2194,8 @@
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="80"/>
-      <c r="B21" s="79" t="s">
+      <c r="A21" s="81"/>
+      <c r="B21" s="82" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="6">
@@ -2235,8 +2242,8 @@
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="80"/>
-      <c r="B22" s="79"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="6">
         <v>0.1048</v>
       </c>
@@ -2281,8 +2288,8 @@
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="80"/>
-      <c r="B23" s="79" t="s">
+      <c r="A23" s="81"/>
+      <c r="B23" s="82" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="6">
@@ -2329,8 +2336,8 @@
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="80"/>
-      <c r="B24" s="79"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="82"/>
       <c r="C24">
         <v>0.04</v>
       </c>
@@ -2375,8 +2382,8 @@
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="80"/>
-      <c r="B25" s="79" t="s">
+      <c r="A25" s="81"/>
+      <c r="B25" s="82" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="6">
@@ -2423,8 +2430,8 @@
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="80"/>
-      <c r="B26" s="79"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="82"/>
       <c r="C26">
         <v>5.1999999999999998E-2</v>
       </c>
@@ -2469,8 +2476,8 @@
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="80"/>
-      <c r="B27" s="79" t="s">
+      <c r="A27" s="81"/>
+      <c r="B27" s="82" t="s">
         <v>19</v>
       </c>
       <c r="C27">
@@ -2517,8 +2524,8 @@
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="80"/>
-      <c r="B28" s="79"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="82"/>
       <c r="C28">
         <v>3.5000000000000003E-2</v>
       </c>
@@ -2563,10 +2570,10 @@
       </c>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="82" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="6">
@@ -2613,8 +2620,8 @@
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="80"/>
-      <c r="B31" s="79"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="82"/>
       <c r="C31" s="6">
         <v>0.53333333333333399</v>
       </c>
@@ -2659,8 +2666,8 @@
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="80"/>
-      <c r="B32" s="79" t="s">
+      <c r="A32" s="81"/>
+      <c r="B32" s="82" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="6">
@@ -2707,8 +2714,8 @@
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="80"/>
-      <c r="B33" s="79"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="82"/>
       <c r="C33" s="6">
         <v>0.28399999999999997</v>
       </c>
@@ -2753,8 +2760,8 @@
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="80"/>
-      <c r="B34" s="79" t="s">
+      <c r="A34" s="81"/>
+      <c r="B34" s="82" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="6">
@@ -2801,8 +2808,8 @@
       </c>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="80"/>
-      <c r="B35" s="79"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="82"/>
       <c r="C35" s="6">
         <v>8.7500000000000105E-2</v>
       </c>
@@ -2847,8 +2854,8 @@
       </c>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="80"/>
-      <c r="B36" s="79" t="s">
+      <c r="A36" s="81"/>
+      <c r="B36" s="82" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="6">
@@ -2895,8 +2902,8 @@
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="80"/>
-      <c r="B37" s="79"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="82"/>
       <c r="C37" s="6">
         <v>0.14000000000000001</v>
       </c>
@@ -2941,8 +2948,8 @@
       </c>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="80"/>
-      <c r="B38" s="79" t="s">
+      <c r="A38" s="81"/>
+      <c r="B38" s="82" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="6">
@@ -2989,8 +2996,8 @@
       </c>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="80"/>
-      <c r="B39" s="79"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="82"/>
       <c r="C39" s="6">
         <v>0.22500000000000001</v>
       </c>
@@ -3147,10 +3154,10 @@
       </c>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="80" t="s">
+      <c r="A43" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="82" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="4">
@@ -3197,8 +3204,8 @@
       </c>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="80"/>
-      <c r="B44" s="79"/>
+      <c r="A44" s="81"/>
+      <c r="B44" s="82"/>
       <c r="C44" s="4">
         <v>0.35929627778837298</v>
       </c>
@@ -3243,8 +3250,8 @@
       </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="80"/>
-      <c r="B45" s="79" t="s">
+      <c r="A45" s="81"/>
+      <c r="B45" s="82" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="4">
@@ -3291,8 +3298,8 @@
       </c>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="80"/>
-      <c r="B46" s="79"/>
+      <c r="A46" s="81"/>
+      <c r="B46" s="82"/>
       <c r="C46" s="4">
         <v>0.11918811759426499</v>
       </c>
@@ -3337,8 +3344,8 @@
       </c>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="80"/>
-      <c r="B47" s="79" t="s">
+      <c r="A47" s="81"/>
+      <c r="B47" s="82" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="4">
@@ -3385,8 +3392,8 @@
       </c>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="80"/>
-      <c r="B48" s="79"/>
+      <c r="A48" s="81"/>
+      <c r="B48" s="82"/>
       <c r="C48">
         <v>4.1451873192934301E-2</v>
       </c>
@@ -3431,8 +3438,8 @@
       </c>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="80"/>
-      <c r="B49" s="79" t="s">
+      <c r="A49" s="81"/>
+      <c r="B49" s="82" t="s">
         <v>18</v>
       </c>
       <c r="C49">
@@ -3479,8 +3486,8 @@
       </c>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="80"/>
-      <c r="B50" s="79"/>
+      <c r="A50" s="81"/>
+      <c r="B50" s="82"/>
       <c r="C50">
         <v>2.2165294764432301E-2</v>
       </c>
@@ -3525,8 +3532,8 @@
       </c>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="80"/>
-      <c r="B51" s="79" t="s">
+      <c r="A51" s="81"/>
+      <c r="B51" s="82" t="s">
         <v>19</v>
       </c>
       <c r="C51">
@@ -3573,8 +3580,8 @@
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="80"/>
-      <c r="B52" s="79"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="82"/>
       <c r="C52">
         <v>1.9783438855451401E-2</v>
       </c>
@@ -3619,10 +3626,10 @@
       </c>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="80" t="s">
+      <c r="A54" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="79" t="s">
+      <c r="B54" s="82" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="4">
@@ -3669,8 +3676,8 @@
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="80"/>
-      <c r="B55" s="79"/>
+      <c r="A55" s="81"/>
+      <c r="B55" s="82"/>
       <c r="C55" s="4">
         <v>0.36</v>
       </c>
@@ -3715,8 +3722,8 @@
       </c>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="80"/>
-      <c r="B56" s="79" t="s">
+      <c r="A56" s="81"/>
+      <c r="B56" s="82" t="s">
         <v>15</v>
       </c>
       <c r="C56" s="4">
@@ -3763,8 +3770,8 @@
       </c>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="80"/>
-      <c r="B57" s="79"/>
+      <c r="A57" s="81"/>
+      <c r="B57" s="82"/>
       <c r="C57" s="4">
         <v>0.26</v>
       </c>
@@ -3809,8 +3816,8 @@
       </c>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="80"/>
-      <c r="B58" s="79" t="s">
+      <c r="A58" s="81"/>
+      <c r="B58" s="82" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="4">
@@ -3857,8 +3864,8 @@
       </c>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="80"/>
-      <c r="B59" s="79"/>
+      <c r="A59" s="81"/>
+      <c r="B59" s="82"/>
       <c r="C59" s="4">
         <v>8.0000000000000099E-2</v>
       </c>
@@ -3903,8 +3910,8 @@
       </c>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="80"/>
-      <c r="B60" s="79" t="s">
+      <c r="A60" s="81"/>
+      <c r="B60" s="82" t="s">
         <v>18</v>
       </c>
       <c r="C60" s="4">
@@ -3951,8 +3958,8 @@
       </c>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="80"/>
-      <c r="B61" s="79"/>
+      <c r="A61" s="81"/>
+      <c r="B61" s="82"/>
       <c r="C61" s="4">
         <v>0.1</v>
       </c>
@@ -3997,8 +4004,8 @@
       </c>
     </row>
     <row r="62" spans="1:16">
-      <c r="A62" s="80"/>
-      <c r="B62" s="79" t="s">
+      <c r="A62" s="81"/>
+      <c r="B62" s="82" t="s">
         <v>19</v>
       </c>
       <c r="C62" s="4">
@@ -4045,8 +4052,8 @@
       </c>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="80"/>
-      <c r="B63" s="79"/>
+      <c r="A63" s="81"/>
+      <c r="B63" s="82"/>
       <c r="C63" s="4">
         <v>0.1</v>
       </c>
@@ -4092,24 +4099,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A7:A17"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="A54:A63"/>
     <mergeCell ref="A43:A52"/>
@@ -4122,6 +4111,24 @@
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A7:A17"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4133,45 +4140,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:LB86"/>
   <sheetViews>
-    <sheetView topLeftCell="B55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="2:314">
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
     </row>
     <row r="2" spans="2:314">
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
     </row>
     <row r="3" spans="2:314">
-      <c r="D3" s="79" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
+      <c r="D3" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
     </row>
     <row r="4" spans="2:314">
       <c r="C4" s="53" t="s">
@@ -4273,7 +4280,7 @@
       </c>
     </row>
     <row r="7" spans="2:314">
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="81" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="51">
@@ -4977,7 +4984,7 @@
       </c>
     </row>
     <row r="8" spans="2:314" ht="14.25" customHeight="1">
-      <c r="B8" s="80"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="52">
         <v>2</v>
       </c>
@@ -5916,7 +5923,7 @@
       </c>
     </row>
     <row r="9" spans="2:314">
-      <c r="B9" s="80"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="51">
         <v>3</v>
       </c>
@@ -6855,7 +6862,7 @@
       </c>
     </row>
     <row r="10" spans="2:314">
-      <c r="B10" s="80"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="52">
         <v>4</v>
       </c>
@@ -7794,7 +7801,7 @@
       </c>
     </row>
     <row r="11" spans="2:314">
-      <c r="B11" s="80"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="51">
         <v>5</v>
       </c>
@@ -8733,7 +8740,7 @@
       </c>
     </row>
     <row r="12" spans="2:314">
-      <c r="B12" s="80"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="52">
         <v>6</v>
       </c>
@@ -9672,7 +9679,7 @@
       </c>
     </row>
     <row r="13" spans="2:314">
-      <c r="B13" s="80"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="51">
         <v>7</v>
       </c>
@@ -10611,7 +10618,7 @@
       </c>
     </row>
     <row r="14" spans="2:314">
-      <c r="B14" s="80"/>
+      <c r="B14" s="81"/>
       <c r="C14" s="52">
         <v>8</v>
       </c>
@@ -11550,7 +11557,7 @@
       </c>
     </row>
     <row r="15" spans="2:314">
-      <c r="B15" s="80"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="51">
         <v>9</v>
       </c>
@@ -12489,7 +12496,7 @@
       </c>
     </row>
     <row r="16" spans="2:314">
-      <c r="B16" s="80"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="52">
         <v>10</v>
       </c>
@@ -13428,7 +13435,7 @@
       </c>
     </row>
     <row r="17" spans="2:314">
-      <c r="B17" s="80"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="51">
         <v>11</v>
       </c>
@@ -14367,7 +14374,7 @@
       </c>
     </row>
     <row r="18" spans="2:314">
-      <c r="B18" s="80"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="52">
         <v>12</v>
       </c>
@@ -15306,7 +15313,7 @@
       </c>
     </row>
     <row r="19" spans="2:314">
-      <c r="B19" s="80"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="51">
         <v>13</v>
       </c>
@@ -16245,7 +16252,7 @@
       </c>
     </row>
     <row r="20" spans="2:314">
-      <c r="B20" s="80"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="52">
         <v>14</v>
       </c>
@@ -17184,12 +17191,12 @@
       </c>
     </row>
     <row r="23" spans="2:314">
-      <c r="D23" s="79" t="s">
+      <c r="D23" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
     </row>
     <row r="24" spans="2:314">
       <c r="C24" s="53" t="s">
@@ -17291,7 +17298,7 @@
       </c>
     </row>
     <row r="27" spans="2:314">
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="81" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="51">
@@ -17836,7 +17843,7 @@
       </c>
     </row>
     <row r="28" spans="2:314">
-      <c r="B28" s="80"/>
+      <c r="B28" s="81"/>
       <c r="C28" s="52">
         <v>2</v>
       </c>
@@ -18379,7 +18386,7 @@
       </c>
     </row>
     <row r="29" spans="2:314">
-      <c r="B29" s="80"/>
+      <c r="B29" s="81"/>
       <c r="C29" s="51">
         <v>3</v>
       </c>
@@ -18922,7 +18929,7 @@
       </c>
     </row>
     <row r="30" spans="2:314">
-      <c r="B30" s="80"/>
+      <c r="B30" s="81"/>
       <c r="C30" s="52">
         <v>4</v>
       </c>
@@ -19465,7 +19472,7 @@
       </c>
     </row>
     <row r="31" spans="2:314">
-      <c r="B31" s="80"/>
+      <c r="B31" s="81"/>
       <c r="C31" s="51">
         <v>5</v>
       </c>
@@ -20008,7 +20015,7 @@
       </c>
     </row>
     <row r="32" spans="2:314">
-      <c r="B32" s="80"/>
+      <c r="B32" s="81"/>
       <c r="C32" s="52">
         <v>6</v>
       </c>
@@ -20551,7 +20558,7 @@
       </c>
     </row>
     <row r="33" spans="2:182">
-      <c r="B33" s="80"/>
+      <c r="B33" s="81"/>
       <c r="C33" s="51">
         <v>7</v>
       </c>
@@ -21094,7 +21101,7 @@
       </c>
     </row>
     <row r="34" spans="2:182">
-      <c r="B34" s="80"/>
+      <c r="B34" s="81"/>
       <c r="C34" s="52">
         <v>8</v>
       </c>
@@ -21637,7 +21644,7 @@
       </c>
     </row>
     <row r="35" spans="2:182">
-      <c r="B35" s="80"/>
+      <c r="B35" s="81"/>
       <c r="C35" s="51">
         <v>9</v>
       </c>
@@ -22180,7 +22187,7 @@
       </c>
     </row>
     <row r="36" spans="2:182">
-      <c r="B36" s="80"/>
+      <c r="B36" s="81"/>
       <c r="C36" s="52">
         <v>10</v>
       </c>
@@ -22723,7 +22730,7 @@
       </c>
     </row>
     <row r="37" spans="2:182">
-      <c r="B37" s="80"/>
+      <c r="B37" s="81"/>
       <c r="C37" s="51">
         <v>11</v>
       </c>
@@ -23266,7 +23273,7 @@
       </c>
     </row>
     <row r="38" spans="2:182">
-      <c r="B38" s="80"/>
+      <c r="B38" s="81"/>
       <c r="C38" s="52">
         <v>12</v>
       </c>
@@ -23809,7 +23816,7 @@
       </c>
     </row>
     <row r="39" spans="2:182">
-      <c r="B39" s="80"/>
+      <c r="B39" s="81"/>
       <c r="C39" s="51">
         <v>13</v>
       </c>
@@ -24352,7 +24359,7 @@
       </c>
     </row>
     <row r="40" spans="2:182">
-      <c r="B40" s="80"/>
+      <c r="B40" s="81"/>
       <c r="C40" s="52">
         <v>14</v>
       </c>
@@ -24895,12 +24902,12 @@
       </c>
     </row>
     <row r="43" spans="2:182">
-      <c r="D43" s="79" t="s">
+      <c r="D43" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
     </row>
     <row r="44" spans="2:182">
       <c r="C44" s="53" t="s">
@@ -25413,7 +25420,7 @@
       </c>
     </row>
     <row r="47" spans="2:182">
-      <c r="B47" s="80" t="s">
+      <c r="B47" s="81" t="s">
         <v>39</v>
       </c>
       <c r="C47" s="51">
@@ -25832,7 +25839,7 @@
       </c>
     </row>
     <row r="48" spans="2:182">
-      <c r="B48" s="80"/>
+      <c r="B48" s="81"/>
       <c r="C48" s="52">
         <v>2</v>
       </c>
@@ -26249,7 +26256,7 @@
       </c>
     </row>
     <row r="49" spans="2:140">
-      <c r="B49" s="80"/>
+      <c r="B49" s="81"/>
       <c r="C49" s="51">
         <v>3</v>
       </c>
@@ -26666,7 +26673,7 @@
       </c>
     </row>
     <row r="50" spans="2:140">
-      <c r="B50" s="80"/>
+      <c r="B50" s="81"/>
       <c r="C50" s="52">
         <v>4</v>
       </c>
@@ -27083,7 +27090,7 @@
       </c>
     </row>
     <row r="51" spans="2:140">
-      <c r="B51" s="80"/>
+      <c r="B51" s="81"/>
       <c r="C51" s="51">
         <v>5</v>
       </c>
@@ -27500,7 +27507,7 @@
       </c>
     </row>
     <row r="52" spans="2:140">
-      <c r="B52" s="80"/>
+      <c r="B52" s="81"/>
       <c r="C52" s="52">
         <v>6</v>
       </c>
@@ -27917,7 +27924,7 @@
       </c>
     </row>
     <row r="53" spans="2:140">
-      <c r="B53" s="80"/>
+      <c r="B53" s="81"/>
       <c r="C53" s="51">
         <v>7</v>
       </c>
@@ -28334,7 +28341,7 @@
       </c>
     </row>
     <row r="54" spans="2:140">
-      <c r="B54" s="80"/>
+      <c r="B54" s="81"/>
       <c r="C54" s="52">
         <v>8</v>
       </c>
@@ -28751,7 +28758,7 @@
       </c>
     </row>
     <row r="55" spans="2:140">
-      <c r="B55" s="80"/>
+      <c r="B55" s="81"/>
       <c r="C55" s="51">
         <v>9</v>
       </c>
@@ -29168,7 +29175,7 @@
       </c>
     </row>
     <row r="56" spans="2:140">
-      <c r="B56" s="80"/>
+      <c r="B56" s="81"/>
       <c r="C56" s="52">
         <v>10</v>
       </c>
@@ -29585,7 +29592,7 @@
       </c>
     </row>
     <row r="57" spans="2:140">
-      <c r="B57" s="80"/>
+      <c r="B57" s="81"/>
       <c r="C57" s="51">
         <v>11</v>
       </c>
@@ -30002,7 +30009,7 @@
       </c>
     </row>
     <row r="58" spans="2:140">
-      <c r="B58" s="80"/>
+      <c r="B58" s="81"/>
       <c r="C58" s="52">
         <v>12</v>
       </c>
@@ -30419,7 +30426,7 @@
       </c>
     </row>
     <row r="59" spans="2:140">
-      <c r="B59" s="80"/>
+      <c r="B59" s="81"/>
       <c r="C59" s="51">
         <v>13</v>
       </c>
@@ -30836,27 +30843,27 @@
       </c>
     </row>
     <row r="60" spans="2:140">
-      <c r="B60" s="80"/>
+      <c r="B60" s="81"/>
       <c r="C60" s="52">
         <v>14</v>
       </c>
     </row>
     <row r="67" spans="2:88">
-      <c r="B67" s="81" t="s">
+      <c r="B67" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="82"/>
     </row>
     <row r="69" spans="2:88">
-      <c r="D69" s="79" t="s">
+      <c r="D69" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="E69" s="79"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="79"/>
+      <c r="E69" s="82"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="82"/>
     </row>
     <row r="70" spans="2:88">
       <c r="C70" s="53" t="s">
@@ -30978,7 +30985,7 @@
       <c r="CJ72" s="10"/>
     </row>
     <row r="73" spans="2:88">
-      <c r="B73" s="80" t="s">
+      <c r="B73" s="81" t="s">
         <v>39</v>
       </c>
       <c r="C73" s="51">
@@ -31213,7 +31220,7 @@
       <c r="CJ73" s="10"/>
     </row>
     <row r="74" spans="2:88">
-      <c r="B74" s="80"/>
+      <c r="B74" s="81"/>
       <c r="C74" s="52">
         <v>2</v>
       </c>
@@ -31446,7 +31453,7 @@
       <c r="CJ74" s="10"/>
     </row>
     <row r="75" spans="2:88">
-      <c r="B75" s="80"/>
+      <c r="B75" s="81"/>
       <c r="C75" s="51">
         <v>3</v>
       </c>
@@ -31679,7 +31686,7 @@
       <c r="CJ75" s="10"/>
     </row>
     <row r="76" spans="2:88">
-      <c r="B76" s="80"/>
+      <c r="B76" s="81"/>
       <c r="C76" s="52">
         <v>4</v>
       </c>
@@ -31912,7 +31919,7 @@
       <c r="CJ76" s="10"/>
     </row>
     <row r="77" spans="2:88">
-      <c r="B77" s="80"/>
+      <c r="B77" s="81"/>
       <c r="C77" s="51">
         <v>5</v>
       </c>
@@ -32145,7 +32152,7 @@
       <c r="CJ77" s="10"/>
     </row>
     <row r="78" spans="2:88">
-      <c r="B78" s="80"/>
+      <c r="B78" s="81"/>
       <c r="C78" s="52">
         <v>6</v>
       </c>
@@ -32378,7 +32385,7 @@
       <c r="CJ78" s="10"/>
     </row>
     <row r="79" spans="2:88">
-      <c r="B79" s="80"/>
+      <c r="B79" s="81"/>
       <c r="C79" s="51">
         <v>7</v>
       </c>
@@ -32611,7 +32618,7 @@
       <c r="CJ79" s="10"/>
     </row>
     <row r="80" spans="2:88">
-      <c r="B80" s="80"/>
+      <c r="B80" s="81"/>
       <c r="C80" s="52">
         <v>8</v>
       </c>
@@ -32844,7 +32851,7 @@
       <c r="CJ80" s="10"/>
     </row>
     <row r="81" spans="2:88">
-      <c r="B81" s="80"/>
+      <c r="B81" s="81"/>
       <c r="C81" s="51">
         <v>9</v>
       </c>
@@ -33077,7 +33084,7 @@
       <c r="CJ81" s="10"/>
     </row>
     <row r="82" spans="2:88">
-      <c r="B82" s="80"/>
+      <c r="B82" s="81"/>
       <c r="C82" s="52">
         <v>10</v>
       </c>
@@ -33310,7 +33317,7 @@
       <c r="CJ82" s="10"/>
     </row>
     <row r="83" spans="2:88">
-      <c r="B83" s="80"/>
+      <c r="B83" s="81"/>
       <c r="C83" s="51">
         <v>11</v>
       </c>
@@ -33543,7 +33550,7 @@
       <c r="CJ83" s="10"/>
     </row>
     <row r="84" spans="2:88">
-      <c r="B84" s="80"/>
+      <c r="B84" s="81"/>
       <c r="C84" s="52">
         <v>12</v>
       </c>
@@ -33776,7 +33783,7 @@
       <c r="CJ84" s="10"/>
     </row>
     <row r="85" spans="2:88">
-      <c r="B85" s="80"/>
+      <c r="B85" s="81"/>
       <c r="C85" s="51">
         <v>13</v>
       </c>
@@ -34009,7 +34016,7 @@
       <c r="CJ85" s="10"/>
     </row>
     <row r="86" spans="2:88">
-      <c r="B86" s="80"/>
+      <c r="B86" s="81"/>
       <c r="C86" s="52">
         <v>14</v>
       </c>
@@ -34243,16 +34250,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="B73:B86"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B47:B60"/>
     <mergeCell ref="D1:M2"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="B7:B20"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="B27:B40"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="B73:B86"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B47:B60"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34271,16 +34278,16 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3">
@@ -34371,16 +34378,16 @@
       </c>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79" t="s">
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7">
@@ -34486,8 +34493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:CS94"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -44773,8 +44780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD141"/>
   <sheetViews>
-    <sheetView topLeftCell="C82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -44823,46 +44830,46 @@
       <c r="B3" s="11"/>
       <c r="C3" s="76"/>
       <c r="D3" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="F3" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="G3" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="H3" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="I3" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="I3" s="78" t="s">
+      <c r="K3" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="N3" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="J3" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="L3" s="76" t="s">
-        <v>124</v>
-      </c>
-      <c r="M3" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="N3" s="76" t="s">
-        <v>122</v>
-      </c>
-      <c r="O3" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:17 16384:16384" ht="15" thickBot="1">
@@ -44892,7 +44899,7 @@
       <c r="A5" s="8"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -44912,7 +44919,7 @@
     <row r="6" spans="1:17 16384:16384">
       <c r="A6" s="8"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="92" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="4">
@@ -44961,7 +44968,7 @@
     <row r="7" spans="1:17 16384:16384">
       <c r="A7" s="8"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="83"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="10">
         <v>-0.04</v>
       </c>
@@ -45008,7 +45015,7 @@
     <row r="8" spans="1:17 16384:16384">
       <c r="A8" s="8"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="84" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="4">
@@ -45057,7 +45064,7 @@
     <row r="9" spans="1:17 16384:16384">
       <c r="A9" s="8"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="83"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="4">
         <v>-0.26</v>
       </c>
@@ -45104,7 +45111,7 @@
     <row r="10" spans="1:17 16384:16384">
       <c r="A10" s="8"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="84" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="4">
@@ -45153,7 +45160,7 @@
     <row r="11" spans="1:17 16384:16384">
       <c r="A11" s="8"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="83"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="10">
         <v>-8.0000000000000099E-2</v>
       </c>
@@ -45200,7 +45207,7 @@
     <row r="12" spans="1:17 16384:16384">
       <c r="A12" s="8"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="84" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="4">
@@ -45249,7 +45256,7 @@
     <row r="13" spans="1:17 16384:16384">
       <c r="A13" s="8"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="83"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="4">
         <v>-0.1</v>
       </c>
@@ -45296,7 +45303,7 @@
     <row r="14" spans="1:17 16384:16384">
       <c r="A14" s="8"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="84" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="4">
@@ -45345,7 +45352,7 @@
     <row r="15" spans="1:17 16384:16384">
       <c r="A15" s="8"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="84"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="10">
         <v>-6.0000000000000102E-2</v>
       </c>
@@ -45543,13 +45550,13 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A21" s="85" t="s">
+      <c r="A21" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="92" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="34">
@@ -45599,9 +45606,9 @@
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="86"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="83"/>
+      <c r="A22" s="90"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="84"/>
       <c r="D22" s="35">
         <v>0.36</v>
       </c>
@@ -45649,9 +45656,9 @@
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="86"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="83" t="s">
+      <c r="A23" s="90"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="84" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="35">
@@ -45701,9 +45708,9 @@
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="86"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="83"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="84"/>
       <c r="D24" s="35">
         <v>0.26</v>
       </c>
@@ -45751,9 +45758,9 @@
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="86"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="83" t="s">
+      <c r="A25" s="90"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="84" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="35">
@@ -45803,9 +45810,9 @@
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="86"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="83"/>
+      <c r="A26" s="90"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="84"/>
       <c r="D26" s="16">
         <v>8.0000000000000099E-2</v>
       </c>
@@ -45853,9 +45860,9 @@
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="86"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="83" t="s">
+      <c r="A27" s="90"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="84" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="35">
@@ -45905,9 +45912,9 @@
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="86"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="83"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="84"/>
       <c r="D28" s="35">
         <v>0.1</v>
       </c>
@@ -45955,9 +45962,9 @@
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="86"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="83" t="s">
+      <c r="A29" s="90"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="84" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="35">
@@ -46007,9 +46014,9 @@
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="86"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="84"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="85"/>
       <c r="D30" s="36">
         <v>0.1</v>
       </c>
@@ -46057,11 +46064,11 @@
       </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="86"/>
-      <c r="B31" s="88" t="s">
+      <c r="A31" s="90"/>
+      <c r="B31" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="89"/>
+      <c r="C31" s="94"/>
       <c r="D31" s="43">
         <v>0.875</v>
       </c>
@@ -46107,11 +46114,11 @@
       <c r="R31" s="50"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="86"/>
-      <c r="B32" s="90" t="s">
+      <c r="A32" s="90"/>
+      <c r="B32" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="82" t="s">
+      <c r="C32" s="92" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="32">
@@ -46161,9 +46168,9 @@
       </c>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="86"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="83"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="84"/>
       <c r="D33" s="33">
         <v>0.26</v>
       </c>
@@ -46211,9 +46218,9 @@
       </c>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="86"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="83" t="s">
+      <c r="A34" s="90"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="84" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="33">
@@ -46263,9 +46270,9 @@
       </c>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="86"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="83"/>
+      <c r="A35" s="90"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="84"/>
       <c r="D35" s="33">
         <v>0.26</v>
       </c>
@@ -46313,9 +46320,9 @@
       </c>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="86"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="83" t="s">
+      <c r="A36" s="90"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="84" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="33">
@@ -46365,9 +46372,9 @@
       </c>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="86"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="83"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="84"/>
       <c r="D37" s="31">
         <v>8.0000000000000099E-2</v>
       </c>
@@ -46415,9 +46422,9 @@
       </c>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="86"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="83" t="s">
+      <c r="A38" s="90"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="84" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="33">
@@ -46467,9 +46474,9 @@
       </c>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="86"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="83"/>
+      <c r="A39" s="90"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="84"/>
       <c r="D39" s="33">
         <v>0.1</v>
       </c>
@@ -46517,9 +46524,9 @@
       </c>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="86"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="83" t="s">
+      <c r="A40" s="90"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="84" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="33">
@@ -46569,9 +46576,9 @@
       </c>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="86"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="84"/>
+      <c r="A41" s="90"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="85"/>
       <c r="D41" s="26">
         <v>0.04</v>
       </c>
@@ -46619,16 +46626,16 @@
       </c>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="86"/>
+      <c r="A42" s="90"/>
       <c r="B42" s="42"/>
       <c r="R42" s="49"/>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="86"/>
-      <c r="B43" s="90" t="s">
+      <c r="A43" s="90"/>
+      <c r="B43" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="82" t="s">
+      <c r="C43" s="92" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="32">
@@ -46678,9 +46685,9 @@
       </c>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="86"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="83"/>
+      <c r="A44" s="90"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="84"/>
       <c r="D44" s="33">
         <v>0.36</v>
       </c>
@@ -46728,9 +46735,9 @@
       </c>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="86"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="83" t="s">
+      <c r="A45" s="90"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="84" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="33">
@@ -46780,9 +46787,9 @@
       </c>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="86"/>
-      <c r="B46" s="91"/>
-      <c r="C46" s="83"/>
+      <c r="A46" s="90"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="84"/>
       <c r="D46" s="33">
         <v>0.26</v>
       </c>
@@ -46830,9 +46837,9 @@
       </c>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="86"/>
-      <c r="B47" s="91"/>
-      <c r="C47" s="83" t="s">
+      <c r="A47" s="90"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="84" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="33">
@@ -46882,9 +46889,9 @@
       </c>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="86"/>
-      <c r="B48" s="91"/>
-      <c r="C48" s="83"/>
+      <c r="A48" s="90"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="84"/>
       <c r="D48" s="31">
         <v>8.0000000000000099E-2</v>
       </c>
@@ -46932,9 +46939,9 @@
       </c>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="86"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="83" t="s">
+      <c r="A49" s="90"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="84" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="33">
@@ -46984,9 +46991,9 @@
       </c>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="86"/>
-      <c r="B50" s="91"/>
-      <c r="C50" s="83"/>
+      <c r="A50" s="90"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="84"/>
       <c r="D50" s="33">
         <v>0.1</v>
       </c>
@@ -47034,9 +47041,9 @@
       </c>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="86"/>
-      <c r="B51" s="91"/>
-      <c r="C51" s="83" t="s">
+      <c r="A51" s="90"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="84" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="33">
@@ -47086,9 +47093,9 @@
       </c>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="87"/>
-      <c r="B52" s="92"/>
-      <c r="C52" s="84"/>
+      <c r="A52" s="91"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="85"/>
       <c r="D52" s="26">
         <v>0.04</v>
       </c>
@@ -47242,7 +47249,7 @@
     </row>
     <row r="64" spans="1:18">
       <c r="O64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="3:17">
@@ -47690,7 +47697,7 @@
     </row>
     <row r="78" spans="3:17">
       <c r="C78" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="3:17">
@@ -48714,7 +48721,7 @@
     </row>
     <row r="108" spans="3:17">
       <c r="C108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D108" s="4">
         <v>1.4</v>
@@ -49157,7 +49164,7 @@
     </row>
     <row r="120" spans="3:17">
       <c r="C120" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D120" s="4">
         <v>-0.80000000000000104</v>
@@ -49996,6 +50003,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="B21:B30"/>
@@ -50012,15 +50028,6 @@
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50074,10 +50081,10 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75">
-      <c r="B3" s="93">
+      <c r="B3" s="95">
         <v>1</v>
       </c>
-      <c r="C3" s="93">
+      <c r="C3" s="95">
         <v>400</v>
       </c>
       <c r="D3" s="65">
@@ -50109,8 +50116,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75">
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="65">
         <v>0.39097222222222222</v>
       </c>
@@ -50128,10 +50135,10 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75">
-      <c r="B5" s="93">
+      <c r="B5" s="95">
         <v>2</v>
       </c>
-      <c r="C5" s="93">
+      <c r="C5" s="95">
         <v>400</v>
       </c>
       <c r="D5" s="65">
@@ -50163,8 +50170,8 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75">
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
       <c r="D6" s="65">
         <v>0.40416666666666662</v>
       </c>
@@ -50182,10 +50189,10 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75">
-      <c r="B7" s="93">
+      <c r="B7" s="95">
         <v>3</v>
       </c>
-      <c r="C7" s="93">
+      <c r="C7" s="95">
         <v>800</v>
       </c>
       <c r="D7" s="65">
@@ -50217,8 +50224,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75">
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
       <c r="D8" s="65">
         <v>0.43055555555555558</v>
       </c>
@@ -50239,10 +50246,10 @@
       <c r="A9" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="93">
+      <c r="B9" s="95">
         <v>4</v>
       </c>
-      <c r="C9" s="93">
+      <c r="C9" s="95">
         <v>300</v>
       </c>
       <c r="D9" s="65">
@@ -50274,8 +50281,8 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75">
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
       <c r="D10" s="65">
         <v>0.44722222222222219</v>
       </c>
@@ -50293,10 +50300,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75">
-      <c r="B11" s="93">
+      <c r="B11" s="95">
         <v>5</v>
       </c>
-      <c r="C11" s="93">
+      <c r="C11" s="95">
         <v>300</v>
       </c>
       <c r="D11" s="65">
@@ -50328,8 +50335,8 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75">
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
       <c r="D12" s="65">
         <v>0.46180555555555558</v>
       </c>
@@ -50347,13 +50354,13 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="56">
@@ -57408,13 +57415,13 @@
       <c r="CE34" s="8"/>
     </row>
     <row r="39" spans="2:208">
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
     </row>
     <row r="40" spans="2:208">
       <c r="B40" s="56">
@@ -66227,13 +66234,13 @@
       </c>
     </row>
     <row r="61" spans="2:208">
-      <c r="B61" s="79" t="s">
+      <c r="B61" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="C61" s="79"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="79"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="82"/>
     </row>
     <row r="62" spans="2:208">
       <c r="B62" s="56">
@@ -78448,13 +78455,13 @@
       </c>
     </row>
     <row r="83" spans="2:349">
-      <c r="B83" s="79" t="s">
+      <c r="B83" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="C83" s="79"/>
-      <c r="D83" s="79"/>
-      <c r="E83" s="79"/>
-      <c r="F83" s="79"/>
+      <c r="C83" s="82"/>
+      <c r="D83" s="82"/>
+      <c r="E83" s="82"/>
+      <c r="F83" s="82"/>
     </row>
     <row r="84" spans="2:349">
       <c r="B84" s="56">
@@ -93189,13 +93196,13 @@
       </c>
     </row>
     <row r="104" spans="2:349">
-      <c r="B104" s="79" t="s">
+      <c r="B104" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="C104" s="79"/>
-      <c r="D104" s="79"/>
-      <c r="E104" s="79"/>
-      <c r="F104" s="79"/>
+      <c r="C104" s="82"/>
+      <c r="D104" s="82"/>
+      <c r="E104" s="82"/>
+      <c r="F104" s="82"/>
     </row>
     <row r="105" spans="2:349">
       <c r="B105" s="56">
@@ -96843,11 +96850,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B15:F15"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="B11:B12"/>
@@ -96858,6 +96860,11 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B15:F15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -96869,8 +96876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:CI96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="J34" workbookViewId="0">
+      <selection activeCell="J70" sqref="A70:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -96920,33 +96927,96 @@
       </c>
     </row>
     <row r="2" spans="4:60">
-      <c r="E2" s="95">
+      <c r="E2" s="79">
         <v>1</v>
       </c>
-      <c r="F2" s="96">
+      <c r="F2" s="80">
+        <v>1</v>
+      </c>
+      <c r="G2" s="80">
+        <v>0.8</v>
+      </c>
+      <c r="H2" s="80">
+        <v>1</v>
+      </c>
+      <c r="I2" s="80">
+        <v>1</v>
+      </c>
+      <c r="J2" s="80">
+        <v>1</v>
+      </c>
+      <c r="K2" s="80">
+        <v>1</v>
+      </c>
+      <c r="L2" s="80">
+        <v>0.6</v>
+      </c>
+      <c r="M2" s="80">
+        <v>1</v>
+      </c>
+      <c r="N2" s="80">
+        <v>0.8</v>
+      </c>
+      <c r="O2" s="80">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="4:60">
       <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" s="96">
+        <v>126</v>
+      </c>
+      <c r="E3" s="80">
         <v>0.76</v>
       </c>
-      <c r="F3" s="96">
+      <c r="F3" s="80">
         <v>0.92</v>
+      </c>
+      <c r="G3" s="80">
+        <v>0.78</v>
+      </c>
+      <c r="H3" s="80">
+        <v>0.8</v>
+      </c>
+      <c r="I3" s="80">
+        <v>0.78</v>
+      </c>
+      <c r="J3" s="80">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="K3" s="79">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="L3" s="79">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="M3" s="80">
+        <v>0.76</v>
+      </c>
+      <c r="N3" s="80">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="O3" s="80">
+        <v>0.79200000000000004</v>
       </c>
     </row>
     <row r="4" spans="4:60">
       <c r="D4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
+      </c>
+      <c r="G4" s="80">
+        <v>0.2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="80">
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="4:60">
@@ -104453,8 +104523,8 @@
       <c r="I70">
         <v>374</v>
       </c>
-      <c r="J70">
-        <v>0</v>
+      <c r="J70" t="s">
+        <v>129</v>
       </c>
       <c r="K70">
         <v>559</v>
